--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -2380,10 +2380,10 @@
     <t>hello</t>
   </si>
   <si>
-    <t>../TASBEFlowAnalytics-Tutorial/example_assay</t>
-  </si>
-  <si>
-    <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
+    <t>../../TASBEFlowAnalytics-Tutorial/example_assay</t>
+  </si>
+  <si>
+    <t>../../TASBEFlowAnalytics-Tutorial/example_controls</t>
   </si>
 </sst>
 </file>
@@ -3891,20 +3891,116 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3927,102 +4023,6 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4101,12 +4101,21 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4117,15 +4126,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5012,7 +5012,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5033,86 +5033,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="238" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="229"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="217" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="244"/>
+      <c r="B3" s="218"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="242"/>
+      <c r="B4" s="232"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="258"/>
+      <c r="B5" s="234"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="88"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="217" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="244"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="218"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="241" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="232"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="235"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -5123,62 +5123,62 @@
       <c r="F10" s="144"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="220" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="248"/>
+      <c r="B11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
       <c r="E11" s="89"/>
       <c r="F11" s="144"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="249" t="s">
+      <c r="A12" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="250"/>
-      <c r="C12" s="251" t="s">
+      <c r="B12" s="224"/>
+      <c r="C12" s="225" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="252"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="89"/>
       <c r="F12" s="144"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
+      <c r="A13" s="227"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="89"/>
       <c r="F13" s="144"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="248"/>
-      <c r="E15" s="246" t="s">
+      <c r="B15" s="222"/>
+      <c r="E15" s="220" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="248"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="222"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="231" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="242"/>
+      <c r="B16" s="232"/>
       <c r="D16" s="90"/>
-      <c r="E16" s="236" t="s">
+      <c r="E16" s="247" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="238"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="249"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="159" t="s">
@@ -5188,10 +5188,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="91"/>
-      <c r="E17" s="239" t="s">
+      <c r="E17" s="250" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="240"/>
+      <c r="F17" s="251"/>
       <c r="G17" s="84" t="s">
         <v>159</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="H18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" s="235" t="s">
         <v>474</v>
       </c>
       <c r="J18" s="82"/>
@@ -5244,7 +5244,7 @@
       <c r="H19" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="215"/>
+      <c r="I19" s="235"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="216"/>
+      <c r="I20" s="236"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5283,24 +5283,24 @@
       <c r="A23" s="163"/>
       <c r="B23" s="94"/>
       <c r="C23" s="93"/>
-      <c r="E23" s="217" t="s">
+      <c r="E23" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="219"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="215" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="219"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="223" t="s">
+      <c r="E24" s="255" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="224"/>
+      <c r="F24" s="256"/>
       <c r="G24" s="83" t="s">
         <v>159</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="H25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="220" t="s">
+      <c r="I25" s="252" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       <c r="H26" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="221"/>
+      <c r="I26" s="253"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="161" t="s">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="222"/>
+      <c r="I27" s="254"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="161" t="s">
@@ -5393,22 +5393,22 @@
       <c r="A30" s="162"/>
       <c r="B30" s="119"/>
       <c r="C30" s="91"/>
-      <c r="E30" s="217" t="s">
+      <c r="E30" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="219"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="216"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="163"/>
       <c r="B31" s="93"/>
       <c r="C31" s="93"/>
-      <c r="E31" s="225" t="s">
+      <c r="E31" s="257" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="226"/>
+      <c r="F31" s="258"/>
       <c r="G31" s="213" t="s">
         <v>159</v>
       </c>
@@ -5420,10 +5420,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="215" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="219"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="33"/>
       <c r="E32" s="85">
         <v>1</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="215"/>
+      <c r="I32" s="235"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="159" t="s">
@@ -5453,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="215"/>
+      <c r="I33" s="235"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="160" t="s">
@@ -5468,7 +5468,7 @@
       <c r="F34" s="95"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="215"/>
+      <c r="I34" s="235"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="161" t="s">
@@ -5481,7 +5481,7 @@
       <c r="F35" s="95"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="215"/>
+      <c r="I35" s="235"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="161" t="s">
@@ -5494,7 +5494,7 @@
       <c r="F36" s="95"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="215"/>
+      <c r="I36" s="235"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="161" t="s">
@@ -5507,7 +5507,7 @@
       <c r="F37" s="142"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="216"/>
+      <c r="I37" s="236"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="162" t="s">
@@ -5520,17 +5520,17 @@
       <c r="B39" s="123"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="217" t="s">
+      <c r="E40" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="219"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="237"/>
+      <c r="I40" s="216"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="223"/>
-      <c r="F41" s="224"/>
+      <c r="E41" s="255"/>
+      <c r="F41" s="256"/>
       <c r="G41" s="83" t="s">
         <v>159</v>
       </c>
@@ -5548,7 +5548,7 @@
       <c r="F42" s="95"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="215"/>
+      <c r="I42" s="235"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="85">
@@ -5557,7 +5557,7 @@
       <c r="F43" s="95"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="215"/>
+      <c r="I43" s="235"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="85">
@@ -5566,7 +5566,7 @@
       <c r="F44" s="95"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="215"/>
+      <c r="I44" s="235"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="85">
@@ -5575,7 +5575,7 @@
       <c r="F45" s="95"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="215"/>
+      <c r="I45" s="235"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="85">
@@ -5584,7 +5584,7 @@
       <c r="F46" s="95"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="215"/>
+      <c r="I46" s="235"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="86">
@@ -5593,11 +5593,25 @@
       <c r="F47" s="142"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="216"/>
+      <c r="I47" s="236"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5613,20 +5627,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7980,23 +7980,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="286" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
@@ -8004,26 +8004,26 @@
       <c r="A2" s="204" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="287" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
       <c r="P2" s="90"/>
       <c r="Q2" s="90"/>
     </row>
@@ -8031,21 +8031,21 @@
       <c r="A3" s="203" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="289" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
       <c r="M3" s="203" t="s">
         <v>304</v>
       </c>
@@ -8061,25 +8061,25 @@
       <c r="A4" s="206">
         <v>8</v>
       </c>
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285" t="s">
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
       <c r="M4" s="168" t="s">
         <v>154</v>
       </c>
@@ -8092,21 +8092,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="193"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
+      <c r="K5" s="285"/>
+      <c r="L5" s="285"/>
       <c r="M5" s="202"/>
       <c r="N5" s="202" t="s">
         <v>391</v>
@@ -8117,23 +8117,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="193"/>
-      <c r="B6" s="286" t="s">
+      <c r="B6" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="C6" s="285"/>
+      <c r="D6" s="285" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="285"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
       <c r="M6" s="202"/>
       <c r="N6" s="202" t="s">
         <v>392</v>
@@ -8144,57 +8144,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="193"/>
-      <c r="B7" s="286" t="s">
+      <c r="B7" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="C7" s="285"/>
+      <c r="D7" s="285" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
       <c r="M7" s="202"/>
       <c r="N7" s="202"/>
       <c r="O7" s="166"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="193"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="285"/>
       <c r="M8" s="202"/>
       <c r="N8" s="202"/>
       <c r="O8" s="166"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="133" t="s">
@@ -8794,12 +8794,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8816,15 +8819,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8916,68 +8916,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="286" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="291"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="287" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="287"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
       <c r="Q2" s="90"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
       <c r="M3" s="203" t="s">
         <v>303</v>
       </c>
@@ -8993,24 +8993,24 @@
       <c r="Q3" s="207"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="288" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
       <c r="M4" s="168" t="s">
         <v>254</v>
       </c>
@@ -9025,12 +9025,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
+      <c r="A5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
       <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
@@ -9051,12 +9051,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
+      <c r="A6" s="285"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -9069,12 +9069,12 @@
       <c r="P6" s="169"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
+      <c r="A7" s="285"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
       <c r="G7" s="294"/>
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
@@ -9087,12 +9087,12 @@
       <c r="P7" s="167"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
+      <c r="A8" s="285"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
       <c r="G8" s="294"/>
       <c r="H8" s="294"/>
       <c r="I8" s="294"/>
@@ -9106,17 +9106,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="133" t="s">
@@ -9449,6 +9449,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9465,16 +9475,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -2380,10 +2380,10 @@
     <t>hello</t>
   </si>
   <si>
-    <t>../../TASBEFlowAnalytics-Tutorial/example_assay</t>
-  </si>
-  <si>
-    <t>../../TASBEFlowAnalytics-Tutorial/example_controls</t>
+    <t>../TASBEFlowAnalytics-Tutorial/example_assay</t>
+  </si>
+  <si>
+    <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
   </si>
 </sst>
 </file>
@@ -3891,10 +3891,88 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3939,89 +4017,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4101,31 +4101,31 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5012,7 +5012,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5033,86 +5033,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="227" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="229"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="243" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="218"/>
+      <c r="B3" s="244"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="242"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="234"/>
+      <c r="B5" s="258"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="88"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="243" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="218"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="244"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="230" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="243"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="232"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
+      <c r="A9" s="233"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="235"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -5123,62 +5123,62 @@
       <c r="F10" s="144"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="246" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="89"/>
       <c r="F11" s="144"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="249" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="225" t="s">
+      <c r="B12" s="250"/>
+      <c r="C12" s="251" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="226"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="89"/>
       <c r="F12" s="144"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="227"/>
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
+      <c r="A13" s="253"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="256"/>
       <c r="E13" s="89"/>
       <c r="F13" s="144"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="246" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="E15" s="220" t="s">
+      <c r="B15" s="248"/>
+      <c r="E15" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="222"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="241" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="232"/>
+      <c r="B16" s="242"/>
       <c r="D16" s="90"/>
-      <c r="E16" s="247" t="s">
+      <c r="E16" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="238"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="159" t="s">
@@ -5188,10 +5188,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="91"/>
-      <c r="E17" s="250" t="s">
+      <c r="E17" s="239" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="251"/>
+      <c r="F17" s="240"/>
       <c r="G17" s="84" t="s">
         <v>159</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="H18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="235" t="s">
+      <c r="I18" s="215" t="s">
         <v>474</v>
       </c>
       <c r="J18" s="82"/>
@@ -5244,7 +5244,7 @@
       <c r="H19" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="235"/>
+      <c r="I19" s="215"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="236"/>
+      <c r="I20" s="216"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5283,24 +5283,24 @@
       <c r="A23" s="163"/>
       <c r="B23" s="94"/>
       <c r="C23" s="93"/>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="216"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="219"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="217" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="216"/>
+      <c r="B24" s="219"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="255" t="s">
+      <c r="E24" s="223" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="256"/>
+      <c r="F24" s="224"/>
       <c r="G24" s="83" t="s">
         <v>159</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="H25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="252" t="s">
+      <c r="I25" s="220" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       <c r="H26" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="253"/>
+      <c r="I26" s="221"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="161" t="s">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="254"/>
+      <c r="I27" s="222"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="161" t="s">
@@ -5393,22 +5393,22 @@
       <c r="A30" s="162"/>
       <c r="B30" s="119"/>
       <c r="C30" s="91"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="216"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="163"/>
       <c r="B31" s="93"/>
       <c r="C31" s="93"/>
-      <c r="E31" s="257" t="s">
+      <c r="E31" s="225" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="258"/>
+      <c r="F31" s="226"/>
       <c r="G31" s="213" t="s">
         <v>159</v>
       </c>
@@ -5420,10 +5420,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="217" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="216"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="33"/>
       <c r="E32" s="85">
         <v>1</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="235"/>
+      <c r="I32" s="215"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="159" t="s">
@@ -5453,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="235"/>
+      <c r="I33" s="215"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="160" t="s">
@@ -5468,7 +5468,7 @@
       <c r="F34" s="95"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="235"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="161" t="s">
@@ -5481,7 +5481,7 @@
       <c r="F35" s="95"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="235"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="161" t="s">
@@ -5494,7 +5494,7 @@
       <c r="F36" s="95"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="235"/>
+      <c r="I36" s="215"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="161" t="s">
@@ -5507,7 +5507,7 @@
       <c r="F37" s="142"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="236"/>
+      <c r="I37" s="216"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="162" t="s">
@@ -5520,17 +5520,17 @@
       <c r="B39" s="123"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="217" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="216"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="219"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="255"/>
-      <c r="F41" s="256"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="224"/>
       <c r="G41" s="83" t="s">
         <v>159</v>
       </c>
@@ -5548,7 +5548,7 @@
       <c r="F42" s="95"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="235"/>
+      <c r="I42" s="215"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="85">
@@ -5557,7 +5557,7 @@
       <c r="F43" s="95"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="235"/>
+      <c r="I43" s="215"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="85">
@@ -5566,7 +5566,7 @@
       <c r="F44" s="95"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="235"/>
+      <c r="I44" s="215"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="85">
@@ -5575,7 +5575,7 @@
       <c r="F45" s="95"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="235"/>
+      <c r="I45" s="215"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="85">
@@ -5584,7 +5584,7 @@
       <c r="F46" s="95"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="235"/>
+      <c r="I46" s="215"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="86">
@@ -5593,25 +5593,11 @@
       <c r="F47" s="142"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="236"/>
+      <c r="I47" s="216"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5627,6 +5613,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7980,23 +7980,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
@@ -8004,26 +8004,26 @@
       <c r="A2" s="204" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
       <c r="P2" s="90"/>
       <c r="Q2" s="90"/>
     </row>
@@ -8031,21 +8031,21 @@
       <c r="A3" s="203" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="289" t="s">
+      <c r="B3" s="293" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="203" t="s">
         <v>304</v>
       </c>
@@ -8061,25 +8061,25 @@
       <c r="A4" s="206">
         <v>8</v>
       </c>
-      <c r="B4" s="288" t="s">
+      <c r="B4" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288" t="s">
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="168" t="s">
         <v>154</v>
       </c>
@@ -8092,21 +8092,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="193"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285" t="s">
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285" t="s">
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
       <c r="M5" s="202"/>
       <c r="N5" s="202" t="s">
         <v>391</v>
@@ -8117,23 +8117,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="193"/>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285" t="s">
+      <c r="C6" s="286"/>
+      <c r="D6" s="286" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="285" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
-      <c r="J6" s="285"/>
-      <c r="K6" s="285"/>
-      <c r="L6" s="285"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
       <c r="M6" s="202"/>
       <c r="N6" s="202" t="s">
         <v>392</v>
@@ -8144,57 +8144,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="193"/>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="286" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
       <c r="M7" s="202"/>
       <c r="N7" s="202"/>
       <c r="O7" s="166"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="193"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285" t="s">
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
       <c r="M8" s="202"/>
       <c r="N8" s="202"/>
       <c r="O8" s="166"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="133" t="s">
@@ -8794,15 +8794,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8819,12 +8816,15 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8916,68 +8916,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
-      <c r="P1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="292" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="287"/>
       <c r="Q2" s="90"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="293" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="203" t="s">
         <v>303</v>
       </c>
@@ -8993,24 +8993,24 @@
       <c r="Q3" s="207"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="288" t="s">
+      <c r="A4" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="168" t="s">
         <v>254</v>
       </c>
@@ -9025,12 +9025,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
+      <c r="A5" s="286"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
       <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
@@ -9051,12 +9051,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="285"/>
-      <c r="B6" s="285"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -9069,12 +9069,12 @@
       <c r="P6" s="169"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="285"/>
-      <c r="B7" s="285"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
+      <c r="A7" s="286"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="294"/>
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
@@ -9087,12 +9087,12 @@
       <c r="P7" s="167"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="285"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
+      <c r="A8" s="286"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
       <c r="G8" s="294"/>
       <c r="H8" s="294"/>
       <c r="I8" s="294"/>
@@ -9106,17 +9106,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="133" t="s">
@@ -9449,16 +9449,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9475,6 +9465,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="7" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="14" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="480">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2384,6 +2384,18 @@
   </si>
   <si>
     <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
+  </si>
+  <si>
+    <t>flow.outputHistogramFile</t>
+  </si>
+  <si>
+    <t>if true, output histogram file for batch analysis</t>
+  </si>
+  <si>
+    <t>flow.outputStatisticsFile</t>
+  </si>
+  <si>
+    <t>if true, output statistics file for batch analysis</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +2724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3299,11 +3311,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3378,7 +3399,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3891,20 +3911,116 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3927,102 +4043,6 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4101,12 +4121,21 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4117,15 +4146,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4181,6 +4201,13 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5011,593 +5038,607 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="157" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="87" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="143" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="87" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="87" customWidth="1"/>
-    <col min="9" max="9" width="20" style="87" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="87" customWidth="1"/>
-    <col min="11" max="11" width="6" style="87" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="87" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="87"/>
+    <col min="1" max="1" width="20.875" style="156" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="86" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="142" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="86" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="86" customWidth="1"/>
+    <col min="9" max="9" width="20" style="86" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="86" customWidth="1"/>
+    <col min="11" max="11" width="6" style="86" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="86" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="237" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="229"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="239"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="88"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="216" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="244"/>
+      <c r="B3" s="217"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="230" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="242"/>
+      <c r="B4" s="231"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="232" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="258"/>
+      <c r="B5" s="233"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="88"/>
+      <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="216" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="244"/>
+      <c r="B7" s="218"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="217"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="240" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="232"/>
+      <c r="B8" s="241"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="242"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="235"/>
+      <c r="A9" s="243"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="245"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="158"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="144"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="219" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="248"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="144"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="249" t="s">
+      <c r="A12" s="222" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="250"/>
-      <c r="C12" s="251" t="s">
+      <c r="B12" s="223"/>
+      <c r="C12" s="224" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="252"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="144"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="144"/>
+      <c r="A13" s="226"/>
+      <c r="B13" s="227"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="219" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="248"/>
-      <c r="E15" s="246" t="s">
+      <c r="B15" s="221"/>
+      <c r="E15" s="219" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="248"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="221"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="230" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="242"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="236" t="s">
+      <c r="B16" s="231"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="246" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="238"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="248"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="E17" s="239" t="s">
+      <c r="C17" s="90"/>
+      <c r="E17" s="249" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="240"/>
-      <c r="G17" s="84" t="s">
+      <c r="F17" s="250"/>
+      <c r="G17" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="197" t="s">
+      <c r="I17" s="196" t="s">
         <v>363</v>
       </c>
-      <c r="J17" s="82"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="159" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="E18" s="85">
+      <c r="C18" s="90"/>
+      <c r="E18" s="84">
         <v>1</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="F18" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" s="234" t="s">
         <v>474</v>
       </c>
-      <c r="J18" s="82"/>
+      <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="160" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="91"/>
-      <c r="E19" s="85">
+      <c r="B19" s="117"/>
+      <c r="C19" s="90"/>
+      <c r="E19" s="84">
         <v>2</v>
       </c>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="215"/>
-      <c r="J19" s="82"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="160" t="s">
         <v>292</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="93"/>
-      <c r="E20" s="86">
+      <c r="B20" s="117"/>
+      <c r="C20" s="92"/>
+      <c r="E20" s="85">
         <v>3</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="141" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="82"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="33"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="32"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="162"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="91"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="90"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="163"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="93"/>
-      <c r="E23" s="217" t="s">
+      <c r="A23" s="162"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="92"/>
+      <c r="E23" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="219"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="214" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="219"/>
-      <c r="C24" s="33"/>
-      <c r="E24" s="223" t="s">
+      <c r="B24" s="215"/>
+      <c r="C24" s="32"/>
+      <c r="E24" s="254" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="224"/>
-      <c r="G24" s="83" t="s">
+      <c r="F24" s="255"/>
+      <c r="G24" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="197" t="s">
+      <c r="I24" s="196" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="159" t="s">
+      <c r="A25" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>288</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="E25" s="85">
+      <c r="C25" s="32"/>
+      <c r="E25" s="84">
         <v>1</v>
       </c>
-      <c r="F25" s="95" t="s">
+      <c r="F25" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="220" t="s">
+      <c r="I25" s="251" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="159" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="E26" s="85">
+      <c r="C26" s="90"/>
+      <c r="E26" s="84">
         <v>2</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F26" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="75" t="s">
+      <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="221"/>
+      <c r="I26" s="252"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="160" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="93"/>
-      <c r="E27" s="86">
+      <c r="B27" s="117"/>
+      <c r="C27" s="92"/>
+      <c r="E27" s="85">
         <v>3</v>
       </c>
-      <c r="F27" s="142" t="s">
+      <c r="F27" s="141" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="222"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="253"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="118"/>
-      <c r="C28" s="33"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="82"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="32"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="161"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="33"/>
-      <c r="I29" s="82"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="32"/>
+      <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="162"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="91"/>
-      <c r="E30" s="217" t="s">
+      <c r="A30" s="161"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="90"/>
+      <c r="E30" s="214" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="219"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="236"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="215"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="163"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="E31" s="225" t="s">
+      <c r="A31" s="162"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="E31" s="256" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="226"/>
-      <c r="G31" s="213" t="s">
+      <c r="F31" s="257"/>
+      <c r="G31" s="212" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="213" t="s">
+      <c r="H31" s="212" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="197" t="s">
+      <c r="I31" s="196" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="214" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="219"/>
-      <c r="C32" s="33"/>
-      <c r="E32" s="85">
+      <c r="B32" s="215"/>
+      <c r="C32" s="32"/>
+      <c r="E32" s="84">
         <v>1</v>
       </c>
-      <c r="F32" s="95" t="s">
+      <c r="F32" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="215"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="234"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="159" t="s">
+      <c r="A33" s="158" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="116" t="s">
         <v>295</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="E33" s="85">
+      <c r="C33" s="90"/>
+      <c r="E33" s="84">
         <v>2</v>
       </c>
-      <c r="F33" s="95" t="s">
+      <c r="F33" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="215"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="234"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="159" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E34" s="84">
         <v>3</v>
       </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="215"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="234"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="161" t="s">
+      <c r="A35" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="118"/>
-      <c r="E35" s="85">
+      <c r="B35" s="117"/>
+      <c r="E35" s="84">
         <v>4</v>
       </c>
-      <c r="F35" s="95"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="215"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="234"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="160" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="E36" s="85">
+      <c r="B36" s="117"/>
+      <c r="E36" s="84">
         <v>5</v>
       </c>
-      <c r="F36" s="95"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="215"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="234"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="161" t="s">
+      <c r="A37" s="160" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="E37" s="86">
+      <c r="B37" s="117"/>
+      <c r="E37" s="85">
         <v>6</v>
       </c>
-      <c r="F37" s="142"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="216"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="235"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="119"/>
+      <c r="B38" s="118"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="164"/>
-      <c r="B39" s="123"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="217" t="s">
+      <c r="E40" s="214" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="219"/>
+      <c r="F40" s="236"/>
+      <c r="G40" s="236"/>
+      <c r="H40" s="236"/>
+      <c r="I40" s="215"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="223"/>
-      <c r="F41" s="224"/>
-      <c r="G41" s="83" t="s">
+      <c r="E41" s="254"/>
+      <c r="F41" s="255"/>
+      <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="197" t="s">
+      <c r="I41" s="196" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="85">
+      <c r="E42" s="84">
         <v>1</v>
       </c>
-      <c r="F42" s="95"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="215"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="234"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="85">
+      <c r="E43" s="84">
         <v>2</v>
       </c>
-      <c r="F43" s="95"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="215"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="234"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="85">
+      <c r="E44" s="84">
         <v>3</v>
       </c>
-      <c r="F44" s="95"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="215"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="234"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="85">
+      <c r="E45" s="84">
         <v>4</v>
       </c>
-      <c r="F45" s="95"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="215"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="234"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="85">
+      <c r="E46" s="84">
         <v>5</v>
       </c>
-      <c r="F46" s="95"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="215"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="234"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="86">
+      <c r="E47" s="85">
         <v>6</v>
       </c>
-      <c r="F47" s="142"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="216"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="235"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5613,20 +5654,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5666,924 +5693,924 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="260" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="263"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="262"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="263" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="179" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="182" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="266" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="183" t="s">
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="182" t="s">
         <v>323</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="182" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="184" t="s">
+      <c r="J3" s="183" t="s">
         <v>325</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="140" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="140" t="s">
         <v>288</v>
       </c>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="140" t="s">
         <v>305</v>
       </c>
-      <c r="H4" s="141" t="s">
+      <c r="H4" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="141" t="s">
+      <c r="I4" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="201" t="s">
+      <c r="J4" s="200" t="s">
         <v>415</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110">
+      <c r="A5" s="109">
         <v>1</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="110">
         <v>0.1</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="110">
         <v>0.1</v>
       </c>
-      <c r="H5" s="112">
+      <c r="H5" s="111">
         <v>1</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="214"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="213"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110">
+      <c r="A6" s="109">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="110">
         <v>0.2</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="111" t="s">
+      <c r="F6" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="110">
         <v>0.2</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="111">
         <v>1</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="214"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="213"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110">
+      <c r="A7" s="109">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="110">
         <v>0.5</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112">
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111">
         <v>1</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="213"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110">
+      <c r="A8" s="109">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="110">
         <v>1</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="110">
         <v>0.1</v>
       </c>
-      <c r="H8" s="112">
+      <c r="H8" s="111">
         <v>1</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="214"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="213"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110">
+      <c r="A9" s="109">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="110">
         <v>2</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="110">
         <v>0.2</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="111">
         <v>1</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="214"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="213"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110">
+      <c r="A10" s="109">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="110">
         <v>5</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112">
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111">
         <v>1</v>
       </c>
-      <c r="I10" s="113" t="s">
+      <c r="I10" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="214"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="213"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110">
+      <c r="A11" s="109">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="110">
         <v>10</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112">
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="111">
         <v>1</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="114"/>
-      <c r="K11" s="214"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="213"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110">
+      <c r="A12" s="109">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="110">
         <v>20</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112">
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111">
         <v>1</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="114"/>
-      <c r="K12" s="214"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="213"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110">
+      <c r="A13" s="109">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="110">
         <v>50</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112">
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111">
         <v>1</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="114"/>
-      <c r="K13" s="214"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="213"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110">
+      <c r="A14" s="109">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="110">
         <v>100</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111" t="s">
+      <c r="E14" s="110"/>
+      <c r="F14" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="110">
         <v>100</v>
       </c>
-      <c r="H14" s="112">
+      <c r="H14" s="111">
         <v>1</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="114"/>
-      <c r="K14" s="214"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="213"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110">
+      <c r="A15" s="109">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="110">
         <v>200</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="110">
         <v>200</v>
       </c>
-      <c r="H15" s="112">
+      <c r="H15" s="111">
         <v>1</v>
       </c>
-      <c r="I15" s="113" t="s">
+      <c r="I15" s="112" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="214"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="213"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110">
+      <c r="A16" s="109">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="110">
         <v>500</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112">
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111">
         <v>1</v>
       </c>
-      <c r="I16" s="113" t="s">
+      <c r="I16" s="112" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="114"/>
-      <c r="K16" s="214"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="213"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110">
+      <c r="A17" s="109">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="110">
         <v>1000</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="110">
         <v>100</v>
       </c>
-      <c r="H17" s="112">
+      <c r="H17" s="111">
         <v>1</v>
       </c>
-      <c r="I17" s="113" t="s">
+      <c r="I17" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="114"/>
-      <c r="K17" s="214"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="213"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110">
+      <c r="A18" s="109">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="110">
         <v>2000</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="110" t="s">
         <v>292</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="110">
         <v>200</v>
       </c>
-      <c r="H18" s="112">
+      <c r="H18" s="111">
         <v>1</v>
       </c>
-      <c r="I18" s="113" t="s">
+      <c r="I18" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="114"/>
-      <c r="K18" s="214"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="213"/>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110">
+      <c r="A19" s="109">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112">
+      <c r="C19" s="77"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111">
         <v>2</v>
       </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114" t="s">
+      <c r="I19" s="112"/>
+      <c r="J19" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="214"/>
+      <c r="K19" s="213"/>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110">
+      <c r="A20" s="109">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112">
+      <c r="C20" s="77"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111">
         <v>2</v>
       </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114" t="s">
+      <c r="I20" s="112"/>
+      <c r="J20" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="214"/>
+      <c r="K20" s="213"/>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110">
+      <c r="A21" s="109">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112">
+      <c r="C21" s="77"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111">
         <v>2</v>
       </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114" t="s">
+      <c r="I21" s="112"/>
+      <c r="J21" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="214"/>
+      <c r="K21" s="213"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110">
+      <c r="A22" s="109">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112">
+      <c r="C22" s="77"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="111">
         <v>2</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114" t="s">
+      <c r="I22" s="112"/>
+      <c r="J22" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="214"/>
+      <c r="K22" s="213"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110">
+      <c r="A23" s="109">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112">
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111">
         <v>2</v>
       </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114" t="s">
+      <c r="I23" s="112"/>
+      <c r="J23" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="214"/>
+      <c r="K23" s="213"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110">
+      <c r="A24" s="109">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112">
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111">
         <v>2</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114" t="s">
+      <c r="I24" s="112"/>
+      <c r="J24" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="214"/>
+      <c r="K24" s="213"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="174">
+      <c r="A25" s="173">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="175" t="s">
+      <c r="B25" s="174" t="s">
         <v>311</v>
       </c>
-      <c r="C25" s="176"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="177">
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="176">
         <v>2</v>
       </c>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179" t="s">
+      <c r="I25" s="177"/>
+      <c r="J25" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="214"/>
+      <c r="K25" s="213"/>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="279" t="s">
+      <c r="A27" s="278" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="280"/>
-      <c r="C27" s="280"/>
-      <c r="D27" s="280"/>
-      <c r="E27" s="280"/>
-      <c r="F27" s="280"/>
-      <c r="G27" s="280"/>
-      <c r="H27" s="280"/>
-      <c r="I27" s="280"/>
-      <c r="J27" s="280"/>
-      <c r="K27" s="280"/>
-      <c r="L27" s="280"/>
-      <c r="M27" s="280"/>
-      <c r="N27" s="280"/>
-      <c r="O27" s="280"/>
-      <c r="P27" s="280"/>
-      <c r="Q27" s="281"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="279"/>
+      <c r="L27" s="279"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="279"/>
+      <c r="O27" s="279"/>
+      <c r="P27" s="279"/>
+      <c r="Q27" s="280"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="138" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="198" t="s">
+      <c r="B28" s="197" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="196" t="s">
+      <c r="C28" s="195" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="196" t="s">
+      <c r="D28" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="E28" s="196" t="s">
+      <c r="E28" s="195" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="196" t="s">
+      <c r="F28" s="195" t="s">
         <v>388</v>
       </c>
-      <c r="G28" s="196" t="s">
+      <c r="G28" s="195" t="s">
         <v>442</v>
       </c>
-      <c r="H28" s="200" t="s">
+      <c r="H28" s="199" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="200" t="s">
+      <c r="I28" s="199" t="s">
         <v>442</v>
       </c>
-      <c r="J28" s="200" t="s">
+      <c r="J28" s="199" t="s">
         <v>454</v>
       </c>
-      <c r="K28" s="200" t="s">
+      <c r="K28" s="199" t="s">
         <v>442</v>
       </c>
-      <c r="L28" s="125" t="s">
+      <c r="L28" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="M28" s="125" t="s">
+      <c r="M28" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="N28" s="125" t="s">
+      <c r="N28" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="O28" s="196" t="s">
+      <c r="O28" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="P28" s="196" t="s">
+      <c r="P28" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="Q28" s="199" t="s">
+      <c r="Q28" s="198" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
-      <c r="B29" s="98" t="s">
+      <c r="A29" s="146"/>
+      <c r="B29" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="F29" s="98" t="s">
+      <c r="F29" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="98" t="s">
+      <c r="G29" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="H29" s="97" t="s">
         <v>443</v>
       </c>
-      <c r="I29" s="98" t="s">
+      <c r="I29" s="97" t="s">
         <v>446</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="97" t="s">
         <v>448</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="97" t="s">
         <v>449</v>
       </c>
-      <c r="L29" s="98" t="s">
+      <c r="L29" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="98" t="s">
+      <c r="M29" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="98" t="s">
+      <c r="N29" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="98" t="s">
+      <c r="O29" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="P29" s="98" t="s">
+      <c r="P29" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="Q29" s="120" t="s">
+      <c r="Q29" s="119" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
-      <c r="B30" s="210" t="s">
+      <c r="A30" s="147"/>
+      <c r="B30" s="209" t="s">
         <v>445</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="155" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="154" t="s">
         <v>473</v>
       </c>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155" t="s">
+      <c r="F30" s="154"/>
+      <c r="G30" s="154" t="s">
         <v>444</v>
       </c>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155" t="s">
+      <c r="H30" s="154"/>
+      <c r="I30" s="154" t="s">
         <v>447</v>
       </c>
-      <c r="J30" s="155">
+      <c r="J30" s="154">
         <v>3</v>
       </c>
-      <c r="K30" s="155" t="s">
+      <c r="K30" s="154" t="s">
         <v>450</v>
       </c>
-      <c r="L30" s="155">
+      <c r="L30" s="154">
         <v>100</v>
       </c>
-      <c r="M30" s="155">
+      <c r="M30" s="154">
         <v>0</v>
       </c>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155">
+      <c r="N30" s="154"/>
+      <c r="O30" s="154">
         <v>4</v>
       </c>
-      <c r="P30" s="155">
+      <c r="P30" s="154">
         <v>10</v>
       </c>
-      <c r="Q30" s="156">
+      <c r="Q30" s="155">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="276" t="s">
+      <c r="A32" s="275" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="277"/>
-      <c r="C32" s="277"/>
-      <c r="D32" s="277"/>
-      <c r="E32" s="277"/>
-      <c r="F32" s="277"/>
-      <c r="G32" s="277"/>
-      <c r="H32" s="278"/>
+      <c r="B32" s="276"/>
+      <c r="C32" s="276"/>
+      <c r="D32" s="276"/>
+      <c r="E32" s="276"/>
+      <c r="F32" s="276"/>
+      <c r="G32" s="276"/>
+      <c r="H32" s="277"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="270" t="s">
+      <c r="A33" s="269" t="s">
         <v>368</v>
       </c>
-      <c r="B33" s="271"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="271"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="272"/>
+      <c r="B33" s="270"/>
+      <c r="C33" s="270"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="271"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="270"/>
-      <c r="B34" s="271"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="271"/>
-      <c r="G34" s="271"/>
-      <c r="H34" s="272"/>
+      <c r="A34" s="269"/>
+      <c r="B34" s="270"/>
+      <c r="C34" s="270"/>
+      <c r="D34" s="270"/>
+      <c r="E34" s="270"/>
+      <c r="F34" s="270"/>
+      <c r="G34" s="270"/>
+      <c r="H34" s="271"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="270"/>
-      <c r="B35" s="271"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="271"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="271"/>
-      <c r="H35" s="272"/>
+      <c r="A35" s="269"/>
+      <c r="B35" s="270"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="270"/>
+      <c r="F35" s="270"/>
+      <c r="G35" s="270"/>
+      <c r="H35" s="271"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="273"/>
-      <c r="B36" s="274"/>
-      <c r="C36" s="274"/>
-      <c r="D36" s="274"/>
-      <c r="E36" s="274"/>
-      <c r="F36" s="274"/>
-      <c r="G36" s="274"/>
-      <c r="H36" s="275"/>
+      <c r="A36" s="272"/>
+      <c r="B36" s="273"/>
+      <c r="C36" s="273"/>
+      <c r="D36" s="273"/>
+      <c r="E36" s="273"/>
+      <c r="F36" s="273"/>
+      <c r="G36" s="273"/>
+      <c r="H36" s="274"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="259" t="s">
         <v>312</v>
       </c>
-      <c r="B38" s="260"/>
-      <c r="C38" s="260"/>
-      <c r="D38" s="260"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="260"/>
+      <c r="B38" s="259"/>
+      <c r="C38" s="259"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="259"/>
+      <c r="F38" s="259"/>
+      <c r="G38" s="259"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="259" t="s">
+      <c r="D39" s="258" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="259"/>
-      <c r="F39" s="259"/>
-      <c r="G39" s="259"/>
+      <c r="E39" s="258"/>
+      <c r="F39" s="258"/>
+      <c r="G39" s="258"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6595,7 +6622,7 @@
       <c r="C40" t="s">
         <v>452</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="181" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6609,7 +6636,7 @@
       <c r="C41" t="s">
         <v>452</v>
       </c>
-      <c r="D41" s="195" t="s">
+      <c r="D41" s="194" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6623,7 +6650,7 @@
       <c r="C42" t="s">
         <v>452</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="181" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6637,7 +6664,7 @@
       <c r="C43" t="s">
         <v>452</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="181" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6651,7 +6678,7 @@
       <c r="C44" t="s">
         <v>452</v>
       </c>
-      <c r="D44" s="185" t="s">
+      <c r="D44" s="184" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6665,7 +6692,7 @@
       <c r="C45" t="s">
         <v>452</v>
       </c>
-      <c r="D45" s="195" t="s">
+      <c r="D45" s="194" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6679,7 +6706,7 @@
       <c r="C46" t="s">
         <v>452</v>
       </c>
-      <c r="D46" s="195" t="s">
+      <c r="D46" s="194" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6693,7 +6720,7 @@
       <c r="C47" t="s">
         <v>452</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6707,7 +6734,7 @@
       <c r="C48" t="s">
         <v>452</v>
       </c>
-      <c r="D48" s="195" t="s">
+      <c r="D48" s="194" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6721,7 +6748,7 @@
       <c r="C49" t="s">
         <v>452</v>
       </c>
-      <c r="D49" s="195" t="s">
+      <c r="D49" s="194" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6735,7 +6762,7 @@
       <c r="C50" t="s">
         <v>452</v>
       </c>
-      <c r="D50" s="195" t="s">
+      <c r="D50" s="194" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6749,7 +6776,7 @@
       <c r="C51" t="s">
         <v>452</v>
       </c>
-      <c r="D51" s="195" t="s">
+      <c r="D51" s="194" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6763,7 +6790,7 @@
       <c r="C52" t="s">
         <v>452</v>
       </c>
-      <c r="D52" s="182" t="s">
+      <c r="D52" s="181" t="s">
         <v>453</v>
       </c>
     </row>
@@ -6777,7 +6804,7 @@
       <c r="C53" t="s">
         <v>452</v>
       </c>
-      <c r="D53" s="195" t="s">
+      <c r="D53" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6791,7 +6818,7 @@
       <c r="C54" t="s">
         <v>452</v>
       </c>
-      <c r="D54" s="195" t="s">
+      <c r="D54" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6805,7 +6832,7 @@
       <c r="C55" t="s">
         <v>452</v>
       </c>
-      <c r="D55" s="195" t="s">
+      <c r="D55" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6819,7 +6846,7 @@
       <c r="C56" t="s">
         <v>452</v>
       </c>
-      <c r="D56" s="195" t="s">
+      <c r="D56" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6833,7 +6860,7 @@
       <c r="C57" t="s">
         <v>452</v>
       </c>
-      <c r="D57" s="195" t="s">
+      <c r="D57" s="194" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6847,7 +6874,7 @@
       <c r="C58" t="s">
         <v>452</v>
       </c>
-      <c r="D58" s="182" t="s">
+      <c r="D58" s="181" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6861,7 +6888,7 @@
       <c r="C59" t="s">
         <v>452</v>
       </c>
-      <c r="D59" s="182" t="s">
+      <c r="D59" s="181" t="s">
         <v>429</v>
       </c>
     </row>
@@ -6875,7 +6902,7 @@
       <c r="C60" t="s">
         <v>452</v>
       </c>
-      <c r="D60" s="182" t="s">
+      <c r="D60" s="181" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6889,7 +6916,7 @@
       <c r="C61" t="s">
         <v>452</v>
       </c>
-      <c r="D61" s="182" t="s">
+      <c r="D61" s="181" t="s">
         <v>431</v>
       </c>
     </row>
@@ -6903,7 +6930,7 @@
       <c r="C62" t="s">
         <v>452</v>
       </c>
-      <c r="D62" s="182" t="s">
+      <c r="D62" s="181" t="s">
         <v>432</v>
       </c>
     </row>
@@ -6917,7 +6944,7 @@
       <c r="C63" t="s">
         <v>452</v>
       </c>
-      <c r="D63" s="182" t="s">
+      <c r="D63" s="181" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6931,7 +6958,7 @@
       <c r="C64" t="s">
         <v>452</v>
       </c>
-      <c r="D64" s="182" t="s">
+      <c r="D64" s="181" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6945,7 +6972,7 @@
       <c r="C65" t="s">
         <v>452</v>
       </c>
-      <c r="D65" s="182" t="s">
+      <c r="D65" s="181" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6959,7 +6986,7 @@
       <c r="C66" t="s">
         <v>452</v>
       </c>
-      <c r="D66" s="182" t="s">
+      <c r="D66" s="181" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6973,7 +7000,7 @@
       <c r="C67" t="s">
         <v>452</v>
       </c>
-      <c r="D67" s="182" t="s">
+      <c r="D67" s="181" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6987,7 +7014,7 @@
       <c r="C68" t="s">
         <v>452</v>
       </c>
-      <c r="D68" s="182" t="s">
+      <c r="D68" s="181" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7001,7 +7028,7 @@
       <c r="C69" t="s">
         <v>452</v>
       </c>
-      <c r="D69" s="182" t="s">
+      <c r="D69" s="181" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7015,7 +7042,7 @@
       <c r="C70" t="s">
         <v>452</v>
       </c>
-      <c r="D70" s="182" t="s">
+      <c r="D70" s="181" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7029,7 +7056,7 @@
       <c r="C71" t="s">
         <v>452</v>
       </c>
-      <c r="D71" s="182" t="s">
+      <c r="D71" s="181" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7127,92 +7154,92 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="281" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="284"/>
-    </row>
-    <row r="2" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="279" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="283"/>
+    </row>
+    <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="281"/>
-    </row>
-    <row r="3" spans="1:10" s="115" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="280"/>
+    </row>
+    <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="127" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="G3" s="133" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="172" t="s">
+      <c r="H3" s="171" t="s">
         <v>308</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="132"/>
-    </row>
-    <row r="4" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="173" t="s">
+      <c r="H4" s="172" t="s">
         <v>309</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
-    </row>
-    <row r="5" spans="1:10" s="115" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="I4" s="102"/>
+      <c r="J4" s="103"/>
+    </row>
+    <row r="5" spans="1:10" s="114" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7224,145 +7251,145 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="212" t="s">
+      <c r="G5" s="211" t="s">
         <v>310</v>
       </c>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-    </row>
-    <row r="6" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="279" t="s">
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+    </row>
+    <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="280"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="281"/>
-    </row>
-    <row r="7" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="B6" s="279"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="280"/>
+    </row>
+    <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="125" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="133" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="131"/>
+    </row>
+    <row r="8" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
-    </row>
-    <row r="9" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+    </row>
+    <row r="9" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="279" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="278" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="280"/>
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="281"/>
-    </row>
-    <row r="11" spans="1:10" s="115" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="130" t="s">
+      <c r="B10" s="279"/>
+      <c r="C10" s="279"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="279"/>
+      <c r="H10" s="279"/>
+      <c r="I10" s="279"/>
+      <c r="J10" s="280"/>
+    </row>
+    <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="128"/>
+      <c r="B11" s="129" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="180" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="129" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="134" t="s">
         <v>330</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="133" t="s">
         <v>329</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>331</v>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="132"/>
-    </row>
-    <row r="12" spans="1:10" s="115" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="I11" s="129"/>
+      <c r="J11" s="131"/>
+    </row>
+    <row r="12" spans="1:10" s="114" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="135" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="101" t="s">
+      <c r="H12" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
-    </row>
-    <row r="13" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
+    </row>
+    <row r="13" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7389,8 +7416,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+    <row r="14" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="107">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7417,8 +7444,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+    <row r="15" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="107">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -7445,8 +7472,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+    <row r="16" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="107">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7459,8 +7486,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+    <row r="17" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
@@ -7473,8 +7500,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+    <row r="18" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="107">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -7487,8 +7514,8 @@
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+    <row r="19" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="107">
         <v>7</v>
       </c>
       <c r="B19" s="4"/>
@@ -7501,8 +7528,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="115" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109">
+    <row r="20" spans="1:10" s="114" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="108">
         <v>8</v>
       </c>
       <c r="B20" s="8"/>
@@ -7515,62 +7542,62 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" s="115" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="279" t="s">
+    <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="280"/>
-      <c r="C21" s="280"/>
-      <c r="D21" s="280"/>
-      <c r="E21" s="280"/>
-      <c r="F21" s="280"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="280"/>
-      <c r="I21" s="280"/>
-      <c r="J21" s="281"/>
-    </row>
-    <row r="22" spans="1:10" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="B21" s="279"/>
+      <c r="C21" s="279"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="279"/>
+      <c r="J21" s="280"/>
+    </row>
+    <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="132" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="133" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="132"/>
-    </row>
-    <row r="23" spans="1:10" s="115" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97" t="s">
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="131"/>
+    </row>
+    <row r="23" spans="1:10" s="114" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
-    </row>
-    <row r="24" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+      <c r="E23" s="115"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+    </row>
+    <row r="24" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -7579,7 +7606,7 @@
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="155" t="s">
+      <c r="D24" s="154" t="s">
         <v>220</v>
       </c>
       <c r="E24" s="8"/>
@@ -7589,70 +7616,70 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="279" t="s">
+    <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="278" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="280"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="281"/>
-    </row>
-    <row r="26" spans="1:10" s="115" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="133" t="s">
+      <c r="B25" s="279"/>
+      <c r="C25" s="279"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="280"/>
+    </row>
+    <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="200" t="s">
+      <c r="B26" s="199" t="s">
         <v>373</v>
       </c>
-      <c r="C26" s="134" t="s">
+      <c r="C26" s="133" t="s">
         <v>335</v>
       </c>
-      <c r="D26" s="134" t="s">
+      <c r="D26" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="196" t="s">
+      <c r="E26" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="153"/>
-    </row>
-    <row r="27" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="149" t="s">
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="152"/>
+    </row>
+    <row r="27" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="149"/>
+      <c r="B27" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="154"/>
-    </row>
-    <row r="28" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
-      <c r="B28" s="211" t="s">
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="153"/>
+    </row>
+    <row r="28" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="147"/>
+      <c r="B28" s="210" t="s">
         <v>466</v>
       </c>
-      <c r="C28" s="192"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="155" t="s">
+      <c r="C28" s="191"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="154" t="s">
         <v>467</v>
       </c>
       <c r="F28" s="8"/>
@@ -7661,89 +7688,89 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="276" t="s">
+    <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="275" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="277"/>
-      <c r="C30" s="277"/>
-      <c r="D30" s="277"/>
-      <c r="E30" s="277"/>
-      <c r="F30" s="277"/>
-      <c r="G30" s="277"/>
-      <c r="H30" s="278"/>
-    </row>
-    <row r="31" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="270" t="s">
+      <c r="B30" s="276"/>
+      <c r="C30" s="276"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="276"/>
+      <c r="F30" s="276"/>
+      <c r="G30" s="276"/>
+      <c r="H30" s="277"/>
+    </row>
+    <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="269" t="s">
         <v>367</v>
       </c>
-      <c r="B31" s="271"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
-      <c r="G31" s="271"/>
-      <c r="H31" s="272"/>
-    </row>
-    <row r="32" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="270"/>
-      <c r="B32" s="271"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="271"/>
-      <c r="G32" s="271"/>
-      <c r="H32" s="272"/>
-    </row>
-    <row r="33" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="270"/>
-      <c r="B33" s="271"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="271"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="272"/>
-    </row>
-    <row r="34" spans="1:8" s="115" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="273"/>
-      <c r="B34" s="274"/>
-      <c r="C34" s="274"/>
-      <c r="D34" s="274"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="274"/>
-      <c r="G34" s="274"/>
-      <c r="H34" s="275"/>
-    </row>
-    <row r="35" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="115" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="260" t="s">
+      <c r="B31" s="270"/>
+      <c r="C31" s="270"/>
+      <c r="D31" s="270"/>
+      <c r="E31" s="270"/>
+      <c r="F31" s="270"/>
+      <c r="G31" s="270"/>
+      <c r="H31" s="271"/>
+    </row>
+    <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="269"/>
+      <c r="B32" s="270"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="270"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="271"/>
+    </row>
+    <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="269"/>
+      <c r="B33" s="270"/>
+      <c r="C33" s="270"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="271"/>
+    </row>
+    <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="272"/>
+      <c r="B34" s="273"/>
+      <c r="C34" s="273"/>
+      <c r="D34" s="273"/>
+      <c r="E34" s="273"/>
+      <c r="F34" s="273"/>
+      <c r="G34" s="273"/>
+      <c r="H34" s="274"/>
+    </row>
+    <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="259" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="260"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="260"/>
-      <c r="E36" s="260"/>
-      <c r="F36" s="260"/>
-      <c r="G36" s="260"/>
-    </row>
-    <row r="37" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
+      <c r="B36" s="259"/>
+      <c r="C36" s="259"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="259"/>
+      <c r="G36" s="259"/>
+    </row>
+    <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="259" t="s">
+      <c r="D37" s="258" t="s">
         <v>315</v>
       </c>
-      <c r="E37" s="259"/>
-      <c r="F37" s="259"/>
-      <c r="G37" s="259"/>
+      <c r="E37" s="258"/>
+      <c r="F37" s="258"/>
+      <c r="G37" s="258"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7755,7 +7782,7 @@
       <c r="C38" t="s">
         <v>469</v>
       </c>
-      <c r="D38" s="182" t="s">
+      <c r="D38" s="181" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7769,7 +7796,7 @@
       <c r="C39" t="s">
         <v>469</v>
       </c>
-      <c r="D39" s="195" t="s">
+      <c r="D39" s="194" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7783,7 +7810,7 @@
       <c r="C40" t="s">
         <v>469</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="181" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7797,7 +7824,7 @@
       <c r="C41" t="s">
         <v>469</v>
       </c>
-      <c r="D41" s="182" t="s">
+      <c r="D41" s="181" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7811,7 +7838,7 @@
       <c r="C42" t="s">
         <v>469</v>
       </c>
-      <c r="D42" s="185" t="s">
+      <c r="D42" s="184" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7825,7 +7852,7 @@
       <c r="C43" t="s">
         <v>469</v>
       </c>
-      <c r="D43" s="195" t="s">
+      <c r="D43" s="194" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7839,7 +7866,7 @@
       <c r="C44" t="s">
         <v>469</v>
       </c>
-      <c r="D44" s="195" t="s">
+      <c r="D44" s="194" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7853,7 +7880,7 @@
       <c r="C45" t="s">
         <v>469</v>
       </c>
-      <c r="D45" s="195" t="s">
+      <c r="D45" s="194" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7867,7 +7894,7 @@
       <c r="C46" t="s">
         <v>469</v>
       </c>
-      <c r="D46" s="195" t="s">
+      <c r="D46" s="194" t="s">
         <v>381</v>
       </c>
     </row>
@@ -7881,7 +7908,7 @@
       <c r="C47" t="s">
         <v>469</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7895,7 +7922,7 @@
       <c r="C48" t="s">
         <v>469</v>
       </c>
-      <c r="D48" s="185" t="s">
+      <c r="D48" s="184" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7980,383 +8007,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="285" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="286" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="289" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="288" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
-      <c r="M3" s="203" t="s">
+      <c r="H3" s="288"/>
+      <c r="I3" s="288"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="288"/>
+      <c r="L3" s="288"/>
+      <c r="M3" s="202" t="s">
         <v>304</v>
       </c>
-      <c r="N3" s="203" t="s">
+      <c r="N3" s="202" t="s">
         <v>373</v>
       </c>
-      <c r="O3" s="205" t="s">
+      <c r="O3" s="204" t="s">
         <v>373</v>
       </c>
-      <c r="P3" s="208"/>
+      <c r="P3" s="207"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="206">
+      <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="287" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="C4" s="287"/>
+      <c r="D4" s="287" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="287"/>
+      <c r="F4" s="287"/>
+      <c r="G4" s="287" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285" t="s">
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="168" t="s">
+      <c r="K4" s="287"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="167" t="s">
         <v>374</v>
       </c>
-      <c r="O4" s="168" t="s">
+      <c r="O4" s="167" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="193"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="A5" s="192"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="284"/>
+      <c r="I5" s="284"/>
+      <c r="J5" s="284" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202" t="s">
+      <c r="K5" s="284"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201" t="s">
         <v>391</v>
       </c>
-      <c r="O5" s="209" t="s">
+      <c r="O5" s="208" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
-      <c r="B6" s="286" t="s">
+      <c r="A6" s="192"/>
+      <c r="B6" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="C6" s="284"/>
+      <c r="D6" s="284" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202" t="s">
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="284"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201" t="s">
         <v>392</v>
       </c>
-      <c r="O6" s="209" t="s">
+      <c r="O6" s="208" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="286" t="s">
+      <c r="A7" s="192"/>
+      <c r="B7" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="C7" s="284"/>
+      <c r="D7" s="284" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="166"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="A8" s="192"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="166"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="284"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="290" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="291"/>
+      <c r="C10" s="291"/>
+      <c r="D10" s="291"/>
+      <c r="E10" s="291"/>
+      <c r="F10" s="291"/>
+      <c r="G10" s="291"/>
+      <c r="H10" s="291"/>
+      <c r="I10" s="292"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="133" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="149" t="s">
+      <c r="A12" s="149"/>
+      <c r="B12" s="148" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="149" t="s">
+      <c r="H12" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="151" t="s">
+      <c r="I12" s="150" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="155">
+      <c r="A13" s="147"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="154">
         <v>100</v>
       </c>
-      <c r="E13" s="155">
+      <c r="E13" s="154">
         <v>0</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155">
+      <c r="F13" s="154"/>
+      <c r="G13" s="154">
         <v>4</v>
       </c>
-      <c r="H13" s="155">
+      <c r="H13" s="154">
         <v>10</v>
       </c>
-      <c r="I13" s="156">
+      <c r="I13" s="155">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="275" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="278"/>
+      <c r="B15" s="276"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="276"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="277"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="269" t="s">
         <v>369</v>
       </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="271"/>
-      <c r="H16" s="272"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="270"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="271"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="270"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="271"/>
-      <c r="G17" s="271"/>
-      <c r="H17" s="272"/>
+      <c r="A17" s="269"/>
+      <c r="B17" s="270"/>
+      <c r="C17" s="270"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="271"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="270"/>
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="272"/>
+      <c r="A18" s="269"/>
+      <c r="B18" s="270"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="271"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="273"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="275"/>
+      <c r="A19" s="272"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="273"/>
+      <c r="F19" s="273"/>
+      <c r="G19" s="273"/>
+      <c r="H19" s="274"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
+      <c r="A21" s="259" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="259"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="258" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="259"/>
-      <c r="F22" s="259"/>
-      <c r="G22" s="259"/>
+      <c r="E22" s="258"/>
+      <c r="F22" s="258"/>
+      <c r="G22" s="258"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8368,7 +8395,7 @@
       <c r="C23" t="s">
         <v>455</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="181" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8382,7 +8409,7 @@
       <c r="C24" t="s">
         <v>455</v>
       </c>
-      <c r="D24" s="195" t="s">
+      <c r="D24" s="194" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8396,7 +8423,7 @@
       <c r="C25" t="s">
         <v>455</v>
       </c>
-      <c r="D25" s="182" t="s">
+      <c r="D25" s="181" t="s">
         <v>340</v>
       </c>
     </row>
@@ -8410,7 +8437,7 @@
       <c r="C26" t="s">
         <v>455</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="181" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8424,7 +8451,7 @@
       <c r="C27" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="185" t="s">
+      <c r="D27" s="184" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8438,7 +8465,7 @@
       <c r="C28" t="s">
         <v>455</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="194" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8452,7 +8479,7 @@
       <c r="C29" t="s">
         <v>455</v>
       </c>
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="194" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8466,7 +8493,7 @@
       <c r="C30" t="s">
         <v>455</v>
       </c>
-      <c r="D30" s="195" t="s">
+      <c r="D30" s="194" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8480,7 +8507,7 @@
       <c r="C31" t="s">
         <v>455</v>
       </c>
-      <c r="D31" s="195" t="s">
+      <c r="D31" s="194" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8494,7 +8521,7 @@
       <c r="C32" t="s">
         <v>455</v>
       </c>
-      <c r="D32" s="195" t="s">
+      <c r="D32" s="194" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8508,7 +8535,7 @@
       <c r="C33" t="s">
         <v>455</v>
       </c>
-      <c r="D33" s="195" t="s">
+      <c r="D33" s="194" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8522,7 +8549,7 @@
       <c r="C34" t="s">
         <v>455</v>
       </c>
-      <c r="D34" s="182" t="s">
+      <c r="D34" s="181" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8536,7 +8563,7 @@
       <c r="C35" t="s">
         <v>455</v>
       </c>
-      <c r="D35" s="182" t="s">
+      <c r="D35" s="181" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8550,7 +8577,7 @@
       <c r="C36" t="s">
         <v>455</v>
       </c>
-      <c r="D36" s="182" t="s">
+      <c r="D36" s="181" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8564,7 +8591,7 @@
       <c r="C37" t="s">
         <v>455</v>
       </c>
-      <c r="D37" s="182" t="s">
+      <c r="D37" s="181" t="s">
         <v>405</v>
       </c>
     </row>
@@ -8578,7 +8605,7 @@
       <c r="C38" t="s">
         <v>455</v>
       </c>
-      <c r="D38" s="182" t="s">
+      <c r="D38" s="181" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8592,7 +8619,7 @@
       <c r="C39" t="s">
         <v>455</v>
       </c>
-      <c r="D39" s="182" t="s">
+      <c r="D39" s="181" t="s">
         <v>407</v>
       </c>
     </row>
@@ -8606,7 +8633,7 @@
       <c r="C40" t="s">
         <v>455</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="181" t="s">
         <v>408</v>
       </c>
     </row>
@@ -8620,7 +8647,7 @@
       <c r="C41" t="s">
         <v>455</v>
       </c>
-      <c r="D41" s="182" t="s">
+      <c r="D41" s="181" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8634,7 +8661,7 @@
       <c r="C42" t="s">
         <v>455</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="181" t="s">
         <v>409</v>
       </c>
     </row>
@@ -8648,7 +8675,7 @@
       <c r="C43" t="s">
         <v>455</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="181" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8662,7 +8689,7 @@
       <c r="C44" t="s">
         <v>455</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="181" t="s">
         <v>409</v>
       </c>
     </row>
@@ -8676,7 +8703,7 @@
       <c r="C45" t="s">
         <v>455</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="181" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8690,7 +8717,7 @@
       <c r="C46" t="s">
         <v>455</v>
       </c>
-      <c r="D46" s="182" t="s">
+      <c r="D46" s="181" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8704,7 +8731,7 @@
       <c r="C47" t="s">
         <v>455</v>
       </c>
-      <c r="D47" s="182" t="s">
+      <c r="D47" s="181" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8718,7 +8745,7 @@
       <c r="C48" t="s">
         <v>455</v>
       </c>
-      <c r="D48" s="182" t="s">
+      <c r="D48" s="181" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8732,7 +8759,7 @@
       <c r="C49" t="s">
         <v>455</v>
       </c>
-      <c r="D49" s="182" t="s">
+      <c r="D49" s="181" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8746,7 +8773,7 @@
       <c r="C50" t="s">
         <v>455</v>
       </c>
-      <c r="D50" s="182" t="s">
+      <c r="D50" s="181" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8760,7 +8787,7 @@
       <c r="C51" t="s">
         <v>455</v>
       </c>
-      <c r="D51" s="182" t="s">
+      <c r="D51" s="181" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8774,7 +8801,7 @@
       <c r="C52" t="s">
         <v>455</v>
       </c>
-      <c r="D52" s="195" t="s">
+      <c r="D52" s="194" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8788,18 +8815,21 @@
       <c r="C53" t="s">
         <v>455</v>
       </c>
-      <c r="D53" s="182" t="s">
+      <c r="D53" s="181" t="s">
         <v>410</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8816,15 +8846,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8916,368 +8943,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="285" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="291"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="286" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="289" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="287"/>
-      <c r="Q2" s="90"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="288" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
-      <c r="M3" s="203" t="s">
+      <c r="H3" s="288"/>
+      <c r="I3" s="288"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="288"/>
+      <c r="L3" s="288"/>
+      <c r="M3" s="202" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="203" t="s">
+      <c r="N3" s="202" t="s">
         <v>302</v>
       </c>
-      <c r="O3" s="203" t="s">
+      <c r="O3" s="202" t="s">
         <v>373</v>
       </c>
-      <c r="P3" s="203" t="s">
+      <c r="P3" s="202" t="s">
         <v>373</v>
       </c>
-      <c r="Q3" s="207"/>
+      <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="287" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="B4" s="287"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="287" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="287"/>
+      <c r="F4" s="287"/>
+      <c r="G4" s="287" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="168" t="s">
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="287"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="168" t="s">
+      <c r="O4" s="167" t="s">
         <v>374</v>
       </c>
-      <c r="P4" s="168" t="s">
+      <c r="P4" s="167" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="294" t="s">
+      <c r="A5" s="284"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="293" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="202" t="s">
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="293"/>
+      <c r="K5" s="293"/>
+      <c r="L5" s="293"/>
+      <c r="M5" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202" t="s">
+      <c r="N5" s="201"/>
+      <c r="O5" s="201" t="s">
         <v>395</v>
       </c>
-      <c r="P5" s="202" t="s">
+      <c r="P5" s="201" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-      <c r="J6" s="294"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="169"/>
+      <c r="A6" s="284"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="293"/>
+      <c r="H6" s="293"/>
+      <c r="I6" s="293"/>
+      <c r="J6" s="293"/>
+      <c r="K6" s="293"/>
+      <c r="L6" s="293"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="294"/>
-      <c r="H7" s="294"/>
-      <c r="I7" s="294"/>
-      <c r="J7" s="294"/>
-      <c r="K7" s="294"/>
-      <c r="L7" s="294"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="167"/>
+      <c r="A7" s="284"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="293"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="293"/>
+      <c r="K7" s="293"/>
+      <c r="L7" s="293"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="294"/>
-      <c r="H8" s="294"/>
-      <c r="I8" s="294"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="167"/>
+      <c r="A8" s="284"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="293"/>
+      <c r="H8" s="293"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="293"/>
+      <c r="L8" s="293"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="166"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="290" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="291"/>
+      <c r="C10" s="291"/>
+      <c r="D10" s="291"/>
+      <c r="E10" s="291"/>
+      <c r="F10" s="291"/>
+      <c r="G10" s="291"/>
+      <c r="H10" s="291"/>
+      <c r="I10" s="292"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="133" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="195" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="126" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="145" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="149" t="s">
+      <c r="A12" s="149"/>
+      <c r="B12" s="148" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="149" t="s">
+      <c r="H12" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="151" t="s">
+      <c r="I12" s="150" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="170"/>
+      <c r="K12" s="169"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="155">
+      <c r="A13" s="147"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="154">
         <v>100</v>
       </c>
-      <c r="E13" s="155">
+      <c r="E13" s="154">
         <v>0</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155">
+      <c r="F13" s="154"/>
+      <c r="G13" s="154">
         <v>4</v>
       </c>
-      <c r="H13" s="155">
+      <c r="H13" s="154">
         <v>10</v>
       </c>
-      <c r="I13" s="156">
+      <c r="I13" s="155">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="275" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="278"/>
+      <c r="B15" s="276"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="276"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="277"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="269" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="271"/>
-      <c r="H16" s="272"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="270"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="271"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="270"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="271"/>
-      <c r="G17" s="271"/>
-      <c r="H17" s="272"/>
+      <c r="A17" s="269"/>
+      <c r="B17" s="270"/>
+      <c r="C17" s="270"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="271"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="270"/>
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="272"/>
+      <c r="A18" s="269"/>
+      <c r="B18" s="270"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="271"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="273"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="275"/>
+      <c r="A19" s="272"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="273"/>
+      <c r="F19" s="273"/>
+      <c r="G19" s="273"/>
+      <c r="H19" s="274"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
+      <c r="A21" s="259" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="259"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="258" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="259"/>
-      <c r="F22" s="259"/>
-      <c r="G22" s="259"/>
+      <c r="E22" s="258"/>
+      <c r="F22" s="258"/>
+      <c r="G22" s="258"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9289,7 +9316,7 @@
       <c r="C23" t="s">
         <v>465</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="181" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9303,7 +9330,7 @@
       <c r="C24" t="s">
         <v>465</v>
       </c>
-      <c r="D24" s="195" t="s">
+      <c r="D24" s="194" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9317,7 +9344,7 @@
       <c r="C25" t="s">
         <v>465</v>
       </c>
-      <c r="D25" s="182" t="s">
+      <c r="D25" s="181" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9331,7 +9358,7 @@
       <c r="C26" t="s">
         <v>465</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="181" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9345,7 +9372,7 @@
       <c r="C27" t="s">
         <v>465</v>
       </c>
-      <c r="D27" s="185" t="s">
+      <c r="D27" s="184" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9359,7 +9386,7 @@
       <c r="C28" t="s">
         <v>465</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="194" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9373,7 +9400,7 @@
       <c r="C29" t="s">
         <v>465</v>
       </c>
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="194" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9387,7 +9414,7 @@
       <c r="C30" t="s">
         <v>465</v>
       </c>
-      <c r="D30" s="195" t="s">
+      <c r="D30" s="194" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9401,7 +9428,7 @@
       <c r="C31" t="s">
         <v>465</v>
       </c>
-      <c r="D31" s="195" t="s">
+      <c r="D31" s="194" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9415,7 +9442,7 @@
       <c r="C32" t="s">
         <v>465</v>
       </c>
-      <c r="D32" s="195" t="s">
+      <c r="D32" s="194" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9429,7 +9456,7 @@
       <c r="C33" t="s">
         <v>465</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="181" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9443,12 +9470,22 @@
       <c r="C34" t="s">
         <v>465</v>
       </c>
-      <c r="D34" s="195" t="s">
+      <c r="D34" s="194" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9465,16 +9502,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9538,39 +9565,39 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="191" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="190" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="294" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -9585,7 +9612,7 @@
       <c r="D2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="136" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9596,9 +9623,9 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="188"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="23"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="137" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9609,7 +9636,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="189"/>
+      <c r="C4" s="188"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9624,7 +9651,7 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="189"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9636,633 +9663,659 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="189"/>
+      <c r="C6" s="188">
+        <v>1</v>
+      </c>
       <c r="D6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>102</v>
+      <c r="A7" s="310" t="s">
+        <v>476</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="24"/>
+        <v>477</v>
+      </c>
+      <c r="C7" s="311"/>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="188"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="310" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" s="311"/>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="189"/>
-      <c r="D9" s="24">
-        <v>0</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="188"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="189"/>
-      <c r="D10" s="25" t="s">
-        <v>68</v>
-      </c>
+      <c r="A10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="187"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="189"/>
-      <c r="D11" s="25" t="s">
-        <v>69</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="188"/>
+      <c r="D11" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="189"/>
-      <c r="D12" s="24">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="C12" s="188"/>
+      <c r="D12" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="189"/>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="188"/>
+      <c r="D13" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>34</v>
+      <c r="A14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="188"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="C15" s="188"/>
+      <c r="D15" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="187"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="189"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="188"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="189"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="188"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="189"/>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C19" s="188"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="189"/>
+        <v>38</v>
+      </c>
+      <c r="C20" s="188"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="189"/>
-      <c r="D21" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C21" s="188"/>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="189"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="188"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>42</v>
+      <c r="A23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C23" s="188"/>
-      <c r="D23" s="23"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="189"/>
-      <c r="D24" s="24">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C24" s="188"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="189"/>
-      <c r="D25" s="24">
-        <v>65535</v>
-      </c>
+      <c r="A25" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="187"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="189"/>
+        <v>43</v>
+      </c>
+      <c r="C26" s="188"/>
       <c r="D26" s="24">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="189"/>
+        <v>44</v>
+      </c>
+      <c r="C27" s="188"/>
       <c r="D27" s="24">
-        <v>0.1</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="189"/>
-      <c r="D28" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="C28" s="188"/>
+      <c r="D28" s="24">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="189"/>
-      <c r="D29" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="C29" s="188"/>
+      <c r="D29" s="24">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="189"/>
+        <v>47</v>
+      </c>
+      <c r="C30" s="188"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>50</v>
+      <c r="A31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C31" s="188"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="189"/>
+        <v>83</v>
+      </c>
+      <c r="C32" s="188"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="24">
-        <v>0.02</v>
-      </c>
+      <c r="A33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="187"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="189"/>
+        <v>51</v>
+      </c>
+      <c r="C34" s="188"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C35" s="188"/>
+      <c r="D35" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="189"/>
+        <v>53</v>
+      </c>
+      <c r="C36" s="188"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="189"/>
-      <c r="D37" s="25" t="s">
-        <v>72</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C37" s="188"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="188"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="188"/>
+      <c r="D39" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="189"/>
-      <c r="D38" s="25">
+      <c r="C40" s="188"/>
+      <c r="D40" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="188"/>
-      <c r="D39" s="23"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="189"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="189"/>
+        <v>129</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="189"/>
+        <v>85</v>
+      </c>
+      <c r="C43" s="188"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="189"/>
+        <v>86</v>
+      </c>
+      <c r="C44" s="188"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="189"/>
+        <v>87</v>
+      </c>
+      <c r="C45" s="188"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="189"/>
+        <v>169</v>
+      </c>
+      <c r="C46" s="188"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="189"/>
+        <v>89</v>
+      </c>
+      <c r="C47" s="188"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="189"/>
+        <v>90</v>
+      </c>
+      <c r="C48" s="188"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="189"/>
+        <v>88</v>
+      </c>
+      <c r="C49" s="188"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="189"/>
+        <v>91</v>
+      </c>
+      <c r="C50" s="188"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="189"/>
-      <c r="D51" s="24">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C51" s="188"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="189"/>
-      <c r="D52" s="24">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C52" s="188"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="189"/>
+        <v>59</v>
+      </c>
+      <c r="C53" s="188"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="189"/>
+        <v>60</v>
+      </c>
+      <c r="C54" s="188"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="189"/>
+        <v>61</v>
+      </c>
+      <c r="C55" s="188"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="189"/>
+        <v>62</v>
+      </c>
+      <c r="C56" s="188"/>
       <c r="D56" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="189"/>
-      <c r="D57" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="C57" s="188"/>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="189"/>
-      <c r="D58" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="C58" s="188"/>
+      <c r="D58" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>148</v>
+      <c r="A59" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C59" s="188"/>
-      <c r="D59" s="26"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="189"/>
-      <c r="D60" s="27">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="188"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="B61" s="186"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="187"/>
+        <v>147</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="187"/>
+      <c r="D61" s="186"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>356</v>
+        <v>149</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C62" s="189"/>
-      <c r="D62" s="27">
+        <v>150</v>
+      </c>
+      <c r="C62" s="188"/>
+      <c r="D62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="185"/>
+      <c r="C63" s="187"/>
+      <c r="D63" s="186"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C64" s="188"/>
+      <c r="D64" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B65" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="188"/>
-      <c r="D63" s="26"/>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
+      <c r="C65" s="187"/>
+      <c r="D65" s="186"/>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B66" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="190"/>
-      <c r="D64" s="30">
+      <c r="C66" s="189"/>
+      <c r="D66" s="29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f2zB4CaXZ1eO3MiUBsL42LhWsqnsHJG8yOOcR3Uc32wh/Kd5GPtyZ0JFamOimtjgoXnAV7YKwEW+nvqfdapecw==" saltValue="OmrrGRFpOtx4df7rc/rpvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e8kOAtFlpesjtn2br0yWcMpJ0DR209aE1yKF50VLzsPmXh5YkSkNGPUjF34NepgBd0tNNjIcbP5PGt3vMdgCiw==" saltValue="lwyCEHXZ04Z8PX//kotMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10296,163 +10349,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="300" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
-      <c r="K1" s="302"/>
-      <c r="L1" s="302"/>
-      <c r="M1" s="302"/>
-      <c r="N1" s="302"/>
-      <c r="O1" s="302"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="301"/>
+      <c r="O1" s="301"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="297" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="300"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="299"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>2</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>3</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>4</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="N8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>5</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>6</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="B11" s="43">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -10462,10 +10515,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="45"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="44">
+      <c r="B12" s="43">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -10475,10 +10528,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="45"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="44">
+      <c r="B13" s="43">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -10488,10 +10541,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="45"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="44">
+      <c r="B14" s="43">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -10501,10 +10554,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="45"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -10514,10 +10567,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="45"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -10531,190 +10584,190 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="298" t="s">
+      <c r="B19" s="297" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
-      <c r="L19" s="299"/>
-      <c r="M19" s="299"/>
-      <c r="N19" s="300"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="298"/>
+      <c r="I19" s="298"/>
+      <c r="J19" s="298"/>
+      <c r="K19" s="298"/>
+      <c r="L19" s="298"/>
+      <c r="M19" s="298"/>
+      <c r="N19" s="299"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="38"/>
-      <c r="C20" s="47">
+      <c r="B20" s="37"/>
+      <c r="C20" s="46">
         <v>1</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>2</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <v>3</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <v>4</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <v>5</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <v>6</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="47">
         <v>7</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="47">
         <v>8</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="47">
         <v>9</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="47">
         <v>10</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="47">
         <v>11</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="48">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="45"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="45"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="45"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="45"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="45"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="45"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -10747,122 +10800,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="307"/>
-      <c r="S1" s="307"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
+      <c r="P1" s="306"/>
+      <c r="Q1" s="306"/>
+      <c r="R1" s="306"/>
+      <c r="S1" s="306"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="297" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="300"/>
-      <c r="L3" s="303" t="s">
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="299"/>
+      <c r="L3" s="302" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="304"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="304"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="305"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="303"/>
+      <c r="Q3" s="303"/>
+      <c r="R3" s="304"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="59">
+      <c r="B4" s="37"/>
+      <c r="C4" s="58">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>3</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>4</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>5</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <v>6</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="59">
         <v>7</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="48">
         <v>8</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="39" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="45"/>
-      <c r="L5" s="41">
+      <c r="I5" s="61"/>
+      <c r="J5" s="44"/>
+      <c r="L5" s="40">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -10870,21 +10923,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="45"/>
+      <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="45"/>
-      <c r="L6" s="41">
+      <c r="I6" s="61"/>
+      <c r="J6" s="44"/>
+      <c r="L6" s="40">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -10892,21 +10945,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="45"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="45"/>
-      <c r="L7" s="41">
+      <c r="I7" s="61"/>
+      <c r="J7" s="44"/>
+      <c r="L7" s="40">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -10914,21 +10967,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="45"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="45"/>
-      <c r="L8" s="41">
+      <c r="I8" s="61"/>
+      <c r="J8" s="44"/>
+      <c r="L8" s="40">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -10936,21 +10989,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="45"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="45"/>
-      <c r="L9" s="41">
+      <c r="I9" s="61"/>
+      <c r="J9" s="44"/>
+      <c r="L9" s="40">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -10958,21 +11011,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="45"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="64"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="41">
+      <c r="L10" s="40">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -10980,10 +11033,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="45"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="44">
+      <c r="L11" s="43">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -10991,10 +11044,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="45"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="46">
+      <c r="L12" s="45">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -11031,90 +11084,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="307" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="310"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="309"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="297" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="300"/>
-      <c r="J3" s="303" t="s">
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="299"/>
+      <c r="J3" s="302" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="304"/>
-      <c r="L3" s="304"/>
-      <c r="M3" s="304"/>
-      <c r="N3" s="305"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="47">
+      <c r="B4" s="37"/>
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>3</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>4</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>5</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>6</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="39" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>224</v>
       </c>
       <c r="C5" s="3"/>
@@ -11122,17 +11175,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="45"/>
-      <c r="J5" s="41">
+      <c r="H5" s="44"/>
+      <c r="J5" s="40">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="45"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>225</v>
       </c>
       <c r="C6" s="3"/>
@@ -11140,17 +11193,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="45"/>
-      <c r="J6" s="41">
+      <c r="H6" s="44"/>
+      <c r="J6" s="40">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="45"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="3"/>
@@ -11158,17 +11211,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="45"/>
-      <c r="J7" s="41">
+      <c r="H7" s="44"/>
+      <c r="J7" s="40">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="45"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>227</v>
       </c>
       <c r="C8" s="6"/>
@@ -11177,27 +11230,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="45"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="55"/>
-      <c r="J9" s="41">
+      <c r="H9" s="54"/>
+      <c r="J9" s="40">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="45"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="56"/>
-      <c r="J10" s="57">
+      <c r="H10" s="55"/>
+      <c r="J10" s="56">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -11206,19 +11259,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="58"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="55"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="55"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="55"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="55"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="480">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -3911,10 +3911,95 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3959,89 +4044,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4121,31 +4128,31 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4201,13 +4208,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5060,86 +5060,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="228" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="239"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="230"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="244" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="217"/>
+      <c r="B3" s="245"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="230" t="s">
+      <c r="A4" s="242" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="243"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="258" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="233"/>
+      <c r="B5" s="259"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="216" t="s">
+      <c r="A7" s="244" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="217"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="246"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="240" t="s">
+      <c r="A8" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="241"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="242"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="243"/>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="245"/>
+      <c r="A9" s="234"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="236"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5150,62 +5150,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="247" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="220"/>
-      <c r="C11" s="220"/>
-      <c r="D11" s="221"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="249"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="250" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="223"/>
-      <c r="C12" s="224" t="s">
+      <c r="B12" s="251"/>
+      <c r="C12" s="252" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="253"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="226"/>
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
+      <c r="A13" s="254"/>
+      <c r="B13" s="255"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="257"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="247" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="221"/>
-      <c r="E15" s="219" t="s">
+      <c r="B15" s="249"/>
+      <c r="E15" s="247" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="221"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="248"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="249"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="242" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="231"/>
+      <c r="B16" s="243"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="246" t="s">
+      <c r="E16" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
-      <c r="I16" s="248"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="239"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5215,10 +5215,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="249" t="s">
+      <c r="E17" s="240" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="250"/>
+      <c r="F17" s="241"/>
       <c r="G17" s="83" t="s">
         <v>159</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="234" t="s">
+      <c r="I18" s="216" t="s">
         <v>474</v>
       </c>
       <c r="J18" s="81"/>
@@ -5271,7 +5271,7 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="234"/>
+      <c r="I19" s="216"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="235"/>
+      <c r="I20" s="217"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5310,24 +5310,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="214" t="s">
+      <c r="E23" s="218" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="236"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="236"/>
-      <c r="I23" s="215"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="220"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="218" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="215"/>
+      <c r="B24" s="220"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="254" t="s">
+      <c r="E24" s="224" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="255"/>
+      <c r="F24" s="225"/>
       <c r="G24" s="82" t="s">
         <v>159</v>
       </c>
@@ -5356,7 +5356,7 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="251" t="s">
+      <c r="I25" s="221" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="252"/>
+      <c r="I26" s="222"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="253"/>
+      <c r="I27" s="223"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5420,22 +5420,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="214" t="s">
+      <c r="E30" s="218" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="236"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="215"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="220"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="256" t="s">
+      <c r="E31" s="226" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="257"/>
+      <c r="F31" s="227"/>
       <c r="G31" s="212" t="s">
         <v>159</v>
       </c>
@@ -5447,10 +5447,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="218" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="215"/>
+      <c r="B32" s="220"/>
       <c r="C32" s="32"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="234"/>
+      <c r="I32" s="216"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5480,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="234"/>
+      <c r="I33" s="216"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5495,7 +5495,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="234"/>
+      <c r="I34" s="216"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5508,7 +5508,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="234"/>
+      <c r="I35" s="216"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5521,7 +5521,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="234"/>
+      <c r="I36" s="216"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5534,7 +5534,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="235"/>
+      <c r="I37" s="217"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5547,17 +5547,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="214" t="s">
+      <c r="E40" s="218" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="236"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="236"/>
-      <c r="I40" s="215"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="220"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="254"/>
-      <c r="F41" s="255"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="225"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
@@ -5575,7 +5575,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="234"/>
+      <c r="I42" s="216"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5584,7 +5584,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="234"/>
+      <c r="I43" s="216"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5593,7 +5593,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="234"/>
+      <c r="I44" s="216"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5602,7 +5602,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="234"/>
+      <c r="I45" s="216"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5611,7 +5611,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="234"/>
+      <c r="I46" s="216"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5620,25 +5620,11 @@
       <c r="F47" s="141"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="235"/>
+      <c r="I47" s="217"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5654,6 +5640,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5693,32 +5693,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="262" t="s">
         <v>386</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="262"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="264"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="265" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="265"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="267"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5732,13 +5732,13 @@
       <c r="B3" s="182" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="268" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="268"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="270"/>
       <c r="H3" s="182" t="s">
         <v>323</v>
       </c>
@@ -6363,25 +6363,25 @@
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="278" t="s">
+      <c r="A27" s="280" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="279"/>
-      <c r="C27" s="279"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
-      <c r="K27" s="279"/>
-      <c r="L27" s="279"/>
-      <c r="M27" s="279"/>
-      <c r="N27" s="279"/>
-      <c r="O27" s="279"/>
-      <c r="P27" s="279"/>
-      <c r="Q27" s="280"/>
+      <c r="B27" s="281"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
+      <c r="E27" s="281"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="281"/>
+      <c r="H27" s="281"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="281"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="281"/>
+      <c r="N27" s="281"/>
+      <c r="O27" s="281"/>
+      <c r="P27" s="281"/>
+      <c r="Q27" s="282"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="138" t="s">
@@ -6530,70 +6530,70 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="275" t="s">
+      <c r="A32" s="277" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="276"/>
-      <c r="C32" s="276"/>
-      <c r="D32" s="276"/>
-      <c r="E32" s="276"/>
-      <c r="F32" s="276"/>
-      <c r="G32" s="276"/>
-      <c r="H32" s="277"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="278"/>
+      <c r="H32" s="279"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="269" t="s">
+      <c r="A33" s="271" t="s">
         <v>368</v>
       </c>
-      <c r="B33" s="270"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="270"/>
-      <c r="H33" s="271"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="272"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="273"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="269"/>
-      <c r="B34" s="270"/>
-      <c r="C34" s="270"/>
-      <c r="D34" s="270"/>
-      <c r="E34" s="270"/>
-      <c r="F34" s="270"/>
-      <c r="G34" s="270"/>
-      <c r="H34" s="271"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="272"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="272"/>
+      <c r="F34" s="272"/>
+      <c r="G34" s="272"/>
+      <c r="H34" s="273"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="269"/>
-      <c r="B35" s="270"/>
-      <c r="C35" s="270"/>
-      <c r="D35" s="270"/>
-      <c r="E35" s="270"/>
-      <c r="F35" s="270"/>
-      <c r="G35" s="270"/>
-      <c r="H35" s="271"/>
+      <c r="A35" s="271"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="272"/>
+      <c r="F35" s="272"/>
+      <c r="G35" s="272"/>
+      <c r="H35" s="273"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="272"/>
-      <c r="B36" s="273"/>
-      <c r="C36" s="273"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="273"/>
-      <c r="F36" s="273"/>
-      <c r="G36" s="273"/>
-      <c r="H36" s="274"/>
+      <c r="A36" s="274"/>
+      <c r="B36" s="275"/>
+      <c r="C36" s="275"/>
+      <c r="D36" s="275"/>
+      <c r="E36" s="275"/>
+      <c r="F36" s="275"/>
+      <c r="G36" s="275"/>
+      <c r="H36" s="276"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="259" t="s">
+      <c r="A38" s="261" t="s">
         <v>312</v>
       </c>
-      <c r="B38" s="259"/>
-      <c r="C38" s="259"/>
-      <c r="D38" s="259"/>
-      <c r="E38" s="259"/>
-      <c r="F38" s="259"/>
-      <c r="G38" s="259"/>
+      <c r="B38" s="261"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="261"/>
+      <c r="G38" s="261"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
@@ -6605,12 +6605,12 @@
       <c r="C39" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="258" t="s">
+      <c r="D39" s="260" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="258"/>
-      <c r="F39" s="258"/>
-      <c r="G39" s="258"/>
+      <c r="E39" s="260"/>
+      <c r="F39" s="260"/>
+      <c r="G39" s="260"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -7135,8 +7135,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7155,32 +7155,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="283" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="283"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
+      <c r="I1" s="284"/>
+      <c r="J1" s="285"/>
     </row>
     <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="280"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="282"/>
     </row>
     <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
@@ -7259,18 +7259,18 @@
       <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="279"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="279"/>
-      <c r="I6" s="279"/>
-      <c r="J6" s="280"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="281"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="281"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="282"/>
     </row>
     <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
@@ -7321,18 +7321,18 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="278" t="s">
+      <c r="A10" s="280" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="279"/>
-      <c r="C10" s="279"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="279"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="279"/>
-      <c r="J10" s="280"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="281"/>
+      <c r="H10" s="281"/>
+      <c r="I10" s="281"/>
+      <c r="J10" s="282"/>
     </row>
     <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="128"/>
@@ -7476,13 +7476,27 @@
       <c r="A16" s="107">
         <v>4</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="4">
+        <v>488</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
@@ -7543,18 +7557,18 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="278" t="s">
+      <c r="A21" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="279"/>
-      <c r="C21" s="279"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="280"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
+      <c r="H21" s="281"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="282"/>
     </row>
     <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="132" t="s">
@@ -7617,18 +7631,18 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="278" t="s">
+      <c r="A25" s="280" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="279"/>
-      <c r="C25" s="279"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="280"/>
+      <c r="B25" s="281"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="281"/>
+      <c r="H25" s="281"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="282"/>
     </row>
     <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="132" t="s">
@@ -7690,70 +7704,70 @@
     </row>
     <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="275" t="s">
+      <c r="A30" s="277" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="276"/>
-      <c r="C30" s="276"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="276"/>
-      <c r="F30" s="276"/>
-      <c r="G30" s="276"/>
-      <c r="H30" s="277"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="279"/>
     </row>
     <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="269" t="s">
+      <c r="A31" s="271" t="s">
         <v>367</v>
       </c>
-      <c r="B31" s="270"/>
-      <c r="C31" s="270"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="270"/>
-      <c r="F31" s="270"/>
-      <c r="G31" s="270"/>
-      <c r="H31" s="271"/>
+      <c r="B31" s="272"/>
+      <c r="C31" s="272"/>
+      <c r="D31" s="272"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="273"/>
     </row>
     <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="269"/>
-      <c r="B32" s="270"/>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="270"/>
-      <c r="G32" s="270"/>
-      <c r="H32" s="271"/>
+      <c r="A32" s="271"/>
+      <c r="B32" s="272"/>
+      <c r="C32" s="272"/>
+      <c r="D32" s="272"/>
+      <c r="E32" s="272"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="272"/>
+      <c r="H32" s="273"/>
     </row>
     <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="269"/>
-      <c r="B33" s="270"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="270"/>
-      <c r="H33" s="271"/>
+      <c r="A33" s="271"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="272"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="273"/>
     </row>
     <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="272"/>
-      <c r="B34" s="273"/>
-      <c r="C34" s="273"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="273"/>
-      <c r="F34" s="273"/>
-      <c r="G34" s="273"/>
-      <c r="H34" s="274"/>
+      <c r="A34" s="274"/>
+      <c r="B34" s="275"/>
+      <c r="C34" s="275"/>
+      <c r="D34" s="275"/>
+      <c r="E34" s="275"/>
+      <c r="F34" s="275"/>
+      <c r="G34" s="275"/>
+      <c r="H34" s="276"/>
     </row>
     <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="259" t="s">
+      <c r="A36" s="261" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="259"/>
-      <c r="C36" s="259"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="259"/>
-      <c r="G36" s="259"/>
+      <c r="B36" s="261"/>
+      <c r="C36" s="261"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="261"/>
+      <c r="G36" s="261"/>
     </row>
     <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
@@ -7765,12 +7779,12 @@
       <c r="C37" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="258" t="s">
+      <c r="D37" s="260" t="s">
         <v>315</v>
       </c>
-      <c r="E37" s="258"/>
-      <c r="F37" s="258"/>
-      <c r="G37" s="258"/>
+      <c r="E37" s="260"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8007,23 +8021,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="292" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
@@ -8031,26 +8045,26 @@
       <c r="A2" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="286" t="s">
+      <c r="B2" s="293" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286" t="s">
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="289" t="s">
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="288" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="289"/>
-      <c r="O2" s="289"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
@@ -8058,21 +8072,21 @@
       <c r="A3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="288" t="s">
+      <c r="B3" s="294" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288" t="s">
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="288"/>
-      <c r="L3" s="288"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="294"/>
       <c r="M3" s="202" t="s">
         <v>304</v>
       </c>
@@ -8088,25 +8102,25 @@
       <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="287" t="s">
+      <c r="B4" s="286" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287" t="s">
+      <c r="C4" s="286"/>
+      <c r="D4" s="286" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="287"/>
-      <c r="F4" s="287"/>
-      <c r="G4" s="287" t="s">
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="287"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="287" t="s">
+      <c r="H4" s="286"/>
+      <c r="I4" s="286"/>
+      <c r="J4" s="286" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="287"/>
-      <c r="L4" s="287"/>
+      <c r="K4" s="286"/>
+      <c r="L4" s="286"/>
       <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
@@ -8119,21 +8133,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="192"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284" t="s">
+      <c r="B5" s="287"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="287" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284" t="s">
+      <c r="H5" s="287"/>
+      <c r="I5" s="287"/>
+      <c r="J5" s="287" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
+      <c r="K5" s="287"/>
+      <c r="L5" s="287"/>
       <c r="M5" s="201"/>
       <c r="N5" s="201" t="s">
         <v>391</v>
@@ -8144,23 +8158,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="192"/>
-      <c r="B6" s="284" t="s">
+      <c r="B6" s="287" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284" t="s">
+      <c r="C6" s="287"/>
+      <c r="D6" s="287" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="284" t="s">
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="287"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201" t="s">
         <v>392</v>
@@ -8171,57 +8185,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="192"/>
-      <c r="B7" s="284" t="s">
+      <c r="B7" s="287" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284" t="s">
+      <c r="C7" s="287"/>
+      <c r="D7" s="287" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="287"/>
+      <c r="K7" s="287"/>
+      <c r="L7" s="287"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="192"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284" t="s">
+      <c r="B8" s="287"/>
+      <c r="C8" s="287"/>
+      <c r="D8" s="287" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
+      <c r="K8" s="287"/>
+      <c r="L8" s="287"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="290" t="s">
+      <c r="A10" s="289" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="292"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="291"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8304,69 +8318,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="275" t="s">
+      <c r="A15" s="277" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="276"/>
-      <c r="C15" s="276"/>
-      <c r="D15" s="276"/>
-      <c r="E15" s="276"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="276"/>
-      <c r="H15" s="277"/>
+      <c r="B15" s="278"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="279"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="269" t="s">
+      <c r="A16" s="271" t="s">
         <v>369</v>
       </c>
-      <c r="B16" s="270"/>
-      <c r="C16" s="270"/>
-      <c r="D16" s="270"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="270"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="271"/>
+      <c r="B16" s="272"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="273"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="269"/>
-      <c r="B17" s="270"/>
-      <c r="C17" s="270"/>
-      <c r="D17" s="270"/>
-      <c r="E17" s="270"/>
-      <c r="F17" s="270"/>
-      <c r="G17" s="270"/>
-      <c r="H17" s="271"/>
+      <c r="A17" s="271"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="272"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="269"/>
-      <c r="B18" s="270"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="270"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="271"/>
+      <c r="A18" s="271"/>
+      <c r="B18" s="272"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="272"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="272"/>
-      <c r="B19" s="273"/>
-      <c r="C19" s="273"/>
-      <c r="D19" s="273"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="273"/>
-      <c r="G19" s="273"/>
-      <c r="H19" s="274"/>
+      <c r="A19" s="274"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="259" t="s">
+      <c r="A21" s="261" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="259"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="259"/>
-      <c r="G21" s="259"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="261"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8378,12 +8392,12 @@
       <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="258" t="s">
+      <c r="D22" s="260" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="258"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8821,15 +8835,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8846,12 +8857,15 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8943,68 +8957,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="292" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="293" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286" t="s">
+      <c r="B2" s="293"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="289" t="s">
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="288" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="289"/>
-      <c r="O2" s="289"/>
-      <c r="P2" s="289"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="288"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="294" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288" t="s">
+      <c r="B3" s="294"/>
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="288"/>
-      <c r="L3" s="288"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="294"/>
       <c r="M3" s="202" t="s">
         <v>303</v>
       </c>
@@ -9020,24 +9034,24 @@
       <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="286" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="287"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287" t="s">
+      <c r="B4" s="286"/>
+      <c r="C4" s="286"/>
+      <c r="D4" s="286" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="287"/>
-      <c r="F4" s="287"/>
-      <c r="G4" s="287" t="s">
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="287"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="287"/>
-      <c r="K4" s="287"/>
-      <c r="L4" s="287"/>
+      <c r="H4" s="286"/>
+      <c r="I4" s="286"/>
+      <c r="J4" s="286"/>
+      <c r="K4" s="286"/>
+      <c r="L4" s="286"/>
       <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
@@ -9052,20 +9066,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="284"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="293" t="s">
+      <c r="A5" s="287"/>
+      <c r="B5" s="287"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="295" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
-      <c r="J5" s="293"/>
-      <c r="K5" s="293"/>
-      <c r="L5" s="293"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="295"/>
+      <c r="J5" s="295"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
       <c r="M5" s="201" t="s">
         <v>294</v>
       </c>
@@ -9078,54 +9092,54 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="284"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
-      <c r="J6" s="293"/>
-      <c r="K6" s="293"/>
-      <c r="L6" s="293"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="287"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="295"/>
+      <c r="H6" s="295"/>
+      <c r="I6" s="295"/>
+      <c r="J6" s="295"/>
+      <c r="K6" s="295"/>
+      <c r="L6" s="295"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201"/>
       <c r="O6" s="201"/>
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="284"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
-      <c r="I7" s="293"/>
-      <c r="J7" s="293"/>
-      <c r="K7" s="293"/>
-      <c r="L7" s="293"/>
+      <c r="A7" s="287"/>
+      <c r="B7" s="287"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="295"/>
+      <c r="J7" s="295"/>
+      <c r="K7" s="295"/>
+      <c r="L7" s="295"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="284"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="293"/>
-      <c r="H8" s="293"/>
-      <c r="I8" s="293"/>
-      <c r="J8" s="293"/>
-      <c r="K8" s="293"/>
-      <c r="L8" s="293"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="287"/>
+      <c r="C8" s="287"/>
+      <c r="D8" s="287"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="295"/>
+      <c r="H8" s="295"/>
+      <c r="I8" s="295"/>
+      <c r="J8" s="295"/>
+      <c r="K8" s="295"/>
+      <c r="L8" s="295"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="201"/>
@@ -9133,17 +9147,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="290" t="s">
+      <c r="A10" s="289" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="292"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="291"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9225,69 +9239,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="275" t="s">
+      <c r="A15" s="277" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="276"/>
-      <c r="C15" s="276"/>
-      <c r="D15" s="276"/>
-      <c r="E15" s="276"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="276"/>
-      <c r="H15" s="277"/>
+      <c r="B15" s="278"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="279"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="269" t="s">
+      <c r="A16" s="271" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="270"/>
-      <c r="C16" s="270"/>
-      <c r="D16" s="270"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="270"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="271"/>
+      <c r="B16" s="272"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="273"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="269"/>
-      <c r="B17" s="270"/>
-      <c r="C17" s="270"/>
-      <c r="D17" s="270"/>
-      <c r="E17" s="270"/>
-      <c r="F17" s="270"/>
-      <c r="G17" s="270"/>
-      <c r="H17" s="271"/>
+      <c r="A17" s="271"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="272"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="269"/>
-      <c r="B18" s="270"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="270"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="271"/>
+      <c r="A18" s="271"/>
+      <c r="B18" s="272"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="272"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="272"/>
-      <c r="B19" s="273"/>
-      <c r="C19" s="273"/>
-      <c r="D19" s="273"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="273"/>
-      <c r="G19" s="273"/>
-      <c r="H19" s="274"/>
+      <c r="A19" s="274"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="259" t="s">
+      <c r="A21" s="261" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="259"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="259"/>
-      <c r="G21" s="259"/>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="261"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9299,12 +9313,12 @@
       <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="258" t="s">
+      <c r="D22" s="260" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="258"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9476,16 +9490,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9502,6 +9506,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9567,7 +9581,7 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -9583,12 +9597,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="296" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="296"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="298"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9671,25 +9685,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="310" t="s">
+      <c r="A7" s="214" t="s">
         <v>476</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="C7" s="311"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="310" t="s">
+      <c r="A8" s="214" t="s">
         <v>478</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="C8" s="311"/>
+      <c r="C8" s="215"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -10349,23 +10363,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="302" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10383,17 +10397,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="297" t="s">
+      <c r="B3" s="299" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="299"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="301"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10584,21 +10598,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="297" t="s">
+      <c r="B19" s="299" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="298"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="298"/>
-      <c r="I19" s="298"/>
-      <c r="J19" s="298"/>
-      <c r="K19" s="298"/>
-      <c r="L19" s="298"/>
-      <c r="M19" s="298"/>
-      <c r="N19" s="299"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="300"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="300"/>
+      <c r="J19" s="300"/>
+      <c r="K19" s="300"/>
+      <c r="L19" s="300"/>
+      <c r="M19" s="300"/>
+      <c r="N19" s="301"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10800,27 +10814,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="307" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
-      <c r="P1" s="306"/>
-      <c r="Q1" s="306"/>
-      <c r="R1" s="306"/>
-      <c r="S1" s="306"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="308"/>
+      <c r="P1" s="308"/>
+      <c r="Q1" s="308"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="308"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10834,26 +10848,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="297" t="s">
+      <c r="B3" s="299" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="299"/>
-      <c r="L3" s="302" t="s">
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="301"/>
+      <c r="L3" s="304" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="304"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="305"/>
+      <c r="P3" s="305"/>
+      <c r="Q3" s="305"/>
+      <c r="R3" s="306"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11084,23 +11098,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="309" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="309"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="310"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="310"/>
+      <c r="N1" s="310"/>
+      <c r="O1" s="311"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11113,22 +11127,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="297" t="s">
+      <c r="B3" s="299" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="299"/>
-      <c r="J3" s="302" t="s">
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="301"/>
+      <c r="J3" s="304" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="303"/>
-      <c r="N3" s="304"/>
+      <c r="K3" s="305"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="306"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -3918,20 +3918,116 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3954,102 +4050,6 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4128,12 +4128,21 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4144,15 +4153,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5060,86 +5060,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="239" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="230"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="241"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="218" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="245"/>
+      <c r="B3" s="219"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="243"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="234" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="259"/>
+      <c r="B5" s="235"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="218" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="245"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="219"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="242" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="244"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="236"/>
+      <c r="A9" s="245"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="247"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5150,62 +5150,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="249"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="223"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="250" t="s">
+      <c r="A12" s="224" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="251"/>
-      <c r="C12" s="252" t="s">
+      <c r="B12" s="225"/>
+      <c r="C12" s="226" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="253"/>
+      <c r="D12" s="227"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="254"/>
-      <c r="B13" s="255"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="257"/>
+      <c r="A13" s="228"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="231"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="247" t="s">
+      <c r="A15" s="221" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="249"/>
-      <c r="E15" s="247" t="s">
+      <c r="B15" s="223"/>
+      <c r="E15" s="221" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="248"/>
-      <c r="G15" s="248"/>
-      <c r="H15" s="248"/>
-      <c r="I15" s="249"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="223"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="242" t="s">
+      <c r="A16" s="232" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="243"/>
+      <c r="B16" s="233"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="237" t="s">
+      <c r="E16" s="248" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="239"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="250"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5215,10 +5215,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="240" t="s">
+      <c r="E17" s="251" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="241"/>
+      <c r="F17" s="252"/>
       <c r="G17" s="83" t="s">
         <v>159</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="216" t="s">
+      <c r="I18" s="236" t="s">
         <v>474</v>
       </c>
       <c r="J18" s="81"/>
@@ -5271,7 +5271,7 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="216"/>
+      <c r="I19" s="236"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="217"/>
+      <c r="I20" s="237"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5310,24 +5310,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="218" t="s">
+      <c r="E23" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="220"/>
+      <c r="F23" s="238"/>
+      <c r="G23" s="238"/>
+      <c r="H23" s="238"/>
+      <c r="I23" s="217"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="218" t="s">
+      <c r="A24" s="216" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="220"/>
+      <c r="B24" s="217"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="224" t="s">
+      <c r="E24" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="225"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="82" t="s">
         <v>159</v>
       </c>
@@ -5356,7 +5356,7 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="221" t="s">
+      <c r="I25" s="253" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="222"/>
+      <c r="I26" s="254"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="223"/>
+      <c r="I27" s="255"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5420,22 +5420,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="218" t="s">
+      <c r="E30" s="216" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="220"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="217"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="226" t="s">
+      <c r="E31" s="258" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="227"/>
+      <c r="F31" s="259"/>
       <c r="G31" s="212" t="s">
         <v>159</v>
       </c>
@@ -5447,10 +5447,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="218" t="s">
+      <c r="A32" s="216" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="220"/>
+      <c r="B32" s="217"/>
       <c r="C32" s="32"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="216"/>
+      <c r="I32" s="236"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5480,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="216"/>
+      <c r="I33" s="236"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5495,7 +5495,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="216"/>
+      <c r="I34" s="236"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5508,7 +5508,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="216"/>
+      <c r="I35" s="236"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5521,7 +5521,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="216"/>
+      <c r="I36" s="236"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5534,7 +5534,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="217"/>
+      <c r="I37" s="237"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5547,17 +5547,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="218" t="s">
+      <c r="E40" s="216" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="220"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="238"/>
+      <c r="I40" s="217"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="224"/>
-      <c r="F41" s="225"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="257"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
@@ -5575,7 +5575,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="216"/>
+      <c r="I42" s="236"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5584,7 +5584,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="216"/>
+      <c r="I43" s="236"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5593,7 +5593,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="216"/>
+      <c r="I44" s="236"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5602,7 +5602,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="216"/>
+      <c r="I45" s="236"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5611,7 +5611,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="216"/>
+      <c r="I46" s="236"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5620,11 +5620,25 @@
       <c r="F47" s="141"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="217"/>
+      <c r="I47" s="237"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5640,20 +5654,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5667,8 +5667,8 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7135,8 +7135,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8021,23 +8021,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="287" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
@@ -8045,26 +8045,26 @@
       <c r="A2" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="288" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293" t="s">
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="288" t="s">
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="288"/>
-      <c r="O2" s="288"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
@@ -8072,21 +8072,21 @@
       <c r="A3" s="202" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="290" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294" t="s">
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
       <c r="M3" s="202" t="s">
         <v>304</v>
       </c>
@@ -8102,25 +8102,25 @@
       <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="286" t="s">
+      <c r="B4" s="289" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="286"/>
-      <c r="D4" s="286" t="s">
+      <c r="C4" s="289"/>
+      <c r="D4" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="286"/>
-      <c r="I4" s="286"/>
-      <c r="J4" s="286" t="s">
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="286"/>
-      <c r="L4" s="286"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
@@ -8133,21 +8133,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="192"/>
-      <c r="B5" s="287"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287" t="s">
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="287"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="287" t="s">
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="287"/>
-      <c r="L5" s="287"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
       <c r="M5" s="201"/>
       <c r="N5" s="201" t="s">
         <v>391</v>
@@ -8158,23 +8158,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="192"/>
-      <c r="B6" s="287" t="s">
+      <c r="B6" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287" t="s">
+      <c r="C6" s="286"/>
+      <c r="D6" s="286" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201" t="s">
         <v>392</v>
@@ -8185,57 +8185,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="192"/>
-      <c r="B7" s="287" t="s">
+      <c r="B7" s="286" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="286" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="287"/>
-      <c r="I7" s="287"/>
-      <c r="J7" s="287"/>
-      <c r="K7" s="287"/>
-      <c r="L7" s="287"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="192"/>
-      <c r="B8" s="287"/>
-      <c r="C8" s="287"/>
-      <c r="D8" s="287" t="s">
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="287"/>
-      <c r="I8" s="287"/>
-      <c r="J8" s="287"/>
-      <c r="K8" s="287"/>
-      <c r="L8" s="287"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="292" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="290"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="291"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8835,12 +8835,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8857,15 +8860,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8957,68 +8957,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="287" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
-      <c r="P1" s="292"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="288" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293" t="s">
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="288" t="s">
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="288"/>
-      <c r="O2" s="288"/>
-      <c r="P2" s="288"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="294" t="s">
+      <c r="A3" s="290" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="294"/>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294" t="s">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
       <c r="M3" s="202" t="s">
         <v>303</v>
       </c>
@@ -9034,24 +9034,24 @@
       <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="286" t="s">
+      <c r="A4" s="289" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="286"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="286" t="s">
+      <c r="B4" s="289"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="286"/>
-      <c r="I4" s="286"/>
-      <c r="J4" s="286"/>
-      <c r="K4" s="286"/>
-      <c r="L4" s="286"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
@@ -9066,12 +9066,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="287"/>
-      <c r="B5" s="287"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
+      <c r="A5" s="286"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
       <c r="G5" s="295" t="s">
         <v>4</v>
       </c>
@@ -9092,12 +9092,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="287"/>
-      <c r="B6" s="287"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="295"/>
       <c r="H6" s="295"/>
       <c r="I6" s="295"/>
@@ -9110,12 +9110,12 @@
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="287"/>
-      <c r="B7" s="287"/>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
+      <c r="A7" s="286"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="295"/>
       <c r="H7" s="295"/>
       <c r="I7" s="295"/>
@@ -9128,12 +9128,12 @@
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="287"/>
-      <c r="B8" s="287"/>
-      <c r="C8" s="287"/>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
+      <c r="A8" s="286"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
       <c r="G8" s="295"/>
       <c r="H8" s="295"/>
       <c r="I8" s="295"/>
@@ -9147,17 +9147,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="292" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="290"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="291"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9490,6 +9490,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9506,16 +9516,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="478">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -1743,30 +1743,6 @@
     <t xml:space="preserve">Note: Always leave an empty row between Comparisons/ Comparison Group(s) and preferences below. </t>
   </si>
   <si>
-    <t>End Row Number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Required: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Input the bottom row number for "Comparison Group(s)" and "Comparisons"</t>
-    </r>
-  </si>
-  <si>
     <t>A skip is also green.</t>
   </si>
   <si>
@@ -2402,7 +2378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2642,14 +2618,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3324,7 +3292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3853,13 +3821,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3884,14 +3849,8 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3918,10 +3877,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3966,89 +4003,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4128,31 +4087,31 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4208,6 +4167,42 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5060,86 +5055,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="239" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="241"/>
+      <c r="A1" s="225" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="227"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="241" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="219"/>
+      <c r="B3" s="242"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="239" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="233"/>
+      <c r="B4" s="240"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="255" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="235"/>
+      <c r="B5" s="256"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="241" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="219"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="242"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="242" t="s">
+      <c r="A8" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="243"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="244"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="245"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="247"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="232"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5150,62 +5145,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221" t="s">
+      <c r="A11" s="244" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="223"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="246"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="247" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="226" t="s">
+      <c r="B12" s="248"/>
+      <c r="C12" s="249" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="227"/>
+      <c r="D12" s="250"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="228"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="244" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="223"/>
-      <c r="E15" s="221" t="s">
+      <c r="B15" s="246"/>
+      <c r="E15" s="244" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="223"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="246"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="239" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="233"/>
+      <c r="B16" s="240"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="248" t="s">
+      <c r="E16" s="234" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="250"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="236"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5215,18 +5210,18 @@
         <v>281</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="251" t="s">
+      <c r="E17" s="237" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="252"/>
+      <c r="F17" s="238"/>
       <c r="G17" s="83" t="s">
         <v>159</v>
       </c>
       <c r="H17" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="196" t="s">
-        <v>363</v>
+      <c r="I17" s="195" t="s">
+        <v>361</v>
       </c>
       <c r="J17" s="81"/>
     </row>
@@ -5248,8 +5243,8 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="236" t="s">
-        <v>474</v>
+      <c r="I18" s="213" t="s">
+        <v>472</v>
       </c>
       <c r="J18" s="81"/>
     </row>
@@ -5271,7 +5266,7 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="236"/>
+      <c r="I19" s="213"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5288,7 +5283,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="237"/>
+      <c r="I20" s="214"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5310,32 +5305,32 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="216" t="s">
+      <c r="E23" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="238"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="238"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
       <c r="I23" s="217"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="215" t="s">
         <v>240</v>
       </c>
       <c r="B24" s="217"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="256" t="s">
+      <c r="E24" s="221" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="257"/>
+      <c r="F24" s="222"/>
       <c r="G24" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H24" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="196" t="s">
-        <v>364</v>
+      <c r="I24" s="195" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5356,8 +5351,8 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="253" t="s">
-        <v>475</v>
+      <c r="I25" s="218" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -5380,7 +5375,7 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="254"/>
+      <c r="I26" s="219"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5396,7 +5391,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="255"/>
+      <c r="I27" s="220"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5420,34 +5415,34 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="216" t="s">
+      <c r="E30" s="215" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="238"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
       <c r="I30" s="217"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="258" t="s">
-        <v>472</v>
-      </c>
-      <c r="F31" s="259"/>
-      <c r="G31" s="212" t="s">
+      <c r="E31" s="223" t="s">
+        <v>470</v>
+      </c>
+      <c r="F31" s="224"/>
+      <c r="G31" s="209" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="212" t="s">
+      <c r="H31" s="209" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="196" t="s">
-        <v>365</v>
+      <c r="I31" s="195" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="215" t="s">
         <v>241</v>
       </c>
       <c r="B32" s="217"/>
@@ -5460,7 +5455,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="236"/>
+      <c r="I32" s="213"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5480,7 +5475,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="236"/>
+      <c r="I33" s="213"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5495,7 +5490,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="236"/>
+      <c r="I34" s="213"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5508,7 +5503,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="236"/>
+      <c r="I35" s="213"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5521,7 +5516,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="236"/>
+      <c r="I36" s="213"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5534,7 +5529,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="237"/>
+      <c r="I37" s="214"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5547,25 +5542,25 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="216" t="s">
+      <c r="E40" s="215" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="238"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="238"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
       <c r="I40" s="217"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="222"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="196" t="s">
-        <v>366</v>
+      <c r="I41" s="195" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5575,7 +5570,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="236"/>
+      <c r="I42" s="213"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5584,7 +5579,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="236"/>
+      <c r="I43" s="213"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5593,7 +5588,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="236"/>
+      <c r="I44" s="213"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5602,7 +5597,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="236"/>
+      <c r="I45" s="213"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5611,7 +5606,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="236"/>
+      <c r="I46" s="213"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5620,25 +5615,11 @@
       <c r="F47" s="141"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="237"/>
+      <c r="I47" s="214"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5654,6 +5635,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5667,7 +5662,7 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -5693,32 +5688,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="262" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="264"/>
+      <c r="A1" s="259" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="261"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="262" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="267"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="264"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5732,13 +5727,13 @@
       <c r="B3" s="182" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="265" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="270"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="267"/>
       <c r="H3" s="182" t="s">
         <v>323</v>
       </c>
@@ -5782,8 +5777,8 @@
       <c r="I4" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="200" t="s">
-        <v>415</v>
+      <c r="J4" s="199" t="s">
+        <v>413</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5793,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" s="110">
         <v>0.1</v>
@@ -5817,7 +5812,7 @@
         <v>203</v>
       </c>
       <c r="J5" s="113"/>
-      <c r="K5" s="213"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="109">
@@ -5849,7 +5844,7 @@
         <v>204</v>
       </c>
       <c r="J6" s="113"/>
-      <c r="K6" s="213"/>
+      <c r="K6" s="210"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="109">
@@ -5877,7 +5872,7 @@
         <v>205</v>
       </c>
       <c r="J7" s="113"/>
-      <c r="K7" s="213"/>
+      <c r="K7" s="210"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="109">
@@ -5909,7 +5904,7 @@
         <v>206</v>
       </c>
       <c r="J8" s="113"/>
-      <c r="K8" s="213"/>
+      <c r="K8" s="210"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="109">
@@ -5939,7 +5934,7 @@
         <v>207</v>
       </c>
       <c r="J9" s="113"/>
-      <c r="K9" s="213"/>
+      <c r="K9" s="210"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="109">
@@ -5967,7 +5962,7 @@
         <v>208</v>
       </c>
       <c r="J10" s="113"/>
-      <c r="K10" s="213"/>
+      <c r="K10" s="210"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="109">
@@ -5995,7 +5990,7 @@
         <v>209</v>
       </c>
       <c r="J11" s="113"/>
-      <c r="K11" s="213"/>
+      <c r="K11" s="210"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="109">
@@ -6023,7 +6018,7 @@
         <v>210</v>
       </c>
       <c r="J12" s="113"/>
-      <c r="K12" s="213"/>
+      <c r="K12" s="210"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109">
@@ -6051,7 +6046,7 @@
         <v>211</v>
       </c>
       <c r="J13" s="113"/>
-      <c r="K13" s="213"/>
+      <c r="K13" s="210"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="109">
@@ -6081,7 +6076,7 @@
         <v>212</v>
       </c>
       <c r="J14" s="113"/>
-      <c r="K14" s="213"/>
+      <c r="K14" s="210"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="109">
@@ -6113,7 +6108,7 @@
         <v>213</v>
       </c>
       <c r="J15" s="113"/>
-      <c r="K15" s="213"/>
+      <c r="K15" s="210"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="109">
@@ -6141,7 +6136,7 @@
         <v>214</v>
       </c>
       <c r="J16" s="113"/>
-      <c r="K16" s="213"/>
+      <c r="K16" s="210"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109">
@@ -6173,7 +6168,7 @@
         <v>215</v>
       </c>
       <c r="J17" s="113"/>
-      <c r="K17" s="213"/>
+      <c r="K17" s="210"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="109">
@@ -6205,7 +6200,7 @@
         <v>216</v>
       </c>
       <c r="J18" s="113"/>
-      <c r="K18" s="213"/>
+      <c r="K18" s="210"/>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="109">
@@ -6227,7 +6222,7 @@
       <c r="J19" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="213"/>
+      <c r="K19" s="210"/>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="109">
@@ -6249,7 +6244,7 @@
       <c r="J20" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="213"/>
+      <c r="K20" s="210"/>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="109">
@@ -6271,7 +6266,7 @@
       <c r="J21" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="213"/>
+      <c r="K21" s="210"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="109">
@@ -6293,7 +6288,7 @@
       <c r="J22" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="213"/>
+      <c r="K22" s="210"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="109">
@@ -6315,7 +6310,7 @@
       <c r="J23" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="213"/>
+      <c r="K23" s="210"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="109">
@@ -6337,7 +6332,7 @@
       <c r="J24" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="213"/>
+      <c r="K24" s="210"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="173">
@@ -6359,63 +6354,63 @@
       <c r="J25" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="213"/>
+      <c r="K25" s="210"/>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="280" t="s">
+      <c r="A27" s="277" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="281"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="281"/>
-      <c r="E27" s="281"/>
-      <c r="F27" s="281"/>
-      <c r="G27" s="281"/>
-      <c r="H27" s="281"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="281"/>
-      <c r="L27" s="281"/>
-      <c r="M27" s="281"/>
-      <c r="N27" s="281"/>
-      <c r="O27" s="281"/>
-      <c r="P27" s="281"/>
-      <c r="Q27" s="282"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="278"/>
+      <c r="H27" s="278"/>
+      <c r="I27" s="278"/>
+      <c r="J27" s="278"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="278"/>
+      <c r="O27" s="278"/>
+      <c r="P27" s="278"/>
+      <c r="Q27" s="279"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="138" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="197" t="s">
+      <c r="B28" s="196" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" s="194" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="194" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="195" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" s="195" t="s">
-        <v>373</v>
-      </c>
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="194" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="195" t="s">
-        <v>388</v>
-      </c>
-      <c r="G28" s="195" t="s">
-        <v>442</v>
-      </c>
-      <c r="H28" s="199" t="s">
+      <c r="F28" s="194" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="194" t="s">
+        <v>440</v>
+      </c>
+      <c r="H28" s="198" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="199" t="s">
-        <v>442</v>
-      </c>
-      <c r="J28" s="199" t="s">
-        <v>454</v>
-      </c>
-      <c r="K28" s="199" t="s">
-        <v>442</v>
+      <c r="I28" s="198" t="s">
+        <v>440</v>
+      </c>
+      <c r="J28" s="198" t="s">
+        <v>452</v>
+      </c>
+      <c r="K28" s="198" t="s">
+        <v>440</v>
       </c>
       <c r="L28" s="124" t="s">
         <v>273</v>
@@ -6426,13 +6421,13 @@
       <c r="N28" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="O28" s="195" t="s">
+      <c r="O28" s="194" t="s">
         <v>279</v>
       </c>
-      <c r="P28" s="195" t="s">
+      <c r="P28" s="194" t="s">
         <v>279</v>
       </c>
-      <c r="Q28" s="198" t="s">
+      <c r="Q28" s="197" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6445,7 +6440,7 @@
         <v>253</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E29" s="97" t="s">
         <v>254</v>
@@ -6454,19 +6449,19 @@
         <v>154</v>
       </c>
       <c r="G29" s="97" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H29" s="97" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I29" s="97" t="s">
+        <v>444</v>
+      </c>
+      <c r="J29" s="97" t="s">
         <v>446</v>
       </c>
-      <c r="J29" s="97" t="s">
-        <v>448</v>
-      </c>
       <c r="K29" s="97" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L29" s="97" t="s">
         <v>94</v>
@@ -6489,27 +6484,27 @@
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="147"/>
-      <c r="B30" s="209" t="s">
-        <v>445</v>
+      <c r="B30" s="206" t="s">
+        <v>443</v>
       </c>
       <c r="C30" s="98"/>
       <c r="D30" s="98"/>
       <c r="E30" s="154" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F30" s="154"/>
       <c r="G30" s="154" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H30" s="154"/>
       <c r="I30" s="154" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J30" s="154">
         <v>3</v>
       </c>
       <c r="K30" s="154" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L30" s="154">
         <v>100</v>
@@ -6530,70 +6525,70 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="277" t="s">
+      <c r="A32" s="274" t="s">
         <v>283</v>
       </c>
-      <c r="B32" s="278"/>
-      <c r="C32" s="278"/>
-      <c r="D32" s="278"/>
-      <c r="E32" s="278"/>
-      <c r="F32" s="278"/>
-      <c r="G32" s="278"/>
-      <c r="H32" s="279"/>
+      <c r="B32" s="275"/>
+      <c r="C32" s="275"/>
+      <c r="D32" s="275"/>
+      <c r="E32" s="275"/>
+      <c r="F32" s="275"/>
+      <c r="G32" s="275"/>
+      <c r="H32" s="276"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271" t="s">
-        <v>368</v>
-      </c>
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
-      <c r="E33" s="272"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
+      <c r="A33" s="268" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" s="269"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="271"/>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="272"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="273"/>
+      <c r="A34" s="268"/>
+      <c r="B34" s="269"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="269"/>
+      <c r="F34" s="269"/>
+      <c r="G34" s="269"/>
+      <c r="H34" s="270"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="271"/>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="272"/>
-      <c r="H35" s="273"/>
+      <c r="A35" s="268"/>
+      <c r="B35" s="269"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="269"/>
+      <c r="F35" s="269"/>
+      <c r="G35" s="269"/>
+      <c r="H35" s="270"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="274"/>
-      <c r="B36" s="275"/>
-      <c r="C36" s="275"/>
-      <c r="D36" s="275"/>
-      <c r="E36" s="275"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="276"/>
+      <c r="A36" s="271"/>
+      <c r="B36" s="272"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="272"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="273"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="261" t="s">
+      <c r="A38" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="B38" s="261"/>
-      <c r="C38" s="261"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="261"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
+      <c r="G38" s="258"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
@@ -6605,12 +6600,12 @@
       <c r="C39" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="260" t="s">
+      <c r="D39" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="260"/>
-      <c r="F39" s="260"/>
-      <c r="G39" s="260"/>
+      <c r="E39" s="257"/>
+      <c r="F39" s="257"/>
+      <c r="G39" s="257"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6620,10 +6615,10 @@
         <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D40" s="181" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6634,9 +6629,9 @@
         <v>342</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
-      </c>
-      <c r="D41" s="194" t="s">
+        <v>450</v>
+      </c>
+      <c r="D41" s="193" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6648,7 +6643,7 @@
         <v>343</v>
       </c>
       <c r="C42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D42" s="181" t="s">
         <v>340</v>
@@ -6662,10 +6657,10 @@
         <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D43" s="181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -6676,7 +6671,7 @@
         <v>345</v>
       </c>
       <c r="C44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D44" s="184" t="s">
         <v>341</v>
@@ -6684,380 +6679,380 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B45" t="s">
         <v>318</v>
       </c>
       <c r="C45" t="s">
-        <v>452</v>
-      </c>
-      <c r="D45" s="194" t="s">
-        <v>417</v>
+        <v>450</v>
+      </c>
+      <c r="D45" s="193" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B46" t="s">
         <v>318</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
-      </c>
-      <c r="D46" s="194" t="s">
-        <v>397</v>
+        <v>450</v>
+      </c>
+      <c r="D46" s="193" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s">
         <v>318</v>
       </c>
       <c r="C47" t="s">
-        <v>452</v>
-      </c>
-      <c r="D47" s="194" t="s">
-        <v>418</v>
+        <v>450</v>
+      </c>
+      <c r="D47" s="193" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s">
         <v>318</v>
       </c>
       <c r="C48" t="s">
-        <v>452</v>
-      </c>
-      <c r="D48" s="194" t="s">
-        <v>420</v>
+        <v>450</v>
+      </c>
+      <c r="D48" s="193" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s">
         <v>318</v>
       </c>
       <c r="C49" t="s">
-        <v>452</v>
-      </c>
-      <c r="D49" s="194" t="s">
-        <v>419</v>
+        <v>450</v>
+      </c>
+      <c r="D49" s="193" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s">
         <v>346</v>
       </c>
       <c r="C50" t="s">
-        <v>452</v>
-      </c>
-      <c r="D50" s="194" t="s">
-        <v>421</v>
+        <v>450</v>
+      </c>
+      <c r="D50" s="193" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>420</v>
+      </c>
+      <c r="B51" t="s">
+        <v>421</v>
+      </c>
+      <c r="C51" t="s">
+        <v>450</v>
+      </c>
+      <c r="D51" s="193" t="s">
         <v>422</v>
-      </c>
-      <c r="B51" t="s">
-        <v>423</v>
-      </c>
-      <c r="C51" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="194" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>449</v>
+      </c>
+      <c r="B52" t="s">
+        <v>382</v>
+      </c>
+      <c r="C52" t="s">
+        <v>450</v>
+      </c>
+      <c r="D52" s="181" t="s">
         <v>451</v>
-      </c>
-      <c r="B52" t="s">
-        <v>384</v>
-      </c>
-      <c r="C52" t="s">
-        <v>452</v>
-      </c>
-      <c r="D52" s="181" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>423</v>
+      </c>
+      <c r="B53" t="s">
+        <v>424</v>
+      </c>
+      <c r="C53" t="s">
+        <v>450</v>
+      </c>
+      <c r="D53" s="193" t="s">
         <v>425</v>
-      </c>
-      <c r="B53" t="s">
-        <v>426</v>
-      </c>
-      <c r="C53" t="s">
-        <v>452</v>
-      </c>
-      <c r="D53" s="194" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>423</v>
+      </c>
+      <c r="B54" t="s">
+        <v>424</v>
+      </c>
+      <c r="C54" t="s">
+        <v>450</v>
+      </c>
+      <c r="D54" s="193" t="s">
         <v>425</v>
-      </c>
-      <c r="B54" t="s">
-        <v>426</v>
-      </c>
-      <c r="C54" t="s">
-        <v>452</v>
-      </c>
-      <c r="D54" s="194" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>423</v>
+      </c>
+      <c r="B55" t="s">
+        <v>424</v>
+      </c>
+      <c r="C55" t="s">
+        <v>450</v>
+      </c>
+      <c r="D55" s="193" t="s">
         <v>425</v>
-      </c>
-      <c r="B55" t="s">
-        <v>426</v>
-      </c>
-      <c r="C55" t="s">
-        <v>452</v>
-      </c>
-      <c r="D55" s="194" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>423</v>
+      </c>
+      <c r="B56" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" t="s">
+        <v>450</v>
+      </c>
+      <c r="D56" s="193" t="s">
         <v>425</v>
-      </c>
-      <c r="B56" t="s">
-        <v>426</v>
-      </c>
-      <c r="C56" t="s">
-        <v>452</v>
-      </c>
-      <c r="D56" s="194" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>423</v>
+      </c>
+      <c r="B57" t="s">
+        <v>424</v>
+      </c>
+      <c r="C57" t="s">
+        <v>450</v>
+      </c>
+      <c r="D57" s="193" t="s">
         <v>425</v>
-      </c>
-      <c r="B57" t="s">
-        <v>426</v>
-      </c>
-      <c r="C57" t="s">
-        <v>452</v>
-      </c>
-      <c r="D57" s="194" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D58" s="181" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C59" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D59" s="181" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C60" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D60" s="181" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C61" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D61" s="181" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C62" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D62" s="181" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C63" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D63" s="181" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B64" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D64" s="181" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B65" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D65" s="181" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B66" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C66" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D66" s="181" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C67" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D67" s="181" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B68" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C68" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D68" s="181" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D69" s="181" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B70" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C70" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D70" s="181" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B71" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C71" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D71" s="181" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -7155,32 +7150,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="283" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="284"/>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="285"/>
+      <c r="A1" s="280" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="282"/>
     </row>
     <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="282"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="279"/>
     </row>
     <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
@@ -7251,7 +7246,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="211" t="s">
+      <c r="G5" s="208" t="s">
         <v>310</v>
       </c>
       <c r="H5" s="170"/>
@@ -7259,18 +7254,18 @@
       <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="280" t="s">
+      <c r="A6" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="282"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="279"/>
     </row>
     <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
@@ -7321,18 +7316,18 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="282"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="278"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="279"/>
     </row>
     <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="128"/>
@@ -7557,18 +7552,18 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="280" t="s">
+      <c r="A21" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="281"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="282"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="278"/>
+      <c r="E21" s="278"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="279"/>
     </row>
     <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="132" t="s">
@@ -7631,25 +7626,25 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="280" t="s">
+      <c r="A25" s="277" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="281"/>
-      <c r="C25" s="281"/>
-      <c r="D25" s="281"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="281"/>
-      <c r="G25" s="281"/>
-      <c r="H25" s="281"/>
-      <c r="I25" s="281"/>
-      <c r="J25" s="282"/>
+      <c r="B25" s="278"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="278"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="278"/>
+      <c r="H25" s="278"/>
+      <c r="I25" s="278"/>
+      <c r="J25" s="279"/>
     </row>
     <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="199" t="s">
-        <v>373</v>
+      <c r="B26" s="198" t="s">
+        <v>371</v>
       </c>
       <c r="C26" s="133" t="s">
         <v>335</v>
@@ -7657,8 +7652,8 @@
       <c r="D26" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="E26" s="195" t="s">
-        <v>373</v>
+      <c r="E26" s="194" t="s">
+        <v>371</v>
       </c>
       <c r="F26" s="129"/>
       <c r="G26" s="129"/>
@@ -7678,7 +7673,7 @@
         <v>154</v>
       </c>
       <c r="E27" s="97" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F27" s="148"/>
       <c r="G27" s="148"/>
@@ -7688,13 +7683,13 @@
     </row>
     <row r="28" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="147"/>
-      <c r="B28" s="210" t="s">
-        <v>466</v>
+      <c r="B28" s="207" t="s">
+        <v>464</v>
       </c>
       <c r="C28" s="191"/>
       <c r="D28" s="123"/>
       <c r="E28" s="154" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7704,70 +7699,70 @@
     </row>
     <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="277" t="s">
+      <c r="A30" s="274" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="278"/>
-      <c r="D30" s="278"/>
-      <c r="E30" s="278"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
-      <c r="H30" s="279"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="276"/>
     </row>
     <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="271" t="s">
-        <v>367</v>
-      </c>
-      <c r="B31" s="272"/>
-      <c r="C31" s="272"/>
-      <c r="D31" s="272"/>
-      <c r="E31" s="272"/>
-      <c r="F31" s="272"/>
-      <c r="G31" s="272"/>
-      <c r="H31" s="273"/>
+      <c r="A31" s="268" t="s">
+        <v>365</v>
+      </c>
+      <c r="B31" s="269"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="269"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="269"/>
+      <c r="H31" s="270"/>
     </row>
     <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="271"/>
-      <c r="B32" s="272"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="272"/>
-      <c r="E32" s="272"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="272"/>
-      <c r="H32" s="273"/>
+      <c r="A32" s="268"/>
+      <c r="B32" s="269"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="270"/>
     </row>
     <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271"/>
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
-      <c r="E33" s="272"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
+      <c r="A33" s="268"/>
+      <c r="B33" s="269"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="274"/>
-      <c r="B34" s="275"/>
-      <c r="C34" s="275"/>
-      <c r="D34" s="275"/>
-      <c r="E34" s="275"/>
-      <c r="F34" s="275"/>
-      <c r="G34" s="275"/>
-      <c r="H34" s="276"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="272"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="272"/>
+      <c r="F34" s="272"/>
+      <c r="G34" s="272"/>
+      <c r="H34" s="273"/>
     </row>
     <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="261" t="s">
+      <c r="A36" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="261"/>
-      <c r="C36" s="261"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="261"/>
-      <c r="F36" s="261"/>
-      <c r="G36" s="261"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="258"/>
+      <c r="G36" s="258"/>
     </row>
     <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
@@ -7779,12 +7774,12 @@
       <c r="C37" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="260" t="s">
+      <c r="D37" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="260"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="257"/>
+      <c r="G37" s="257"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7794,10 +7789,10 @@
         <v>317</v>
       </c>
       <c r="C38" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D38" s="181" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -7808,9 +7803,9 @@
         <v>342</v>
       </c>
       <c r="C39" t="s">
-        <v>469</v>
-      </c>
-      <c r="D39" s="194" t="s">
+        <v>467</v>
+      </c>
+      <c r="D39" s="193" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7822,7 +7817,7 @@
         <v>343</v>
       </c>
       <c r="C40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D40" s="181" t="s">
         <v>340</v>
@@ -7836,10 +7831,10 @@
         <v>344</v>
       </c>
       <c r="C41" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D41" s="181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7850,7 +7845,7 @@
         <v>345</v>
       </c>
       <c r="C42" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D42" s="184" t="s">
         <v>341</v>
@@ -7858,72 +7853,72 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s">
         <v>318</v>
       </c>
       <c r="C43" t="s">
-        <v>469</v>
-      </c>
-      <c r="D43" s="194" t="s">
-        <v>377</v>
+        <v>467</v>
+      </c>
+      <c r="D43" s="193" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" t="s">
+        <v>467</v>
+      </c>
+      <c r="D44" s="193" t="s">
         <v>378</v>
-      </c>
-      <c r="B44" t="s">
-        <v>379</v>
-      </c>
-      <c r="C44" t="s">
-        <v>469</v>
-      </c>
-      <c r="D44" s="194" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C45" t="s">
-        <v>469</v>
-      </c>
-      <c r="D45" s="194" t="s">
-        <v>468</v>
+        <v>467</v>
+      </c>
+      <c r="D45" s="193" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" t="s">
+        <v>467</v>
+      </c>
+      <c r="D46" s="193" t="s">
         <v>379</v>
-      </c>
-      <c r="C46" t="s">
-        <v>469</v>
-      </c>
-      <c r="D46" s="194" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>469</v>
-      </c>
-      <c r="D47" s="194" t="s">
-        <v>382</v>
+        <v>467</v>
+      </c>
+      <c r="D47" s="193" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -7931,13 +7926,13 @@
         <v>338</v>
       </c>
       <c r="B48" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C48" t="s">
+        <v>467</v>
+      </c>
+      <c r="D48" s="184" t="s">
         <v>469</v>
-      </c>
-      <c r="D48" s="184" t="s">
-        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -7995,8 +7990,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8021,221 +8016,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="289" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
-        <v>360</v>
-      </c>
-      <c r="B2" s="288" t="s">
+      <c r="A2" s="309" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="290" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="285" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="290" t="s">
+      <c r="A3" s="312" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="291" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="201" t="s">
         <v>304</v>
       </c>
-      <c r="N3" s="202" t="s">
-        <v>373</v>
-      </c>
-      <c r="O3" s="204" t="s">
-        <v>373</v>
-      </c>
-      <c r="P3" s="207"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="205">
-        <v>8</v>
-      </c>
-      <c r="B4" s="289" t="s">
+      <c r="N3" s="201" t="s">
+        <v>371</v>
+      </c>
+      <c r="O3" s="202" t="s">
+        <v>371</v>
+      </c>
+      <c r="P3" s="204"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="315" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
+      <c r="B4" s="316"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="283" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289" t="s">
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
       <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
       <c r="N4" s="167" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O4" s="167" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="A5" s="318"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="284"/>
+      <c r="I5" s="284"/>
+      <c r="J5" s="284" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201" t="s">
+      <c r="K5" s="284"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200" t="s">
+        <v>389</v>
+      </c>
+      <c r="O5" s="205" t="s">
         <v>391</v>
       </c>
-      <c r="O5" s="208" t="s">
-        <v>393</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
-      <c r="B6" s="286" t="s">
+      <c r="A6" s="318" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="B6" s="319"/>
+      <c r="C6" s="320"/>
+      <c r="D6" s="284" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201" t="s">
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="284"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200" t="s">
+        <v>390</v>
+      </c>
+      <c r="O6" s="205" t="s">
         <v>392</v>
       </c>
-      <c r="O6" s="208" t="s">
-        <v>394</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
-      <c r="B7" s="286" t="s">
+      <c r="A7" s="318" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="B7" s="319"/>
+      <c r="C7" s="320"/>
+      <c r="D7" s="284" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="A8" s="318"/>
+      <c r="B8" s="319"/>
+      <c r="C8" s="320"/>
+      <c r="D8" s="284" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="284"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="286" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="288"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8244,8 +8233,8 @@
       <c r="B11" s="133" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="195" t="s">
-        <v>373</v>
+      <c r="C11" s="194" t="s">
+        <v>371</v>
       </c>
       <c r="D11" s="126" t="s">
         <v>273</v>
@@ -8265,8 +8254,8 @@
       <c r="I11" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="193"/>
-      <c r="L11" s="193"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="149"/>
@@ -8274,7 +8263,7 @@
         <v>253</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D12" s="148" t="s">
         <v>94</v>
@@ -8318,69 +8307,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="274" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
+      <c r="A16" s="268" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="270"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="272"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="273"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="270"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="274"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="276"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8392,12 +8381,12 @@
       <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8407,10 +8396,10 @@
         <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D23" s="181" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8421,9 +8410,9 @@
         <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>455</v>
-      </c>
-      <c r="D24" s="194" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="193" t="s">
         <v>339</v>
       </c>
     </row>
@@ -8435,7 +8424,7 @@
         <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D25" s="181" t="s">
         <v>340</v>
@@ -8449,10 +8438,10 @@
         <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D26" s="181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8463,7 +8452,7 @@
         <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D27" s="184" t="s">
         <v>341</v>
@@ -8477,10 +8466,10 @@
         <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>455</v>
-      </c>
-      <c r="D28" s="194" t="s">
-        <v>398</v>
+        <v>453</v>
+      </c>
+      <c r="D28" s="193" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8491,10 +8480,10 @@
         <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
-      </c>
-      <c r="D29" s="194" t="s">
-        <v>397</v>
+        <v>453</v>
+      </c>
+      <c r="D29" s="193" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8505,10 +8494,10 @@
         <v>318</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
-      </c>
-      <c r="D30" s="194" t="s">
-        <v>399</v>
+        <v>453</v>
+      </c>
+      <c r="D30" s="193" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8519,9 +8508,9 @@
         <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
-      </c>
-      <c r="D31" s="194" t="s">
+        <v>453</v>
+      </c>
+      <c r="D31" s="193" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8533,10 +8522,10 @@
         <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
-      </c>
-      <c r="D32" s="194" t="s">
-        <v>400</v>
+        <v>453</v>
+      </c>
+      <c r="D32" s="193" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8547,262 +8536,262 @@
         <v>346</v>
       </c>
       <c r="C33" t="s">
-        <v>455</v>
-      </c>
-      <c r="D33" s="194" t="s">
-        <v>401</v>
+        <v>453</v>
+      </c>
+      <c r="D33" s="193" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D34" s="181" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D35" s="181" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D36" s="181" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B37" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D37" s="181" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D38" s="181" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D39" s="181" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D40" s="181" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B41" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D41" s="181" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D42" s="181" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B43" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C43" t="s">
+        <v>453</v>
+      </c>
+      <c r="D43" s="181" t="s">
         <v>455</v>
-      </c>
-      <c r="D43" s="181" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D44" s="181" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D45" s="181" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D46" s="181" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D47" s="181" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D48" s="181" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D49" s="181" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C50" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D50" s="181" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D51" s="181" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8813,28 +8802,46 @@
         <v>346</v>
       </c>
       <c r="C52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D52" s="194" t="s">
-        <v>401</v>
+        <v>453</v>
+      </c>
+      <c r="D52" s="193" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D53" s="181" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
@@ -8843,29 +8850,11 @@
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8957,101 +8946,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="289" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="290" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="285" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="291" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="201" t="s">
         <v>303</v>
       </c>
-      <c r="N3" s="202" t="s">
+      <c r="N3" s="201" t="s">
         <v>302</v>
       </c>
-      <c r="O3" s="202" t="s">
-        <v>373</v>
-      </c>
-      <c r="P3" s="202" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q3" s="206"/>
+      <c r="O3" s="201" t="s">
+        <v>371</v>
+      </c>
+      <c r="P3" s="201" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q3" s="203"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="283" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="289"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289"/>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
       <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
@@ -9059,105 +9048,105 @@
         <v>154</v>
       </c>
       <c r="O4" s="167" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P4" s="167" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="295" t="s">
+      <c r="A5" s="284"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="201" t="s">
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="200" t="s">
         <v>294</v>
       </c>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201" t="s">
-        <v>395</v>
-      </c>
-      <c r="P5" s="201" t="s">
-        <v>396</v>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200" t="s">
+        <v>393</v>
+      </c>
+      <c r="P5" s="200" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="295"/>
-      <c r="H6" s="295"/>
-      <c r="I6" s="295"/>
-      <c r="J6" s="295"/>
-      <c r="K6" s="295"/>
-      <c r="L6" s="295"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
+      <c r="A6" s="284"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="292"/>
+      <c r="I6" s="292"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="292"/>
+      <c r="L6" s="292"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="295"/>
-      <c r="K7" s="295"/>
-      <c r="L7" s="295"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="A7" s="284"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="292"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="295"/>
-      <c r="H8" s="295"/>
-      <c r="I8" s="295"/>
-      <c r="J8" s="295"/>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
+      <c r="A8" s="284"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
       <c r="P8" s="166"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="286" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="288"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9166,8 +9155,8 @@
       <c r="B11" s="133" t="s">
         <v>337</v>
       </c>
-      <c r="C11" s="195" t="s">
-        <v>373</v>
+      <c r="C11" s="194" t="s">
+        <v>371</v>
       </c>
       <c r="D11" s="126" t="s">
         <v>273</v>
@@ -9194,7 +9183,7 @@
         <v>253</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D12" s="148" t="s">
         <v>94</v>
@@ -9239,69 +9228,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="274" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
-        <v>370</v>
-      </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
+      <c r="A16" s="268" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="270"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="272"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="273"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="270"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="274"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="276"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9313,12 +9302,12 @@
       <c r="C22" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9328,10 +9317,10 @@
         <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D23" s="181" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9342,9 +9331,9 @@
         <v>342</v>
       </c>
       <c r="C24" t="s">
-        <v>465</v>
-      </c>
-      <c r="D24" s="194" t="s">
+        <v>463</v>
+      </c>
+      <c r="D24" s="193" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9356,7 +9345,7 @@
         <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D25" s="181" t="s">
         <v>340</v>
@@ -9370,10 +9359,10 @@
         <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D26" s="181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9384,7 +9373,7 @@
         <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D27" s="184" t="s">
         <v>341</v>
@@ -9398,10 +9387,10 @@
         <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>465</v>
-      </c>
-      <c r="D28" s="194" t="s">
-        <v>411</v>
+        <v>463</v>
+      </c>
+      <c r="D28" s="193" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9412,10 +9401,10 @@
         <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>465</v>
-      </c>
-      <c r="D29" s="194" t="s">
-        <v>397</v>
+        <v>463</v>
+      </c>
+      <c r="D29" s="193" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9426,10 +9415,10 @@
         <v>318</v>
       </c>
       <c r="C30" t="s">
-        <v>465</v>
-      </c>
-      <c r="D30" s="194" t="s">
-        <v>412</v>
+        <v>463</v>
+      </c>
+      <c r="D30" s="193" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9440,9 +9429,9 @@
         <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>465</v>
-      </c>
-      <c r="D31" s="194" t="s">
+        <v>463</v>
+      </c>
+      <c r="D31" s="193" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9454,24 +9443,24 @@
         <v>346</v>
       </c>
       <c r="C32" t="s">
-        <v>465</v>
-      </c>
-      <c r="D32" s="194" t="s">
+        <v>463</v>
+      </c>
+      <c r="D32" s="193" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D33" s="181" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9482,24 +9471,14 @@
         <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>465</v>
-      </c>
-      <c r="D34" s="194" t="s">
+        <v>463</v>
+      </c>
+      <c r="D34" s="193" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9516,6 +9495,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9597,12 +9586,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="293" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="298"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="295"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9685,25 +9674,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="214" t="s">
-        <v>476</v>
+      <c r="A7" s="211" t="s">
+        <v>474</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="C7" s="215"/>
+        <v>475</v>
+      </c>
+      <c r="C7" s="212"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="214" t="s">
-        <v>478</v>
+      <c r="A8" s="211" t="s">
+        <v>476</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="215"/>
+        <v>477</v>
+      </c>
+      <c r="C8" s="212"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -10363,23 +10352,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="299" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10397,17 +10386,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="301"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="298"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10598,21 +10587,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="299" t="s">
+      <c r="B19" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="300"/>
-      <c r="I19" s="300"/>
-      <c r="J19" s="300"/>
-      <c r="K19" s="300"/>
-      <c r="L19" s="300"/>
-      <c r="M19" s="300"/>
-      <c r="N19" s="301"/>
+      <c r="C19" s="297"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="297"/>
+      <c r="G19" s="297"/>
+      <c r="H19" s="297"/>
+      <c r="I19" s="297"/>
+      <c r="J19" s="297"/>
+      <c r="K19" s="297"/>
+      <c r="L19" s="297"/>
+      <c r="M19" s="297"/>
+      <c r="N19" s="298"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10814,27 +10803,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="304" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="308"/>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="308"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="305"/>
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="305"/>
+      <c r="L1" s="305"/>
+      <c r="M1" s="305"/>
+      <c r="N1" s="305"/>
+      <c r="O1" s="305"/>
+      <c r="P1" s="305"/>
+      <c r="Q1" s="305"/>
+      <c r="R1" s="305"/>
+      <c r="S1" s="305"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10848,26 +10837,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="301"/>
-      <c r="L3" s="304" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="298"/>
+      <c r="L3" s="301" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="305"/>
-      <c r="N3" s="305"/>
-      <c r="O3" s="305"/>
-      <c r="P3" s="305"/>
-      <c r="Q3" s="305"/>
-      <c r="R3" s="306"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="303"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11098,23 +11087,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="306" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
-      <c r="J1" s="310"/>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="310"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="311"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="308"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11127,22 +11116,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="301"/>
-      <c r="J3" s="304" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="298"/>
+      <c r="J3" s="301" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="306"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="303"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="479">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2372,6 +2372,9 @@
   </si>
   <si>
     <t>if true, output statistics file for batch analysis</t>
+  </si>
+  <si>
+    <t>Unique</t>
   </si>
 </sst>
 </file>
@@ -3877,20 +3880,116 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3913,102 +4012,6 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4087,12 +4090,30 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4105,14 +4126,32 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4167,42 +4206,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5055,86 +5058,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="236" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="227"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="238"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
+      <c r="A3" s="215" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="242"/>
+      <c r="B3" s="216"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="229" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="230"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="256"/>
+      <c r="B5" s="232"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="241" t="s">
+      <c r="A7" s="215" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="243"/>
-      <c r="K7" s="242"/>
+      <c r="B7" s="217"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="216"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="239" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="241"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
+      <c r="A9" s="242"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="244"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5145,62 +5148,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244" t="s">
+      <c r="A11" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="246"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="220"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="247" t="s">
+      <c r="A12" s="221" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249" t="s">
+      <c r="B12" s="222"/>
+      <c r="C12" s="223" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="250"/>
+      <c r="D12" s="224"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="251"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="254"/>
+      <c r="A13" s="225"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="244" t="s">
+      <c r="A15" s="218" t="s">
         <v>278</v>
       </c>
-      <c r="B15" s="246"/>
-      <c r="E15" s="244" t="s">
+      <c r="B15" s="220"/>
+      <c r="E15" s="218" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="246"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="220"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="240"/>
+      <c r="B16" s="230"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="234" t="s">
+      <c r="E16" s="245" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="236"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="246"/>
+      <c r="I16" s="247"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5210,10 +5213,10 @@
         <v>281</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="237" t="s">
+      <c r="E17" s="248" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="238"/>
+      <c r="F17" s="249"/>
       <c r="G17" s="83" t="s">
         <v>159</v>
       </c>
@@ -5243,7 +5246,7 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="213" t="s">
+      <c r="I18" s="233" t="s">
         <v>472</v>
       </c>
       <c r="J18" s="81"/>
@@ -5266,7 +5269,7 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="213"/>
+      <c r="I19" s="233"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5283,7 +5286,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="214"/>
+      <c r="I20" s="234"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5305,24 +5308,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="213" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="216"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="217"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="214"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="213" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="217"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="221" t="s">
+      <c r="E24" s="253" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="222"/>
+      <c r="F24" s="254"/>
       <c r="G24" s="82" t="s">
         <v>159</v>
       </c>
@@ -5351,7 +5354,7 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="218" t="s">
+      <c r="I25" s="250" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5375,7 +5378,7 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="219"/>
+      <c r="I26" s="251"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5391,7 +5394,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="220"/>
+      <c r="I27" s="252"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5415,22 +5418,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="217"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="214"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="223" t="s">
+      <c r="E31" s="255" t="s">
         <v>470</v>
       </c>
-      <c r="F31" s="224"/>
+      <c r="F31" s="256"/>
       <c r="G31" s="209" t="s">
         <v>159</v>
       </c>
@@ -5442,10 +5445,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="213" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="217"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="32"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5455,7 +5458,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="213"/>
+      <c r="I32" s="233"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5475,7 +5478,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="213"/>
+      <c r="I33" s="233"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5490,7 +5493,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="213"/>
+      <c r="I34" s="233"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5503,7 +5506,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="213"/>
+      <c r="I35" s="233"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5516,7 +5519,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="213"/>
+      <c r="I36" s="233"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5529,7 +5532,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="214"/>
+      <c r="I37" s="234"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5542,17 +5545,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="213" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
-      <c r="H40" s="216"/>
-      <c r="I40" s="217"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="235"/>
+      <c r="H40" s="235"/>
+      <c r="I40" s="214"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="221"/>
-      <c r="F41" s="222"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="254"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
@@ -5570,7 +5573,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="213"/>
+      <c r="I42" s="233"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5579,7 +5582,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="213"/>
+      <c r="I43" s="233"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5588,7 +5591,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="213"/>
+      <c r="I44" s="233"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5597,7 +5600,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="213"/>
+      <c r="I45" s="233"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5606,7 +5609,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="213"/>
+      <c r="I46" s="233"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5615,11 +5618,25 @@
       <c r="F47" s="141"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="214"/>
+      <c r="I47" s="234"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5635,20 +5652,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5662,8 +5665,8 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6032,7 +6035,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="E13" s="110" t="s">
         <v>227</v>
@@ -7990,7 +7993,7 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
@@ -8016,68 +8019,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="287" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
-      <c r="O1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="295" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="290" t="s">
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="288" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="285" t="s">
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
         <v>299</v>
       </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="298" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="291" t="s">
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="290" t="s">
         <v>306</v>
       </c>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
       <c r="M3" s="201" t="s">
         <v>304</v>
       </c>
@@ -8090,26 +8093,26 @@
       <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="315" t="s">
+      <c r="A4" s="301" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="316"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="283" t="s">
+      <c r="B4" s="302"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283" t="s">
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289" t="s">
         <v>307</v>
       </c>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="167" t="s">
         <v>154</v>
       </c>
@@ -8121,22 +8124,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="318"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="320"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284" t="s">
+      <c r="A5" s="284"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="283" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284" t="s">
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="283" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
       <c r="M5" s="200"/>
       <c r="N5" s="200" t="s">
         <v>389</v>
@@ -8146,24 +8149,24 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="319"/>
-      <c r="C6" s="320"/>
-      <c r="D6" s="284" t="s">
+      <c r="B6" s="285"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="283" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="284" t="s">
+      <c r="E6" s="283"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="283" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
+      <c r="H6" s="283"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="283"/>
       <c r="M6" s="200"/>
       <c r="N6" s="200" t="s">
         <v>390</v>
@@ -8173,58 +8176,58 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="318" t="s">
+      <c r="A7" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="319"/>
-      <c r="C7" s="320"/>
-      <c r="D7" s="284" t="s">
+      <c r="B7" s="285"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="283" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="283"/>
+      <c r="I7" s="283"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="283"/>
+      <c r="L7" s="283"/>
       <c r="M7" s="200"/>
       <c r="N7" s="200"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="318"/>
-      <c r="B8" s="319"/>
-      <c r="C8" s="320"/>
-      <c r="D8" s="284" t="s">
+      <c r="A8" s="284"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="283" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="283"/>
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
       <c r="M8" s="200"/>
       <c r="N8" s="200"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
+      <c r="A10" s="292" t="s">
         <v>359</v>
       </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="288"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8824,13 +8827,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -8843,18 +8851,13 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8946,68 +8949,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="287" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
-      <c r="O1" s="289"/>
-      <c r="P1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="288" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290" t="s">
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="285" t="s">
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="290" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291" t="s">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
       <c r="M3" s="201" t="s">
         <v>303</v>
       </c>
@@ -9023,24 +9026,24 @@
       <c r="Q3" s="203"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="289" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283" t="s">
+      <c r="B4" s="289"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="167" t="s">
         <v>254</v>
       </c>
@@ -9055,20 +9058,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="284"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="292" t="s">
+      <c r="A5" s="283"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
       <c r="M5" s="200" t="s">
         <v>294</v>
       </c>
@@ -9081,54 +9084,54 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="284"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="292"/>
-      <c r="I6" s="292"/>
-      <c r="J6" s="292"/>
-      <c r="K6" s="292"/>
-      <c r="L6" s="292"/>
+      <c r="A6" s="283"/>
+      <c r="B6" s="283"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="283"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="304"/>
+      <c r="J6" s="304"/>
+      <c r="K6" s="304"/>
+      <c r="L6" s="304"/>
       <c r="M6" s="200"/>
       <c r="N6" s="200"/>
       <c r="O6" s="200"/>
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="284"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="292"/>
-      <c r="L7" s="292"/>
+      <c r="A7" s="283"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="304"/>
+      <c r="H7" s="304"/>
+      <c r="I7" s="304"/>
+      <c r="J7" s="304"/>
+      <c r="K7" s="304"/>
+      <c r="L7" s="304"/>
       <c r="M7" s="200"/>
       <c r="N7" s="200"/>
       <c r="O7" s="200"/>
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="284"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="292"/>
-      <c r="K8" s="292"/>
-      <c r="L8" s="292"/>
+      <c r="A8" s="283"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="304"/>
+      <c r="K8" s="304"/>
+      <c r="L8" s="304"/>
       <c r="M8" s="200"/>
       <c r="N8" s="200"/>
       <c r="O8" s="200"/>
@@ -9136,17 +9139,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
+      <c r="A10" s="292" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="288"/>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9479,6 +9482,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9495,16 +9508,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9586,12 +9589,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="305" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="295"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="307"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -10352,23 +10355,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="311" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10386,17 +10389,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="298"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="310"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10587,21 +10590,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="296" t="s">
+      <c r="B19" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="297"/>
-      <c r="D19" s="297"/>
-      <c r="E19" s="297"/>
-      <c r="F19" s="297"/>
-      <c r="G19" s="297"/>
-      <c r="H19" s="297"/>
-      <c r="I19" s="297"/>
-      <c r="J19" s="297"/>
-      <c r="K19" s="297"/>
-      <c r="L19" s="297"/>
-      <c r="M19" s="297"/>
-      <c r="N19" s="298"/>
+      <c r="C19" s="309"/>
+      <c r="D19" s="309"/>
+      <c r="E19" s="309"/>
+      <c r="F19" s="309"/>
+      <c r="G19" s="309"/>
+      <c r="H19" s="309"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="309"/>
+      <c r="L19" s="309"/>
+      <c r="M19" s="309"/>
+      <c r="N19" s="310"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10803,27 +10806,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="316" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="305"/>
-      <c r="O1" s="305"/>
-      <c r="P1" s="305"/>
-      <c r="Q1" s="305"/>
-      <c r="R1" s="305"/>
-      <c r="S1" s="305"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
+      <c r="L1" s="317"/>
+      <c r="M1" s="317"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="317"/>
+      <c r="P1" s="317"/>
+      <c r="Q1" s="317"/>
+      <c r="R1" s="317"/>
+      <c r="S1" s="317"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10837,26 +10840,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="298"/>
-      <c r="L3" s="301" t="s">
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="310"/>
+      <c r="L3" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="302"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
-      <c r="R3" s="303"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="314"/>
+      <c r="P3" s="314"/>
+      <c r="Q3" s="314"/>
+      <c r="R3" s="315"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11087,23 +11090,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="318" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="308"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11116,22 +11119,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="298"/>
-      <c r="J3" s="301" t="s">
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="310"/>
+      <c r="J3" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="303"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="315"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="482">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -773,12 +773,6 @@
   </si>
   <si>
     <t>Preferences for Transfer Curve Analysis</t>
-  </si>
-  <si>
-    <t>Sample Column Name</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Comparisons</t>
@@ -889,9 +883,6 @@
   </si>
   <si>
     <t>Shortened Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
   </si>
   <si>
     <t>Optional</t>
@@ -1099,9 +1090,6 @@
   </si>
   <si>
     <t>Preferences potentially unique to each transfer curve analysis</t>
-  </si>
-  <si>
-    <t>Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons.</t>
   </si>
   <si>
     <t>Preferences potentially unique to each plusminus analysis</t>
@@ -1151,30 +1139,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. Each group corresponds to a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>separate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -2073,12 +2037,6 @@
     <t>plusminus2/plots</t>
   </si>
   <si>
-    <t>transfercurve</t>
-  </si>
-  <si>
-    <t>transfercurve/plots</t>
-  </si>
-  <si>
     <t>Missing Output Filename in "Calibration" sheet. Defaulting to exp name.</t>
   </si>
   <si>
@@ -2376,35 +2334,105 @@
   <si>
     <t>Unique</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample Column Name=Value</t>
+  </si>
+  <si>
+    <t>DOSE=Low</t>
+  </si>
+  <si>
+    <t>DOSE = High</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. Each group corresponds to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
+  <si>
+    <t>transfercurve1</t>
+  </si>
+  <si>
+    <t>transfercurve1/plots</t>
+  </si>
+  <si>
+    <t>DOSE = Low, 10xDox = 0.1</t>
+  </si>
+  <si>
+    <t>transfercurve2</t>
+  </si>
+  <si>
+    <t>transfercurve2/plots</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3295,25 +3323,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3329,7 +3357,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3340,28 +3368,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3382,62 +3410,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3448,57 +3476,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3516,19 +3544,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3537,46 +3565,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3594,83 +3622,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3685,37 +3713,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3724,53 +3752,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3785,20 +3801,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3821,45 +3837,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3869,7 +3873,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -3880,10 +3884,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3904,145 +3986,67 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4063,149 +4067,168 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5058,86 +5081,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="236" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="238"/>
+      <c r="A1" s="217" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="219"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="215" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="216"/>
+      <c r="A3" s="233" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="234"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="230"/>
+      <c r="B4" s="232"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="247" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="232"/>
+      <c r="B5" s="248"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="215" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="217"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="216"/>
+      <c r="A7" s="233" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="234"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="220" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="241"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="222"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242"/>
-      <c r="B9" s="243"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="243"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="243"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="244"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="225"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5148,89 +5171,89 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="218" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="219"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="220"/>
+      <c r="A11" s="236" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="238"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="239" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="222"/>
-      <c r="C12" s="223" t="s">
+      <c r="B12" s="240"/>
+      <c r="C12" s="241" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="224"/>
+      <c r="D12" s="242"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
-      <c r="B13" s="226"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="228"/>
+      <c r="A13" s="243"/>
+      <c r="B13" s="244"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="246"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="218" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" s="220"/>
-      <c r="E15" s="218" t="s">
-        <v>320</v>
-      </c>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="220"/>
+      <c r="A15" s="236" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="238"/>
+      <c r="E15" s="236" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="237"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="238"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="229" t="s">
+      <c r="A16" s="231" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="230"/>
+      <c r="B16" s="232"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="245" t="s">
+      <c r="E16" s="226" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="247"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="228"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
         <v>237</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="248" t="s">
+      <c r="E17" s="229" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="249"/>
+      <c r="F17" s="230"/>
       <c r="G17" s="83" t="s">
         <v>159</v>
       </c>
       <c r="H17" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="195" t="s">
-        <v>361</v>
+      <c r="I17" s="191" t="s">
+        <v>356</v>
       </c>
       <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="159" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B18" s="91" t="s">
         <v>238</v>
@@ -5246,14 +5269,14 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="233" t="s">
-        <v>472</v>
+      <c r="I18" s="205" t="s">
+        <v>465</v>
       </c>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="160" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B19" s="117"/>
       <c r="C19" s="90"/>
@@ -5269,12 +5292,12 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="233"/>
+      <c r="I19" s="205"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="160" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B20" s="117"/>
       <c r="C20" s="92"/>
@@ -5286,12 +5309,12 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="234"/>
+      <c r="I20" s="206"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="160" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B21" s="117"/>
       <c r="C21" s="32"/>
@@ -5308,32 +5331,32 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="213" t="s">
+      <c r="E23" s="207" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="214"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="209"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213" t="s">
+      <c r="A24" s="207" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="214"/>
+      <c r="B24" s="209"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="253" t="s">
+      <c r="E24" s="213" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="254"/>
+      <c r="F24" s="214"/>
       <c r="G24" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H24" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="195" t="s">
-        <v>362</v>
+      <c r="I24" s="191" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5341,7 +5364,7 @@
         <v>237</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" s="32"/>
       <c r="E25" s="84">
@@ -5354,13 +5377,13 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="250" t="s">
-        <v>473</v>
+      <c r="I25" s="210" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="159" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B26" s="91" t="s">
         <v>238</v>
@@ -5378,11 +5401,11 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="251"/>
+      <c r="I26" s="211"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B27" s="117"/>
       <c r="C27" s="92"/>
@@ -5394,11 +5417,11 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="252"/>
+      <c r="I27" s="212"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B28" s="117"/>
       <c r="C28" s="32"/>
@@ -5418,37 +5441,37 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="213" t="s">
+      <c r="E30" s="207" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="235"/>
-      <c r="G30" s="235"/>
-      <c r="H30" s="235"/>
-      <c r="I30" s="214"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="209"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="255" t="s">
-        <v>470</v>
-      </c>
-      <c r="F31" s="256"/>
-      <c r="G31" s="209" t="s">
+      <c r="E31" s="215" t="s">
+        <v>463</v>
+      </c>
+      <c r="F31" s="216"/>
+      <c r="G31" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="209" t="s">
+      <c r="H31" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="195" t="s">
-        <v>363</v>
+      <c r="I31" s="191" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="207" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="214"/>
+      <c r="B32" s="209"/>
       <c r="C32" s="32"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5458,14 +5481,14 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="233"/>
+      <c r="I32" s="205"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
         <v>237</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C33" s="90"/>
       <c r="E33" s="84">
@@ -5478,7 +5501,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="233"/>
+      <c r="I33" s="205"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5493,7 +5516,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="233"/>
+      <c r="I34" s="205"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5506,7 +5529,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="233"/>
+      <c r="I35" s="205"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5519,7 +5542,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="233"/>
+      <c r="I36" s="205"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5532,7 +5555,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="234"/>
+      <c r="I37" s="206"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5545,25 +5568,25 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="213" t="s">
+      <c r="E40" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="235"/>
-      <c r="G40" s="235"/>
-      <c r="H40" s="235"/>
-      <c r="I40" s="214"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="209"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="253"/>
-      <c r="F41" s="254"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="214"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="195" t="s">
-        <v>364</v>
+      <c r="I41" s="191" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5573,7 +5596,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="233"/>
+      <c r="I42" s="205"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5582,7 +5605,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="233"/>
+      <c r="I43" s="205"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5591,7 +5614,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="233"/>
+      <c r="I44" s="205"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5600,7 +5623,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="233"/>
+      <c r="I45" s="205"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5609,7 +5632,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="233"/>
+      <c r="I46" s="205"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5618,25 +5641,11 @@
       <c r="F47" s="141"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="234"/>
+      <c r="I47" s="206"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5652,6 +5661,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5665,7 +5688,7 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5691,32 +5714,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="259" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="261"/>
+      <c r="A1" s="251" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="253"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="254" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="264"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="256"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5724,27 +5747,27 @@
       <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="182" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="265" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="182" t="s">
-        <v>323</v>
-      </c>
-      <c r="I3" s="182" t="s">
-        <v>324</v>
-      </c>
-      <c r="J3" s="183" t="s">
-        <v>325</v>
+      <c r="A3" s="175" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="178" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="178" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="178" t="s">
+        <v>319</v>
+      </c>
+      <c r="J3" s="179" t="s">
+        <v>320</v>
       </c>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
@@ -5763,16 +5786,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="140" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F4" s="140" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G4" s="140" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H4" s="140" t="s">
         <v>202</v>
@@ -5780,8 +5803,8 @@
       <c r="I4" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="199" t="s">
-        <v>413</v>
+      <c r="J4" s="195" t="s">
+        <v>406</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5791,19 +5814,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C5" s="110">
         <v>0.1</v>
       </c>
       <c r="D5" s="110" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E5" s="110" t="s">
         <v>224</v>
       </c>
       <c r="F5" s="110" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G5" s="110">
         <v>0.1</v>
@@ -5815,7 +5838,7 @@
         <v>203</v>
       </c>
       <c r="J5" s="113"/>
-      <c r="K5" s="210"/>
+      <c r="K5" s="202"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="109">
@@ -5829,13 +5852,13 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E6" s="110" t="s">
         <v>225</v>
       </c>
       <c r="F6" s="110" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G6" s="110">
         <v>0.2</v>
@@ -5847,7 +5870,7 @@
         <v>204</v>
       </c>
       <c r="J6" s="113"/>
-      <c r="K6" s="210"/>
+      <c r="K6" s="202"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="109">
@@ -5861,7 +5884,7 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="110" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E7" s="110" t="s">
         <v>226</v>
@@ -5875,7 +5898,7 @@
         <v>205</v>
       </c>
       <c r="J7" s="113"/>
-      <c r="K7" s="210"/>
+      <c r="K7" s="202"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="109">
@@ -5889,13 +5912,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="110" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E8" s="110" t="s">
         <v>227</v>
       </c>
       <c r="F8" s="110" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G8" s="110">
         <v>0.1</v>
@@ -5907,7 +5930,7 @@
         <v>206</v>
       </c>
       <c r="J8" s="113"/>
-      <c r="K8" s="210"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="109">
@@ -5921,11 +5944,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="110" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="110" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G9" s="110">
         <v>0.2</v>
@@ -5937,7 +5960,7 @@
         <v>207</v>
       </c>
       <c r="J9" s="113"/>
-      <c r="K9" s="210"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="109">
@@ -5951,7 +5974,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E10" s="110" t="s">
         <v>224</v>
@@ -5965,7 +5988,7 @@
         <v>208</v>
       </c>
       <c r="J10" s="113"/>
-      <c r="K10" s="210"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="109">
@@ -5979,7 +6002,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="110" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E11" s="110" t="s">
         <v>225</v>
@@ -5993,7 +6016,7 @@
         <v>209</v>
       </c>
       <c r="J11" s="113"/>
-      <c r="K11" s="210"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="109">
@@ -6007,7 +6030,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="110" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E12" s="110" t="s">
         <v>226</v>
@@ -6021,7 +6044,7 @@
         <v>210</v>
       </c>
       <c r="J12" s="113"/>
-      <c r="K12" s="210"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109">
@@ -6035,7 +6058,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E13" s="110" t="s">
         <v>227</v>
@@ -6049,7 +6072,7 @@
         <v>211</v>
       </c>
       <c r="J13" s="113"/>
-      <c r="K13" s="210"/>
+      <c r="K13" s="202"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="109">
@@ -6063,11 +6086,11 @@
         <v>100</v>
       </c>
       <c r="D14" s="110" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E14" s="110"/>
       <c r="F14" s="110" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G14" s="110">
         <v>100</v>
@@ -6079,7 +6102,7 @@
         <v>212</v>
       </c>
       <c r="J14" s="113"/>
-      <c r="K14" s="210"/>
+      <c r="K14" s="202"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="109">
@@ -6093,13 +6116,13 @@
         <v>200</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E15" s="110" t="s">
         <v>224</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G15" s="110">
         <v>200</v>
@@ -6111,7 +6134,7 @@
         <v>213</v>
       </c>
       <c r="J15" s="113"/>
-      <c r="K15" s="210"/>
+      <c r="K15" s="202"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="109">
@@ -6125,7 +6148,7 @@
         <v>500</v>
       </c>
       <c r="D16" s="110" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E16" s="110" t="s">
         <v>225</v>
@@ -6139,7 +6162,7 @@
         <v>214</v>
       </c>
       <c r="J16" s="113"/>
-      <c r="K16" s="210"/>
+      <c r="K16" s="202"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109">
@@ -6153,13 +6176,13 @@
         <v>1000</v>
       </c>
       <c r="D17" s="110" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E17" s="110" t="s">
         <v>226</v>
       </c>
       <c r="F17" s="110" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G17" s="110">
         <v>100</v>
@@ -6171,7 +6194,7 @@
         <v>215</v>
       </c>
       <c r="J17" s="113"/>
-      <c r="K17" s="210"/>
+      <c r="K17" s="202"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="109">
@@ -6185,13 +6208,13 @@
         <v>2000</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E18" s="110" t="s">
         <v>227</v>
       </c>
       <c r="F18" s="110" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G18" s="110">
         <v>200</v>
@@ -6203,7 +6226,7 @@
         <v>216</v>
       </c>
       <c r="J18" s="113"/>
-      <c r="K18" s="210"/>
+      <c r="K18" s="202"/>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="109">
@@ -6225,7 +6248,7 @@
       <c r="J19" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="210"/>
+      <c r="K19" s="202"/>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="109">
@@ -6247,7 +6270,7 @@
       <c r="J20" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="210"/>
+      <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="109">
@@ -6269,7 +6292,7 @@
       <c r="J21" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="210"/>
+      <c r="K21" s="202"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="109">
@@ -6291,7 +6314,7 @@
       <c r="J22" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="210"/>
+      <c r="K22" s="202"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="109">
@@ -6313,7 +6336,7 @@
       <c r="J23" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="210"/>
+      <c r="K23" s="202"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="109">
@@ -6335,103 +6358,103 @@
       <c r="J24" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="210"/>
+      <c r="K24" s="202"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="173">
+      <c r="A25" s="169">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="174" t="s">
-        <v>311</v>
-      </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="176">
+      <c r="B25" s="170" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="172">
         <v>2</v>
       </c>
-      <c r="I25" s="177"/>
-      <c r="J25" s="178" t="s">
+      <c r="I25" s="173"/>
+      <c r="J25" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="210"/>
+      <c r="K25" s="202"/>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="277" t="s">
+      <c r="A27" s="269" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="278"/>
-      <c r="C27" s="278"/>
-      <c r="D27" s="278"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="278"/>
-      <c r="G27" s="278"/>
-      <c r="H27" s="278"/>
-      <c r="I27" s="278"/>
-      <c r="J27" s="278"/>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
-      <c r="M27" s="278"/>
-      <c r="N27" s="278"/>
-      <c r="O27" s="278"/>
-      <c r="P27" s="278"/>
-      <c r="Q27" s="279"/>
+      <c r="B27" s="270"/>
+      <c r="C27" s="270"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="270"/>
+      <c r="G27" s="270"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="270"/>
+      <c r="J27" s="270"/>
+      <c r="K27" s="270"/>
+      <c r="L27" s="270"/>
+      <c r="M27" s="270"/>
+      <c r="N27" s="270"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="270"/>
+      <c r="Q27" s="271"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="138" t="s">
-        <v>284</v>
-      </c>
-      <c r="B28" s="196" t="s">
-        <v>369</v>
-      </c>
-      <c r="C28" s="194" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" s="194" t="s">
-        <v>371</v>
-      </c>
-      <c r="E28" s="194" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="192" t="s">
+        <v>364</v>
+      </c>
+      <c r="C28" s="190" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" s="190" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" s="190" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" s="190" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" s="190" t="s">
+        <v>433</v>
+      </c>
+      <c r="H28" s="194" t="s">
+        <v>268</v>
+      </c>
+      <c r="I28" s="194" t="s">
+        <v>433</v>
+      </c>
+      <c r="J28" s="194" t="s">
+        <v>445</v>
+      </c>
+      <c r="K28" s="194" t="s">
+        <v>433</v>
+      </c>
+      <c r="L28" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="194" t="s">
-        <v>386</v>
-      </c>
-      <c r="G28" s="194" t="s">
-        <v>440</v>
-      </c>
-      <c r="H28" s="198" t="s">
+      <c r="M28" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="198" t="s">
-        <v>440</v>
-      </c>
-      <c r="J28" s="198" t="s">
-        <v>452</v>
-      </c>
-      <c r="K28" s="198" t="s">
-        <v>440</v>
-      </c>
-      <c r="L28" s="124" t="s">
-        <v>273</v>
-      </c>
-      <c r="M28" s="124" t="s">
-        <v>273</v>
-      </c>
       <c r="N28" s="124" t="s">
-        <v>273</v>
-      </c>
-      <c r="O28" s="194" t="s">
-        <v>279</v>
-      </c>
-      <c r="P28" s="194" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q28" s="197" t="s">
-        <v>279</v>
+        <v>270</v>
+      </c>
+      <c r="O28" s="190" t="s">
+        <v>276</v>
+      </c>
+      <c r="P28" s="190" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q28" s="193" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6440,31 +6463,31 @@
         <v>20</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E29" s="97" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F29" s="97" t="s">
         <v>154</v>
       </c>
       <c r="G29" s="97" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H29" s="97" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="I29" s="97" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="J29" s="97" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K29" s="97" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="L29" s="97" t="s">
         <v>94</v>
@@ -6476,38 +6499,38 @@
         <v>96</v>
       </c>
       <c r="O29" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="P29" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q29" s="119" t="s">
         <v>255</v>
-      </c>
-      <c r="P29" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q29" s="119" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="147"/>
-      <c r="B30" s="206" t="s">
-        <v>443</v>
+      <c r="B30" s="198" t="s">
+        <v>436</v>
       </c>
       <c r="C30" s="98"/>
       <c r="D30" s="98"/>
       <c r="E30" s="154" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F30" s="154"/>
       <c r="G30" s="154" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H30" s="154"/>
       <c r="I30" s="154" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J30" s="154">
         <v>3</v>
       </c>
       <c r="K30" s="154" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="L30" s="154">
         <v>100</v>
@@ -6528,534 +6551,534 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="274" t="s">
-        <v>283</v>
-      </c>
-      <c r="B32" s="275"/>
-      <c r="C32" s="275"/>
-      <c r="D32" s="275"/>
-      <c r="E32" s="275"/>
-      <c r="F32" s="275"/>
-      <c r="G32" s="275"/>
-      <c r="H32" s="276"/>
+      <c r="A32" s="266" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="267"/>
+      <c r="C32" s="267"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="267"/>
+      <c r="F32" s="267"/>
+      <c r="G32" s="267"/>
+      <c r="H32" s="268"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="268" t="s">
-        <v>366</v>
-      </c>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="270"/>
+      <c r="A33" s="260" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" s="261"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="261"/>
+      <c r="G33" s="261"/>
+      <c r="H33" s="262"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="268"/>
-      <c r="B34" s="269"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="269"/>
-      <c r="E34" s="269"/>
-      <c r="F34" s="269"/>
-      <c r="G34" s="269"/>
-      <c r="H34" s="270"/>
+      <c r="A34" s="260"/>
+      <c r="B34" s="261"/>
+      <c r="C34" s="261"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="261"/>
+      <c r="G34" s="261"/>
+      <c r="H34" s="262"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="268"/>
-      <c r="B35" s="269"/>
-      <c r="C35" s="269"/>
-      <c r="D35" s="269"/>
-      <c r="E35" s="269"/>
-      <c r="F35" s="269"/>
-      <c r="G35" s="269"/>
-      <c r="H35" s="270"/>
+      <c r="A35" s="260"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="261"/>
+      <c r="G35" s="261"/>
+      <c r="H35" s="262"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="271"/>
-      <c r="B36" s="272"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="272"/>
-      <c r="E36" s="272"/>
-      <c r="F36" s="272"/>
-      <c r="G36" s="272"/>
-      <c r="H36" s="273"/>
+      <c r="A36" s="263"/>
+      <c r="B36" s="264"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="264"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="264"/>
+      <c r="H36" s="265"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="258" t="s">
-        <v>312</v>
-      </c>
-      <c r="B38" s="258"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
+      <c r="A38" s="250" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" s="250"/>
+      <c r="C38" s="250"/>
+      <c r="D38" s="250"/>
+      <c r="E38" s="250"/>
+      <c r="F38" s="250"/>
+      <c r="G38" s="250"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D39" s="257" t="s">
-        <v>315</v>
-      </c>
-      <c r="E39" s="257"/>
-      <c r="F39" s="257"/>
-      <c r="G39" s="257"/>
+        <v>309</v>
+      </c>
+      <c r="D39" s="249" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="249"/>
+      <c r="F39" s="249"/>
+      <c r="G39" s="249"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C40" t="s">
-        <v>450</v>
-      </c>
-      <c r="D40" s="181" t="s">
-        <v>373</v>
+        <v>443</v>
+      </c>
+      <c r="D40" s="177" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D41" s="193" t="s">
-        <v>339</v>
+        <v>443</v>
+      </c>
+      <c r="D41" s="189" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" t="s">
         <v>338</v>
       </c>
-      <c r="B42" t="s">
-        <v>343</v>
-      </c>
       <c r="C42" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="181" t="s">
-        <v>340</v>
+        <v>443</v>
+      </c>
+      <c r="D42" s="177" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>450</v>
-      </c>
-      <c r="D43" s="181" t="s">
-        <v>360</v>
+        <v>443</v>
+      </c>
+      <c r="D43" s="177" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C44" t="s">
-        <v>450</v>
-      </c>
-      <c r="D44" s="184" t="s">
-        <v>341</v>
+        <v>443</v>
+      </c>
+      <c r="D44" s="180" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B45" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C45" t="s">
-        <v>450</v>
-      </c>
-      <c r="D45" s="193" t="s">
-        <v>415</v>
+        <v>443</v>
+      </c>
+      <c r="D45" s="189" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>450</v>
-      </c>
-      <c r="D46" s="193" t="s">
-        <v>395</v>
+        <v>443</v>
+      </c>
+      <c r="D46" s="189" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B47" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C47" t="s">
-        <v>450</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>416</v>
+        <v>443</v>
+      </c>
+      <c r="D47" s="189" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C48" t="s">
-        <v>450</v>
-      </c>
-      <c r="D48" s="193" t="s">
-        <v>418</v>
+        <v>443</v>
+      </c>
+      <c r="D48" s="189" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s">
-        <v>450</v>
-      </c>
-      <c r="D49" s="193" t="s">
-        <v>417</v>
+        <v>443</v>
+      </c>
+      <c r="D49" s="189" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C50" t="s">
-        <v>450</v>
-      </c>
-      <c r="D50" s="193" t="s">
-        <v>419</v>
+        <v>443</v>
+      </c>
+      <c r="D50" s="189" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C51" t="s">
-        <v>450</v>
-      </c>
-      <c r="D51" s="193" t="s">
-        <v>422</v>
+        <v>443</v>
+      </c>
+      <c r="D51" s="189" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B52" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C52" t="s">
-        <v>450</v>
-      </c>
-      <c r="D52" s="181" t="s">
-        <v>451</v>
+        <v>443</v>
+      </c>
+      <c r="D52" s="177" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C53" t="s">
-        <v>450</v>
-      </c>
-      <c r="D53" s="193" t="s">
-        <v>425</v>
+        <v>443</v>
+      </c>
+      <c r="D53" s="189" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C54" t="s">
-        <v>450</v>
-      </c>
-      <c r="D54" s="193" t="s">
-        <v>425</v>
+        <v>443</v>
+      </c>
+      <c r="D54" s="189" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C55" t="s">
-        <v>450</v>
-      </c>
-      <c r="D55" s="193" t="s">
-        <v>425</v>
+        <v>443</v>
+      </c>
+      <c r="D55" s="189" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C56" t="s">
-        <v>450</v>
-      </c>
-      <c r="D56" s="193" t="s">
-        <v>425</v>
+        <v>443</v>
+      </c>
+      <c r="D56" s="189" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C57" t="s">
-        <v>450</v>
-      </c>
-      <c r="D57" s="193" t="s">
-        <v>425</v>
+        <v>443</v>
+      </c>
+      <c r="D57" s="189" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C58" t="s">
-        <v>450</v>
-      </c>
-      <c r="D58" s="181" t="s">
-        <v>426</v>
+        <v>443</v>
+      </c>
+      <c r="D58" s="177" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s">
-        <v>450</v>
-      </c>
-      <c r="D59" s="181" t="s">
-        <v>427</v>
+        <v>443</v>
+      </c>
+      <c r="D59" s="177" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B60" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C60" t="s">
-        <v>450</v>
-      </c>
-      <c r="D60" s="181" t="s">
-        <v>428</v>
+        <v>443</v>
+      </c>
+      <c r="D60" s="177" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C61" t="s">
-        <v>450</v>
-      </c>
-      <c r="D61" s="181" t="s">
-        <v>429</v>
+        <v>443</v>
+      </c>
+      <c r="D61" s="177" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B62" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C62" t="s">
-        <v>450</v>
-      </c>
-      <c r="D62" s="181" t="s">
-        <v>430</v>
+        <v>443</v>
+      </c>
+      <c r="D62" s="177" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B63" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C63" t="s">
-        <v>450</v>
-      </c>
-      <c r="D63" s="181" t="s">
-        <v>431</v>
+        <v>443</v>
+      </c>
+      <c r="D63" s="177" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C64" t="s">
-        <v>450</v>
-      </c>
-      <c r="D64" s="181" t="s">
-        <v>432</v>
+        <v>443</v>
+      </c>
+      <c r="D64" s="177" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C65" t="s">
-        <v>450</v>
-      </c>
-      <c r="D65" s="181" t="s">
-        <v>433</v>
+        <v>443</v>
+      </c>
+      <c r="D65" s="177" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C66" t="s">
-        <v>450</v>
-      </c>
-      <c r="D66" s="181" t="s">
-        <v>434</v>
+        <v>443</v>
+      </c>
+      <c r="D66" s="177" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B67" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C67" t="s">
-        <v>450</v>
-      </c>
-      <c r="D67" s="181" t="s">
-        <v>435</v>
+        <v>443</v>
+      </c>
+      <c r="D67" s="177" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C68" t="s">
-        <v>450</v>
-      </c>
-      <c r="D68" s="181" t="s">
-        <v>436</v>
+        <v>443</v>
+      </c>
+      <c r="D68" s="177" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B69" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C69" t="s">
-        <v>450</v>
-      </c>
-      <c r="D69" s="181" t="s">
-        <v>437</v>
+        <v>443</v>
+      </c>
+      <c r="D69" s="177" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B70" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C70" t="s">
-        <v>450</v>
-      </c>
-      <c r="D70" s="181" t="s">
-        <v>438</v>
+        <v>443</v>
+      </c>
+      <c r="D70" s="177" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C71" t="s">
-        <v>450</v>
-      </c>
-      <c r="D71" s="181" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+      <c r="D71" s="177" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -7153,57 +7176,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="280" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="282"/>
+      <c r="A1" s="272" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="274"/>
     </row>
     <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="279"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="271"/>
     </row>
     <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C3" s="129" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3" s="129" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E3" s="126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>327</v>
-      </c>
-      <c r="H3" s="171" t="s">
-        <v>308</v>
+        <v>322</v>
+      </c>
+      <c r="H3" s="167" t="s">
+        <v>303</v>
       </c>
       <c r="I3" s="129"/>
       <c r="J3" s="131"/>
@@ -7216,10 +7239,10 @@
         <v>97</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="101" t="s">
         <v>17</v>
@@ -7230,8 +7253,8 @@
       <c r="G4" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="172" t="s">
-        <v>309</v>
+      <c r="H4" s="168" t="s">
+        <v>304</v>
       </c>
       <c r="I4" s="102"/>
       <c r="J4" s="103"/>
@@ -7249,33 +7272,33 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="208" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
+      <c r="G5" s="200" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
     </row>
     <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="269" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="278"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="279"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="271"/>
     </row>
     <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B7" s="133" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C7" s="129"/>
       <c r="D7" s="129"/>
@@ -7319,41 +7342,41 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="277" t="s">
+      <c r="A10" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="278"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="279"/>
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="270"/>
+      <c r="I10" s="270"/>
+      <c r="J10" s="271"/>
     </row>
     <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="128"/>
       <c r="B11" s="129" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C11" s="129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="176" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="180" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="129" t="s">
-        <v>262</v>
-      </c>
       <c r="F11" s="134" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G11" s="133" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I11" s="129"/>
       <c r="J11" s="131"/>
@@ -7366,19 +7389,19 @@
         <v>15</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" s="97" t="s">
         <v>152</v>
       </c>
       <c r="E12" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="135" t="s">
         <v>263</v>
-      </c>
-      <c r="F12" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="135" t="s">
-        <v>265</v>
       </c>
       <c r="H12" s="100" t="s">
         <v>234</v>
@@ -7397,7 +7420,7 @@
         <v>174</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E13" s="4">
         <v>488</v>
@@ -7425,7 +7448,7 @@
         <v>178</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E14" s="4">
         <v>561</v>
@@ -7453,7 +7476,7 @@
         <v>180</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E15" s="4">
         <v>405</v>
@@ -7481,7 +7504,7 @@
         <v>174</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E16" s="4">
         <v>488</v>
@@ -7555,31 +7578,31 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="277" t="s">
+      <c r="A21" s="269" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="278"/>
-      <c r="C21" s="278"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="278"/>
-      <c r="G21" s="278"/>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="279"/>
+      <c r="B21" s="270"/>
+      <c r="C21" s="270"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="270"/>
+      <c r="G21" s="270"/>
+      <c r="H21" s="270"/>
+      <c r="I21" s="270"/>
+      <c r="J21" s="271"/>
     </row>
     <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="132" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="130"/>
@@ -7593,10 +7616,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="97" t="s">
         <v>266</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>268</v>
       </c>
       <c r="D23" s="100" t="s">
         <v>234</v>
@@ -7629,34 +7652,34 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="269" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="278"/>
-      <c r="E25" s="278"/>
-      <c r="F25" s="278"/>
-      <c r="G25" s="278"/>
-      <c r="H25" s="278"/>
-      <c r="I25" s="278"/>
-      <c r="J25" s="279"/>
+      <c r="B25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="270"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="271"/>
     </row>
     <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="132" t="s">
-        <v>284</v>
-      </c>
-      <c r="B26" s="198" t="s">
-        <v>371</v>
+        <v>281</v>
+      </c>
+      <c r="B26" s="194" t="s">
+        <v>366</v>
       </c>
       <c r="C26" s="133" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D26" s="133" t="s">
-        <v>269</v>
-      </c>
-      <c r="E26" s="194" t="s">
-        <v>371</v>
+        <v>267</v>
+      </c>
+      <c r="E26" s="190" t="s">
+        <v>366</v>
       </c>
       <c r="F26" s="129"/>
       <c r="G26" s="129"/>
@@ -7670,13 +7693,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="148" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D27" s="97" t="s">
         <v>154</v>
       </c>
       <c r="E27" s="97" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F27" s="148"/>
       <c r="G27" s="148"/>
@@ -7686,13 +7709,13 @@
     </row>
     <row r="28" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="147"/>
-      <c r="B28" s="207" t="s">
-        <v>464</v>
-      </c>
-      <c r="C28" s="191"/>
+      <c r="B28" s="199" t="s">
+        <v>457</v>
+      </c>
+      <c r="C28" s="187"/>
       <c r="D28" s="123"/>
       <c r="E28" s="154" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7702,240 +7725,240 @@
     </row>
     <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="274" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="275"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="276"/>
+      <c r="A30" s="266" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="267"/>
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="268"/>
     </row>
     <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="268" t="s">
-        <v>365</v>
-      </c>
-      <c r="B31" s="269"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="269"/>
-      <c r="E31" s="269"/>
-      <c r="F31" s="269"/>
-      <c r="G31" s="269"/>
-      <c r="H31" s="270"/>
+      <c r="A31" s="260" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="261"/>
+      <c r="C31" s="261"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="261"/>
+      <c r="G31" s="261"/>
+      <c r="H31" s="262"/>
     </row>
     <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="268"/>
-      <c r="B32" s="269"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="269"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="269"/>
-      <c r="G32" s="269"/>
-      <c r="H32" s="270"/>
+      <c r="A32" s="260"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="261"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="261"/>
+      <c r="G32" s="261"/>
+      <c r="H32" s="262"/>
     </row>
     <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="268"/>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="270"/>
+      <c r="A33" s="260"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="261"/>
+      <c r="G33" s="261"/>
+      <c r="H33" s="262"/>
     </row>
     <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="271"/>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="272"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="273"/>
+      <c r="A34" s="263"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="264"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="264"/>
+      <c r="G34" s="264"/>
+      <c r="H34" s="265"/>
     </row>
     <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="258" t="s">
-        <v>312</v>
-      </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
+      <c r="A36" s="250" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="250"/>
+      <c r="F36" s="250"/>
+      <c r="G36" s="250"/>
     </row>
     <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D37" s="257" t="s">
-        <v>315</v>
-      </c>
-      <c r="E37" s="257"/>
-      <c r="F37" s="257"/>
-      <c r="G37" s="257"/>
+        <v>309</v>
+      </c>
+      <c r="D37" s="249" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="249"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C38" t="s">
-        <v>467</v>
-      </c>
-      <c r="D38" s="181" t="s">
-        <v>373</v>
+        <v>460</v>
+      </c>
+      <c r="D38" s="177" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C39" t="s">
-        <v>467</v>
-      </c>
-      <c r="D39" s="193" t="s">
-        <v>339</v>
+        <v>460</v>
+      </c>
+      <c r="D39" s="189" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" t="s">
         <v>338</v>
       </c>
-      <c r="B40" t="s">
-        <v>343</v>
-      </c>
       <c r="C40" t="s">
-        <v>467</v>
-      </c>
-      <c r="D40" s="181" t="s">
-        <v>340</v>
+        <v>460</v>
+      </c>
+      <c r="D40" s="177" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>467</v>
-      </c>
-      <c r="D41" s="181" t="s">
-        <v>360</v>
+        <v>460</v>
+      </c>
+      <c r="D41" s="177" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C42" t="s">
-        <v>467</v>
-      </c>
-      <c r="D42" s="184" t="s">
-        <v>341</v>
+        <v>460</v>
+      </c>
+      <c r="D42" s="180" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C43" t="s">
-        <v>467</v>
-      </c>
-      <c r="D43" s="193" t="s">
-        <v>375</v>
+        <v>460</v>
+      </c>
+      <c r="D43" s="189" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C44" t="s">
-        <v>467</v>
-      </c>
-      <c r="D44" s="193" t="s">
-        <v>378</v>
+        <v>460</v>
+      </c>
+      <c r="D44" s="189" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C45" t="s">
-        <v>467</v>
-      </c>
-      <c r="D45" s="193" t="s">
-        <v>466</v>
+        <v>460</v>
+      </c>
+      <c r="D45" s="189" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C46" t="s">
-        <v>467</v>
-      </c>
-      <c r="D46" s="193" t="s">
-        <v>379</v>
+        <v>460</v>
+      </c>
+      <c r="D46" s="189" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C47" t="s">
-        <v>467</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>380</v>
+        <v>460</v>
+      </c>
+      <c r="D47" s="189" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C48" t="s">
-        <v>467</v>
-      </c>
-      <c r="D48" s="184" t="s">
-        <v>469</v>
+        <v>460</v>
+      </c>
+      <c r="D48" s="180" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -7994,7 +8017,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8019,254 +8042,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="294" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="295" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B2" s="296"/>
       <c r="C2" s="296"/>
       <c r="D2" s="296"/>
       <c r="E2" s="296"/>
       <c r="F2" s="297"/>
-      <c r="G2" s="288" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
-        <v>299</v>
-      </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
+      <c r="G2" s="298" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="299" t="s">
+        <v>295</v>
+      </c>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="298" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="290" t="s">
-        <v>306</v>
-      </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="201" t="s">
-        <v>304</v>
-      </c>
-      <c r="N3" s="201" t="s">
-        <v>371</v>
-      </c>
-      <c r="O3" s="202" t="s">
-        <v>371</v>
-      </c>
-      <c r="P3" s="204"/>
+      <c r="A3" s="300" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="303" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="304" t="s">
+        <v>299</v>
+      </c>
+      <c r="N3" s="304" t="s">
+        <v>366</v>
+      </c>
+      <c r="O3" s="304" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" s="197"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="301" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="302"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="289" t="s">
+      <c r="A4" s="305" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="308" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289" t="s">
-        <v>307</v>
-      </c>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
-      <c r="M4" s="167" t="s">
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="308"/>
+      <c r="L4" s="308"/>
+      <c r="M4" s="309" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="167" t="s">
-        <v>372</v>
-      </c>
-      <c r="O4" s="167" t="s">
+      <c r="N4" s="309" t="s">
+        <v>367</v>
+      </c>
+      <c r="O4" s="309" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="284"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="283" t="s">
-        <v>295</v>
-      </c>
-      <c r="K5" s="283"/>
-      <c r="L5" s="283"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200" t="s">
-        <v>389</v>
-      </c>
-      <c r="O5" s="205" t="s">
-        <v>391</v>
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="313" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="313"/>
+      <c r="I5" s="313"/>
+      <c r="J5" s="313" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" s="313"/>
+      <c r="L5" s="313"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314" t="s">
+        <v>384</v>
+      </c>
+      <c r="O5" s="315" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="284" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="285"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="283" t="s">
-        <v>291</v>
-      </c>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="283" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="283"/>
-      <c r="I6" s="283"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="283"/>
-      <c r="L6" s="283"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200" t="s">
-        <v>390</v>
-      </c>
-      <c r="O6" s="205" t="s">
-        <v>392</v>
+      <c r="A6" s="310" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="313" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="314"/>
+      <c r="N6" s="314" t="s">
+        <v>385</v>
+      </c>
+      <c r="O6" s="315" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="284" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="285"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="283" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="283"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="283"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="165"/>
+      <c r="A7" s="310" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="313"/>
+      <c r="J7" s="313"/>
+      <c r="K7" s="313"/>
+      <c r="L7" s="313"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="315"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="284"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="283" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="283"/>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="165"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="313"/>
+      <c r="H8" s="313"/>
+      <c r="I8" s="313"/>
+      <c r="J8" s="313"/>
+      <c r="K8" s="313"/>
+      <c r="L8" s="313"/>
+      <c r="M8" s="314"/>
+      <c r="N8" s="314"/>
+      <c r="O8" s="315"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
-        <v>359</v>
-      </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="A10" s="275" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="277"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>337</v>
-      </c>
-      <c r="C11" s="194" t="s">
-        <v>371</v>
+        <v>332</v>
+      </c>
+      <c r="C11" s="190" t="s">
+        <v>366</v>
       </c>
       <c r="D11" s="126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E11" s="126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F11" s="126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G11" s="133" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I11" s="145" t="s">
-        <v>279</v>
-      </c>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
+        <v>276</v>
+      </c>
+      <c r="K11" s="188"/>
+      <c r="L11" s="188"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="149"/>
       <c r="B12" s="148" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D12" s="148" t="s">
         <v>94</v>
@@ -8278,13 +8293,13 @@
         <v>96</v>
       </c>
       <c r="G12" s="148" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="148" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="150" t="s">
         <v>255</v>
-      </c>
-      <c r="H12" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" s="150" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8310,554 +8325,549 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="274" t="s">
-        <v>283</v>
-      </c>
-      <c r="B15" s="275"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="276"/>
+      <c r="A15" s="266" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="268" t="s">
-        <v>367</v>
-      </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="270"/>
+      <c r="A16" s="260" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="261"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="262"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="268"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="270"/>
+      <c r="A17" s="260"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="262"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="270"/>
+      <c r="A18" s="260"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="262"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="272"/>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="273"/>
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="265"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="258" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
+      <c r="A21" s="250" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="250"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="257" t="s">
-        <v>315</v>
-      </c>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
+        <v>309</v>
+      </c>
+      <c r="D22" s="249" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>453</v>
-      </c>
-      <c r="D23" s="181" t="s">
-        <v>373</v>
+        <v>446</v>
+      </c>
+      <c r="D23" s="177" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C24" t="s">
-        <v>453</v>
-      </c>
-      <c r="D24" s="193" t="s">
-        <v>339</v>
+        <v>446</v>
+      </c>
+      <c r="D24" s="189" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" t="s">
         <v>338</v>
       </c>
-      <c r="B25" t="s">
-        <v>343</v>
-      </c>
       <c r="C25" t="s">
-        <v>453</v>
-      </c>
-      <c r="D25" s="181" t="s">
-        <v>340</v>
+        <v>446</v>
+      </c>
+      <c r="D25" s="177" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>453</v>
-      </c>
-      <c r="D26" s="181" t="s">
-        <v>360</v>
+        <v>446</v>
+      </c>
+      <c r="D26" s="177" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C27" t="s">
-        <v>453</v>
-      </c>
-      <c r="D27" s="184" t="s">
-        <v>341</v>
+        <v>446</v>
+      </c>
+      <c r="D27" s="180" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>396</v>
+        <v>446</v>
+      </c>
+      <c r="D28" s="189" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>453</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>395</v>
+        <v>446</v>
+      </c>
+      <c r="D29" s="189" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s">
-        <v>453</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>397</v>
+        <v>446</v>
+      </c>
+      <c r="D30" s="189" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>453</v>
-      </c>
-      <c r="D31" s="193" t="s">
-        <v>348</v>
+        <v>446</v>
+      </c>
+      <c r="D31" s="189" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C32" t="s">
-        <v>453</v>
-      </c>
-      <c r="D32" s="193" t="s">
-        <v>398</v>
+        <v>446</v>
+      </c>
+      <c r="D32" s="189" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C33" t="s">
-        <v>453</v>
-      </c>
-      <c r="D33" s="193" t="s">
-        <v>399</v>
+        <v>446</v>
+      </c>
+      <c r="D33" s="189" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B34" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C34" t="s">
-        <v>453</v>
-      </c>
-      <c r="D34" s="181" t="s">
-        <v>400</v>
+        <v>446</v>
+      </c>
+      <c r="D34" s="177" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C35" t="s">
-        <v>453</v>
-      </c>
-      <c r="D35" s="181" t="s">
-        <v>401</v>
+        <v>446</v>
+      </c>
+      <c r="D35" s="177" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C36" t="s">
-        <v>453</v>
-      </c>
-      <c r="D36" s="181" t="s">
-        <v>402</v>
+        <v>446</v>
+      </c>
+      <c r="D36" s="177" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C37" t="s">
-        <v>453</v>
-      </c>
-      <c r="D37" s="181" t="s">
-        <v>403</v>
+        <v>446</v>
+      </c>
+      <c r="D37" s="177" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C38" t="s">
-        <v>453</v>
-      </c>
-      <c r="D38" s="181" t="s">
-        <v>404</v>
+        <v>446</v>
+      </c>
+      <c r="D38" s="177" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C39" t="s">
-        <v>453</v>
-      </c>
-      <c r="D39" s="181" t="s">
-        <v>405</v>
+        <v>446</v>
+      </c>
+      <c r="D39" s="177" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B40" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C40" t="s">
-        <v>453</v>
-      </c>
-      <c r="D40" s="181" t="s">
-        <v>406</v>
+        <v>446</v>
+      </c>
+      <c r="D40" s="177" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C41" t="s">
-        <v>453</v>
-      </c>
-      <c r="D41" s="181" t="s">
-        <v>454</v>
+        <v>446</v>
+      </c>
+      <c r="D41" s="177" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
-      </c>
-      <c r="D42" s="181" t="s">
-        <v>407</v>
+        <v>446</v>
+      </c>
+      <c r="D42" s="177" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C43" t="s">
-        <v>453</v>
-      </c>
-      <c r="D43" s="181" t="s">
-        <v>455</v>
+        <v>446</v>
+      </c>
+      <c r="D43" s="177" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
-        <v>453</v>
-      </c>
-      <c r="D44" s="181" t="s">
-        <v>407</v>
+        <v>446</v>
+      </c>
+      <c r="D44" s="177" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C45" t="s">
-        <v>453</v>
-      </c>
-      <c r="D45" s="181" t="s">
-        <v>456</v>
+        <v>446</v>
+      </c>
+      <c r="D45" s="177" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C46" t="s">
-        <v>453</v>
-      </c>
-      <c r="D46" s="181" t="s">
-        <v>457</v>
+        <v>446</v>
+      </c>
+      <c r="D46" s="177" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C47" t="s">
-        <v>453</v>
-      </c>
-      <c r="D47" s="181" t="s">
-        <v>458</v>
+        <v>446</v>
+      </c>
+      <c r="D47" s="177" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C48" t="s">
-        <v>453</v>
-      </c>
-      <c r="D48" s="181" t="s">
-        <v>459</v>
+        <v>446</v>
+      </c>
+      <c r="D48" s="177" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C49" t="s">
+        <v>446</v>
+      </c>
+      <c r="D49" s="177" t="s">
         <v>453</v>
-      </c>
-      <c r="D49" s="181" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C50" t="s">
-        <v>453</v>
-      </c>
-      <c r="D50" s="181" t="s">
-        <v>461</v>
+        <v>446</v>
+      </c>
+      <c r="D50" s="177" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C51" t="s">
-        <v>453</v>
-      </c>
-      <c r="D51" s="181" t="s">
-        <v>462</v>
+        <v>446</v>
+      </c>
+      <c r="D51" s="177" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>453</v>
-      </c>
-      <c r="D52" s="193" t="s">
-        <v>399</v>
+        <v>446</v>
+      </c>
+      <c r="D52" s="189" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C53" t="s">
-        <v>453</v>
-      </c>
-      <c r="D53" s="181" t="s">
-        <v>408</v>
+        <v>446</v>
+      </c>
+      <c r="D53" s="177" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="26">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8923,8 +8933,8 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8949,244 +8959,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="294" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
+      <c r="P1" s="294"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="288" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="A2" s="298" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="299" t="s">
+        <v>294</v>
+      </c>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="89"/>
+    </row>
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="303" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="304" t="s">
+        <v>298</v>
+      </c>
+      <c r="N3" s="304" t="s">
+        <v>297</v>
+      </c>
+      <c r="O3" s="304" t="s">
+        <v>366</v>
+      </c>
+      <c r="P3" s="304" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q3" s="196"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="305" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="308" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
-        <v>297</v>
-      </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
-      <c r="Q2" s="89"/>
-    </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
-        <v>300</v>
-      </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="201" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" s="201" t="s">
-        <v>302</v>
-      </c>
-      <c r="O3" s="201" t="s">
-        <v>371</v>
-      </c>
-      <c r="P3" s="201" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q3" s="203"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="289"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289"/>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
-      <c r="M4" s="167" t="s">
-        <v>254</v>
-      </c>
-      <c r="N4" s="167" t="s">
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308"/>
+      <c r="K4" s="308"/>
+      <c r="L4" s="308"/>
+      <c r="M4" s="309" t="s">
+        <v>252</v>
+      </c>
+      <c r="N4" s="309" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="167" t="s">
-        <v>372</v>
-      </c>
-      <c r="P4" s="167" t="s">
+      <c r="O4" s="309" t="s">
+        <v>367</v>
+      </c>
+      <c r="P4" s="309" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="283"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="304" t="s">
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="200" t="s">
-        <v>294</v>
-      </c>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200" t="s">
-        <v>393</v>
-      </c>
-      <c r="P5" s="200" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="304"/>
-      <c r="H6" s="304"/>
-      <c r="I6" s="304"/>
-      <c r="J6" s="304"/>
-      <c r="K6" s="304"/>
-      <c r="L6" s="304"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="168"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="314" t="s">
+        <v>291</v>
+      </c>
+      <c r="N5" s="314"/>
+      <c r="O5" s="314" t="s">
+        <v>477</v>
+      </c>
+      <c r="P5" s="314" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="310" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="316"/>
+      <c r="I6" s="316"/>
+      <c r="J6" s="316"/>
+      <c r="K6" s="316"/>
+      <c r="L6" s="316"/>
+      <c r="M6" s="314"/>
+      <c r="N6" s="314"/>
+      <c r="O6" s="314" t="s">
+        <v>480</v>
+      </c>
+      <c r="P6" s="314" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="304"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="304"/>
-      <c r="J7" s="304"/>
-      <c r="K7" s="304"/>
-      <c r="L7" s="304"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="166"/>
+      <c r="A7" s="310"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="314"/>
+      <c r="P7" s="315"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="283"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="304"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="304"/>
-      <c r="J8" s="304"/>
-      <c r="K8" s="304"/>
-      <c r="L8" s="304"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="166"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="316"/>
+      <c r="H8" s="316"/>
+      <c r="I8" s="316"/>
+      <c r="J8" s="316"/>
+      <c r="K8" s="316"/>
+      <c r="L8" s="316"/>
+      <c r="M8" s="314"/>
+      <c r="N8" s="314"/>
+      <c r="O8" s="314"/>
+      <c r="P8" s="315"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="A10" s="275" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="277"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B11" s="133" t="s">
-        <v>337</v>
-      </c>
-      <c r="C11" s="194" t="s">
-        <v>371</v>
+        <v>332</v>
+      </c>
+      <c r="C11" s="190" t="s">
+        <v>366</v>
       </c>
       <c r="D11" s="126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E11" s="126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F11" s="126" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G11" s="133" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I11" s="145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="149"/>
       <c r="B12" s="148" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D12" s="148" t="s">
         <v>94</v>
@@ -9198,15 +9214,15 @@
         <v>96</v>
       </c>
       <c r="G12" s="148" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="148" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="150" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="I12" s="150" t="s">
-        <v>257</v>
-      </c>
-      <c r="K12" s="169"/>
+      <c r="K12" s="165"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="147"/>
@@ -9231,283 +9247,278 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="274" t="s">
-        <v>283</v>
-      </c>
-      <c r="B15" s="275"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="276"/>
+      <c r="A15" s="266" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="268" t="s">
-        <v>368</v>
-      </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="270"/>
+      <c r="A16" s="260" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="261"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="262"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="268"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="270"/>
+      <c r="A17" s="260"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="262"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="270"/>
+      <c r="A18" s="260"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="262"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="272"/>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="273"/>
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="265"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="258" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
+      <c r="A21" s="250" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="250"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="257" t="s">
-        <v>315</v>
-      </c>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
+        <v>309</v>
+      </c>
+      <c r="D22" s="249" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>463</v>
-      </c>
-      <c r="D23" s="181" t="s">
-        <v>373</v>
+        <v>456</v>
+      </c>
+      <c r="D23" s="177" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
-      </c>
-      <c r="D24" s="193" t="s">
-        <v>339</v>
+        <v>456</v>
+      </c>
+      <c r="D24" s="189" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" t="s">
         <v>338</v>
       </c>
-      <c r="B25" t="s">
-        <v>343</v>
-      </c>
       <c r="C25" t="s">
-        <v>463</v>
-      </c>
-      <c r="D25" s="181" t="s">
-        <v>340</v>
+        <v>456</v>
+      </c>
+      <c r="D25" s="177" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C26" t="s">
-        <v>463</v>
-      </c>
-      <c r="D26" s="181" t="s">
-        <v>360</v>
+        <v>456</v>
+      </c>
+      <c r="D26" s="177" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C27" t="s">
-        <v>463</v>
-      </c>
-      <c r="D27" s="184" t="s">
-        <v>341</v>
+        <v>456</v>
+      </c>
+      <c r="D27" s="180" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>463</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>409</v>
+        <v>456</v>
+      </c>
+      <c r="D28" s="189" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>463</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>395</v>
+        <v>456</v>
+      </c>
+      <c r="D29" s="189" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s">
-        <v>463</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>410</v>
+        <v>456</v>
+      </c>
+      <c r="D30" s="189" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
-      </c>
-      <c r="D31" s="193" t="s">
-        <v>350</v>
+        <v>456</v>
+      </c>
+      <c r="D31" s="189" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" s="189" t="s">
         <v>346</v>
-      </c>
-      <c r="C32" t="s">
-        <v>463</v>
-      </c>
-      <c r="D32" s="193" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B33" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C33" t="s">
-        <v>463</v>
-      </c>
-      <c r="D33" s="181" t="s">
-        <v>411</v>
+        <v>456</v>
+      </c>
+      <c r="D33" s="177" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C34" t="s">
-        <v>463</v>
-      </c>
-      <c r="D34" s="193" t="s">
-        <v>354</v>
+        <v>456</v>
+      </c>
+      <c r="D34" s="189" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
+  <mergeCells count="21">
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="G4:L4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9581,7 +9592,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="190" customWidth="1"/>
+    <col min="3" max="3" width="16" style="186" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9589,12 +9600,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="305" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="307"/>
+      <c r="A1" s="278" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="280"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9629,7 +9640,7 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="187"/>
+      <c r="C3" s="183"/>
       <c r="D3" s="23"/>
       <c r="F3" s="137" t="s">
         <v>79</v>
@@ -9642,7 +9653,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="188"/>
+      <c r="C4" s="184"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9657,7 +9668,7 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="188"/>
+      <c r="C5" s="184"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9669,7 +9680,7 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="188">
+      <c r="C6" s="184">
         <v>1</v>
       </c>
       <c r="D6" s="24">
@@ -9677,25 +9688,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="211" t="s">
-        <v>474</v>
+      <c r="A7" s="203" t="s">
+        <v>467</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C7" s="212"/>
+        <v>468</v>
+      </c>
+      <c r="C7" s="204"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="211" t="s">
-        <v>476</v>
+      <c r="A8" s="203" t="s">
+        <v>469</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="C8" s="212"/>
+        <v>470</v>
+      </c>
+      <c r="C8" s="204"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -9707,7 +9718,7 @@
       <c r="B9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="188"/>
+      <c r="C9" s="184"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9717,7 +9728,7 @@
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="187"/>
+      <c r="C10" s="183"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9727,7 +9738,7 @@
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="188"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="24">
         <v>0</v>
       </c>
@@ -9739,7 +9750,7 @@
       <c r="B12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="188"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="25" t="s">
         <v>68</v>
       </c>
@@ -9751,7 +9762,7 @@
       <c r="B13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="188"/>
+      <c r="C13" s="184"/>
       <c r="D13" s="25" t="s">
         <v>69</v>
       </c>
@@ -9763,7 +9774,7 @@
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="188"/>
+      <c r="C14" s="184"/>
       <c r="D14" s="24">
         <v>0</v>
       </c>
@@ -9775,7 +9786,7 @@
       <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="188"/>
+      <c r="C15" s="184"/>
       <c r="D15" s="24" t="s">
         <v>31</v>
       </c>
@@ -9787,7 +9798,7 @@
       <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="187"/>
+      <c r="C16" s="183"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9797,7 +9808,7 @@
       <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="188"/>
+      <c r="C17" s="184"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9807,7 +9818,7 @@
       <c r="B18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="188"/>
+      <c r="C18" s="184"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9817,7 +9828,7 @@
       <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="188"/>
+      <c r="C19" s="184"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9827,7 +9838,7 @@
       <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="188"/>
+      <c r="C20" s="184"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9837,7 +9848,7 @@
       <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="188"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="24">
         <v>1</v>
       </c>
@@ -9849,7 +9860,7 @@
       <c r="B22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="188"/>
+      <c r="C22" s="184"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9859,7 +9870,7 @@
       <c r="B23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="188"/>
+      <c r="C23" s="184"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9869,7 +9880,7 @@
       <c r="B24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="188"/>
+      <c r="C24" s="184"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9879,7 +9890,7 @@
       <c r="B25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="187"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9889,7 +9900,7 @@
       <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="188"/>
+      <c r="C26" s="184"/>
       <c r="D26" s="24">
         <v>100</v>
       </c>
@@ -9901,7 +9912,7 @@
       <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="188"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="24">
         <v>65535</v>
       </c>
@@ -9913,7 +9924,7 @@
       <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="188"/>
+      <c r="C28" s="184"/>
       <c r="D28" s="24">
         <v>10</v>
       </c>
@@ -9925,7 +9936,7 @@
       <c r="B29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="184"/>
       <c r="D29" s="24">
         <v>0.1</v>
       </c>
@@ -9937,7 +9948,7 @@
       <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="188"/>
+      <c r="C30" s="184"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9947,7 +9958,7 @@
       <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="184"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9957,7 +9968,7 @@
       <c r="B32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="188"/>
+      <c r="C32" s="184"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9967,7 +9978,7 @@
       <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="187"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9977,7 +9988,7 @@
       <c r="B34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="188"/>
+      <c r="C34" s="184"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9987,7 +9998,7 @@
       <c r="B35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="188"/>
+      <c r="C35" s="184"/>
       <c r="D35" s="24">
         <v>0.02</v>
       </c>
@@ -9999,7 +10010,7 @@
       <c r="B36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="184"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10009,7 +10020,7 @@
       <c r="B37" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="188"/>
+      <c r="C37" s="184"/>
       <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10019,7 +10030,7 @@
       <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="188"/>
+      <c r="C38" s="184"/>
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10029,7 +10040,7 @@
       <c r="B39" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="188"/>
+      <c r="C39" s="184"/>
       <c r="D39" s="25" t="s">
         <v>72</v>
       </c>
@@ -10041,7 +10052,7 @@
       <c r="B40" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="188"/>
+      <c r="C40" s="184"/>
       <c r="D40" s="25">
         <v>0</v>
       </c>
@@ -10053,7 +10064,7 @@
       <c r="B41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="187"/>
+      <c r="C41" s="183"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10061,7 +10072,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="188"/>
+      <c r="C42" s="184"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10071,7 +10082,7 @@
       <c r="B43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="188"/>
+      <c r="C43" s="184"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10081,7 +10092,7 @@
       <c r="B44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="188"/>
+      <c r="C44" s="184"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10091,7 +10102,7 @@
       <c r="B45" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="188"/>
+      <c r="C45" s="184"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10101,7 +10112,7 @@
       <c r="B46" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="188"/>
+      <c r="C46" s="184"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10111,7 +10122,7 @@
       <c r="B47" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="188"/>
+      <c r="C47" s="184"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10121,7 +10132,7 @@
       <c r="B48" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="188"/>
+      <c r="C48" s="184"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10131,7 +10142,7 @@
       <c r="B49" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="188"/>
+      <c r="C49" s="184"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10141,7 +10152,7 @@
       <c r="B50" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="188"/>
+      <c r="C50" s="184"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10151,7 +10162,7 @@
       <c r="B51" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="188"/>
+      <c r="C51" s="184"/>
       <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10161,7 +10172,7 @@
       <c r="B52" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="188"/>
+      <c r="C52" s="184"/>
       <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10171,7 +10182,7 @@
       <c r="B53" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="188"/>
+      <c r="C53" s="184"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10183,7 +10194,7 @@
       <c r="B54" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="188"/>
+      <c r="C54" s="184"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10195,7 +10206,7 @@
       <c r="B55" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="188"/>
+      <c r="C55" s="184"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10207,7 +10218,7 @@
       <c r="B56" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="188"/>
+      <c r="C56" s="184"/>
       <c r="D56" s="24">
         <v>1</v>
       </c>
@@ -10219,7 +10230,7 @@
       <c r="B57" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="188"/>
+      <c r="C57" s="184"/>
       <c r="D57" s="24">
         <v>1</v>
       </c>
@@ -10231,7 +10242,7 @@
       <c r="B58" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="188"/>
+      <c r="C58" s="184"/>
       <c r="D58" s="24">
         <v>0</v>
       </c>
@@ -10243,7 +10254,7 @@
       <c r="B59" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="188"/>
+      <c r="C59" s="184"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10253,7 +10264,7 @@
       <c r="B60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="188"/>
+      <c r="C60" s="184"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10263,8 +10274,8 @@
       <c r="B61" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="187"/>
-      <c r="D61" s="186"/>
+      <c r="C61" s="183"/>
+      <c r="D61" s="182"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10273,27 +10284,27 @@
       <c r="B62" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="188"/>
+      <c r="C62" s="184"/>
       <c r="D62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="B63" s="185"/>
-      <c r="C63" s="187"/>
-      <c r="D63" s="186"/>
+        <v>350</v>
+      </c>
+      <c r="B63" s="181"/>
+      <c r="C63" s="183"/>
+      <c r="D63" s="182"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C64" s="188"/>
+        <v>352</v>
+      </c>
+      <c r="C64" s="184"/>
       <c r="D64" s="26">
         <v>0</v>
       </c>
@@ -10305,8 +10316,8 @@
       <c r="B65" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="187"/>
-      <c r="D65" s="186"/>
+      <c r="C65" s="183"/>
+      <c r="D65" s="182"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -10315,7 +10326,7 @@
       <c r="B66" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="189"/>
+      <c r="C66" s="185"/>
       <c r="D66" s="29">
         <v>0</v>
       </c>
@@ -10355,23 +10366,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="284" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10389,17 +10400,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="308" t="s">
+      <c r="B3" s="281" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="310"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="283"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10590,21 +10601,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="308" t="s">
+      <c r="B19" s="281" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="309"/>
-      <c r="D19" s="309"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="309"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="309"/>
-      <c r="L19" s="309"/>
-      <c r="M19" s="309"/>
-      <c r="N19" s="310"/>
+      <c r="C19" s="282"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="282"/>
+      <c r="J19" s="282"/>
+      <c r="K19" s="282"/>
+      <c r="L19" s="282"/>
+      <c r="M19" s="282"/>
+      <c r="N19" s="283"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10806,27 +10817,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="289" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="L1" s="317"/>
-      <c r="M1" s="317"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="317"/>
-      <c r="P1" s="317"/>
-      <c r="Q1" s="317"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="317"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="290"/>
+      <c r="O1" s="290"/>
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
+      <c r="R1" s="290"/>
+      <c r="S1" s="290"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10840,26 +10851,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="308" t="s">
+      <c r="B3" s="281" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="310"/>
-      <c r="L3" s="313" t="s">
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="283"/>
+      <c r="L3" s="286" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="314"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="314"/>
-      <c r="P3" s="314"/>
-      <c r="Q3" s="314"/>
-      <c r="R3" s="315"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="287"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="287"/>
+      <c r="Q3" s="287"/>
+      <c r="R3" s="288"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11090,23 +11101,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="291" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="293"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11119,22 +11130,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="308" t="s">
+      <c r="B3" s="281" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="310"/>
-      <c r="J3" s="313" t="s">
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="283"/>
+      <c r="J3" s="286" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="314"/>
-      <c r="N3" s="315"/>
+      <c r="K3" s="287"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="288"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="489">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2425,14 +2425,72 @@
   <si>
     <t>transfercurve2/plots</t>
   </si>
+  <si>
+    <t>Non-fluorescence Channels (unprocessed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel
+</t>
+  </si>
+  <si>
+    <t>Non-fluorescence Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excitation wavelength </t>
+  </si>
+  <si>
+    <t>Size Beads</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Options can be found in BeadCatalog</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Defaults to FSC</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3323,25 +3381,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3357,7 +3415,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3368,28 +3426,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3410,62 +3468,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3476,20 +3534,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3498,35 +3556,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3544,19 +3602,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3565,46 +3623,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3622,83 +3677,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3713,37 +3768,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3752,41 +3807,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3801,20 +3856,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3837,43 +3892,43 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -3884,20 +3939,130 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3908,145 +4073,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4067,22 +4136,71 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4094,140 +4212,191 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4420,13 +4589,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5065,12 +5234,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="156" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="155" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="86" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" style="86" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="86" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="142" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="141" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="86" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="86" customWidth="1"/>
     <col min="9" max="9" width="20" style="86" customWidth="1"/>
@@ -5081,178 +5250,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="231" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="219"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="233"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="210" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="211"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="224" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="225"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="226" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="248"/>
+      <c r="B5" s="227"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="233" t="s">
+      <c r="A7" s="210" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="235"/>
-      <c r="K7" s="234"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="211"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="234" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="221"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
-      <c r="K8" s="222"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="236"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="223"/>
-      <c r="B9" s="224"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="224"/>
-      <c r="K9" s="225"/>
+      <c r="A9" s="237"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
+      <c r="G9" s="238"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="239"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="88"/>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
       <c r="E10" s="88"/>
-      <c r="F10" s="143"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="236" t="s">
+      <c r="A11" s="213" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="238"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="215"/>
       <c r="E11" s="88"/>
-      <c r="F11" s="143"/>
+      <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="239" t="s">
+      <c r="A12" s="216" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="240"/>
-      <c r="C12" s="241" t="s">
+      <c r="B12" s="217"/>
+      <c r="C12" s="218" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="242"/>
+      <c r="D12" s="219"/>
       <c r="E12" s="88"/>
-      <c r="F12" s="143"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="243"/>
-      <c r="B13" s="244"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="246"/>
+      <c r="A13" s="220"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="223"/>
       <c r="E13" s="88"/>
-      <c r="F13" s="143"/>
+      <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="236" t="s">
+      <c r="A15" s="213" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="238"/>
-      <c r="E15" s="236" t="s">
+      <c r="B15" s="215"/>
+      <c r="E15" s="213" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="238"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="215"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="224" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="232"/>
+      <c r="B16" s="225"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="226" t="s">
+      <c r="E16" s="240" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="228"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="242"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="157" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="115" t="s">
         <v>278</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="229" t="s">
+      <c r="E17" s="243" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="230"/>
+      <c r="F17" s="244"/>
       <c r="G17" s="83" t="s">
         <v>159</v>
       </c>
       <c r="H17" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="191" t="s">
+      <c r="I17" s="190" t="s">
         <v>356</v>
       </c>
       <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="158" t="s">
         <v>269</v>
       </c>
       <c r="B18" s="91" t="s">
@@ -5269,16 +5438,16 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="205" t="s">
+      <c r="I18" s="228" t="s">
         <v>465</v>
       </c>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="159" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="117"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="90"/>
       <c r="E19" s="84">
         <v>2</v>
@@ -5292,78 +5461,78 @@
       <c r="H19" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="205"/>
+      <c r="I19" s="228"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="160" t="s">
+      <c r="A20" s="159" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="117"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="92"/>
       <c r="E20" s="85">
         <v>3</v>
       </c>
-      <c r="F20" s="141" t="s">
+      <c r="F20" s="140" t="s">
         <v>172</v>
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="206"/>
+      <c r="I20" s="229"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="159" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="32"/>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="161"/>
-      <c r="B22" s="118"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="90"/>
       <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="162"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="207" t="s">
+      <c r="E23" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="208"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="230"/>
       <c r="I23" s="209"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="207" t="s">
+      <c r="A24" s="208" t="s">
         <v>240</v>
       </c>
       <c r="B24" s="209"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="213" t="s">
+      <c r="E24" s="248" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="214"/>
+      <c r="F24" s="249"/>
       <c r="G24" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H24" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="191" t="s">
+      <c r="I24" s="190" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="157" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="115" t="s">
         <v>285</v>
       </c>
       <c r="C25" s="32"/>
@@ -5377,12 +5546,12 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="210" t="s">
+      <c r="I25" s="245" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="158" t="s">
         <v>269</v>
       </c>
       <c r="B26" s="91" t="s">
@@ -5401,74 +5570,74 @@
       <c r="H26" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="211"/>
+      <c r="I26" s="246"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="159" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="92"/>
       <c r="E27" s="85">
         <v>3</v>
       </c>
-      <c r="F27" s="141" t="s">
+      <c r="F27" s="140" t="s">
         <v>172</v>
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="212"/>
+      <c r="I27" s="247"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="160" t="s">
+      <c r="A28" s="159" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="117"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="32"/>
       <c r="E28" s="95"/>
-      <c r="F28" s="144"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="95"/>
       <c r="H28" s="95"/>
       <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="32"/>
       <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="161"/>
-      <c r="B30" s="118"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="207" t="s">
+      <c r="E30" s="208" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="230"/>
       <c r="I30" s="209"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="215" t="s">
+      <c r="E31" s="250" t="s">
         <v>463</v>
       </c>
-      <c r="F31" s="216"/>
-      <c r="G31" s="201" t="s">
+      <c r="F31" s="251"/>
+      <c r="G31" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="201" t="s">
+      <c r="H31" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="191" t="s">
+      <c r="I31" s="190" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="207" t="s">
+      <c r="A32" s="208" t="s">
         <v>241</v>
       </c>
       <c r="B32" s="209"/>
@@ -5481,13 +5650,13 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="205"/>
+      <c r="I32" s="228"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="157" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="115" t="s">
         <v>292</v>
       </c>
       <c r="C33" s="90"/>
@@ -5501,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="205"/>
+      <c r="I33" s="228"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="158" t="s">
         <v>239</v>
       </c>
       <c r="B34" s="91" t="s">
@@ -5516,76 +5685,76 @@
       <c r="F34" s="94"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="205"/>
+      <c r="I34" s="228"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="117"/>
+      <c r="B35" s="116"/>
       <c r="E35" s="84">
         <v>4</v>
       </c>
       <c r="F35" s="94"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="205"/>
+      <c r="I35" s="228"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="117"/>
+      <c r="B36" s="116"/>
       <c r="E36" s="84">
         <v>5</v>
       </c>
       <c r="F36" s="94"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="205"/>
+      <c r="I36" s="228"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="160" t="s">
+      <c r="A37" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="117"/>
+      <c r="B37" s="116"/>
       <c r="E37" s="85">
         <v>6</v>
       </c>
-      <c r="F37" s="141"/>
+      <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="206"/>
+      <c r="I37" s="229"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="118"/>
+      <c r="B38" s="117"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="163"/>
-      <c r="B39" s="122"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="207" t="s">
+      <c r="E40" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="208"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="208"/>
+      <c r="F40" s="230"/>
+      <c r="G40" s="230"/>
+      <c r="H40" s="230"/>
       <c r="I40" s="209"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="213"/>
-      <c r="F41" s="214"/>
+      <c r="E41" s="248"/>
+      <c r="F41" s="249"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="191" t="s">
+      <c r="I41" s="190" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5596,7 +5765,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="205"/>
+      <c r="I42" s="228"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5605,7 +5774,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="205"/>
+      <c r="I43" s="228"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5614,7 +5783,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="205"/>
+      <c r="I44" s="228"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5623,7 +5792,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="205"/>
+      <c r="I45" s="228"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5632,20 +5801,34 @@
       <c r="F46" s="94"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="205"/>
+      <c r="I46" s="228"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
         <v>6</v>
       </c>
-      <c r="F47" s="141"/>
+      <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="206"/>
+      <c r="I47" s="229"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5661,20 +5844,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5714,32 +5883,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="254" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="253"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="256"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="257" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="256"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="259"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5747,26 +5916,26 @@
       <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="174" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="177" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="260" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="178" t="s">
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="177" t="s">
         <v>318</v>
       </c>
-      <c r="I3" s="178" t="s">
+      <c r="I3" s="177" t="s">
         <v>319</v>
       </c>
-      <c r="J3" s="179" t="s">
+      <c r="J3" s="178" t="s">
         <v>320</v>
       </c>
       <c r="K3" s="79"/>
@@ -5776,460 +5945,460 @@
       <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="139" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="F4" s="140" t="s">
+      <c r="F4" s="139" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="139" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="140" t="s">
+      <c r="H4" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="195" t="s">
+      <c r="J4" s="194" t="s">
         <v>406</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109">
+      <c r="A5" s="108">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="109">
         <v>0.1</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="109">
         <v>0.1</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="110">
         <v>1</v>
       </c>
-      <c r="I5" s="112" t="s">
+      <c r="I5" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="113"/>
-      <c r="K5" s="202"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="201"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109">
+      <c r="A6" s="108">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="109">
         <v>0.2</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="109">
         <v>0.2</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="110">
         <v>1</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="202"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="201"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+      <c r="A7" s="108">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="109">
         <v>0.5</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111">
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110">
         <v>1</v>
       </c>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="202"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109">
+      <c r="A8" s="108">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="110">
+      <c r="C8" s="109">
         <v>1</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="109" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="109">
         <v>0.1</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="110">
         <v>1</v>
       </c>
-      <c r="I8" s="112" t="s">
+      <c r="I8" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="202"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109">
+      <c r="A9" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="109">
         <v>2</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110" t="s">
+      <c r="E9" s="109"/>
+      <c r="F9" s="109" t="s">
         <v>286</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="109">
         <v>0.2</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="110">
         <v>1</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="202"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109">
+      <c r="A10" s="108">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="109">
         <v>5</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="109" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111">
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110">
         <v>1</v>
       </c>
-      <c r="I10" s="112" t="s">
+      <c r="I10" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="202"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109">
+      <c r="A11" s="108">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="110">
+      <c r="C11" s="109">
         <v>10</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="109" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="111">
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110">
         <v>1</v>
       </c>
-      <c r="I11" s="112" t="s">
+      <c r="I11" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="202"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="201"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109">
+      <c r="A12" s="108">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="109">
         <v>20</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="109" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="111">
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110">
         <v>1</v>
       </c>
-      <c r="I12" s="112" t="s">
+      <c r="I12" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="202"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="201"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109">
+      <c r="A13" s="108">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="109">
         <v>50</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="109" t="s">
         <v>471</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111">
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110">
         <v>1</v>
       </c>
-      <c r="I13" s="112" t="s">
+      <c r="I13" s="111" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="202"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="201"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109">
+      <c r="A14" s="108">
         <f>A13+1</f>
         <v>10</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="109">
         <v>100</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110" t="s">
+      <c r="E14" s="109"/>
+      <c r="F14" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="109">
         <v>100</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="110">
         <v>1</v>
       </c>
-      <c r="I14" s="112" t="s">
+      <c r="I14" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="202"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="201"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109">
+      <c r="A15" s="108">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="109">
         <v>200</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="109">
         <v>200</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="110">
         <v>1</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="202"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="201"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109">
+      <c r="A16" s="108">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="109">
         <v>500</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111">
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110">
         <v>1</v>
       </c>
-      <c r="I16" s="112" t="s">
+      <c r="I16" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="202"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="201"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109">
+      <c r="A17" s="108">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="110">
+      <c r="C17" s="109">
         <v>1000</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="110" t="s">
+      <c r="F17" s="109" t="s">
         <v>286</v>
       </c>
-      <c r="G17" s="110">
+      <c r="G17" s="109">
         <v>100</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="110">
         <v>1</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="113"/>
-      <c r="K17" s="202"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="201"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109">
+      <c r="A18" s="108">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="109">
         <v>2000</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="109" t="s">
         <v>286</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="109">
         <v>200</v>
       </c>
-      <c r="H18" s="111">
+      <c r="H18" s="110">
         <v>1</v>
       </c>
-      <c r="I18" s="112" t="s">
+      <c r="I18" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="113"/>
-      <c r="K18" s="202"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="201"/>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109">
+      <c r="A19" s="108">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -6237,21 +6406,21 @@
         <v>217</v>
       </c>
       <c r="C19" s="77"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111">
+      <c r="D19" s="109"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110">
         <v>2</v>
       </c>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113" t="s">
+      <c r="I19" s="111"/>
+      <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="202"/>
+      <c r="K19" s="201"/>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="109">
+      <c r="A20" s="108">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -6259,21 +6428,21 @@
         <v>175</v>
       </c>
       <c r="C20" s="77"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111">
+      <c r="D20" s="109"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110">
         <v>2</v>
       </c>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113" t="s">
+      <c r="I20" s="111"/>
+      <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="202"/>
+      <c r="K20" s="201"/>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109">
+      <c r="A21" s="108">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -6281,21 +6450,21 @@
         <v>218</v>
       </c>
       <c r="C21" s="77"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="111">
+      <c r="D21" s="109"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110">
         <v>2</v>
       </c>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113" t="s">
+      <c r="I21" s="111"/>
+      <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="202"/>
+      <c r="K21" s="201"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109">
+      <c r="A22" s="108">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -6303,162 +6472,162 @@
         <v>219</v>
       </c>
       <c r="C22" s="77"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111">
+      <c r="D22" s="109"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110">
         <v>2</v>
       </c>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113" t="s">
+      <c r="I22" s="111"/>
+      <c r="J22" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="202"/>
+      <c r="K22" s="201"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="109">
+      <c r="A23" s="108">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111">
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110">
         <v>2</v>
       </c>
-      <c r="I23" s="112"/>
-      <c r="J23" s="113" t="s">
+      <c r="I23" s="111"/>
+      <c r="J23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="202"/>
+      <c r="K23" s="201"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109">
+      <c r="A24" s="108">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B24" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111">
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110">
         <v>2</v>
       </c>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113" t="s">
+      <c r="I24" s="111"/>
+      <c r="J24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="202"/>
+      <c r="K24" s="201"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="169">
+      <c r="A25" s="168">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="169" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="172">
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="171">
         <v>2</v>
       </c>
-      <c r="I25" s="173"/>
-      <c r="J25" s="174" t="s">
+      <c r="I25" s="172"/>
+      <c r="J25" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="202"/>
+      <c r="K25" s="201"/>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="269" t="s">
+      <c r="A27" s="272" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="270"/>
-      <c r="C27" s="270"/>
-      <c r="D27" s="270"/>
-      <c r="E27" s="270"/>
-      <c r="F27" s="270"/>
-      <c r="G27" s="270"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="270"/>
-      <c r="J27" s="270"/>
-      <c r="K27" s="270"/>
-      <c r="L27" s="270"/>
-      <c r="M27" s="270"/>
-      <c r="N27" s="270"/>
-      <c r="O27" s="270"/>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="271"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="273"/>
+      <c r="F27" s="273"/>
+      <c r="G27" s="273"/>
+      <c r="H27" s="273"/>
+      <c r="I27" s="273"/>
+      <c r="J27" s="273"/>
+      <c r="K27" s="273"/>
+      <c r="L27" s="273"/>
+      <c r="M27" s="273"/>
+      <c r="N27" s="273"/>
+      <c r="O27" s="273"/>
+      <c r="P27" s="273"/>
+      <c r="Q27" s="274"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="191" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="190" t="s">
+      <c r="C28" s="189" t="s">
         <v>332</v>
       </c>
-      <c r="D28" s="190" t="s">
+      <c r="D28" s="189" t="s">
         <v>366</v>
       </c>
-      <c r="E28" s="190" t="s">
+      <c r="E28" s="189" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="190" t="s">
+      <c r="F28" s="189" t="s">
         <v>381</v>
       </c>
-      <c r="G28" s="190" t="s">
+      <c r="G28" s="189" t="s">
         <v>433</v>
       </c>
-      <c r="H28" s="194" t="s">
+      <c r="H28" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="I28" s="194" t="s">
+      <c r="I28" s="193" t="s">
         <v>433</v>
       </c>
-      <c r="J28" s="194" t="s">
+      <c r="J28" s="193" t="s">
         <v>445</v>
       </c>
-      <c r="K28" s="194" t="s">
+      <c r="K28" s="193" t="s">
         <v>433</v>
       </c>
-      <c r="L28" s="124" t="s">
+      <c r="L28" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="124" t="s">
+      <c r="M28" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="N28" s="124" t="s">
+      <c r="N28" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="O28" s="190" t="s">
+      <c r="O28" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="P28" s="190" t="s">
+      <c r="P28" s="189" t="s">
         <v>276</v>
       </c>
-      <c r="Q28" s="193" t="s">
+      <c r="Q28" s="192" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="146"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="97" t="s">
         <v>20</v>
       </c>
@@ -6504,117 +6673,117 @@
       <c r="P29" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="Q29" s="119" t="s">
+      <c r="Q29" s="118" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147"/>
-      <c r="B30" s="198" t="s">
+      <c r="A30" s="146"/>
+      <c r="B30" s="197" t="s">
         <v>436</v>
       </c>
       <c r="C30" s="98"/>
       <c r="D30" s="98"/>
-      <c r="E30" s="154" t="s">
+      <c r="E30" s="153" t="s">
         <v>464</v>
       </c>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154" t="s">
+      <c r="F30" s="153"/>
+      <c r="G30" s="153" t="s">
         <v>435</v>
       </c>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154" t="s">
+      <c r="H30" s="153"/>
+      <c r="I30" s="153" t="s">
         <v>438</v>
       </c>
-      <c r="J30" s="154">
+      <c r="J30" s="153">
         <v>3</v>
       </c>
-      <c r="K30" s="154" t="s">
+      <c r="K30" s="153" t="s">
         <v>441</v>
       </c>
-      <c r="L30" s="154">
+      <c r="L30" s="153">
         <v>100</v>
       </c>
-      <c r="M30" s="154">
+      <c r="M30" s="153">
         <v>0</v>
       </c>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154">
+      <c r="N30" s="153"/>
+      <c r="O30" s="153">
         <v>4</v>
       </c>
-      <c r="P30" s="154">
+      <c r="P30" s="153">
         <v>10</v>
       </c>
-      <c r="Q30" s="155">
+      <c r="Q30" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="266" t="s">
+      <c r="A32" s="269" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="267"/>
-      <c r="C32" s="267"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="267"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="267"/>
-      <c r="H32" s="268"/>
+      <c r="B32" s="270"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="270"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="271"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="260" t="s">
+      <c r="A33" s="263" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="261"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="262"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="264"/>
+      <c r="E33" s="264"/>
+      <c r="F33" s="264"/>
+      <c r="G33" s="264"/>
+      <c r="H33" s="265"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="260"/>
-      <c r="B34" s="261"/>
-      <c r="C34" s="261"/>
-      <c r="D34" s="261"/>
-      <c r="E34" s="261"/>
-      <c r="F34" s="261"/>
-      <c r="G34" s="261"/>
-      <c r="H34" s="262"/>
+      <c r="A34" s="263"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="264"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="264"/>
+      <c r="G34" s="264"/>
+      <c r="H34" s="265"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="260"/>
-      <c r="B35" s="261"/>
-      <c r="C35" s="261"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="262"/>
+      <c r="A35" s="263"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="264"/>
+      <c r="E35" s="264"/>
+      <c r="F35" s="264"/>
+      <c r="G35" s="264"/>
+      <c r="H35" s="265"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="263"/>
-      <c r="B36" s="264"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="264"/>
-      <c r="E36" s="264"/>
-      <c r="F36" s="264"/>
-      <c r="G36" s="264"/>
-      <c r="H36" s="265"/>
+      <c r="A36" s="266"/>
+      <c r="B36" s="267"/>
+      <c r="C36" s="267"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="267"/>
+      <c r="H36" s="268"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="250" t="s">
+      <c r="A38" s="253" t="s">
         <v>307</v>
       </c>
-      <c r="B38" s="250"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="250"/>
-      <c r="F38" s="250"/>
-      <c r="G38" s="250"/>
+      <c r="B38" s="253"/>
+      <c r="C38" s="253"/>
+      <c r="D38" s="253"/>
+      <c r="E38" s="253"/>
+      <c r="F38" s="253"/>
+      <c r="G38" s="253"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
@@ -6626,12 +6795,12 @@
       <c r="C39" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="249" t="s">
+      <c r="D39" s="252" t="s">
         <v>310</v>
       </c>
-      <c r="E39" s="249"/>
-      <c r="F39" s="249"/>
-      <c r="G39" s="249"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="252"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6643,7 +6812,7 @@
       <c r="C40" t="s">
         <v>443</v>
       </c>
-      <c r="D40" s="177" t="s">
+      <c r="D40" s="176" t="s">
         <v>368</v>
       </c>
     </row>
@@ -6657,7 +6826,7 @@
       <c r="C41" t="s">
         <v>443</v>
       </c>
-      <c r="D41" s="189" t="s">
+      <c r="D41" s="188" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6671,7 +6840,7 @@
       <c r="C42" t="s">
         <v>443</v>
       </c>
-      <c r="D42" s="177" t="s">
+      <c r="D42" s="176" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6685,7 +6854,7 @@
       <c r="C43" t="s">
         <v>443</v>
       </c>
-      <c r="D43" s="177" t="s">
+      <c r="D43" s="176" t="s">
         <v>355</v>
       </c>
     </row>
@@ -6699,7 +6868,7 @@
       <c r="C44" t="s">
         <v>443</v>
       </c>
-      <c r="D44" s="180" t="s">
+      <c r="D44" s="179" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6713,7 +6882,7 @@
       <c r="C45" t="s">
         <v>443</v>
       </c>
-      <c r="D45" s="189" t="s">
+      <c r="D45" s="188" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6727,7 +6896,7 @@
       <c r="C46" t="s">
         <v>443</v>
       </c>
-      <c r="D46" s="189" t="s">
+      <c r="D46" s="188" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6741,7 +6910,7 @@
       <c r="C47" t="s">
         <v>443</v>
       </c>
-      <c r="D47" s="189" t="s">
+      <c r="D47" s="188" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6755,7 +6924,7 @@
       <c r="C48" t="s">
         <v>443</v>
       </c>
-      <c r="D48" s="189" t="s">
+      <c r="D48" s="188" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6769,7 +6938,7 @@
       <c r="C49" t="s">
         <v>443</v>
       </c>
-      <c r="D49" s="189" t="s">
+      <c r="D49" s="188" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6783,7 +6952,7 @@
       <c r="C50" t="s">
         <v>443</v>
       </c>
-      <c r="D50" s="189" t="s">
+      <c r="D50" s="188" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6797,7 +6966,7 @@
       <c r="C51" t="s">
         <v>443</v>
       </c>
-      <c r="D51" s="189" t="s">
+      <c r="D51" s="188" t="s">
         <v>415</v>
       </c>
     </row>
@@ -6811,7 +6980,7 @@
       <c r="C52" t="s">
         <v>443</v>
       </c>
-      <c r="D52" s="177" t="s">
+      <c r="D52" s="176" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6825,7 +6994,7 @@
       <c r="C53" t="s">
         <v>443</v>
       </c>
-      <c r="D53" s="189" t="s">
+      <c r="D53" s="188" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6839,7 +7008,7 @@
       <c r="C54" t="s">
         <v>443</v>
       </c>
-      <c r="D54" s="189" t="s">
+      <c r="D54" s="188" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6853,7 +7022,7 @@
       <c r="C55" t="s">
         <v>443</v>
       </c>
-      <c r="D55" s="189" t="s">
+      <c r="D55" s="188" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6867,7 +7036,7 @@
       <c r="C56" t="s">
         <v>443</v>
       </c>
-      <c r="D56" s="189" t="s">
+      <c r="D56" s="188" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6881,7 +7050,7 @@
       <c r="C57" t="s">
         <v>443</v>
       </c>
-      <c r="D57" s="189" t="s">
+      <c r="D57" s="188" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6895,7 +7064,7 @@
       <c r="C58" t="s">
         <v>443</v>
       </c>
-      <c r="D58" s="177" t="s">
+      <c r="D58" s="176" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6909,7 +7078,7 @@
       <c r="C59" t="s">
         <v>443</v>
       </c>
-      <c r="D59" s="177" t="s">
+      <c r="D59" s="176" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6923,7 +7092,7 @@
       <c r="C60" t="s">
         <v>443</v>
       </c>
-      <c r="D60" s="177" t="s">
+      <c r="D60" s="176" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6937,7 +7106,7 @@
       <c r="C61" t="s">
         <v>443</v>
       </c>
-      <c r="D61" s="177" t="s">
+      <c r="D61" s="176" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6951,7 +7120,7 @@
       <c r="C62" t="s">
         <v>443</v>
       </c>
-      <c r="D62" s="177" t="s">
+      <c r="D62" s="176" t="s">
         <v>423</v>
       </c>
     </row>
@@ -6965,7 +7134,7 @@
       <c r="C63" t="s">
         <v>443</v>
       </c>
-      <c r="D63" s="177" t="s">
+      <c r="D63" s="176" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6979,7 +7148,7 @@
       <c r="C64" t="s">
         <v>443</v>
       </c>
-      <c r="D64" s="177" t="s">
+      <c r="D64" s="176" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6993,7 +7162,7 @@
       <c r="C65" t="s">
         <v>443</v>
       </c>
-      <c r="D65" s="177" t="s">
+      <c r="D65" s="176" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7007,7 +7176,7 @@
       <c r="C66" t="s">
         <v>443</v>
       </c>
-      <c r="D66" s="177" t="s">
+      <c r="D66" s="176" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7021,7 +7190,7 @@
       <c r="C67" t="s">
         <v>443</v>
       </c>
-      <c r="D67" s="177" t="s">
+      <c r="D67" s="176" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7035,7 +7204,7 @@
       <c r="C68" t="s">
         <v>443</v>
       </c>
-      <c r="D68" s="177" t="s">
+      <c r="D68" s="176" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7049,7 +7218,7 @@
       <c r="C69" t="s">
         <v>443</v>
       </c>
-      <c r="D69" s="177" t="s">
+      <c r="D69" s="176" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7063,7 +7232,7 @@
       <c r="C70" t="s">
         <v>443</v>
       </c>
-      <c r="D70" s="177" t="s">
+      <c r="D70" s="176" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7077,7 +7246,7 @@
       <c r="C71" t="s">
         <v>443</v>
       </c>
-      <c r="D71" s="177" t="s">
+      <c r="D71" s="176" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7154,10 +7323,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7175,63 +7344,63 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="272" t="s">
+    <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="275" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="274"/>
-    </row>
-    <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="269" t="s">
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="277"/>
+    </row>
+    <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="271"/>
-    </row>
-    <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="274"/>
+    </row>
+    <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="131" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="131" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="128" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="126" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="132" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="166" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="128"/>
+      <c r="J3" s="130"/>
+    </row>
+    <row r="4" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
         <v>98</v>
       </c>
@@ -7253,13 +7422,13 @@
       <c r="G4" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="168" t="s">
+      <c r="H4" s="167" t="s">
         <v>304</v>
       </c>
       <c r="I4" s="102"/>
       <c r="J4" s="103"/>
     </row>
-    <row r="5" spans="1:10" s="114" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="113" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>173</v>
       </c>
@@ -7272,44 +7441,44 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="200" t="s">
+      <c r="G5" s="199" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-    </row>
-    <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="269" t="s">
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+    </row>
+    <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="J6" s="271"/>
-    </row>
-    <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="B6" s="273"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="274"/>
+    </row>
+    <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="132" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="131"/>
-    </row>
-    <row r="8" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="130"/>
+    </row>
+    <row r="8" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>151</v>
       </c>
@@ -7325,7 +7494,7 @@
       <c r="I8" s="105"/>
       <c r="J8" s="106"/>
     </row>
-    <row r="9" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
         <v>0</v>
       </c>
@@ -7341,47 +7510,47 @@
       <c r="I9" s="71"/>
       <c r="J9" s="72"/>
     </row>
-    <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="269" t="s">
+    <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="270"/>
-      <c r="I10" s="270"/>
-      <c r="J10" s="271"/>
-    </row>
-    <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129" t="s">
+      <c r="B10" s="273"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="274"/>
+    </row>
+    <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="127"/>
+      <c r="B11" s="128" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="128" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="176" t="s">
+      <c r="D11" s="175" t="s">
         <v>331</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="128" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="133" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="I11" s="129"/>
-      <c r="J11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" s="114" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="128"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="1:10" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
         <v>1</v>
       </c>
@@ -7400,16 +7569,16 @@
       <c r="F12" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="134" t="s">
         <v>263</v>
       </c>
       <c r="H12" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
-    </row>
-    <row r="13" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="13" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="107" t="s">
         <v>16</v>
       </c>
@@ -7437,7 +7606,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107">
         <v>2</v>
       </c>
@@ -7465,7 +7634,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107">
         <v>3</v>
       </c>
@@ -7493,7 +7662,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="107">
         <v>4</v>
       </c>
@@ -7521,458 +7690,585 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" s="114" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108">
-        <v>8</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="269" t="s">
+    <row r="17" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="316" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17" s="317"/>
+      <c r="C17" s="317"/>
+      <c r="D17" s="317"/>
+      <c r="E17" s="317"/>
+      <c r="F17" s="317"/>
+      <c r="G17" s="317"/>
+      <c r="H17" s="317"/>
+      <c r="I17" s="317"/>
+      <c r="J17" s="318"/>
+    </row>
+    <row r="18" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="319"/>
+      <c r="B18" s="320" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="320" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="320" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="321" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="322" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="322"/>
+      <c r="H18" s="323"/>
+      <c r="I18" s="323"/>
+      <c r="J18" s="324"/>
+    </row>
+    <row r="19" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="325" t="s">
+        <v>483</v>
+      </c>
+      <c r="B19" s="326" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" s="327" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="327" t="s">
+        <v>485</v>
+      </c>
+      <c r="E19" s="327" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="328" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="326"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329"/>
+      <c r="J19" s="330"/>
+    </row>
+    <row r="20" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="331"/>
+      <c r="B20" s="332"/>
+      <c r="C20" s="332"/>
+      <c r="D20" s="332"/>
+      <c r="E20" s="332"/>
+      <c r="F20" s="332"/>
+      <c r="G20" s="332"/>
+      <c r="H20" s="332"/>
+      <c r="I20" s="332"/>
+      <c r="J20" s="333"/>
+    </row>
+    <row r="21" spans="1:10" s="113" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="331"/>
+      <c r="B21" s="332"/>
+      <c r="C21" s="332"/>
+      <c r="D21" s="332"/>
+      <c r="E21" s="332"/>
+      <c r="F21" s="332"/>
+      <c r="G21" s="332"/>
+      <c r="H21" s="332"/>
+      <c r="I21" s="332"/>
+      <c r="J21" s="333"/>
+    </row>
+    <row r="22" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="270"/>
-      <c r="C21" s="270"/>
-      <c r="D21" s="270"/>
-      <c r="E21" s="270"/>
-      <c r="F21" s="270"/>
-      <c r="G21" s="270"/>
-      <c r="H21" s="270"/>
-      <c r="I21" s="270"/>
-      <c r="J21" s="271"/>
-    </row>
-    <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="132" t="s">
+      <c r="B22" s="273"/>
+      <c r="C22" s="273"/>
+      <c r="D22" s="273"/>
+      <c r="E22" s="273"/>
+      <c r="F22" s="273"/>
+      <c r="G22" s="273"/>
+      <c r="H22" s="273"/>
+      <c r="I22" s="273"/>
+      <c r="J22" s="274"/>
+    </row>
+    <row r="23" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="131" t="s">
         <v>327</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B23" s="132" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C23" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D23" s="132" t="s">
         <v>329</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="131"/>
-    </row>
-    <row r="23" spans="1:10" s="114" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="130"/>
+    </row>
+    <row r="24" spans="1:10" s="113" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B24" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C24" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D24" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-    </row>
-    <row r="24" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="E24" s="114"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
+    </row>
+    <row r="25" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
         <v>3</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="154" t="s">
+      <c r="D25" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="269" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="316" t="s">
+        <v>486</v>
+      </c>
+      <c r="B26" s="317"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="317"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="318"/>
+    </row>
+    <row r="27" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="334" t="s">
+        <v>487</v>
+      </c>
+      <c r="B27" s="335" t="s">
+        <v>487</v>
+      </c>
+      <c r="C27" s="336" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="336" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="337" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="338" t="s">
+        <v>488</v>
+      </c>
+      <c r="G27" s="337" t="s">
+        <v>270</v>
+      </c>
+      <c r="H27" s="339"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="340"/>
+    </row>
+    <row r="28" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="341" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="326" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="342" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="342" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="342" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="342" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="326" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="343"/>
+      <c r="I28" s="343"/>
+      <c r="J28" s="344"/>
+    </row>
+    <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="345"/>
+      <c r="B29" s="346"/>
+      <c r="C29" s="347"/>
+      <c r="D29" s="347"/>
+      <c r="E29" s="347"/>
+      <c r="F29" s="347"/>
+      <c r="G29" s="347"/>
+      <c r="H29" s="347"/>
+      <c r="I29" s="347"/>
+      <c r="J29" s="348"/>
+    </row>
+    <row r="30" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="272" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="270"/>
-      <c r="C25" s="270"/>
-      <c r="D25" s="270"/>
-      <c r="E25" s="270"/>
-      <c r="F25" s="270"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="270"/>
-      <c r="J25" s="271"/>
-    </row>
-    <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="132" t="s">
+      <c r="B30" s="273"/>
+      <c r="C30" s="273"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="273"/>
+      <c r="F30" s="273"/>
+      <c r="G30" s="273"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="273"/>
+      <c r="J30" s="274"/>
+    </row>
+    <row r="31" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="B26" s="194" t="s">
+      <c r="B31" s="193" t="s">
         <v>366</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C31" s="132" t="s">
         <v>330</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D31" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="190" t="s">
+      <c r="E31" s="189" t="s">
         <v>366</v>
       </c>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="152"/>
-    </row>
-    <row r="27" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
-      <c r="B27" s="148" t="s">
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="151"/>
+    </row>
+    <row r="32" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="148"/>
+      <c r="B32" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C32" s="147" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D32" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E32" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="153"/>
-    </row>
-    <row r="28" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="147"/>
-      <c r="B28" s="199" t="s">
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="152"/>
+    </row>
+    <row r="33" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="146"/>
+      <c r="B33" s="198" t="s">
         <v>457</v>
       </c>
-      <c r="C28" s="187"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="154" t="s">
+      <c r="C33" s="186"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="153" t="s">
         <v>458</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="266" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="113" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="269" t="s">
         <v>280</v>
       </c>
-      <c r="B30" s="267"/>
-      <c r="C30" s="267"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="267"/>
-      <c r="H30" s="268"/>
-    </row>
-    <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="260" t="s">
+      <c r="B35" s="270"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="270"/>
+      <c r="F35" s="270"/>
+      <c r="G35" s="270"/>
+      <c r="H35" s="271"/>
+    </row>
+    <row r="36" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="263" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="261"/>
-      <c r="C31" s="261"/>
-      <c r="D31" s="261"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="261"/>
-      <c r="G31" s="261"/>
-      <c r="H31" s="262"/>
-    </row>
-    <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="260"/>
-      <c r="B32" s="261"/>
-      <c r="C32" s="261"/>
-      <c r="D32" s="261"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="261"/>
-      <c r="G32" s="261"/>
-      <c r="H32" s="262"/>
-    </row>
-    <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="260"/>
-      <c r="B33" s="261"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="262"/>
-    </row>
-    <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="263"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="264"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="264"/>
-      <c r="G34" s="264"/>
-      <c r="H34" s="265"/>
-    </row>
-    <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="250" t="s">
+      <c r="B36" s="264"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="264"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="264"/>
+      <c r="H36" s="265"/>
+    </row>
+    <row r="37" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="263"/>
+      <c r="B37" s="264"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="264"/>
+      <c r="E37" s="264"/>
+      <c r="F37" s="264"/>
+      <c r="G37" s="264"/>
+      <c r="H37" s="265"/>
+    </row>
+    <row r="38" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="263"/>
+      <c r="B38" s="264"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="264"/>
+      <c r="E38" s="264"/>
+      <c r="F38" s="264"/>
+      <c r="G38" s="264"/>
+      <c r="H38" s="265"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="266"/>
+      <c r="B39" s="267"/>
+      <c r="C39" s="267"/>
+      <c r="D39" s="267"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="267"/>
+      <c r="H39" s="268"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="253" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="250"/>
-      <c r="C36" s="250"/>
-      <c r="D36" s="250"/>
-      <c r="E36" s="250"/>
-      <c r="F36" s="250"/>
-      <c r="G36" s="250"/>
-    </row>
-    <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="B41" s="253"/>
+      <c r="C41" s="253"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B42" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C42" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="249" t="s">
+      <c r="D42" s="252" t="s">
         <v>310</v>
       </c>
-      <c r="E37" s="249"/>
-      <c r="F37" s="249"/>
-      <c r="G37" s="249"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E42" s="252"/>
+      <c r="F42" s="252"/>
+      <c r="G42" s="252"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>311</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>312</v>
-      </c>
-      <c r="C38" t="s">
-        <v>460</v>
-      </c>
-      <c r="D38" s="177" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" t="s">
-        <v>337</v>
-      </c>
-      <c r="C39" t="s">
-        <v>460</v>
-      </c>
-      <c r="D39" s="189" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>333</v>
-      </c>
-      <c r="B40" t="s">
-        <v>338</v>
-      </c>
-      <c r="C40" t="s">
-        <v>460</v>
-      </c>
-      <c r="D40" s="177" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>333</v>
-      </c>
-      <c r="B41" t="s">
-        <v>339</v>
-      </c>
-      <c r="C41" t="s">
-        <v>460</v>
-      </c>
-      <c r="D41" s="177" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>333</v>
-      </c>
-      <c r="B42" t="s">
-        <v>340</v>
-      </c>
-      <c r="C42" t="s">
-        <v>460</v>
-      </c>
-      <c r="D42" s="180" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>369</v>
-      </c>
-      <c r="B43" t="s">
-        <v>313</v>
       </c>
       <c r="C43" t="s">
         <v>460</v>
       </c>
-      <c r="D43" s="189" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="176" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="C44" t="s">
         <v>460</v>
       </c>
-      <c r="D44" s="189" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="188" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="C45" t="s">
         <v>460</v>
       </c>
-      <c r="D45" s="189" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="176" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="C46" t="s">
         <v>460</v>
       </c>
-      <c r="D46" s="189" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="176" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="C47" t="s">
         <v>460</v>
       </c>
-      <c r="D47" s="189" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="179" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s">
-        <v>461</v>
+        <v>313</v>
       </c>
       <c r="C48" t="s">
         <v>460</v>
       </c>
-      <c r="D48" s="180" t="s">
+      <c r="D48" s="188" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>371</v>
+      </c>
+      <c r="B49" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" t="s">
+        <v>460</v>
+      </c>
+      <c r="D49" s="188" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" t="s">
+        <v>372</v>
+      </c>
+      <c r="C50" t="s">
+        <v>460</v>
+      </c>
+      <c r="D50" s="188" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C51" t="s">
+        <v>460</v>
+      </c>
+      <c r="D51" s="188" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" t="s">
+        <v>460</v>
+      </c>
+      <c r="D52" s="188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" t="s">
+        <v>461</v>
+      </c>
+      <c r="C53" t="s">
+        <v>460</v>
+      </c>
+      <c r="D53" s="179" t="s">
         <v>462</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H34"/>
-    <mergeCell ref="A25:J25"/>
+  <mergeCells count="12">
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H39"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7989,13 +8285,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8042,352 +8338,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="282" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
+      <c r="L1" s="282"/>
+      <c r="M1" s="282"/>
+      <c r="N1" s="282"/>
+      <c r="O1" s="282"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="293" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="298" t="s">
+      <c r="B2" s="294"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="283" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="299" t="s">
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="289" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="296" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="303" t="s">
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="285" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="304" t="s">
+      <c r="H3" s="285"/>
+      <c r="I3" s="285"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="204" t="s">
         <v>299</v>
       </c>
-      <c r="N3" s="304" t="s">
+      <c r="N3" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="O3" s="304" t="s">
+      <c r="O3" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="197"/>
+      <c r="P3" s="196"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="286" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="287"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="287"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="284" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308" t="s">
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="308"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="309" t="s">
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="205" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="309" t="s">
+      <c r="N4" s="205" t="s">
         <v>367</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="205" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="313" t="s">
+      <c r="A5" s="279"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="280"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="278" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="313"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="313" t="s">
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278" t="s">
         <v>292</v>
       </c>
-      <c r="K5" s="313"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="314"/>
-      <c r="N5" s="314" t="s">
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206" t="s">
         <v>384</v>
       </c>
-      <c r="O5" s="315" t="s">
+      <c r="O5" s="207" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="279" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="313" t="s">
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="278" t="s">
         <v>285</v>
       </c>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="314"/>
-      <c r="N6" s="314" t="s">
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206" t="s">
         <v>385</v>
       </c>
-      <c r="O6" s="315" t="s">
+      <c r="O6" s="207" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="310" t="s">
+      <c r="A7" s="279" t="s">
         <v>475</v>
       </c>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="313"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="315"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="278"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="207"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="313"/>
-      <c r="H8" s="313"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="313"/>
-      <c r="K8" s="313"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="314"/>
-      <c r="O8" s="315"/>
+      <c r="A8" s="279"/>
+      <c r="B8" s="280"/>
+      <c r="C8" s="280"/>
+      <c r="D8" s="280"/>
+      <c r="E8" s="280"/>
+      <c r="F8" s="281"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="207"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="290" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="276"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="277"/>
+      <c r="B10" s="291"/>
+      <c r="C10" s="291"/>
+      <c r="D10" s="291"/>
+      <c r="E10" s="291"/>
+      <c r="F10" s="291"/>
+      <c r="G10" s="291"/>
+      <c r="H10" s="291"/>
+      <c r="I10" s="292"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="132" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="189" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="188"/>
-      <c r="L11" s="188"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="147" t="s">
         <v>251</v>
       </c>
       <c r="C12" s="97" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="147" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="147" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="149" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="98"/>
       <c r="C13" s="98"/>
-      <c r="D13" s="154">
+      <c r="D13" s="153">
         <v>100</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>0</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154">
+      <c r="F13" s="153"/>
+      <c r="G13" s="153">
         <v>4</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="153">
         <v>10</v>
       </c>
-      <c r="I13" s="155">
+      <c r="I13" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="269" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="263" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="261"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="262"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="260"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="262"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="265"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="260"/>
-      <c r="B18" s="261"/>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="262"/>
+      <c r="A18" s="263"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="265"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="263"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="265"/>
+      <c r="A19" s="266"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="268"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="250" t="s">
+      <c r="A21" s="253" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="250"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8399,12 +8695,12 @@
       <c r="C22" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="249" t="s">
+      <c r="D22" s="252" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8416,7 +8712,7 @@
       <c r="C23" t="s">
         <v>446</v>
       </c>
-      <c r="D23" s="177" t="s">
+      <c r="D23" s="176" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8430,7 +8726,7 @@
       <c r="C24" t="s">
         <v>446</v>
       </c>
-      <c r="D24" s="189" t="s">
+      <c r="D24" s="188" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8444,7 +8740,7 @@
       <c r="C25" t="s">
         <v>446</v>
       </c>
-      <c r="D25" s="177" t="s">
+      <c r="D25" s="176" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8458,7 +8754,7 @@
       <c r="C26" t="s">
         <v>446</v>
       </c>
-      <c r="D26" s="177" t="s">
+      <c r="D26" s="176" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8472,7 +8768,7 @@
       <c r="C27" t="s">
         <v>446</v>
       </c>
-      <c r="D27" s="180" t="s">
+      <c r="D27" s="179" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8486,7 +8782,7 @@
       <c r="C28" t="s">
         <v>446</v>
       </c>
-      <c r="D28" s="189" t="s">
+      <c r="D28" s="188" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8500,7 +8796,7 @@
       <c r="C29" t="s">
         <v>446</v>
       </c>
-      <c r="D29" s="189" t="s">
+      <c r="D29" s="188" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8514,7 +8810,7 @@
       <c r="C30" t="s">
         <v>446</v>
       </c>
-      <c r="D30" s="189" t="s">
+      <c r="D30" s="188" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8528,7 +8824,7 @@
       <c r="C31" t="s">
         <v>446</v>
       </c>
-      <c r="D31" s="189" t="s">
+      <c r="D31" s="188" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8542,7 +8838,7 @@
       <c r="C32" t="s">
         <v>446</v>
       </c>
-      <c r="D32" s="189" t="s">
+      <c r="D32" s="188" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8556,7 +8852,7 @@
       <c r="C33" t="s">
         <v>446</v>
       </c>
-      <c r="D33" s="189" t="s">
+      <c r="D33" s="188" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8570,7 +8866,7 @@
       <c r="C34" t="s">
         <v>446</v>
       </c>
-      <c r="D34" s="177" t="s">
+      <c r="D34" s="176" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8584,7 +8880,7 @@
       <c r="C35" t="s">
         <v>446</v>
       </c>
-      <c r="D35" s="177" t="s">
+      <c r="D35" s="176" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8598,7 +8894,7 @@
       <c r="C36" t="s">
         <v>446</v>
       </c>
-      <c r="D36" s="177" t="s">
+      <c r="D36" s="176" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8612,7 +8908,7 @@
       <c r="C37" t="s">
         <v>446</v>
       </c>
-      <c r="D37" s="177" t="s">
+      <c r="D37" s="176" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8626,7 +8922,7 @@
       <c r="C38" t="s">
         <v>446</v>
       </c>
-      <c r="D38" s="177" t="s">
+      <c r="D38" s="176" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8640,7 +8936,7 @@
       <c r="C39" t="s">
         <v>446</v>
       </c>
-      <c r="D39" s="177" t="s">
+      <c r="D39" s="176" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8654,7 +8950,7 @@
       <c r="C40" t="s">
         <v>446</v>
       </c>
-      <c r="D40" s="177" t="s">
+      <c r="D40" s="176" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8668,7 +8964,7 @@
       <c r="C41" t="s">
         <v>446</v>
       </c>
-      <c r="D41" s="177" t="s">
+      <c r="D41" s="176" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8682,7 +8978,7 @@
       <c r="C42" t="s">
         <v>446</v>
       </c>
-      <c r="D42" s="177" t="s">
+      <c r="D42" s="176" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8696,7 +8992,7 @@
       <c r="C43" t="s">
         <v>446</v>
       </c>
-      <c r="D43" s="177" t="s">
+      <c r="D43" s="176" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8710,7 +9006,7 @@
       <c r="C44" t="s">
         <v>446</v>
       </c>
-      <c r="D44" s="177" t="s">
+      <c r="D44" s="176" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8724,7 +9020,7 @@
       <c r="C45" t="s">
         <v>446</v>
       </c>
-      <c r="D45" s="177" t="s">
+      <c r="D45" s="176" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8738,7 +9034,7 @@
       <c r="C46" t="s">
         <v>446</v>
       </c>
-      <c r="D46" s="177" t="s">
+      <c r="D46" s="176" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8752,7 +9048,7 @@
       <c r="C47" t="s">
         <v>446</v>
       </c>
-      <c r="D47" s="177" t="s">
+      <c r="D47" s="176" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8766,7 +9062,7 @@
       <c r="C48" t="s">
         <v>446</v>
       </c>
-      <c r="D48" s="177" t="s">
+      <c r="D48" s="176" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8780,7 +9076,7 @@
       <c r="C49" t="s">
         <v>446</v>
       </c>
-      <c r="D49" s="177" t="s">
+      <c r="D49" s="176" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8794,7 +9090,7 @@
       <c r="C50" t="s">
         <v>446</v>
       </c>
-      <c r="D50" s="177" t="s">
+      <c r="D50" s="176" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8808,7 +9104,7 @@
       <c r="C51" t="s">
         <v>446</v>
       </c>
-      <c r="D51" s="177" t="s">
+      <c r="D51" s="176" t="s">
         <v>455</v>
       </c>
     </row>
@@ -8822,7 +9118,7 @@
       <c r="C52" t="s">
         <v>446</v>
       </c>
-      <c r="D52" s="189" t="s">
+      <c r="D52" s="188" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8836,18 +9132,20 @@
       <c r="C53" t="s">
         <v>446</v>
       </c>
-      <c r="D53" s="177" t="s">
+      <c r="D53" s="176" t="s">
         <v>401</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -8860,14 +9158,12 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8933,7 +9229,7 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -8959,357 +9255,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="282" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
-      <c r="P1" s="294"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
+      <c r="L1" s="282"/>
+      <c r="M1" s="282"/>
+      <c r="N1" s="282"/>
+      <c r="O1" s="282"/>
+      <c r="P1" s="282"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="283" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298" t="s">
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="299" t="s">
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="289" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="285" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303" t="s">
+      <c r="B3" s="285"/>
+      <c r="C3" s="285"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="285"/>
+      <c r="F3" s="285"/>
+      <c r="G3" s="285" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="304" t="s">
+      <c r="H3" s="285"/>
+      <c r="I3" s="285"/>
+      <c r="J3" s="285"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="204" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="304" t="s">
+      <c r="N3" s="204" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="304" t="s">
+      <c r="O3" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="304" t="s">
+      <c r="P3" s="204" t="s">
         <v>366</v>
       </c>
-      <c r="Q3" s="196"/>
+      <c r="Q3" s="195"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="286" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="287"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="287"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="284" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308"/>
-      <c r="K4" s="308"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="309" t="s">
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="205" t="s">
         <v>252</v>
       </c>
-      <c r="N4" s="309" t="s">
+      <c r="N4" s="205" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="205" t="s">
         <v>367</v>
       </c>
-      <c r="P4" s="309" t="s">
+      <c r="P4" s="205" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="316" t="s">
+      <c r="A5" s="279"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="280"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="316"/>
-      <c r="I5" s="316"/>
-      <c r="J5" s="316"/>
-      <c r="K5" s="316"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="314" t="s">
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="206" t="s">
         <v>291</v>
       </c>
-      <c r="N5" s="314"/>
-      <c r="O5" s="314" t="s">
+      <c r="N5" s="206"/>
+      <c r="O5" s="206" t="s">
         <v>477</v>
       </c>
-      <c r="P5" s="314" t="s">
+      <c r="P5" s="206" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="279" t="s">
         <v>479</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="316" t="s">
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="316"/>
-      <c r="I6" s="316"/>
-      <c r="J6" s="316"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="316"/>
-      <c r="M6" s="314"/>
-      <c r="N6" s="314"/>
-      <c r="O6" s="314" t="s">
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="299"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206" t="s">
         <v>480</v>
       </c>
-      <c r="P6" s="314" t="s">
+      <c r="P6" s="206" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="310"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="314"/>
-      <c r="P7" s="315"/>
+      <c r="A7" s="279"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="207"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="316"/>
-      <c r="H8" s="316"/>
-      <c r="I8" s="316"/>
-      <c r="J8" s="316"/>
-      <c r="K8" s="316"/>
-      <c r="L8" s="316"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="314"/>
-      <c r="O8" s="314"/>
-      <c r="P8" s="315"/>
+      <c r="A8" s="279"/>
+      <c r="B8" s="280"/>
+      <c r="C8" s="280"/>
+      <c r="D8" s="280"/>
+      <c r="E8" s="280"/>
+      <c r="F8" s="281"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="299"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="299"/>
+      <c r="K8" s="299"/>
+      <c r="L8" s="299"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="207"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="290" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="276"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="277"/>
+      <c r="B10" s="291"/>
+      <c r="C10" s="291"/>
+      <c r="D10" s="291"/>
+      <c r="E10" s="291"/>
+      <c r="F10" s="291"/>
+      <c r="G10" s="291"/>
+      <c r="H10" s="291"/>
+      <c r="I10" s="292"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="132" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="189" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="144" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="147" t="s">
         <v>251</v>
       </c>
       <c r="C12" s="97" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="147" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="147" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="149" t="s">
         <v>255</v>
       </c>
-      <c r="K12" s="165"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="98"/>
       <c r="C13" s="98"/>
-      <c r="D13" s="154">
+      <c r="D13" s="153">
         <v>100</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>0</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154">
+      <c r="F13" s="153"/>
+      <c r="G13" s="153">
         <v>4</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="153">
         <v>10</v>
       </c>
-      <c r="I13" s="155">
+      <c r="I13" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="269" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="263" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="261"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="262"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="260"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="262"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="265"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="260"/>
-      <c r="B18" s="261"/>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="262"/>
+      <c r="A18" s="263"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="265"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="263"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="265"/>
+      <c r="A19" s="266"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="268"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="250" t="s">
+      <c r="A21" s="253" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="250"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9321,12 +9617,12 @@
       <c r="C22" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="249" t="s">
+      <c r="D22" s="252" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9338,7 +9634,7 @@
       <c r="C23" t="s">
         <v>456</v>
       </c>
-      <c r="D23" s="177" t="s">
+      <c r="D23" s="176" t="s">
         <v>368</v>
       </c>
     </row>
@@ -9352,7 +9648,7 @@
       <c r="C24" t="s">
         <v>456</v>
       </c>
-      <c r="D24" s="189" t="s">
+      <c r="D24" s="188" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9366,7 +9662,7 @@
       <c r="C25" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="177" t="s">
+      <c r="D25" s="176" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9380,7 +9676,7 @@
       <c r="C26" t="s">
         <v>456</v>
       </c>
-      <c r="D26" s="177" t="s">
+      <c r="D26" s="176" t="s">
         <v>355</v>
       </c>
     </row>
@@ -9394,7 +9690,7 @@
       <c r="C27" t="s">
         <v>456</v>
       </c>
-      <c r="D27" s="180" t="s">
+      <c r="D27" s="179" t="s">
         <v>336</v>
       </c>
     </row>
@@ -9408,7 +9704,7 @@
       <c r="C28" t="s">
         <v>456</v>
       </c>
-      <c r="D28" s="189" t="s">
+      <c r="D28" s="188" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9422,7 +9718,7 @@
       <c r="C29" t="s">
         <v>456</v>
       </c>
-      <c r="D29" s="189" t="s">
+      <c r="D29" s="188" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9436,7 +9732,7 @@
       <c r="C30" t="s">
         <v>456</v>
       </c>
-      <c r="D30" s="189" t="s">
+      <c r="D30" s="188" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9450,7 +9746,7 @@
       <c r="C31" t="s">
         <v>456</v>
       </c>
-      <c r="D31" s="189" t="s">
+      <c r="D31" s="188" t="s">
         <v>345</v>
       </c>
     </row>
@@ -9464,7 +9760,7 @@
       <c r="C32" t="s">
         <v>456</v>
       </c>
-      <c r="D32" s="189" t="s">
+      <c r="D32" s="188" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9478,7 +9774,7 @@
       <c r="C33" t="s">
         <v>456</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="176" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9492,12 +9788,21 @@
       <c r="C34" t="s">
         <v>456</v>
       </c>
-      <c r="D34" s="189" t="s">
+      <c r="D34" s="188" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
@@ -9509,16 +9814,7 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9592,7 +9888,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="186" customWidth="1"/>
+    <col min="3" max="3" width="16" style="185" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9600,12 +9896,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="300" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="280"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="302"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9629,7 +9925,7 @@
       <c r="D2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="135" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9640,9 +9936,9 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="183"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="23"/>
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="136" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9653,7 +9949,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="184"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9668,7 +9964,7 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="184"/>
+      <c r="C5" s="183"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9680,7 +9976,7 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="183">
         <v>1</v>
       </c>
       <c r="D6" s="24">
@@ -9688,25 +9984,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="202" t="s">
         <v>467</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="204"/>
+      <c r="C7" s="203"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="202" t="s">
         <v>469</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="C8" s="204"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -9718,7 +10014,7 @@
       <c r="B9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="184"/>
+      <c r="C9" s="183"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9728,7 +10024,7 @@
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="183"/>
+      <c r="C10" s="182"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9738,7 +10034,7 @@
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="184"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="24">
         <v>0</v>
       </c>
@@ -9750,7 +10046,7 @@
       <c r="B12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="184"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="25" t="s">
         <v>68</v>
       </c>
@@ -9762,7 +10058,7 @@
       <c r="B13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="184"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="25" t="s">
         <v>69</v>
       </c>
@@ -9774,7 +10070,7 @@
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="184"/>
+      <c r="C14" s="183"/>
       <c r="D14" s="24">
         <v>0</v>
       </c>
@@ -9786,7 +10082,7 @@
       <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="184"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="24" t="s">
         <v>31</v>
       </c>
@@ -9798,7 +10094,7 @@
       <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="183"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9808,7 +10104,7 @@
       <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="184"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9818,7 +10114,7 @@
       <c r="B18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="184"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9828,7 +10124,7 @@
       <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="184"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9838,7 +10134,7 @@
       <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="184"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9848,7 +10144,7 @@
       <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="184"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="24">
         <v>1</v>
       </c>
@@ -9860,7 +10156,7 @@
       <c r="B22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="184"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9870,7 +10166,7 @@
       <c r="B23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="184"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9880,7 +10176,7 @@
       <c r="B24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="184"/>
+      <c r="C24" s="183"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9890,7 +10186,7 @@
       <c r="B25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="183"/>
+      <c r="C25" s="182"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9900,7 +10196,7 @@
       <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="184"/>
+      <c r="C26" s="183"/>
       <c r="D26" s="24">
         <v>100</v>
       </c>
@@ -9912,7 +10208,7 @@
       <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="184"/>
+      <c r="C27" s="183"/>
       <c r="D27" s="24">
         <v>65535</v>
       </c>
@@ -9924,7 +10220,7 @@
       <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="184"/>
+      <c r="C28" s="183"/>
       <c r="D28" s="24">
         <v>10</v>
       </c>
@@ -9936,7 +10232,7 @@
       <c r="B29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="184"/>
+      <c r="C29" s="183"/>
       <c r="D29" s="24">
         <v>0.1</v>
       </c>
@@ -9948,7 +10244,7 @@
       <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="184"/>
+      <c r="C30" s="183"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9958,7 +10254,7 @@
       <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="184"/>
+      <c r="C31" s="183"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9968,7 +10264,7 @@
       <c r="B32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="184"/>
+      <c r="C32" s="183"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9978,7 +10274,7 @@
       <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="182"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9988,7 +10284,7 @@
       <c r="B34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="184"/>
+      <c r="C34" s="183"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9998,7 +10294,7 @@
       <c r="B35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="184"/>
+      <c r="C35" s="183"/>
       <c r="D35" s="24">
         <v>0.02</v>
       </c>
@@ -10010,7 +10306,7 @@
       <c r="B36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="184"/>
+      <c r="C36" s="183"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10020,7 +10316,7 @@
       <c r="B37" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="184"/>
+      <c r="C37" s="183"/>
       <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10030,7 +10326,7 @@
       <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="184"/>
+      <c r="C38" s="183"/>
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10040,7 +10336,7 @@
       <c r="B39" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="184"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="25" t="s">
         <v>72</v>
       </c>
@@ -10052,7 +10348,7 @@
       <c r="B40" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="184"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="25">
         <v>0</v>
       </c>
@@ -10064,7 +10360,7 @@
       <c r="B41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="183"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10072,7 +10368,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="184"/>
+      <c r="C42" s="183"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10082,7 +10378,7 @@
       <c r="B43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="184"/>
+      <c r="C43" s="183"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10092,7 +10388,7 @@
       <c r="B44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="184"/>
+      <c r="C44" s="183"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10102,7 +10398,7 @@
       <c r="B45" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="184"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10112,7 +10408,7 @@
       <c r="B46" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="184"/>
+      <c r="C46" s="183"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10122,7 +10418,7 @@
       <c r="B47" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="184"/>
+      <c r="C47" s="183"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10132,7 +10428,7 @@
       <c r="B48" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="184"/>
+      <c r="C48" s="183"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10142,7 +10438,7 @@
       <c r="B49" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="184"/>
+      <c r="C49" s="183"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10152,7 +10448,7 @@
       <c r="B50" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="184"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10162,7 +10458,7 @@
       <c r="B51" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="184"/>
+      <c r="C51" s="183"/>
       <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10172,7 +10468,7 @@
       <c r="B52" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="184"/>
+      <c r="C52" s="183"/>
       <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10182,7 +10478,7 @@
       <c r="B53" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="184"/>
+      <c r="C53" s="183"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10194,7 +10490,7 @@
       <c r="B54" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="184"/>
+      <c r="C54" s="183"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10206,7 +10502,7 @@
       <c r="B55" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="184"/>
+      <c r="C55" s="183"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10218,7 +10514,7 @@
       <c r="B56" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="184"/>
+      <c r="C56" s="183"/>
       <c r="D56" s="24">
         <v>1</v>
       </c>
@@ -10230,7 +10526,7 @@
       <c r="B57" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="184"/>
+      <c r="C57" s="183"/>
       <c r="D57" s="24">
         <v>1</v>
       </c>
@@ -10242,7 +10538,7 @@
       <c r="B58" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="184"/>
+      <c r="C58" s="183"/>
       <c r="D58" s="24">
         <v>0</v>
       </c>
@@ -10254,7 +10550,7 @@
       <c r="B59" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="184"/>
+      <c r="C59" s="183"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10264,7 +10560,7 @@
       <c r="B60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="184"/>
+      <c r="C60" s="183"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10274,8 +10570,8 @@
       <c r="B61" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="183"/>
-      <c r="D61" s="182"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="181"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10284,7 +10580,7 @@
       <c r="B62" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="184"/>
+      <c r="C62" s="183"/>
       <c r="D62" s="26">
         <v>0</v>
       </c>
@@ -10293,9 +10589,9 @@
       <c r="A63" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="B63" s="181"/>
-      <c r="C63" s="183"/>
-      <c r="D63" s="182"/>
+      <c r="B63" s="180"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="181"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -10304,7 +10600,7 @@
       <c r="B64" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C64" s="184"/>
+      <c r="C64" s="183"/>
       <c r="D64" s="26">
         <v>0</v>
       </c>
@@ -10316,8 +10612,8 @@
       <c r="B65" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="183"/>
-      <c r="D65" s="182"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="181"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -10326,7 +10622,7 @@
       <c r="B66" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="185"/>
+      <c r="C66" s="184"/>
       <c r="D66" s="29">
         <v>0</v>
       </c>
@@ -10366,23 +10662,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="306" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10400,17 +10696,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="283"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="305"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10601,21 +10897,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="281" t="s">
+      <c r="B19" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="282"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="282"/>
-      <c r="F19" s="282"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="282"/>
-      <c r="I19" s="282"/>
-      <c r="J19" s="282"/>
-      <c r="K19" s="282"/>
-      <c r="L19" s="282"/>
-      <c r="M19" s="282"/>
-      <c r="N19" s="283"/>
+      <c r="C19" s="304"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="304"/>
+      <c r="G19" s="304"/>
+      <c r="H19" s="304"/>
+      <c r="I19" s="304"/>
+      <c r="J19" s="304"/>
+      <c r="K19" s="304"/>
+      <c r="L19" s="304"/>
+      <c r="M19" s="304"/>
+      <c r="N19" s="305"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10817,27 +11113,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="311" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="290"/>
-      <c r="S1" s="290"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="312"/>
+      <c r="S1" s="312"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10851,26 +11147,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="283"/>
-      <c r="L3" s="286" t="s">
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="305"/>
+      <c r="L3" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="287"/>
-      <c r="N3" s="287"/>
-      <c r="O3" s="287"/>
-      <c r="P3" s="287"/>
-      <c r="Q3" s="287"/>
-      <c r="R3" s="288"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="309"/>
+      <c r="P3" s="309"/>
+      <c r="Q3" s="309"/>
+      <c r="R3" s="310"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11101,23 +11397,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="313" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="293"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
+      <c r="I1" s="314"/>
+      <c r="J1" s="314"/>
+      <c r="K1" s="314"/>
+      <c r="L1" s="314"/>
+      <c r="M1" s="314"/>
+      <c r="N1" s="314"/>
+      <c r="O1" s="315"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11130,22 +11426,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="303" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="283"/>
-      <c r="J3" s="286" t="s">
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="305"/>
+      <c r="J3" s="308" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
-      <c r="N3" s="288"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="310"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,11 +17,21 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="14" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="I3010I">0</definedName>
+    <definedName name="I3535I">1</definedName>
+    <definedName name="I3903I">0</definedName>
+    <definedName name="I4018I">0</definedName>
+    <definedName name="I4619I">0</definedName>
+    <definedName name="I4922I">0</definedName>
+    <definedName name="I7577I">1</definedName>
+    <definedName name="I896I">0</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="529">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2476,14 +2486,141 @@
       <t>: Defaults to FSC</t>
     </r>
   </si>
+  <si>
+    <t>Min Valid a.u.</t>
+  </si>
+  <si>
+    <t>flow.maxEvents</t>
+  </si>
+  <si>
+    <t>Drop events above this count to avoid memory issues</t>
+  </si>
+  <si>
+    <t>flow.onThreshold</t>
+  </si>
+  <si>
+    <t>Threshold to differentiate between on and off events. Points with values equal to threshold are placed in the on group.</t>
+  </si>
+  <si>
+    <t>flow.pointCloudFileType</t>
+  </si>
+  <si>
+    <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
+  </si>
+  <si>
+    <t>flow.defaultCSVReadHeader</t>
+  </si>
+  <si>
+    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
+  </si>
+  <si>
+    <t>flow.smallFileWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning that event count is unusually low</t>
+  </si>
+  <si>
+    <t>flow.gateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.preGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning pre-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.postGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning post-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.eventRatioWarning</t>
+  </si>
+  <si>
+    <t>Generic threshold for warning about different event counts.</t>
+  </si>
+  <si>
+    <t>flow.replicateEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in replicate event counts.</t>
+  </si>
+  <si>
+    <t>flow.conditionEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in condition event counts.</t>
+  </si>
+  <si>
+    <t>sizebeads</t>
+  </si>
+  <si>
+    <t>Settings controlling the interpretation of size calibration beads</t>
+  </si>
+  <si>
+    <t>sizebeads.binIncrement</t>
+  </si>
+  <si>
+    <t>Resolution of histogram bins used for finding size bead peaks</t>
+  </si>
+  <si>
+    <t>sizebeads.forceFirstPeak</t>
+  </si>
+  <si>
+    <t>If set to N, lowest observed size bead peak is forced to be interpreted as Nth peak</t>
+  </si>
+  <si>
+    <t>sizebeads.plot</t>
+  </si>
+  <si>
+    <t>When true, make diagnostic plots while computing size bead unit calibration</t>
+  </si>
+  <si>
+    <t>sizebeads.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, size bead unit calibration plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>sizebeads.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for size bead unit calibration figures</t>
+  </si>
+  <si>
+    <t>Settings controlling excel wrapper preferences</t>
+  </si>
+  <si>
+    <t>gating</t>
+  </si>
+  <si>
+    <t>General settings for GMM Gating</t>
+  </si>
+  <si>
+    <t>gating.fixedSeed</t>
+  </si>
+  <si>
+    <t>When true, controls the random seed for GMM Gating</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2781,7 +2918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -3377,29 +3514,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3415,7 +3561,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3426,28 +3572,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3468,62 +3611,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3534,20 +3677,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3556,35 +3699,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,19 +3745,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3623,43 +3766,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3677,83 +3820,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3768,37 +3911,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3807,41 +3950,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3856,23 +3999,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3892,43 +4032,43 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -3939,24 +4079,221 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3977,145 +4314,67 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4136,22 +4395,47 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4163,240 +4447,139 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4488,7 +4671,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4554,7 +4737,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4625,7 +4808,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4696,7 +4879,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4762,7 +4945,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4833,7 +5016,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4899,7 +5082,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5228,322 +5411,322 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="155" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="86" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="141" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="86" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="86" customWidth="1"/>
-    <col min="9" max="9" width="20" style="86" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="86" customWidth="1"/>
-    <col min="11" max="11" width="6" style="86" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="86" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="86"/>
+    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
+    <col min="9" max="9" width="20" style="85" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="85" customWidth="1"/>
+    <col min="11" max="11" width="6" style="85" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="252" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="233"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="254"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87"/>
+      <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="268" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="211"/>
+      <c r="B3" s="269"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="266" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="225"/>
+      <c r="B4" s="267"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="226" t="s">
+      <c r="A5" s="282" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="227"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="87"/>
+      <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="268" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="211"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="270"/>
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="269"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="255" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="236"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="256"/>
+      <c r="K8" s="257"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238"/>
-      <c r="K9" s="239"/>
+      <c r="A9" s="258"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="259"/>
+      <c r="J9" s="259"/>
+      <c r="K9" s="260"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="142"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="271" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="214"/>
-      <c r="C11" s="214"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="142"/>
+      <c r="B11" s="272"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="216" t="s">
+      <c r="A12" s="274" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="217"/>
-      <c r="C12" s="218" t="s">
+      <c r="B12" s="275"/>
+      <c r="C12" s="276" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="219"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="142"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="220"/>
-      <c r="B13" s="221"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="142"/>
+      <c r="A13" s="278"/>
+      <c r="B13" s="279"/>
+      <c r="C13" s="280"/>
+      <c r="D13" s="281"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="141"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="271" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="215"/>
-      <c r="E15" s="213" t="s">
+      <c r="B15" s="273"/>
+      <c r="E15" s="271" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="214"/>
-      <c r="I15" s="215"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="272"/>
+      <c r="H15" s="272"/>
+      <c r="I15" s="273"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="224" t="s">
+      <c r="A16" s="266" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="225"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="240" t="s">
+      <c r="B16" s="267"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="261" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="242"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="262"/>
+      <c r="H16" s="262"/>
+      <c r="I16" s="263"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="156" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="E17" s="243" t="s">
+      <c r="C17" s="89"/>
+      <c r="E17" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="244"/>
-      <c r="G17" s="83" t="s">
+      <c r="F17" s="265"/>
+      <c r="G17" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="190" t="s">
+      <c r="I17" s="188" t="s">
         <v>356</v>
       </c>
-      <c r="J17" s="81"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="E18" s="84">
+      <c r="C18" s="89"/>
+      <c r="E18" s="83">
         <v>1</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="228" t="s">
+      <c r="I18" s="240" t="s">
         <v>465</v>
       </c>
-      <c r="J18" s="81"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="158" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="90"/>
-      <c r="E19" s="84">
+      <c r="B19" s="115"/>
+      <c r="C19" s="89"/>
+      <c r="E19" s="83">
         <v>2</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="228"/>
-      <c r="J19" s="81"/>
+      <c r="I19" s="240"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="158" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="92"/>
-      <c r="E20" s="85">
+      <c r="B20" s="115"/>
+      <c r="C20" s="91"/>
+      <c r="E20" s="84">
         <v>3</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="229"/>
-      <c r="J20" s="81"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="158" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="32"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="31"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="160"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="90"/>
-      <c r="J22" s="81"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="89"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="161"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="92"/>
-      <c r="E23" s="208" t="s">
+      <c r="A23" s="160"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="91"/>
+      <c r="E23" s="242" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="230"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="230"/>
-      <c r="I23" s="209"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="243"/>
+      <c r="I23" s="244"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="208" t="s">
+      <c r="A24" s="242" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="209"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="31"/>
       <c r="E24" s="248" t="s">
         <v>235</v>
       </c>
       <c r="F24" s="249"/>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="190" t="s">
+      <c r="I24" s="188" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="156" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="114" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="E25" s="84">
+      <c r="C25" s="31"/>
+      <c r="E25" s="83">
         <v>1</v>
       </c>
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
       <c r="I25" s="245" t="s">
@@ -5551,284 +5734,270 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="157" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="E26" s="84">
+      <c r="C26" s="89"/>
+      <c r="E26" s="83">
         <v>2</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="73" t="s">
         <v>201</v>
       </c>
       <c r="I26" s="246"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="158" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="92"/>
-      <c r="E27" s="85">
+      <c r="B27" s="115"/>
+      <c r="C27" s="91"/>
+      <c r="E27" s="84">
         <v>3</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="247"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="158" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="32"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="81"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="31"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="32"/>
-      <c r="I29" s="81"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="31"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="160"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="90"/>
-      <c r="E30" s="208" t="s">
+      <c r="A30" s="159"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="89"/>
+      <c r="E30" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="209"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="243"/>
+      <c r="H30" s="243"/>
+      <c r="I30" s="244"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
       <c r="E31" s="250" t="s">
         <v>463</v>
       </c>
       <c r="F31" s="251"/>
-      <c r="G31" s="200" t="s">
+      <c r="G31" s="198" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="200" t="s">
+      <c r="H31" s="198" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="190" t="s">
+      <c r="I31" s="188" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="208" t="s">
+      <c r="A32" s="242" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="209"/>
-      <c r="C32" s="32"/>
-      <c r="E32" s="84">
+      <c r="B32" s="244"/>
+      <c r="C32" s="31"/>
+      <c r="E32" s="83">
         <v>1</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="228"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="240"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="156" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="E33" s="84">
+      <c r="C33" s="89"/>
+      <c r="E33" s="83">
         <v>2</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="228"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="240"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="157" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="83">
         <v>3</v>
       </c>
-      <c r="F34" s="94"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="228"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="240"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="159" t="s">
+      <c r="A35" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="E35" s="84">
+      <c r="B35" s="115"/>
+      <c r="E35" s="83">
         <v>4</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="228"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="240"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="E36" s="84">
+      <c r="B36" s="115"/>
+      <c r="E36" s="83">
         <v>5</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="228"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="240"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="159" t="s">
+      <c r="A37" s="158" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="116"/>
-      <c r="E37" s="85">
+      <c r="B37" s="115"/>
+      <c r="E37" s="84">
         <v>6</v>
       </c>
-      <c r="F37" s="140"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="229"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="241"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="117"/>
+      <c r="B38" s="116"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="120"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="208" t="s">
+      <c r="E40" s="242" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="230"/>
-      <c r="G40" s="230"/>
-      <c r="H40" s="230"/>
-      <c r="I40" s="209"/>
+      <c r="F40" s="243"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="243"/>
+      <c r="I40" s="244"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E41" s="248"/>
       <c r="F41" s="249"/>
-      <c r="G41" s="82" t="s">
+      <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="82" t="s">
+      <c r="H41" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="190" t="s">
+      <c r="I41" s="188" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="84">
+      <c r="E42" s="83">
         <v>1</v>
       </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="228"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="240"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="84">
+      <c r="E43" s="83">
         <v>2</v>
       </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="228"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="240"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="84">
+      <c r="E44" s="83">
         <v>3</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="228"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="240"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="84">
+      <c r="E45" s="83">
         <v>4</v>
       </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="228"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="240"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="84">
+      <c r="E46" s="83">
         <v>5</v>
       </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="228"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="240"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="85">
+      <c r="E47" s="84">
         <v>6</v>
       </c>
-      <c r="F47" s="140"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="229"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="241"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5844,6 +6013,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5855,10 +6038,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5883,924 +6066,932 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="286" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="256"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="288"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="289" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="176" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="260" t="s">
+      <c r="C3" s="292" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="177" t="s">
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="294"/>
+      <c r="H3" s="176" t="s">
         <v>318</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="176" t="s">
         <v>319</v>
       </c>
-      <c r="J3" s="178" t="s">
+      <c r="J3" s="177" t="s">
         <v>320</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="138" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="138" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="138" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="194" t="s">
+      <c r="J4" s="192" t="s">
         <v>406</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108">
+      <c r="A5" s="107">
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="108">
         <v>0.1</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="109">
+      <c r="G5" s="108">
         <v>0.1</v>
       </c>
-      <c r="H5" s="110">
+      <c r="H5" s="109">
         <v>1</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="201"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
+      <c r="A6" s="107">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="108">
         <v>0.2</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="108">
         <v>0.2</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="109">
         <v>1</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="201"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="199"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="107">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="108">
         <v>0.5</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109">
         <v>1</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="201"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="199"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="107">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="108">
         <v>1</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="108">
         <v>0.1</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="109">
         <v>1</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="201"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="199"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
+      <c r="A9" s="107">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="108">
         <v>2</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="108">
         <v>0.2</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="109">
         <v>1</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="199"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="107">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="108">
         <v>5</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110">
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="109">
         <v>1</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="112"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="199"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108">
+      <c r="A11" s="107">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="108">
         <v>10</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110">
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109">
         <v>1</v>
       </c>
-      <c r="I11" s="111" t="s">
+      <c r="I11" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="199"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="107">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="109">
+      <c r="C12" s="108">
         <v>20</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110">
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109">
         <v>1</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="112"/>
-      <c r="K12" s="201"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="199"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+      <c r="A13" s="107">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="109">
+      <c r="C13" s="108">
         <v>50</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="108" t="s">
         <v>471</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110">
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109">
         <v>1</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="112"/>
-      <c r="K13" s="201"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="199"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="107">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="109">
+      <c r="C14" s="108">
         <v>100</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109" t="s">
+      <c r="E14" s="108"/>
+      <c r="F14" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="108">
         <v>100</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="109">
         <v>1</v>
       </c>
-      <c r="I14" s="111" t="s">
+      <c r="I14" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="201"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="199"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="A15" s="107">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="108">
         <v>200</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="108">
         <v>200</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="109">
         <v>1</v>
       </c>
-      <c r="I15" s="111" t="s">
+      <c r="I15" s="110" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="201"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="199"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+      <c r="A16" s="107">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="108">
         <v>500</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110">
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109">
         <v>1</v>
       </c>
-      <c r="I16" s="111" t="s">
+      <c r="I16" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="112"/>
-      <c r="K16" s="201"/>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+      <c r="J16" s="111"/>
+      <c r="K16" s="199"/>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="109">
+      <c r="C17" s="108">
         <v>1000</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="108">
         <v>100</v>
       </c>
-      <c r="H17" s="110">
+      <c r="H17" s="109">
         <v>1</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="110" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="112"/>
-      <c r="K17" s="201"/>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+      <c r="J17" s="111"/>
+      <c r="K17" s="199"/>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="107">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="109">
+      <c r="C18" s="108">
         <v>2000</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="108">
         <v>200</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="109">
         <v>1</v>
       </c>
-      <c r="I18" s="111" t="s">
+      <c r="I18" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="112"/>
-      <c r="K18" s="201"/>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="J18" s="111"/>
+      <c r="K18" s="199"/>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="107">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110">
+      <c r="C19" s="76"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109">
         <v>2</v>
       </c>
-      <c r="I19" s="111"/>
-      <c r="J19" s="112" t="s">
+      <c r="I19" s="110"/>
+      <c r="J19" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="201"/>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="K19" s="199"/>
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="107">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110">
+      <c r="C20" s="76"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109">
         <v>2</v>
       </c>
-      <c r="I20" s="111"/>
-      <c r="J20" s="112" t="s">
+      <c r="I20" s="110"/>
+      <c r="J20" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="201"/>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+      <c r="K20" s="199"/>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="107">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110">
+      <c r="C21" s="76"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109">
         <v>2</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112" t="s">
+      <c r="I21" s="110"/>
+      <c r="J21" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="201"/>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="K21" s="199"/>
+    </row>
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="107">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110">
+      <c r="C22" s="76"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109">
         <v>2</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112" t="s">
+      <c r="I22" s="110"/>
+      <c r="J22" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="201"/>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+      <c r="K22" s="199"/>
+    </row>
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="107">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109">
         <v>2</v>
       </c>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112" t="s">
+      <c r="I23" s="110"/>
+      <c r="J23" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="201"/>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+      <c r="K23" s="199"/>
+    </row>
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110">
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109">
         <v>2</v>
       </c>
-      <c r="I24" s="111"/>
-      <c r="J24" s="112" t="s">
+      <c r="I24" s="110"/>
+      <c r="J24" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="201"/>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="168">
+      <c r="K24" s="199"/>
+    </row>
+    <row r="25" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="167">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="168" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171">
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="170">
         <v>2</v>
       </c>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173" t="s">
+      <c r="I25" s="171"/>
+      <c r="J25" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="201"/>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="272" t="s">
+      <c r="K25" s="199"/>
+    </row>
+    <row r="26" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="304" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="273"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="273"/>
-      <c r="G27" s="273"/>
-      <c r="H27" s="273"/>
-      <c r="I27" s="273"/>
-      <c r="J27" s="273"/>
-      <c r="K27" s="273"/>
-      <c r="L27" s="273"/>
-      <c r="M27" s="273"/>
-      <c r="N27" s="273"/>
-      <c r="O27" s="273"/>
-      <c r="P27" s="273"/>
-      <c r="Q27" s="274"/>
-    </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="137" t="s">
+      <c r="B27" s="305"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="305"/>
+      <c r="G27" s="305"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="305"/>
+      <c r="K27" s="305"/>
+      <c r="L27" s="305"/>
+      <c r="M27" s="305"/>
+      <c r="N27" s="305"/>
+      <c r="O27" s="305"/>
+      <c r="P27" s="305"/>
+      <c r="Q27" s="305"/>
+      <c r="R27" s="306"/>
+    </row>
+    <row r="28" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="191" t="s">
+      <c r="B28" s="189" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="189" t="s">
+      <c r="C28" s="187" t="s">
         <v>332</v>
       </c>
-      <c r="D28" s="189" t="s">
+      <c r="D28" s="187" t="s">
         <v>366</v>
       </c>
-      <c r="E28" s="189" t="s">
+      <c r="E28" s="187" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="189" t="s">
+      <c r="F28" s="187" t="s">
         <v>381</v>
       </c>
-      <c r="G28" s="189" t="s">
+      <c r="G28" s="187" t="s">
         <v>433</v>
       </c>
-      <c r="H28" s="193" t="s">
+      <c r="H28" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="I28" s="193" t="s">
+      <c r="I28" s="191" t="s">
         <v>433</v>
       </c>
-      <c r="J28" s="193" t="s">
+      <c r="J28" s="191" t="s">
         <v>445</v>
       </c>
-      <c r="K28" s="193" t="s">
+      <c r="K28" s="191" t="s">
         <v>433</v>
       </c>
-      <c r="L28" s="123" t="s">
+      <c r="L28" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="123" t="s">
+      <c r="M28" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="N28" s="123" t="s">
+      <c r="N28" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="O28" s="189" t="s">
+      <c r="O28" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="P28" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="P28" s="189" t="s">
+      <c r="Q28" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="Q28" s="192" t="s">
+      <c r="R28" s="190" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
-      <c r="B29" s="97" t="s">
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="144"/>
+      <c r="B29" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="97" t="s">
+      <c r="F29" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="97" t="s">
+      <c r="G29" s="96" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="97" t="s">
+      <c r="H29" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="I29" s="97" t="s">
+      <c r="I29" s="96" t="s">
         <v>437</v>
       </c>
-      <c r="J29" s="97" t="s">
+      <c r="J29" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="K29" s="97" t="s">
+      <c r="K29" s="96" t="s">
         <v>440</v>
       </c>
-      <c r="L29" s="97" t="s">
+      <c r="L29" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="97" t="s">
+      <c r="M29" s="236" t="s">
+        <v>489</v>
+      </c>
+      <c r="N29" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="97" t="s">
+      <c r="O29" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="97" t="s">
+      <c r="P29" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="P29" s="97" t="s">
+      <c r="Q29" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="Q29" s="118" t="s">
+      <c r="R29" s="117" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
-      <c r="B30" s="197" t="s">
+    <row r="30" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="145"/>
+      <c r="B30" s="195" t="s">
         <v>436</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="153" t="s">
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="152" t="s">
         <v>464</v>
       </c>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153" t="s">
+      <c r="F30" s="152"/>
+      <c r="G30" s="152" t="s">
         <v>435</v>
       </c>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153" t="s">
+      <c r="H30" s="152"/>
+      <c r="I30" s="152" t="s">
         <v>438</v>
       </c>
-      <c r="J30" s="153">
+      <c r="J30" s="152">
         <v>3</v>
       </c>
-      <c r="K30" s="153" t="s">
+      <c r="K30" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="L30" s="153">
+      <c r="L30" s="152">
         <v>100</v>
       </c>
-      <c r="M30" s="153">
+      <c r="M30" s="233"/>
+      <c r="N30" s="152">
         <v>0</v>
       </c>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153">
+      <c r="O30" s="152"/>
+      <c r="P30" s="152">
         <v>4</v>
       </c>
-      <c r="P30" s="153">
+      <c r="Q30" s="152">
         <v>10</v>
       </c>
-      <c r="Q30" s="154">
+      <c r="R30" s="153">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="269" t="s">
+    <row r="31" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="301" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="270"/>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="270"/>
-      <c r="G32" s="270"/>
-      <c r="H32" s="271"/>
+      <c r="B32" s="302"/>
+      <c r="C32" s="302"/>
+      <c r="D32" s="302"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="302"/>
+      <c r="G32" s="302"/>
+      <c r="H32" s="303"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="263" t="s">
+      <c r="A33" s="295" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="264"/>
-      <c r="C33" s="264"/>
-      <c r="D33" s="264"/>
-      <c r="E33" s="264"/>
-      <c r="F33" s="264"/>
-      <c r="G33" s="264"/>
-      <c r="H33" s="265"/>
+      <c r="B33" s="296"/>
+      <c r="C33" s="296"/>
+      <c r="D33" s="296"/>
+      <c r="E33" s="296"/>
+      <c r="F33" s="296"/>
+      <c r="G33" s="296"/>
+      <c r="H33" s="297"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="263"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="264"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="264"/>
-      <c r="G34" s="264"/>
-      <c r="H34" s="265"/>
+      <c r="A34" s="295"/>
+      <c r="B34" s="296"/>
+      <c r="C34" s="296"/>
+      <c r="D34" s="296"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="296"/>
+      <c r="G34" s="296"/>
+      <c r="H34" s="297"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="263"/>
-      <c r="B35" s="264"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="264"/>
-      <c r="E35" s="264"/>
-      <c r="F35" s="264"/>
-      <c r="G35" s="264"/>
-      <c r="H35" s="265"/>
+      <c r="A35" s="295"/>
+      <c r="B35" s="296"/>
+      <c r="C35" s="296"/>
+      <c r="D35" s="296"/>
+      <c r="E35" s="296"/>
+      <c r="F35" s="296"/>
+      <c r="G35" s="296"/>
+      <c r="H35" s="297"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="266"/>
-      <c r="B36" s="267"/>
-      <c r="C36" s="267"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="267"/>
-      <c r="H36" s="268"/>
+      <c r="A36" s="298"/>
+      <c r="B36" s="299"/>
+      <c r="C36" s="299"/>
+      <c r="D36" s="299"/>
+      <c r="E36" s="299"/>
+      <c r="F36" s="299"/>
+      <c r="G36" s="299"/>
+      <c r="H36" s="300"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="253" t="s">
+      <c r="A38" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="B38" s="253"/>
-      <c r="C38" s="253"/>
-      <c r="D38" s="253"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="253"/>
+      <c r="B38" s="285"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="285"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="285"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="252" t="s">
+      <c r="D39" s="284" t="s">
         <v>310</v>
       </c>
-      <c r="E39" s="252"/>
-      <c r="F39" s="252"/>
-      <c r="G39" s="252"/>
+      <c r="E39" s="284"/>
+      <c r="F39" s="284"/>
+      <c r="G39" s="284"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6812,7 +7003,7 @@
       <c r="C40" t="s">
         <v>443</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="175" t="s">
         <v>368</v>
       </c>
     </row>
@@ -6826,7 +7017,7 @@
       <c r="C41" t="s">
         <v>443</v>
       </c>
-      <c r="D41" s="188" t="s">
+      <c r="D41" s="186" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6840,7 +7031,7 @@
       <c r="C42" t="s">
         <v>443</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D42" s="175" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6854,7 +7045,7 @@
       <c r="C43" t="s">
         <v>443</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="175" t="s">
         <v>355</v>
       </c>
     </row>
@@ -6868,7 +7059,7 @@
       <c r="C44" t="s">
         <v>443</v>
       </c>
-      <c r="D44" s="179" t="s">
+      <c r="D44" s="178" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6882,7 +7073,7 @@
       <c r="C45" t="s">
         <v>443</v>
       </c>
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="186" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6896,7 +7087,7 @@
       <c r="C46" t="s">
         <v>443</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="186" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6910,7 +7101,7 @@
       <c r="C47" t="s">
         <v>443</v>
       </c>
-      <c r="D47" s="188" t="s">
+      <c r="D47" s="186" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6924,7 +7115,7 @@
       <c r="C48" t="s">
         <v>443</v>
       </c>
-      <c r="D48" s="188" t="s">
+      <c r="D48" s="186" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6938,7 +7129,7 @@
       <c r="C49" t="s">
         <v>443</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="186" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6952,7 +7143,7 @@
       <c r="C50" t="s">
         <v>443</v>
       </c>
-      <c r="D50" s="188" t="s">
+      <c r="D50" s="186" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6966,7 +7157,7 @@
       <c r="C51" t="s">
         <v>443</v>
       </c>
-      <c r="D51" s="188" t="s">
+      <c r="D51" s="186" t="s">
         <v>415</v>
       </c>
     </row>
@@ -6980,7 +7171,7 @@
       <c r="C52" t="s">
         <v>443</v>
       </c>
-      <c r="D52" s="176" t="s">
+      <c r="D52" s="175" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6994,7 +7185,7 @@
       <c r="C53" t="s">
         <v>443</v>
       </c>
-      <c r="D53" s="188" t="s">
+      <c r="D53" s="186" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7008,7 +7199,7 @@
       <c r="C54" t="s">
         <v>443</v>
       </c>
-      <c r="D54" s="188" t="s">
+      <c r="D54" s="186" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7022,7 +7213,7 @@
       <c r="C55" t="s">
         <v>443</v>
       </c>
-      <c r="D55" s="188" t="s">
+      <c r="D55" s="186" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7036,7 +7227,7 @@
       <c r="C56" t="s">
         <v>443</v>
       </c>
-      <c r="D56" s="188" t="s">
+      <c r="D56" s="186" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7050,7 +7241,7 @@
       <c r="C57" t="s">
         <v>443</v>
       </c>
-      <c r="D57" s="188" t="s">
+      <c r="D57" s="186" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7064,7 +7255,7 @@
       <c r="C58" t="s">
         <v>443</v>
       </c>
-      <c r="D58" s="176" t="s">
+      <c r="D58" s="175" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7078,7 +7269,7 @@
       <c r="C59" t="s">
         <v>443</v>
       </c>
-      <c r="D59" s="176" t="s">
+      <c r="D59" s="175" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7092,7 +7283,7 @@
       <c r="C60" t="s">
         <v>443</v>
       </c>
-      <c r="D60" s="176" t="s">
+      <c r="D60" s="175" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7106,7 +7297,7 @@
       <c r="C61" t="s">
         <v>443</v>
       </c>
-      <c r="D61" s="176" t="s">
+      <c r="D61" s="175" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7120,7 +7311,7 @@
       <c r="C62" t="s">
         <v>443</v>
       </c>
-      <c r="D62" s="176" t="s">
+      <c r="D62" s="175" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7134,7 +7325,7 @@
       <c r="C63" t="s">
         <v>443</v>
       </c>
-      <c r="D63" s="176" t="s">
+      <c r="D63" s="175" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7148,7 +7339,7 @@
       <c r="C64" t="s">
         <v>443</v>
       </c>
-      <c r="D64" s="176" t="s">
+      <c r="D64" s="175" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7162,7 +7353,7 @@
       <c r="C65" t="s">
         <v>443</v>
       </c>
-      <c r="D65" s="176" t="s">
+      <c r="D65" s="175" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7176,7 +7367,7 @@
       <c r="C66" t="s">
         <v>443</v>
       </c>
-      <c r="D66" s="176" t="s">
+      <c r="D66" s="175" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7190,7 +7381,7 @@
       <c r="C67" t="s">
         <v>443</v>
       </c>
-      <c r="D67" s="176" t="s">
+      <c r="D67" s="175" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7204,7 +7395,7 @@
       <c r="C68" t="s">
         <v>443</v>
       </c>
-      <c r="D68" s="176" t="s">
+      <c r="D68" s="175" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7218,7 +7409,7 @@
       <c r="C69" t="s">
         <v>443</v>
       </c>
-      <c r="D69" s="176" t="s">
+      <c r="D69" s="175" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7232,7 +7423,7 @@
       <c r="C70" t="s">
         <v>443</v>
       </c>
-      <c r="D70" s="176" t="s">
+      <c r="D70" s="175" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7246,7 +7437,7 @@
       <c r="C71" t="s">
         <v>443</v>
       </c>
-      <c r="D71" s="176" t="s">
+      <c r="D71" s="175" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7259,7 +7450,7 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A33:H36"/>
     <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A27:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7325,7 +7516,7 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -7344,92 +7535,92 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="275" t="s">
+    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="277"/>
-    </row>
-    <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="272" t="s">
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="309"/>
+    </row>
+    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="274"/>
-    </row>
-    <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="305"/>
+      <c r="H2" s="305"/>
+      <c r="I2" s="305"/>
+      <c r="J2" s="306"/>
+    </row>
+    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="130" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="130" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="127" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="131" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="165" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="130"/>
-    </row>
-    <row r="4" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="I3" s="127"/>
+      <c r="J3" s="129"/>
+    </row>
+    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="H4" s="166" t="s">
         <v>304</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
-    </row>
-    <row r="5" spans="1:10" s="113" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+    </row>
+    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7441,145 +7632,145 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="199" t="s">
+      <c r="G5" s="197" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-    </row>
-    <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="272" t="s">
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+    </row>
+    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="273"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="274"/>
-    </row>
-    <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+      <c r="B6" s="305"/>
+      <c r="C6" s="305"/>
+      <c r="D6" s="305"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="306"/>
+    </row>
+    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="130"/>
-    </row>
-    <row r="8" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="129"/>
+    </row>
+    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-    </row>
-    <row r="9" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+    </row>
+    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
-    </row>
-    <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="272" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="274"/>
-    </row>
-    <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="128" t="s">
+      <c r="B10" s="305"/>
+      <c r="C10" s="305"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="306"/>
+    </row>
+    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
+      <c r="B11" s="127" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="127" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="D11" s="174" t="s">
         <v>331</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="127" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="132" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>326</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="130"/>
-    </row>
-    <row r="12" spans="1:10" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="I11" s="127"/>
+      <c r="J11" s="129"/>
+    </row>
+    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="134" t="s">
+      <c r="G12" s="133" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="100" t="s">
+      <c r="H12" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-    </row>
-    <row r="13" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
+    </row>
+    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7606,8 +7797,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="106">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7634,8 +7825,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="106">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -7662,8 +7853,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107">
+    <row r="16" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="106">
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -7690,146 +7881,146 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="316" t="s">
+    <row r="17" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="310" t="s">
         <v>482</v>
       </c>
-      <c r="B17" s="317"/>
-      <c r="C17" s="317"/>
-      <c r="D17" s="317"/>
-      <c r="E17" s="317"/>
-      <c r="F17" s="317"/>
-      <c r="G17" s="317"/>
-      <c r="H17" s="317"/>
-      <c r="I17" s="317"/>
-      <c r="J17" s="318"/>
-    </row>
-    <row r="18" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="319"/>
-      <c r="B18" s="320" t="s">
+      <c r="B17" s="311"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="311"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="311"/>
+      <c r="H17" s="311"/>
+      <c r="I17" s="311"/>
+      <c r="J17" s="312"/>
+    </row>
+    <row r="18" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="206"/>
+      <c r="B18" s="207" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="320" t="s">
+      <c r="C18" s="207" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="320" t="s">
+      <c r="D18" s="207" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="321" t="s">
+      <c r="E18" s="208" t="s">
         <v>325</v>
       </c>
-      <c r="F18" s="322" t="s">
+      <c r="F18" s="209" t="s">
         <v>324</v>
       </c>
-      <c r="G18" s="322"/>
-      <c r="H18" s="323"/>
-      <c r="I18" s="323"/>
-      <c r="J18" s="324"/>
-    </row>
-    <row r="19" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="325" t="s">
+      <c r="G18" s="209"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="211"/>
+    </row>
+    <row r="19" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="212" t="s">
         <v>483</v>
       </c>
-      <c r="B19" s="326" t="s">
+      <c r="B19" s="213" t="s">
         <v>484</v>
       </c>
-      <c r="C19" s="327" t="s">
+      <c r="C19" s="214" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="327" t="s">
+      <c r="D19" s="214" t="s">
         <v>485</v>
       </c>
-      <c r="E19" s="327" t="s">
+      <c r="E19" s="214" t="s">
         <v>262</v>
       </c>
-      <c r="F19" s="328" t="s">
+      <c r="F19" s="215" t="s">
         <v>263</v>
       </c>
-      <c r="G19" s="326"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329"/>
-      <c r="J19" s="330"/>
-    </row>
-    <row r="20" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="331"/>
-      <c r="B20" s="332"/>
-      <c r="C20" s="332"/>
-      <c r="D20" s="332"/>
-      <c r="E20" s="332"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="332"/>
-      <c r="H20" s="332"/>
-      <c r="I20" s="332"/>
-      <c r="J20" s="333"/>
-    </row>
-    <row r="21" spans="1:10" s="113" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="331"/>
-      <c r="B21" s="332"/>
-      <c r="C21" s="332"/>
-      <c r="D21" s="332"/>
-      <c r="E21" s="332"/>
-      <c r="F21" s="332"/>
-      <c r="G21" s="332"/>
-      <c r="H21" s="332"/>
-      <c r="I21" s="332"/>
-      <c r="J21" s="333"/>
-    </row>
-    <row r="22" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="272" t="s">
+      <c r="G19" s="213"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
+    </row>
+    <row r="20" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="218"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="220"/>
+    </row>
+    <row r="21" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="218"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
+    </row>
+    <row r="22" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="304" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="273"/>
-      <c r="C22" s="273"/>
-      <c r="D22" s="273"/>
-      <c r="E22" s="273"/>
-      <c r="F22" s="273"/>
-      <c r="G22" s="273"/>
-      <c r="H22" s="273"/>
-      <c r="I22" s="273"/>
-      <c r="J22" s="274"/>
-    </row>
-    <row r="23" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="131" t="s">
+      <c r="B22" s="305"/>
+      <c r="C22" s="305"/>
+      <c r="D22" s="305"/>
+      <c r="E22" s="305"/>
+      <c r="F22" s="305"/>
+      <c r="G22" s="305"/>
+      <c r="H22" s="305"/>
+      <c r="I22" s="305"/>
+      <c r="J22" s="306"/>
+    </row>
+    <row r="23" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="130" t="s">
         <v>327</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="131" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="132" t="s">
+      <c r="D23" s="131" t="s">
         <v>329</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="130"/>
-    </row>
-    <row r="24" spans="1:10" s="113" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
+      <c r="E23" s="127"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="129"/>
+    </row>
+    <row r="24" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
-    </row>
-    <row r="25" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+      <c r="E24" s="113"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
+    </row>
+    <row r="25" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
         <v>3</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -7838,7 +8029,7 @@
       <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="153" t="s">
+      <c r="D25" s="152" t="s">
         <v>220</v>
       </c>
       <c r="E25" s="8"/>
@@ -7848,148 +8039,148 @@
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="316" t="s">
+    <row r="26" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="310" t="s">
         <v>486</v>
       </c>
-      <c r="B26" s="317"/>
-      <c r="C26" s="317"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="317"/>
-      <c r="G26" s="317"/>
-      <c r="H26" s="317"/>
-      <c r="I26" s="317"/>
-      <c r="J26" s="318"/>
-    </row>
-    <row r="27" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="334" t="s">
+      <c r="B26" s="311"/>
+      <c r="C26" s="311"/>
+      <c r="D26" s="311"/>
+      <c r="E26" s="311"/>
+      <c r="F26" s="311"/>
+      <c r="G26" s="311"/>
+      <c r="H26" s="311"/>
+      <c r="I26" s="311"/>
+      <c r="J26" s="312"/>
+    </row>
+    <row r="27" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="221" t="s">
         <v>487</v>
       </c>
-      <c r="B27" s="335" t="s">
+      <c r="B27" s="222" t="s">
         <v>487</v>
       </c>
-      <c r="C27" s="336" t="s">
+      <c r="C27" s="223" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="336" t="s">
+      <c r="D27" s="223" t="s">
         <v>271</v>
       </c>
-      <c r="E27" s="337" t="s">
+      <c r="E27" s="224" t="s">
         <v>270</v>
       </c>
-      <c r="F27" s="338" t="s">
+      <c r="F27" s="225" t="s">
         <v>488</v>
       </c>
-      <c r="G27" s="337" t="s">
+      <c r="G27" s="224" t="s">
         <v>270</v>
       </c>
-      <c r="H27" s="339"/>
-      <c r="I27" s="339"/>
-      <c r="J27" s="340"/>
-    </row>
-    <row r="28" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="341" t="s">
+      <c r="H27" s="226"/>
+      <c r="I27" s="226"/>
+      <c r="J27" s="227"/>
+    </row>
+    <row r="28" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="228" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="326" t="s">
+      <c r="B28" s="213" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="342" t="s">
+      <c r="C28" s="229" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="342" t="s">
+      <c r="D28" s="229" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="342" t="s">
+      <c r="E28" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="342" t="s">
+      <c r="F28" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="326" t="s">
+      <c r="G28" s="213" t="s">
         <v>234</v>
       </c>
-      <c r="H28" s="343"/>
-      <c r="I28" s="343"/>
-      <c r="J28" s="344"/>
-    </row>
-    <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="345"/>
-      <c r="B29" s="346"/>
-      <c r="C29" s="347"/>
-      <c r="D29" s="347"/>
-      <c r="E29" s="347"/>
-      <c r="F29" s="347"/>
-      <c r="G29" s="347"/>
-      <c r="H29" s="347"/>
-      <c r="I29" s="347"/>
-      <c r="J29" s="348"/>
-    </row>
-    <row r="30" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="272" t="s">
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="231"/>
+    </row>
+    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="232"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="234"/>
+      <c r="H29" s="234"/>
+      <c r="I29" s="234"/>
+      <c r="J29" s="235"/>
+    </row>
+    <row r="30" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="304" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="273"/>
-      <c r="C30" s="273"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="273"/>
-      <c r="F30" s="273"/>
-      <c r="G30" s="273"/>
-      <c r="H30" s="273"/>
-      <c r="I30" s="273"/>
-      <c r="J30" s="274"/>
-    </row>
-    <row r="31" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="131" t="s">
+      <c r="B30" s="305"/>
+      <c r="C30" s="305"/>
+      <c r="D30" s="305"/>
+      <c r="E30" s="305"/>
+      <c r="F30" s="305"/>
+      <c r="G30" s="305"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="305"/>
+      <c r="J30" s="306"/>
+    </row>
+    <row r="31" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="B31" s="193" t="s">
+      <c r="B31" s="191" t="s">
         <v>366</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="131" t="s">
         <v>330</v>
       </c>
-      <c r="D31" s="132" t="s">
+      <c r="D31" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="189" t="s">
+      <c r="E31" s="187" t="s">
         <v>366</v>
       </c>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="151"/>
-    </row>
-    <row r="32" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="148"/>
-      <c r="B32" s="147" t="s">
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="150"/>
+    </row>
+    <row r="32" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="147"/>
+      <c r="B32" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="146" t="s">
         <v>265</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="97" t="s">
+      <c r="E32" s="96" t="s">
         <v>367</v>
       </c>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="152"/>
-    </row>
-    <row r="33" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="146"/>
-      <c r="B33" s="198" t="s">
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="151"/>
+    </row>
+    <row r="33" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="145"/>
+      <c r="B33" s="196" t="s">
         <v>457</v>
       </c>
-      <c r="C33" s="186"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="153" t="s">
+      <c r="C33" s="184"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="152" t="s">
         <v>458</v>
       </c>
       <c r="F33" s="8"/>
@@ -7998,108 +8189,108 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:10" s="113" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="269" t="s">
+    <row r="34" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="112" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="301" t="s">
         <v>280</v>
       </c>
-      <c r="B35" s="270"/>
-      <c r="C35" s="270"/>
-      <c r="D35" s="270"/>
-      <c r="E35" s="270"/>
-      <c r="F35" s="270"/>
-      <c r="G35" s="270"/>
-      <c r="H35" s="271"/>
-    </row>
-    <row r="36" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="263" t="s">
+      <c r="B35" s="302"/>
+      <c r="C35" s="302"/>
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="302"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="303"/>
+    </row>
+    <row r="36" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="295" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="264"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="264"/>
-      <c r="E36" s="264"/>
-      <c r="F36" s="264"/>
-      <c r="G36" s="264"/>
-      <c r="H36" s="265"/>
-    </row>
-    <row r="37" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="263"/>
-      <c r="B37" s="264"/>
-      <c r="C37" s="264"/>
-      <c r="D37" s="264"/>
-      <c r="E37" s="264"/>
-      <c r="F37" s="264"/>
-      <c r="G37" s="264"/>
-      <c r="H37" s="265"/>
-    </row>
-    <row r="38" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="263"/>
-      <c r="B38" s="264"/>
-      <c r="C38" s="264"/>
-      <c r="D38" s="264"/>
-      <c r="E38" s="264"/>
-      <c r="F38" s="264"/>
-      <c r="G38" s="264"/>
-      <c r="H38" s="265"/>
+      <c r="B36" s="296"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="296"/>
+      <c r="E36" s="296"/>
+      <c r="F36" s="296"/>
+      <c r="G36" s="296"/>
+      <c r="H36" s="297"/>
+    </row>
+    <row r="37" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="295"/>
+      <c r="B37" s="296"/>
+      <c r="C37" s="296"/>
+      <c r="D37" s="296"/>
+      <c r="E37" s="296"/>
+      <c r="F37" s="296"/>
+      <c r="G37" s="296"/>
+      <c r="H37" s="297"/>
+    </row>
+    <row r="38" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="295"/>
+      <c r="B38" s="296"/>
+      <c r="C38" s="296"/>
+      <c r="D38" s="296"/>
+      <c r="E38" s="296"/>
+      <c r="F38" s="296"/>
+      <c r="G38" s="296"/>
+      <c r="H38" s="297"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="266"/>
-      <c r="B39" s="267"/>
-      <c r="C39" s="267"/>
-      <c r="D39" s="267"/>
-      <c r="E39" s="267"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="267"/>
-      <c r="H39" s="268"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
+      <c r="A39" s="298"/>
+      <c r="B39" s="299"/>
+      <c r="C39" s="299"/>
+      <c r="D39" s="299"/>
+      <c r="E39" s="299"/>
+      <c r="F39" s="299"/>
+      <c r="G39" s="299"/>
+      <c r="H39" s="300"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="253" t="s">
+      <c r="A41" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="B41" s="253"/>
-      <c r="C41" s="253"/>
-      <c r="D41" s="253"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
+      <c r="B41" s="285"/>
+      <c r="C41" s="285"/>
+      <c r="D41" s="285"/>
+      <c r="E41" s="285"/>
+      <c r="F41" s="285"/>
+      <c r="G41" s="285"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D42" s="252" t="s">
+      <c r="D42" s="284" t="s">
         <v>310</v>
       </c>
-      <c r="E42" s="252"/>
-      <c r="F42" s="252"/>
-      <c r="G42" s="252"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
+      <c r="E42" s="284"/>
+      <c r="F42" s="284"/>
+      <c r="G42" s="284"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -8111,7 +8302,7 @@
       <c r="C43" t="s">
         <v>460</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="175" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8125,7 +8316,7 @@
       <c r="C44" t="s">
         <v>460</v>
       </c>
-      <c r="D44" s="188" t="s">
+      <c r="D44" s="186" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8139,7 +8330,7 @@
       <c r="C45" t="s">
         <v>460</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="175" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8153,7 +8344,7 @@
       <c r="C46" t="s">
         <v>460</v>
       </c>
-      <c r="D46" s="176" t="s">
+      <c r="D46" s="175" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8167,7 +8358,7 @@
       <c r="C47" t="s">
         <v>460</v>
       </c>
-      <c r="D47" s="179" t="s">
+      <c r="D47" s="178" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8181,7 +8372,7 @@
       <c r="C48" t="s">
         <v>460</v>
       </c>
-      <c r="D48" s="188" t="s">
+      <c r="D48" s="186" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8195,7 +8386,7 @@
       <c r="C49" t="s">
         <v>460</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="186" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8209,7 +8400,7 @@
       <c r="C50" t="s">
         <v>460</v>
       </c>
-      <c r="D50" s="188" t="s">
+      <c r="D50" s="186" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8223,7 +8414,7 @@
       <c r="C51" t="s">
         <v>460</v>
       </c>
-      <c r="D51" s="188" t="s">
+      <c r="D51" s="186" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8237,7 +8428,7 @@
       <c r="C52" t="s">
         <v>460</v>
       </c>
-      <c r="D52" s="188" t="s">
+      <c r="D52" s="186" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8251,7 +8442,7 @@
       <c r="C53" t="s">
         <v>460</v>
       </c>
-      <c r="D53" s="179" t="s">
+      <c r="D53" s="178" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8313,7 +8504,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8338,369 +8529,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="324" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
-      <c r="N1" s="282"/>
-      <c r="O1" s="282"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="324"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="318" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="283" t="s">
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="325" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="289" t="s">
+      <c r="H2" s="325"/>
+      <c r="I2" s="325"/>
+      <c r="J2" s="325"/>
+      <c r="K2" s="325"/>
+      <c r="L2" s="325"/>
+      <c r="M2" s="314" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="289"/>
-      <c r="O2" s="289"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
+      <c r="N2" s="314"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="321" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="285" t="s">
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="327" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="285"/>
-      <c r="I3" s="285"/>
-      <c r="J3" s="285"/>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="204" t="s">
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="327"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="202" t="s">
         <v>299</v>
       </c>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="202" t="s">
         <v>366</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="202" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="196"/>
+      <c r="P3" s="194"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="286" t="s">
+      <c r="A4" s="328" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="287"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="287"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="284" t="s">
+      <c r="B4" s="329"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="326" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284" t="s">
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="326" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="205" t="s">
+      <c r="K4" s="326"/>
+      <c r="L4" s="326"/>
+      <c r="M4" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="205" t="s">
+      <c r="N4" s="203" t="s">
         <v>367</v>
       </c>
-      <c r="O4" s="205" t="s">
+      <c r="O4" s="203" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="279"/>
-      <c r="B5" s="280"/>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="278" t="s">
+      <c r="A5" s="331"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="313" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278" t="s">
+      <c r="H5" s="313"/>
+      <c r="I5" s="313"/>
+      <c r="J5" s="313" t="s">
         <v>292</v>
       </c>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206" t="s">
+      <c r="K5" s="313"/>
+      <c r="L5" s="313"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204" t="s">
         <v>384</v>
       </c>
-      <c r="O5" s="207" t="s">
+      <c r="O5" s="205" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="279" t="s">
+      <c r="A6" s="331" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="280"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="278" t="s">
+      <c r="B6" s="332"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="313" t="s">
         <v>285</v>
       </c>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206" t="s">
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204" t="s">
         <v>385</v>
       </c>
-      <c r="O6" s="207" t="s">
+      <c r="O6" s="205" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="279" t="s">
+      <c r="A7" s="331" t="s">
         <v>475</v>
       </c>
-      <c r="B7" s="280"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="278"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="207"/>
+      <c r="B7" s="332"/>
+      <c r="C7" s="332"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="313"/>
+      <c r="J7" s="313"/>
+      <c r="K7" s="313"/>
+      <c r="L7" s="313"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="205"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="279"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="280"/>
-      <c r="D8" s="280"/>
-      <c r="E8" s="280"/>
-      <c r="F8" s="281"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="207"/>
+      <c r="A8" s="331"/>
+      <c r="B8" s="332"/>
+      <c r="C8" s="332"/>
+      <c r="D8" s="332"/>
+      <c r="E8" s="332"/>
+      <c r="F8" s="333"/>
+      <c r="G8" s="313"/>
+      <c r="H8" s="313"/>
+      <c r="I8" s="313"/>
+      <c r="J8" s="313"/>
+      <c r="K8" s="313"/>
+      <c r="L8" s="313"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="290" t="s">
+      <c r="A10" s="315" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="292"/>
+      <c r="B10" s="316"/>
+      <c r="C10" s="316"/>
+      <c r="D10" s="316"/>
+      <c r="E10" s="316"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="316"/>
+      <c r="I10" s="317"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="187" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="238" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="I11" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="J11" s="143" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="239" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="I12" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="J12" s="148" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="153">
+      <c r="A13" s="145"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="233"/>
+      <c r="F13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="G13" s="152"/>
+      <c r="H13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="I13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="J13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="269" t="s">
+      <c r="A15" s="301" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="270"/>
-      <c r="C15" s="270"/>
-      <c r="D15" s="270"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
+      <c r="B15" s="302"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="303"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="295" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="264"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="B16" s="296"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="296"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="296"/>
+      <c r="H16" s="297"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="263"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="265"/>
+      <c r="A17" s="295"/>
+      <c r="B17" s="296"/>
+      <c r="C17" s="296"/>
+      <c r="D17" s="296"/>
+      <c r="E17" s="296"/>
+      <c r="F17" s="296"/>
+      <c r="G17" s="296"/>
+      <c r="H17" s="297"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="265"/>
+      <c r="A18" s="295"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="296"/>
+      <c r="F18" s="296"/>
+      <c r="G18" s="296"/>
+      <c r="H18" s="297"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="266"/>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="267"/>
-      <c r="H19" s="268"/>
+      <c r="A19" s="298"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="300"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="253" t="s">
+      <c r="A21" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
+      <c r="B21" s="285"/>
+      <c r="C21" s="285"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="285"/>
+      <c r="G21" s="285"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="252" t="s">
+      <c r="D22" s="284" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
+      <c r="E22" s="284"/>
+      <c r="F22" s="284"/>
+      <c r="G22" s="284"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8712,7 +8910,7 @@
       <c r="C23" t="s">
         <v>446</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="175" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8726,7 +8924,7 @@
       <c r="C24" t="s">
         <v>446</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="186" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8740,7 +8938,7 @@
       <c r="C25" t="s">
         <v>446</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="175" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8754,7 +8952,7 @@
       <c r="C26" t="s">
         <v>446</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8768,7 +8966,7 @@
       <c r="C27" t="s">
         <v>446</v>
       </c>
-      <c r="D27" s="179" t="s">
+      <c r="D27" s="178" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8782,7 +8980,7 @@
       <c r="C28" t="s">
         <v>446</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="186" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8796,7 +8994,7 @@
       <c r="C29" t="s">
         <v>446</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="186" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8810,7 +9008,7 @@
       <c r="C30" t="s">
         <v>446</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="186" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8824,7 +9022,7 @@
       <c r="C31" t="s">
         <v>446</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="186" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8838,7 +9036,7 @@
       <c r="C32" t="s">
         <v>446</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="186" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8852,7 +9050,7 @@
       <c r="C33" t="s">
         <v>446</v>
       </c>
-      <c r="D33" s="188" t="s">
+      <c r="D33" s="186" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8866,7 +9064,7 @@
       <c r="C34" t="s">
         <v>446</v>
       </c>
-      <c r="D34" s="176" t="s">
+      <c r="D34" s="175" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8880,7 +9078,7 @@
       <c r="C35" t="s">
         <v>446</v>
       </c>
-      <c r="D35" s="176" t="s">
+      <c r="D35" s="175" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8894,7 +9092,7 @@
       <c r="C36" t="s">
         <v>446</v>
       </c>
-      <c r="D36" s="176" t="s">
+      <c r="D36" s="175" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8908,7 +9106,7 @@
       <c r="C37" t="s">
         <v>446</v>
       </c>
-      <c r="D37" s="176" t="s">
+      <c r="D37" s="175" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8922,7 +9120,7 @@
       <c r="C38" t="s">
         <v>446</v>
       </c>
-      <c r="D38" s="176" t="s">
+      <c r="D38" s="175" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8936,7 +9134,7 @@
       <c r="C39" t="s">
         <v>446</v>
       </c>
-      <c r="D39" s="176" t="s">
+      <c r="D39" s="175" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8950,7 +9148,7 @@
       <c r="C40" t="s">
         <v>446</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="175" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8964,7 +9162,7 @@
       <c r="C41" t="s">
         <v>446</v>
       </c>
-      <c r="D41" s="176" t="s">
+      <c r="D41" s="175" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8978,7 +9176,7 @@
       <c r="C42" t="s">
         <v>446</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D42" s="175" t="s">
         <v>400</v>
       </c>
     </row>
@@ -8992,7 +9190,7 @@
       <c r="C43" t="s">
         <v>446</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="175" t="s">
         <v>448</v>
       </c>
     </row>
@@ -9006,7 +9204,7 @@
       <c r="C44" t="s">
         <v>446</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D44" s="175" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9020,7 +9218,7 @@
       <c r="C45" t="s">
         <v>446</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="175" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9034,7 +9232,7 @@
       <c r="C46" t="s">
         <v>446</v>
       </c>
-      <c r="D46" s="176" t="s">
+      <c r="D46" s="175" t="s">
         <v>450</v>
       </c>
     </row>
@@ -9048,7 +9246,7 @@
       <c r="C47" t="s">
         <v>446</v>
       </c>
-      <c r="D47" s="176" t="s">
+      <c r="D47" s="175" t="s">
         <v>451</v>
       </c>
     </row>
@@ -9062,7 +9260,7 @@
       <c r="C48" t="s">
         <v>446</v>
       </c>
-      <c r="D48" s="176" t="s">
+      <c r="D48" s="175" t="s">
         <v>452</v>
       </c>
     </row>
@@ -9076,7 +9274,7 @@
       <c r="C49" t="s">
         <v>446</v>
       </c>
-      <c r="D49" s="176" t="s">
+      <c r="D49" s="175" t="s">
         <v>453</v>
       </c>
     </row>
@@ -9090,7 +9288,7 @@
       <c r="C50" t="s">
         <v>446</v>
       </c>
-      <c r="D50" s="176" t="s">
+      <c r="D50" s="175" t="s">
         <v>454</v>
       </c>
     </row>
@@ -9104,7 +9302,7 @@
       <c r="C51" t="s">
         <v>446</v>
       </c>
-      <c r="D51" s="176" t="s">
+      <c r="D51" s="175" t="s">
         <v>455</v>
       </c>
     </row>
@@ -9118,7 +9316,7 @@
       <c r="C52" t="s">
         <v>446</v>
       </c>
-      <c r="D52" s="188" t="s">
+      <c r="D52" s="186" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9132,20 +9330,18 @@
       <c r="C53" t="s">
         <v>446</v>
       </c>
-      <c r="D53" s="176" t="s">
+      <c r="D53" s="175" t="s">
         <v>401</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -9158,12 +9354,14 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9230,7 +9428,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9255,374 +9453,381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="324" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
-      <c r="N1" s="282"/>
-      <c r="O1" s="282"/>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="324"/>
+      <c r="P1" s="324"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="325" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283" t="s">
+      <c r="B2" s="325"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
+      <c r="F2" s="325"/>
+      <c r="G2" s="325" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="289" t="s">
+      <c r="H2" s="325"/>
+      <c r="I2" s="325"/>
+      <c r="J2" s="325"/>
+      <c r="K2" s="325"/>
+      <c r="L2" s="325"/>
+      <c r="M2" s="314" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="289"/>
-      <c r="O2" s="289"/>
-      <c r="P2" s="289"/>
-      <c r="Q2" s="89"/>
+      <c r="N2" s="314"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="314"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="285" t="s">
+      <c r="A3" s="327" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285" t="s">
+      <c r="B3" s="327"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="285"/>
-      <c r="I3" s="285"/>
-      <c r="J3" s="285"/>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="204" t="s">
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="327"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="202" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="202" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="202" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="204" t="s">
+      <c r="P3" s="202" t="s">
         <v>366</v>
       </c>
-      <c r="Q3" s="195"/>
+      <c r="Q3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="286" t="s">
+      <c r="A4" s="328" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="287"/>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="287"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="284" t="s">
+      <c r="B4" s="329"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="326" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="205" t="s">
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="326"/>
+      <c r="K4" s="326"/>
+      <c r="L4" s="326"/>
+      <c r="M4" s="203" t="s">
         <v>252</v>
       </c>
-      <c r="N4" s="205" t="s">
+      <c r="N4" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="205" t="s">
+      <c r="O4" s="203" t="s">
         <v>367</v>
       </c>
-      <c r="P4" s="205" t="s">
+      <c r="P4" s="203" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="279"/>
-      <c r="B5" s="280"/>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="299" t="s">
+      <c r="A5" s="331"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
-      <c r="J5" s="299"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="299"/>
-      <c r="M5" s="206" t="s">
+      <c r="H5" s="334"/>
+      <c r="I5" s="334"/>
+      <c r="J5" s="334"/>
+      <c r="K5" s="334"/>
+      <c r="L5" s="334"/>
+      <c r="M5" s="204" t="s">
         <v>291</v>
       </c>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206" t="s">
+      <c r="N5" s="204"/>
+      <c r="O5" s="204" t="s">
         <v>477</v>
       </c>
-      <c r="P5" s="206" t="s">
+      <c r="P5" s="204" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="279" t="s">
+      <c r="A6" s="331" t="s">
         <v>479</v>
       </c>
-      <c r="B6" s="280"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="299" t="s">
+      <c r="B6" s="332"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="299"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="299"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="299"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206" t="s">
+      <c r="H6" s="334"/>
+      <c r="I6" s="334"/>
+      <c r="J6" s="334"/>
+      <c r="K6" s="334"/>
+      <c r="L6" s="334"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204" t="s">
         <v>480</v>
       </c>
-      <c r="P6" s="206" t="s">
+      <c r="P6" s="204" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="279"/>
-      <c r="B7" s="280"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="299"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="207"/>
+      <c r="A7" s="331"/>
+      <c r="B7" s="332"/>
+      <c r="C7" s="332"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="334"/>
+      <c r="H7" s="334"/>
+      <c r="I7" s="334"/>
+      <c r="J7" s="334"/>
+      <c r="K7" s="334"/>
+      <c r="L7" s="334"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="205"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="279"/>
-      <c r="B8" s="280"/>
-      <c r="C8" s="280"/>
-      <c r="D8" s="280"/>
-      <c r="E8" s="280"/>
-      <c r="F8" s="281"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="299"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="207"/>
+      <c r="A8" s="331"/>
+      <c r="B8" s="332"/>
+      <c r="C8" s="332"/>
+      <c r="D8" s="332"/>
+      <c r="E8" s="332"/>
+      <c r="F8" s="333"/>
+      <c r="G8" s="334"/>
+      <c r="H8" s="334"/>
+      <c r="I8" s="334"/>
+      <c r="J8" s="334"/>
+      <c r="K8" s="334"/>
+      <c r="L8" s="334"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="290" t="s">
+      <c r="A10" s="315" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="292"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="B10" s="316"/>
+      <c r="C10" s="316"/>
+      <c r="D10" s="316"/>
+      <c r="E10" s="316"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="316"/>
+      <c r="I10" s="317"/>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="130" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="187" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="238" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="I11" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="J11" s="143" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="239" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="I12" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="J12" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="K12" s="164"/>
+      <c r="L12" s="163"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="153">
+      <c r="A13" s="145"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="233"/>
+      <c r="F13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="G13" s="152"/>
+      <c r="H13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="I13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="J13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="269" t="s">
+      <c r="A15" s="301" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="270"/>
-      <c r="C15" s="270"/>
-      <c r="D15" s="270"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
+      <c r="B15" s="302"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="303"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="295" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="264"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="B16" s="296"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="296"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="296"/>
+      <c r="H16" s="297"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="263"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="265"/>
+      <c r="A17" s="295"/>
+      <c r="B17" s="296"/>
+      <c r="C17" s="296"/>
+      <c r="D17" s="296"/>
+      <c r="E17" s="296"/>
+      <c r="F17" s="296"/>
+      <c r="G17" s="296"/>
+      <c r="H17" s="297"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="265"/>
+      <c r="A18" s="295"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="296"/>
+      <c r="F18" s="296"/>
+      <c r="G18" s="296"/>
+      <c r="H18" s="297"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="266"/>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="267"/>
-      <c r="H19" s="268"/>
+      <c r="A19" s="298"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="300"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="253" t="s">
+      <c r="A21" s="285" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
+      <c r="B21" s="285"/>
+      <c r="C21" s="285"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="285"/>
+      <c r="G21" s="285"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="252" t="s">
+      <c r="D22" s="284" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
+      <c r="E22" s="284"/>
+      <c r="F22" s="284"/>
+      <c r="G22" s="284"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9634,7 +9839,7 @@
       <c r="C23" t="s">
         <v>456</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="175" t="s">
         <v>368</v>
       </c>
     </row>
@@ -9648,7 +9853,7 @@
       <c r="C24" t="s">
         <v>456</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="186" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9662,7 +9867,7 @@
       <c r="C25" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="175" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9676,7 +9881,7 @@
       <c r="C26" t="s">
         <v>456</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>355</v>
       </c>
     </row>
@@ -9690,7 +9895,7 @@
       <c r="C27" t="s">
         <v>456</v>
       </c>
-      <c r="D27" s="179" t="s">
+      <c r="D27" s="178" t="s">
         <v>336</v>
       </c>
     </row>
@@ -9704,7 +9909,7 @@
       <c r="C28" t="s">
         <v>456</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="186" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9718,7 +9923,7 @@
       <c r="C29" t="s">
         <v>456</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="186" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9732,7 +9937,7 @@
       <c r="C30" t="s">
         <v>456</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="186" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9746,7 +9951,7 @@
       <c r="C31" t="s">
         <v>456</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="186" t="s">
         <v>345</v>
       </c>
     </row>
@@ -9760,7 +9965,7 @@
       <c r="C32" t="s">
         <v>456</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="186" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9774,7 +9979,7 @@
       <c r="C33" t="s">
         <v>456</v>
       </c>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="175" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9788,23 +9993,12 @@
       <c r="C34" t="s">
         <v>456</v>
       </c>
-      <c r="D34" s="188" t="s">
+      <c r="D34" s="186" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="G4:L4"/>
@@ -9815,6 +10009,17 @@
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9878,39 +10083,39 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="185" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="94.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="183" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="335" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -9922,23 +10127,23 @@
       <c r="C2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="351" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="134" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="136" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="135" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9949,8 +10154,8 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="24">
+      <c r="C4" s="181"/>
+      <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -9964,671 +10169,879 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="24">
+      <c r="C5" s="181"/>
+      <c r="D5" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="200" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" s="352"/>
+      <c r="D6" s="23">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C7" s="353"/>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="183">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C8" s="354"/>
+      <c r="D8" s="23">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
-        <v>467</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="202" t="s">
-        <v>469</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="24">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="183"/>
-      <c r="D9" s="24"/>
+        <v>494</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="354"/>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="182"/>
+      <c r="A10" s="200" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="C10" s="352"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="24">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="201"/>
+      <c r="D11" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="25" t="s">
-        <v>68</v>
+      <c r="A12" s="200" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="352"/>
+      <c r="D12" s="23">
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="25" t="s">
-        <v>69</v>
+      <c r="A13" s="200" t="s">
+        <v>500</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C13" s="352"/>
+      <c r="D13" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
+      <c r="A14" s="200" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="352"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="A15" s="200" t="s">
+        <v>504</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="352"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="200" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="352"/>
+      <c r="D16" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="200" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C17" s="352"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="200" t="s">
+        <v>510</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="352"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="183"/>
-      <c r="D19" s="24"/>
+        <v>469</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="201"/>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="181"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
+      <c r="A21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="180"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="183"/>
-      <c r="D22" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="C22" s="181"/>
+      <c r="D22" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="183"/>
-      <c r="D23" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="C23" s="181"/>
+      <c r="D23" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="C24" s="181"/>
+      <c r="D24" s="24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="181"/>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="183"/>
-      <c r="D26" s="24">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="181"/>
+      <c r="D26" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="183"/>
-      <c r="D27" s="24">
-        <v>65535</v>
-      </c>
+      <c r="A27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="180"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="24">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C28" s="181"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="183"/>
-      <c r="D29" s="24">
-        <v>0.1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C29" s="181"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="183"/>
-      <c r="D30" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C30" s="181"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="183"/>
-      <c r="D31" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="C31" s="181"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="183"/>
-      <c r="D32" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C32" s="181"/>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="182"/>
+      <c r="A33" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="181"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="C34" s="181"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="24">
-        <v>0.02</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C35" s="181"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="180"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="183"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C37" s="181"/>
+      <c r="D37" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="183"/>
-      <c r="D38" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="C38" s="181"/>
+      <c r="D38" s="23">
+        <v>65535</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="183"/>
-      <c r="D39" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C39" s="181"/>
+      <c r="D39" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="183"/>
-      <c r="D40" s="25">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C40" s="181"/>
+      <c r="D40" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="182"/>
+      <c r="A41" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="181"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="24"/>
+        <v>121</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="181"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="183"/>
-      <c r="D43" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="C43" s="181"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="183"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="180"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="183"/>
-      <c r="D45" s="24"/>
+        <v>51</v>
+      </c>
+      <c r="C45" s="181"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="183"/>
-      <c r="D46" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="C46" s="181"/>
+      <c r="D46" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="183"/>
-      <c r="D47" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="C47" s="181"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="183"/>
-      <c r="D48" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="C48" s="181"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="183"/>
-      <c r="D49" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="C49" s="181"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="183"/>
-      <c r="D50" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="C50" s="181"/>
+      <c r="D50" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="183"/>
-      <c r="D51" s="24"/>
+        <v>167</v>
+      </c>
+      <c r="C51" s="181"/>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="183"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="C52" s="355"/>
+      <c r="D52" s="356"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="183"/>
-      <c r="D53" s="24">
-        <v>1</v>
+        <v>514</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C53" s="353"/>
+      <c r="D53" s="357">
+        <v>0.02</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="183"/>
-      <c r="D54" s="24">
-        <v>1</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="C54" s="353"/>
+      <c r="D54" s="357"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="183"/>
-      <c r="D55" s="24">
-        <v>1</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C55" s="353"/>
+      <c r="D55" s="357"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="183"/>
-      <c r="D56" s="24">
-        <v>1</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C56" s="353"/>
+      <c r="D56" s="357"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="183"/>
-      <c r="D57" s="24">
-        <v>1</v>
+        <v>522</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C57" s="353"/>
+      <c r="D57" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="183"/>
-      <c r="D58" s="24">
-        <v>0</v>
-      </c>
+      <c r="A58" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="180"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="183"/>
-      <c r="D59" s="24"/>
+        <v>129</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="183"/>
-      <c r="D60" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="C60" s="181"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="182"/>
-      <c r="D61" s="181"/>
+      <c r="A61" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="181"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="183"/>
-      <c r="D62" s="26">
-        <v>0</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="181"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="B63" s="180"/>
-      <c r="C63" s="182"/>
-      <c r="D63" s="181"/>
+      <c r="A63" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="181"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="181"/>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="181"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="181"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="181"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="181"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="181"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="181"/>
+      <c r="D70" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="181"/>
+      <c r="D71" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="181"/>
+      <c r="D72" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="181"/>
+      <c r="D73" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="181"/>
+      <c r="D74" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="181"/>
+      <c r="D75" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="181"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="181"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="180"/>
+      <c r="D78" s="179"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="181"/>
+      <c r="D79" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C80" s="180"/>
+      <c r="D80" s="179"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B81" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C64" s="183"/>
-      <c r="D64" s="26">
+      <c r="C81" s="181"/>
+      <c r="D81" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="B82" s="358" t="s">
+        <v>526</v>
+      </c>
+      <c r="C82" s="180"/>
+      <c r="D82" s="179"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C83" s="181"/>
+      <c r="D83" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B84" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="182"/>
-      <c r="D65" s="181"/>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="C84" s="180"/>
+      <c r="D84" s="179"/>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B85" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="184"/>
-      <c r="D66" s="29">
+      <c r="C85" s="182"/>
+      <c r="D85" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e8kOAtFlpesjtn2br0yWcMpJ0DR209aE1yKF50VLzsPmXh5YkSkNGPUjF34NepgBd0tNNjIcbP5PGt3vMdgCiw==" saltValue="lwyCEHXZ04Z8PX//kotMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nz+s2XO+ftXiPvDFdCb363Kdxpm8/rTzkaQvNt3hixFy/XzDLwk3vacxi/mnwp2lCzlwAgpdDUMXZxUkXUE4MA==" saltValue="5VzOwROovNDqiQdmD//x7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10643,7 +11056,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B19" sqref="B19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10662,163 +11075,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="341" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="338" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
-      <c r="J3" s="305"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="339"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="340"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>3</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>4</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="N8" s="36"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -10828,10 +11241,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="44"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="43">
+      <c r="B12" s="42">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -10841,10 +11254,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="44"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -10854,10 +11267,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="44"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -10867,10 +11280,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="44"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -10880,10 +11293,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="45">
+      <c r="B16" s="44">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -10897,190 +11310,190 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="303" t="s">
+      <c r="B19" s="338" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="304"/>
-      <c r="D19" s="304"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
-      <c r="G19" s="304"/>
-      <c r="H19" s="304"/>
-      <c r="I19" s="304"/>
-      <c r="J19" s="304"/>
-      <c r="K19" s="304"/>
-      <c r="L19" s="304"/>
-      <c r="M19" s="304"/>
-      <c r="N19" s="305"/>
+      <c r="C19" s="339"/>
+      <c r="D19" s="339"/>
+      <c r="E19" s="339"/>
+      <c r="F19" s="339"/>
+      <c r="G19" s="339"/>
+      <c r="H19" s="339"/>
+      <c r="I19" s="339"/>
+      <c r="J19" s="339"/>
+      <c r="K19" s="339"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="339"/>
+      <c r="N19" s="340"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
-      <c r="C20" s="46">
+      <c r="B20" s="36"/>
+      <c r="C20" s="45">
         <v>1</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="45">
         <v>2</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>3</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <v>4</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <v>5</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <v>6</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <v>7</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="46">
         <v>8</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="46">
         <v>9</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="46">
         <v>10</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <v>11</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="44"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="44"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="44"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="44"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="44"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="44"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="44"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -11113,122 +11526,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="346" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="312"/>
-      <c r="S1" s="312"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
+      <c r="N1" s="347"/>
+      <c r="O1" s="347"/>
+      <c r="P1" s="347"/>
+      <c r="Q1" s="347"/>
+      <c r="R1" s="347"/>
+      <c r="S1" s="347"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="338" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
-      <c r="J3" s="305"/>
-      <c r="L3" s="308" t="s">
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="339"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="340"/>
+      <c r="L3" s="343" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="309"/>
-      <c r="P3" s="309"/>
-      <c r="Q3" s="309"/>
-      <c r="R3" s="310"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="Q3" s="344"/>
+      <c r="R3" s="345"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="58">
+      <c r="B4" s="36"/>
+      <c r="C4" s="57">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>6</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="58">
         <v>7</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="47">
         <v>8</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="44"/>
-      <c r="L5" s="40">
+      <c r="I5" s="60"/>
+      <c r="J5" s="43"/>
+      <c r="L5" s="39">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -11236,21 +11649,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="44"/>
-      <c r="L6" s="40">
+      <c r="I6" s="60"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="39">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -11258,21 +11671,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="44"/>
-      <c r="L7" s="40">
+      <c r="I7" s="60"/>
+      <c r="J7" s="43"/>
+      <c r="L7" s="39">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -11280,21 +11693,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="44"/>
-      <c r="L8" s="40">
+      <c r="I8" s="60"/>
+      <c r="J8" s="43"/>
+      <c r="L8" s="39">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -11302,21 +11715,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="44"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="44"/>
-      <c r="L9" s="40">
+      <c r="I9" s="60"/>
+      <c r="J9" s="43"/>
+      <c r="L9" s="39">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11324,21 +11737,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="44"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="63"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="40">
+      <c r="L10" s="39">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -11346,10 +11759,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -11357,10 +11770,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="44"/>
+      <c r="R11" s="43"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -11397,90 +11810,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="348" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314"/>
-      <c r="M1" s="314"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="315"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
+      <c r="N1" s="349"/>
+      <c r="O1" s="350"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="338" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="305"/>
-      <c r="J3" s="308" t="s">
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="340"/>
+      <c r="J3" s="343" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="310"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="46">
+      <c r="B4" s="36"/>
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>6</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>224</v>
       </c>
       <c r="C5" s="3"/>
@@ -11488,17 +11901,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="44"/>
-      <c r="J5" s="40">
+      <c r="H5" s="43"/>
+      <c r="J5" s="39">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="44"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>225</v>
       </c>
       <c r="C6" s="3"/>
@@ -11506,17 +11919,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="44"/>
-      <c r="J6" s="40">
+      <c r="H6" s="43"/>
+      <c r="J6" s="39">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="44"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="3"/>
@@ -11524,17 +11937,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="44"/>
-      <c r="J7" s="40">
+      <c r="H7" s="43"/>
+      <c r="J7" s="39">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>227</v>
       </c>
       <c r="C8" s="6"/>
@@ -11543,27 +11956,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="40">
+      <c r="J8" s="39">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="44"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="54"/>
-      <c r="J9" s="40">
+      <c r="H9" s="53"/>
+      <c r="J9" s="39">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="44"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="55"/>
-      <c r="J10" s="56">
+      <c r="H10" s="54"/>
+      <c r="J10" s="55">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -11572,19 +11985,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="57"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="54"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="54"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="54"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="54"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="527">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2506,12 +2506,6 @@
   </si>
   <si>
     <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
-  </si>
-  <si>
-    <t>flow.defaultCSVReadHeader</t>
-  </si>
-  <si>
-    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
   </si>
   <si>
     <t>flow.smallFileWarning</t>
@@ -4212,20 +4206,145 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4247,102 +4366,6 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4435,57 +4458,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4498,6 +4470,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4552,35 +4575,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4671,7 +4665,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4737,7 +4731,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4808,7 +4802,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4879,7 +4873,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4945,7 +4939,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5016,7 +5010,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5082,7 +5076,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5433,86 +5427,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="271" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="254"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="273"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="250" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="269"/>
+      <c r="B3" s="251"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="266" t="s">
+      <c r="A4" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="267"/>
+      <c r="B4" s="265"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="266" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="283"/>
+      <c r="B5" s="267"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="268" t="s">
+      <c r="A7" s="250" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="270"/>
-      <c r="K7" s="269"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="251"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="255" t="s">
+      <c r="A8" s="274" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="256"/>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="256"/>
-      <c r="K8" s="257"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="275"/>
+      <c r="K8" s="276"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="258"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="259"/>
-      <c r="J9" s="259"/>
-      <c r="K9" s="260"/>
+      <c r="A9" s="277"/>
+      <c r="B9" s="278"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="278"/>
+      <c r="I9" s="278"/>
+      <c r="J9" s="278"/>
+      <c r="K9" s="279"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="155"/>
@@ -5523,62 +5517,62 @@
       <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="271" t="s">
+      <c r="A11" s="253" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="272"/>
-      <c r="C11" s="272"/>
-      <c r="D11" s="273"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="255"/>
       <c r="E11" s="87"/>
       <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="274" t="s">
+      <c r="A12" s="256" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="275"/>
-      <c r="C12" s="276" t="s">
+      <c r="B12" s="257"/>
+      <c r="C12" s="258" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="277"/>
+      <c r="D12" s="259"/>
       <c r="E12" s="87"/>
       <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="278"/>
-      <c r="B13" s="279"/>
-      <c r="C13" s="280"/>
-      <c r="D13" s="281"/>
+      <c r="A13" s="260"/>
+      <c r="B13" s="261"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="263"/>
       <c r="E13" s="87"/>
       <c r="F13" s="141"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="271" t="s">
+      <c r="A15" s="253" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="273"/>
-      <c r="E15" s="271" t="s">
+      <c r="B15" s="255"/>
+      <c r="E15" s="253" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="272"/>
-      <c r="G15" s="272"/>
-      <c r="H15" s="272"/>
-      <c r="I15" s="273"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="255"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="266" t="s">
+      <c r="A16" s="264" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="267"/>
+      <c r="B16" s="265"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="261" t="s">
+      <c r="E16" s="280" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="262"/>
-      <c r="I16" s="263"/>
+      <c r="F16" s="281"/>
+      <c r="G16" s="281"/>
+      <c r="H16" s="281"/>
+      <c r="I16" s="282"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="156" t="s">
@@ -5588,10 +5582,10 @@
         <v>278</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="264" t="s">
+      <c r="E17" s="283" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="265"/>
+      <c r="F17" s="284"/>
       <c r="G17" s="82" t="s">
         <v>159</v>
       </c>
@@ -5621,7 +5615,7 @@
       <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="240" t="s">
+      <c r="I18" s="268" t="s">
         <v>465</v>
       </c>
       <c r="J18" s="80"/>
@@ -5644,7 +5638,7 @@
       <c r="H19" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="240"/>
+      <c r="I19" s="268"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5661,7 +5655,7 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="241"/>
+      <c r="I20" s="269"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5683,24 +5677,24 @@
       <c r="A23" s="160"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="242" t="s">
+      <c r="E23" s="248" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="243"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="243"/>
-      <c r="I23" s="244"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="249"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="242" t="s">
+      <c r="A24" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="244"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="248" t="s">
+      <c r="E24" s="288" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="249"/>
+      <c r="F24" s="289"/>
       <c r="G24" s="81" t="s">
         <v>159</v>
       </c>
@@ -5729,7 +5723,7 @@
       <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="245" t="s">
+      <c r="I25" s="285" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5753,7 +5747,7 @@
       <c r="H26" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="246"/>
+      <c r="I26" s="286"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="158" t="s">
@@ -5769,7 +5763,7 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="247"/>
+      <c r="I27" s="287"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="158" t="s">
@@ -5793,22 +5787,22 @@
       <c r="A30" s="159"/>
       <c r="B30" s="116"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="242" t="s">
+      <c r="E30" s="248" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="243"/>
-      <c r="I30" s="244"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="270"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="249"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="160"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="250" t="s">
+      <c r="E31" s="290" t="s">
         <v>463</v>
       </c>
-      <c r="F31" s="251"/>
+      <c r="F31" s="291"/>
       <c r="G31" s="198" t="s">
         <v>159</v>
       </c>
@@ -5820,10 +5814,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="242" t="s">
+      <c r="A32" s="248" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="244"/>
+      <c r="B32" s="249"/>
       <c r="C32" s="31"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5833,7 +5827,7 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="240"/>
+      <c r="I32" s="268"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="156" t="s">
@@ -5853,7 +5847,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="240"/>
+      <c r="I33" s="268"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="157" t="s">
@@ -5868,7 +5862,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="240"/>
+      <c r="I34" s="268"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="158" t="s">
@@ -5881,7 +5875,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="240"/>
+      <c r="I35" s="268"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="158" t="s">
@@ -5894,7 +5888,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="240"/>
+      <c r="I36" s="268"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="158" t="s">
@@ -5907,7 +5901,7 @@
       <c r="F37" s="139"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="241"/>
+      <c r="I37" s="269"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="159" t="s">
@@ -5920,17 +5914,17 @@
       <c r="B39" s="120"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="242" t="s">
+      <c r="E40" s="248" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="243"/>
-      <c r="G40" s="243"/>
-      <c r="H40" s="243"/>
-      <c r="I40" s="244"/>
+      <c r="F40" s="270"/>
+      <c r="G40" s="270"/>
+      <c r="H40" s="270"/>
+      <c r="I40" s="249"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="248"/>
-      <c r="F41" s="249"/>
+      <c r="E41" s="288"/>
+      <c r="F41" s="289"/>
       <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
@@ -5948,7 +5942,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="240"/>
+      <c r="I42" s="268"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5957,7 +5951,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="240"/>
+      <c r="I43" s="268"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5966,7 +5960,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="240"/>
+      <c r="I44" s="268"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5975,7 +5969,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="240"/>
+      <c r="I45" s="268"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5984,7 +5978,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="240"/>
+      <c r="I46" s="268"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5993,11 +5987,25 @@
       <c r="F47" s="139"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="241"/>
+      <c r="I47" s="269"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6013,20 +6021,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6066,32 +6060,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="294" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="288"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="296"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="297" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="291"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="299"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="74"/>
@@ -6105,13 +6099,13 @@
       <c r="B3" s="176" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="292" t="s">
+      <c r="C3" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="294"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="302"/>
       <c r="H3" s="176" t="s">
         <v>318</v>
       </c>
@@ -6736,26 +6730,26 @@
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="304" t="s">
+      <c r="A27" s="312" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="305"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
-      <c r="K27" s="305"/>
-      <c r="L27" s="305"/>
-      <c r="M27" s="305"/>
-      <c r="N27" s="305"/>
-      <c r="O27" s="305"/>
-      <c r="P27" s="305"/>
-      <c r="Q27" s="305"/>
-      <c r="R27" s="306"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="313"/>
+      <c r="F27" s="313"/>
+      <c r="G27" s="313"/>
+      <c r="H27" s="313"/>
+      <c r="I27" s="313"/>
+      <c r="J27" s="313"/>
+      <c r="K27" s="313"/>
+      <c r="L27" s="313"/>
+      <c r="M27" s="313"/>
+      <c r="N27" s="313"/>
+      <c r="O27" s="313"/>
+      <c r="P27" s="313"/>
+      <c r="Q27" s="313"/>
+      <c r="R27" s="314"/>
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="136" t="s">
@@ -6911,70 +6905,70 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="301" t="s">
+      <c r="A32" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="302"/>
-      <c r="C32" s="302"/>
-      <c r="D32" s="302"/>
-      <c r="E32" s="302"/>
-      <c r="F32" s="302"/>
-      <c r="G32" s="302"/>
-      <c r="H32" s="303"/>
+      <c r="B32" s="310"/>
+      <c r="C32" s="310"/>
+      <c r="D32" s="310"/>
+      <c r="E32" s="310"/>
+      <c r="F32" s="310"/>
+      <c r="G32" s="310"/>
+      <c r="H32" s="311"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="295" t="s">
+      <c r="A33" s="303" t="s">
         <v>361</v>
       </c>
-      <c r="B33" s="296"/>
-      <c r="C33" s="296"/>
-      <c r="D33" s="296"/>
-      <c r="E33" s="296"/>
-      <c r="F33" s="296"/>
-      <c r="G33" s="296"/>
-      <c r="H33" s="297"/>
+      <c r="B33" s="304"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="304"/>
+      <c r="E33" s="304"/>
+      <c r="F33" s="304"/>
+      <c r="G33" s="304"/>
+      <c r="H33" s="305"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="295"/>
-      <c r="B34" s="296"/>
-      <c r="C34" s="296"/>
-      <c r="D34" s="296"/>
-      <c r="E34" s="296"/>
-      <c r="F34" s="296"/>
-      <c r="G34" s="296"/>
-      <c r="H34" s="297"/>
+      <c r="A34" s="303"/>
+      <c r="B34" s="304"/>
+      <c r="C34" s="304"/>
+      <c r="D34" s="304"/>
+      <c r="E34" s="304"/>
+      <c r="F34" s="304"/>
+      <c r="G34" s="304"/>
+      <c r="H34" s="305"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="295"/>
-      <c r="B35" s="296"/>
-      <c r="C35" s="296"/>
-      <c r="D35" s="296"/>
-      <c r="E35" s="296"/>
-      <c r="F35" s="296"/>
-      <c r="G35" s="296"/>
-      <c r="H35" s="297"/>
+      <c r="A35" s="303"/>
+      <c r="B35" s="304"/>
+      <c r="C35" s="304"/>
+      <c r="D35" s="304"/>
+      <c r="E35" s="304"/>
+      <c r="F35" s="304"/>
+      <c r="G35" s="304"/>
+      <c r="H35" s="305"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="298"/>
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="300"/>
+      <c r="A36" s="306"/>
+      <c r="B36" s="307"/>
+      <c r="C36" s="307"/>
+      <c r="D36" s="307"/>
+      <c r="E36" s="307"/>
+      <c r="F36" s="307"/>
+      <c r="G36" s="307"/>
+      <c r="H36" s="308"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="285" t="s">
+      <c r="A38" s="293" t="s">
         <v>307</v>
       </c>
-      <c r="B38" s="285"/>
-      <c r="C38" s="285"/>
-      <c r="D38" s="285"/>
-      <c r="E38" s="285"/>
-      <c r="F38" s="285"/>
-      <c r="G38" s="285"/>
+      <c r="B38" s="293"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="293"/>
+      <c r="G38" s="293"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
@@ -6986,12 +6980,12 @@
       <c r="C39" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="284" t="s">
+      <c r="D39" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="E39" s="284"/>
-      <c r="F39" s="284"/>
-      <c r="G39" s="284"/>
+      <c r="E39" s="292"/>
+      <c r="F39" s="292"/>
+      <c r="G39" s="292"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -7536,32 +7530,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="315" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="309"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="317"/>
     </row>
     <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="304" t="s">
+      <c r="A2" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305"/>
-      <c r="J2" s="306"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="314"/>
     </row>
     <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
@@ -7640,18 +7634,18 @@
       <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="304" t="s">
+      <c r="A6" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="305"/>
-      <c r="C6" s="305"/>
-      <c r="D6" s="305"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="306"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="314"/>
     </row>
     <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
@@ -7702,18 +7696,18 @@
       <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="304" t="s">
+      <c r="A10" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="305"/>
-      <c r="C10" s="305"/>
-      <c r="D10" s="305"/>
-      <c r="E10" s="305"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="305"/>
-      <c r="H10" s="305"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="306"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="313"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="313"/>
+      <c r="J10" s="314"/>
     </row>
     <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="126"/>
@@ -7882,18 +7876,18 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="310" t="s">
+      <c r="A17" s="318" t="s">
         <v>482</v>
       </c>
-      <c r="B17" s="311"/>
-      <c r="C17" s="311"/>
-      <c r="D17" s="311"/>
-      <c r="E17" s="311"/>
-      <c r="F17" s="311"/>
-      <c r="G17" s="311"/>
-      <c r="H17" s="311"/>
-      <c r="I17" s="311"/>
-      <c r="J17" s="312"/>
+      <c r="B17" s="319"/>
+      <c r="C17" s="319"/>
+      <c r="D17" s="319"/>
+      <c r="E17" s="319"/>
+      <c r="F17" s="319"/>
+      <c r="G17" s="319"/>
+      <c r="H17" s="319"/>
+      <c r="I17" s="319"/>
+      <c r="J17" s="320"/>
     </row>
     <row r="18" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="206"/>
@@ -7966,18 +7960,18 @@
       <c r="J21" s="220"/>
     </row>
     <row r="22" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="304" t="s">
+      <c r="A22" s="312" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="305"/>
-      <c r="C22" s="305"/>
-      <c r="D22" s="305"/>
-      <c r="E22" s="305"/>
-      <c r="F22" s="305"/>
-      <c r="G22" s="305"/>
-      <c r="H22" s="305"/>
-      <c r="I22" s="305"/>
-      <c r="J22" s="306"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="313"/>
+      <c r="D22" s="313"/>
+      <c r="E22" s="313"/>
+      <c r="F22" s="313"/>
+      <c r="G22" s="313"/>
+      <c r="H22" s="313"/>
+      <c r="I22" s="313"/>
+      <c r="J22" s="314"/>
     </row>
     <row r="23" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="130" t="s">
@@ -8040,18 +8034,18 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="310" t="s">
+      <c r="A26" s="318" t="s">
         <v>486</v>
       </c>
-      <c r="B26" s="311"/>
-      <c r="C26" s="311"/>
-      <c r="D26" s="311"/>
-      <c r="E26" s="311"/>
-      <c r="F26" s="311"/>
-      <c r="G26" s="311"/>
-      <c r="H26" s="311"/>
-      <c r="I26" s="311"/>
-      <c r="J26" s="312"/>
+      <c r="B26" s="319"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="319"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="320"/>
     </row>
     <row r="27" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="221" t="s">
@@ -8118,18 +8112,18 @@
       <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="304" t="s">
+      <c r="A30" s="312" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="305"/>
-      <c r="C30" s="305"/>
-      <c r="D30" s="305"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="305"/>
-      <c r="G30" s="305"/>
-      <c r="H30" s="305"/>
-      <c r="I30" s="305"/>
-      <c r="J30" s="306"/>
+      <c r="B30" s="313"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="313"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="313"/>
+      <c r="I30" s="313"/>
+      <c r="J30" s="314"/>
     </row>
     <row r="31" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="130" t="s">
@@ -8191,58 +8185,58 @@
     </row>
     <row r="34" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:10" s="112" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="301" t="s">
+      <c r="A35" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="B35" s="302"/>
-      <c r="C35" s="302"/>
-      <c r="D35" s="302"/>
-      <c r="E35" s="302"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="302"/>
-      <c r="H35" s="303"/>
+      <c r="B35" s="310"/>
+      <c r="C35" s="310"/>
+      <c r="D35" s="310"/>
+      <c r="E35" s="310"/>
+      <c r="F35" s="310"/>
+      <c r="G35" s="310"/>
+      <c r="H35" s="311"/>
     </row>
     <row r="36" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="295" t="s">
+      <c r="A36" s="303" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="296"/>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
-      <c r="E36" s="296"/>
-      <c r="F36" s="296"/>
-      <c r="G36" s="296"/>
-      <c r="H36" s="297"/>
+      <c r="B36" s="304"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="304"/>
+      <c r="E36" s="304"/>
+      <c r="F36" s="304"/>
+      <c r="G36" s="304"/>
+      <c r="H36" s="305"/>
     </row>
     <row r="37" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="295"/>
-      <c r="B37" s="296"/>
-      <c r="C37" s="296"/>
-      <c r="D37" s="296"/>
-      <c r="E37" s="296"/>
-      <c r="F37" s="296"/>
-      <c r="G37" s="296"/>
-      <c r="H37" s="297"/>
+      <c r="A37" s="303"/>
+      <c r="B37" s="304"/>
+      <c r="C37" s="304"/>
+      <c r="D37" s="304"/>
+      <c r="E37" s="304"/>
+      <c r="F37" s="304"/>
+      <c r="G37" s="304"/>
+      <c r="H37" s="305"/>
     </row>
     <row r="38" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="295"/>
-      <c r="B38" s="296"/>
-      <c r="C38" s="296"/>
-      <c r="D38" s="296"/>
-      <c r="E38" s="296"/>
-      <c r="F38" s="296"/>
-      <c r="G38" s="296"/>
-      <c r="H38" s="297"/>
+      <c r="A38" s="303"/>
+      <c r="B38" s="304"/>
+      <c r="C38" s="304"/>
+      <c r="D38" s="304"/>
+      <c r="E38" s="304"/>
+      <c r="F38" s="304"/>
+      <c r="G38" s="304"/>
+      <c r="H38" s="305"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="298"/>
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="300"/>
+      <c r="A39" s="306"/>
+      <c r="B39" s="307"/>
+      <c r="C39" s="307"/>
+      <c r="D39" s="307"/>
+      <c r="E39" s="307"/>
+      <c r="F39" s="307"/>
+      <c r="G39" s="307"/>
+      <c r="H39" s="308"/>
       <c r="I39" s="112"/>
       <c r="J39" s="112"/>
     </row>
@@ -8259,15 +8253,15 @@
       <c r="J40" s="112"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="285" t="s">
+      <c r="A41" s="293" t="s">
         <v>307</v>
       </c>
-      <c r="B41" s="285"/>
-      <c r="C41" s="285"/>
-      <c r="D41" s="285"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="285"/>
+      <c r="B41" s="293"/>
+      <c r="C41" s="293"/>
+      <c r="D41" s="293"/>
+      <c r="E41" s="293"/>
+      <c r="F41" s="293"/>
+      <c r="G41" s="293"/>
       <c r="H41" s="112"/>
       <c r="I41" s="112"/>
       <c r="J41" s="112"/>
@@ -8282,12 +8276,12 @@
       <c r="C42" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D42" s="284" t="s">
+      <c r="D42" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="E42" s="284"/>
-      <c r="F42" s="284"/>
-      <c r="G42" s="284"/>
+      <c r="E42" s="292"/>
+      <c r="F42" s="292"/>
+      <c r="G42" s="292"/>
       <c r="H42" s="112"/>
       <c r="I42" s="112"/>
       <c r="J42" s="112"/>
@@ -8529,68 +8523,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="325" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="324"/>
-      <c r="O1" s="324"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="318" t="s">
+      <c r="A2" s="336" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="325" t="s">
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="326" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="325"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="325"/>
-      <c r="K2" s="325"/>
-      <c r="L2" s="325"/>
-      <c r="M2" s="314" t="s">
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="332" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="314"/>
-      <c r="O2" s="314"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="339" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="327" t="s">
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="328" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
       <c r="M3" s="202" t="s">
         <v>299</v>
       </c>
@@ -8603,24 +8597,24 @@
       <c r="P3" s="194"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="329" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="326" t="s">
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="327" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326" t="s">
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="326"/>
-      <c r="L4" s="326"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
       <c r="M4" s="203" t="s">
         <v>154</v>
       </c>
@@ -8632,22 +8626,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="331"/>
-      <c r="B5" s="332"/>
-      <c r="C5" s="332"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="333"/>
-      <c r="G5" s="313" t="s">
+      <c r="A5" s="322"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="321" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="313"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="313" t="s">
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321" t="s">
         <v>292</v>
       </c>
-      <c r="K5" s="313"/>
-      <c r="L5" s="313"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
       <c r="M5" s="204"/>
       <c r="N5" s="204" t="s">
         <v>384</v>
@@ -8657,22 +8651,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="331" t="s">
+      <c r="A6" s="322" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="332"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="333"/>
-      <c r="G6" s="313" t="s">
+      <c r="B6" s="323"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="321" t="s">
         <v>285</v>
       </c>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
+      <c r="H6" s="321"/>
+      <c r="I6" s="321"/>
+      <c r="J6" s="321"/>
+      <c r="K6" s="321"/>
+      <c r="L6" s="321"/>
       <c r="M6" s="204"/>
       <c r="N6" s="204" t="s">
         <v>385</v>
@@ -8682,54 +8676,54 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="331" t="s">
+      <c r="A7" s="322" t="s">
         <v>475</v>
       </c>
-      <c r="B7" s="332"/>
-      <c r="C7" s="332"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="313"/>
-      <c r="L7" s="313"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="321"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="321"/>
       <c r="M7" s="204"/>
       <c r="N7" s="204"/>
       <c r="O7" s="205"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="331"/>
-      <c r="B8" s="332"/>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="333"/>
-      <c r="G8" s="313"/>
-      <c r="H8" s="313"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="313"/>
-      <c r="K8" s="313"/>
-      <c r="L8" s="313"/>
+      <c r="A8" s="322"/>
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="321"/>
+      <c r="J8" s="321"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="321"/>
       <c r="M8" s="204"/>
       <c r="N8" s="204"/>
       <c r="O8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="315" t="s">
+      <c r="A10" s="333" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="316"/>
-      <c r="C10" s="316"/>
-      <c r="D10" s="316"/>
-      <c r="E10" s="316"/>
-      <c r="F10" s="316"/>
-      <c r="G10" s="316"/>
-      <c r="H10" s="316"/>
-      <c r="I10" s="317"/>
+      <c r="B10" s="334"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="334"/>
+      <c r="F10" s="334"/>
+      <c r="G10" s="334"/>
+      <c r="H10" s="334"/>
+      <c r="I10" s="335"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="130" t="s">
@@ -8819,69 +8813,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="301" t="s">
+      <c r="A15" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="302"/>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
-      <c r="H15" s="303"/>
+      <c r="B15" s="310"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="310"/>
+      <c r="H15" s="311"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="295" t="s">
+      <c r="A16" s="303" t="s">
         <v>362</v>
       </c>
-      <c r="B16" s="296"/>
-      <c r="C16" s="296"/>
-      <c r="D16" s="296"/>
-      <c r="E16" s="296"/>
-      <c r="F16" s="296"/>
-      <c r="G16" s="296"/>
-      <c r="H16" s="297"/>
+      <c r="B16" s="304"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="304"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="304"/>
+      <c r="H16" s="305"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="295"/>
-      <c r="B17" s="296"/>
-      <c r="C17" s="296"/>
-      <c r="D17" s="296"/>
-      <c r="E17" s="296"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="297"/>
+      <c r="A17" s="303"/>
+      <c r="B17" s="304"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="304"/>
+      <c r="E17" s="304"/>
+      <c r="F17" s="304"/>
+      <c r="G17" s="304"/>
+      <c r="H17" s="305"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="295"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="296"/>
-      <c r="E18" s="296"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="296"/>
-      <c r="H18" s="297"/>
+      <c r="A18" s="303"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="305"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="298"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="300"/>
+      <c r="A19" s="306"/>
+      <c r="B19" s="307"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="307"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="307"/>
+      <c r="H19" s="308"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="285" t="s">
+      <c r="A21" s="293" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="285"/>
-      <c r="C21" s="285"/>
-      <c r="D21" s="285"/>
-      <c r="E21" s="285"/>
-      <c r="F21" s="285"/>
-      <c r="G21" s="285"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -8893,12 +8887,12 @@
       <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="284" t="s">
+      <c r="D22" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="284"/>
-      <c r="F22" s="284"/>
-      <c r="G22" s="284"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="292"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9336,12 +9330,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -9354,14 +9350,12 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9453,68 +9447,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="325" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="324"/>
-      <c r="O1" s="324"/>
-      <c r="P1" s="324"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="325" t="s">
+      <c r="A2" s="326" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="325"/>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="325" t="s">
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="325"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="325"/>
-      <c r="K2" s="325"/>
-      <c r="L2" s="325"/>
-      <c r="M2" s="314" t="s">
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="332" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="314"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="314"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="328" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327" t="s">
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
       <c r="M3" s="202" t="s">
         <v>298</v>
       </c>
@@ -9530,22 +9524,22 @@
       <c r="Q3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="329" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="326" t="s">
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="327" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326"/>
-      <c r="J4" s="326"/>
-      <c r="K4" s="326"/>
-      <c r="L4" s="326"/>
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
       <c r="M4" s="203" t="s">
         <v>252</v>
       </c>
@@ -9560,20 +9554,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="331"/>
-      <c r="B5" s="332"/>
-      <c r="C5" s="332"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="333"/>
-      <c r="G5" s="334" t="s">
+      <c r="A5" s="322"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="334"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="334"/>
-      <c r="L5" s="334"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
       <c r="M5" s="204" t="s">
         <v>291</v>
       </c>
@@ -9586,22 +9580,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="331" t="s">
+      <c r="A6" s="322" t="s">
         <v>479</v>
       </c>
-      <c r="B6" s="332"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="333"/>
-      <c r="G6" s="334" t="s">
+      <c r="B6" s="323"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="334"/>
-      <c r="I6" s="334"/>
-      <c r="J6" s="334"/>
-      <c r="K6" s="334"/>
-      <c r="L6" s="334"/>
+      <c r="H6" s="342"/>
+      <c r="I6" s="342"/>
+      <c r="J6" s="342"/>
+      <c r="K6" s="342"/>
+      <c r="L6" s="342"/>
       <c r="M6" s="204"/>
       <c r="N6" s="204"/>
       <c r="O6" s="204" t="s">
@@ -9612,36 +9606,36 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="331"/>
-      <c r="B7" s="332"/>
-      <c r="C7" s="332"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="334"/>
-      <c r="H7" s="334"/>
-      <c r="I7" s="334"/>
-      <c r="J7" s="334"/>
-      <c r="K7" s="334"/>
-      <c r="L7" s="334"/>
+      <c r="A7" s="322"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="342"/>
+      <c r="H7" s="342"/>
+      <c r="I7" s="342"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="342"/>
+      <c r="L7" s="342"/>
       <c r="M7" s="204"/>
       <c r="N7" s="204"/>
       <c r="O7" s="204"/>
       <c r="P7" s="205"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="331"/>
-      <c r="B8" s="332"/>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="333"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="334"/>
-      <c r="I8" s="334"/>
-      <c r="J8" s="334"/>
-      <c r="K8" s="334"/>
-      <c r="L8" s="334"/>
+      <c r="A8" s="322"/>
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="342"/>
+      <c r="H8" s="342"/>
+      <c r="I8" s="342"/>
+      <c r="J8" s="342"/>
+      <c r="K8" s="342"/>
+      <c r="L8" s="342"/>
       <c r="M8" s="204"/>
       <c r="N8" s="204"/>
       <c r="O8" s="204"/>
@@ -9649,17 +9643,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="315" t="s">
+      <c r="A10" s="333" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="316"/>
-      <c r="C10" s="316"/>
-      <c r="D10" s="316"/>
-      <c r="E10" s="316"/>
-      <c r="F10" s="316"/>
-      <c r="G10" s="316"/>
-      <c r="H10" s="316"/>
-      <c r="I10" s="317"/>
+      <c r="B10" s="334"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="334"/>
+      <c r="F10" s="334"/>
+      <c r="G10" s="334"/>
+      <c r="H10" s="334"/>
+      <c r="I10" s="335"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="130" t="s">
@@ -9748,69 +9742,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="301" t="s">
+      <c r="A15" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="B15" s="302"/>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
-      <c r="H15" s="303"/>
+      <c r="B15" s="310"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="310"/>
+      <c r="H15" s="311"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="295" t="s">
+      <c r="A16" s="303" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="296"/>
-      <c r="C16" s="296"/>
-      <c r="D16" s="296"/>
-      <c r="E16" s="296"/>
-      <c r="F16" s="296"/>
-      <c r="G16" s="296"/>
-      <c r="H16" s="297"/>
+      <c r="B16" s="304"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="304"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="304"/>
+      <c r="H16" s="305"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="295"/>
-      <c r="B17" s="296"/>
-      <c r="C17" s="296"/>
-      <c r="D17" s="296"/>
-      <c r="E17" s="296"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="297"/>
+      <c r="A17" s="303"/>
+      <c r="B17" s="304"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="304"/>
+      <c r="E17" s="304"/>
+      <c r="F17" s="304"/>
+      <c r="G17" s="304"/>
+      <c r="H17" s="305"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="295"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="296"/>
-      <c r="E18" s="296"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="296"/>
-      <c r="H18" s="297"/>
+      <c r="A18" s="303"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="305"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="298"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="300"/>
+      <c r="A19" s="306"/>
+      <c r="B19" s="307"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="307"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="307"/>
+      <c r="H19" s="308"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="285" t="s">
+      <c r="A21" s="293" t="s">
         <v>307</v>
       </c>
-      <c r="B21" s="285"/>
-      <c r="C21" s="285"/>
-      <c r="D21" s="285"/>
-      <c r="E21" s="285"/>
-      <c r="F21" s="285"/>
-      <c r="G21" s="285"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -9822,12 +9816,12 @@
       <c r="C22" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="284" t="s">
+      <c r="D22" s="292" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="284"/>
-      <c r="F22" s="284"/>
-      <c r="G22" s="284"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="292"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9999,6 +9993,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="G4:L4"/>
@@ -10014,12 +10014,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10083,10 +10077,10 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10101,12 +10095,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="343" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="337"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="345"/>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -10127,7 +10121,7 @@
       <c r="C2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="351" t="s">
+      <c r="D2" s="240" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="134" t="s">
@@ -10181,7 +10175,7 @@
       <c r="B6" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="C6" s="352"/>
+      <c r="C6" s="241"/>
       <c r="D6" s="23">
         <v>1000000</v>
       </c>
@@ -10193,7 +10187,7 @@
       <c r="B7" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="C7" s="353"/>
+      <c r="C7" s="242"/>
       <c r="D7" s="23">
         <v>0</v>
       </c>
@@ -10205,7 +10199,7 @@
       <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="354"/>
+      <c r="C8" s="243"/>
       <c r="D8" s="23">
         <v>0</v>
       </c>
@@ -10217,31 +10211,33 @@
       <c r="B9" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="C9" s="354"/>
+      <c r="C9" s="243"/>
       <c r="D9" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" s="201"/>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="200" t="s">
         <v>496</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="C10" s="352"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="C11" s="201"/>
+      <c r="C11" s="241"/>
       <c r="D11" s="23">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -10251,9 +10247,9 @@
       <c r="B12" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="C12" s="352"/>
+      <c r="C12" s="241"/>
       <c r="D12" s="23">
-        <v>10000</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -10263,10 +10259,8 @@
       <c r="B13" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="C13" s="352"/>
-      <c r="D13" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="C13" s="241"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="200" t="s">
@@ -10275,7 +10269,7 @@
       <c r="B14" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="C14" s="352"/>
+      <c r="C14" s="241"/>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -10285,8 +10279,10 @@
       <c r="B15" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C15" s="352"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="200" t="s">
@@ -10295,10 +10291,8 @@
       <c r="B16" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="C16" s="352"/>
-      <c r="D16" s="23">
-        <v>10</v>
-      </c>
+      <c r="C16" s="241"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="200" t="s">
@@ -10307,386 +10301,388 @@
       <c r="B17" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="C17" s="352"/>
+      <c r="C17" s="241"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="200" t="s">
-        <v>510</v>
+      <c r="A18" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="C18" s="352"/>
-      <c r="D18" s="23"/>
+        <v>470</v>
+      </c>
+      <c r="C18" s="201"/>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>469</v>
+        <v>102</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C19" s="181"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="181"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="180"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="181"/>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C22" s="181"/>
-      <c r="D22" s="23">
-        <v>0</v>
+      <c r="D22" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="181"/>
       <c r="D23" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C24" s="181"/>
-      <c r="D24" s="24" t="s">
-        <v>69</v>
+      <c r="D24" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" s="181"/>
-      <c r="D25" s="23">
-        <v>0</v>
+      <c r="D25" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="181"/>
-      <c r="D26" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="180"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="180"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="181"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="181"/>
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="181"/>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="181"/>
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="181"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="181"/>
-      <c r="D32" s="23">
-        <v>1</v>
-      </c>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C33" s="181"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="181"/>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="180"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="181"/>
+      <c r="D36" s="23">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="181"/>
       <c r="D37" s="23">
-        <v>100</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="181"/>
       <c r="D38" s="23">
-        <v>65535</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="181"/>
       <c r="D39" s="23">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="181"/>
-      <c r="D40" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="181"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C42" s="181"/>
       <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="181"/>
-      <c r="D43" s="23"/>
+      <c r="A43" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="180"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="180"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="181"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="181"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="181"/>
-      <c r="D46" s="23">
-        <v>0.02</v>
-      </c>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="181"/>
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="181"/>
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C49" s="181"/>
-      <c r="D49" s="23"/>
+      <c r="D49" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="C50" s="181"/>
-      <c r="D50" s="24" t="s">
-        <v>72</v>
+      <c r="D50" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="181"/>
-      <c r="D51" s="24">
-        <v>0</v>
-      </c>
+      <c r="A51" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C51" s="244"/>
+      <c r="D51" s="245"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="C52" s="355"/>
-      <c r="D52" s="356"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="246">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
@@ -10695,10 +10691,8 @@
       <c r="B53" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="C53" s="353"/>
-      <c r="D53" s="357">
-        <v>0.02</v>
-      </c>
+      <c r="C53" s="242"/>
+      <c r="D53" s="246"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
@@ -10707,8 +10701,8 @@
       <c r="B54" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="C54" s="353"/>
-      <c r="D54" s="357"/>
+      <c r="C54" s="242"/>
+      <c r="D54" s="246"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
@@ -10717,8 +10711,8 @@
       <c r="B55" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="C55" s="353"/>
-      <c r="D55" s="357"/>
+      <c r="C55" s="242"/>
+      <c r="D55" s="246"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -10727,145 +10721,147 @@
       <c r="B56" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="C56" s="353"/>
-      <c r="D56" s="357"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="C57" s="353"/>
-      <c r="D57" s="24" t="s">
-        <v>72</v>
-      </c>
+      <c r="A57" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="180"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="180"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="15"/>
+        <v>130</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="C59" s="181"/>
       <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="181"/>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="181"/>
       <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C62" s="181"/>
       <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C63" s="181"/>
       <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="181"/>
       <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="181"/>
       <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C66" s="181"/>
       <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="181"/>
       <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="181"/>
       <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C69" s="181"/>
-      <c r="D69" s="23"/>
+      <c r="D69" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C70" s="181"/>
       <c r="D70" s="23">
@@ -10874,10 +10870,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C71" s="181"/>
       <c r="D71" s="23">
@@ -10886,10 +10882,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C72" s="181"/>
       <c r="D72" s="23">
@@ -10898,10 +10894,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="181"/>
       <c r="D73" s="23">
@@ -10910,138 +10906,126 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C74" s="181"/>
       <c r="D74" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C75" s="181"/>
-      <c r="D75" s="23">
-        <v>0</v>
-      </c>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C76" s="181"/>
       <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="181"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="180"/>
+      <c r="D77" s="179"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="180"/>
-      <c r="D78" s="179"/>
+      <c r="A78" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="181"/>
+      <c r="D78" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="181"/>
-      <c r="D79" s="25">
+      <c r="A79" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="C79" s="180"/>
+      <c r="D79" s="179"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" s="181"/>
+      <c r="D80" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="B80" s="17" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="B81" s="247" t="s">
         <v>524</v>
       </c>
-      <c r="C80" s="180"/>
-      <c r="D80" s="179"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="C81" s="181"/>
-      <c r="D81" s="25">
+      <c r="C81" s="180"/>
+      <c r="D81" s="179"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C82" s="181"/>
+      <c r="D82" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="180"/>
+      <c r="D83" s="179"/>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="182"/>
+      <c r="D84" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="B82" s="358" t="s">
-        <v>526</v>
-      </c>
-      <c r="C82" s="180"/>
-      <c r="D82" s="179"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="C83" s="181"/>
-      <c r="D83" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C84" s="180"/>
-      <c r="D84" s="179"/>
-    </row>
-    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C85" s="182"/>
-      <c r="D85" s="28">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nz+s2XO+ftXiPvDFdCb363Kdxpm8/rTzkaQvNt3hixFy/XzDLwk3vacxi/mnwp2lCzlwAgpdDUMXZxUkXUE4MA==" saltValue="5VzOwROovNDqiQdmD//x7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -11075,23 +11059,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="349" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11109,17 +11093,17 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="338" t="s">
+      <c r="B3" s="346" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="339"/>
-      <c r="I3" s="339"/>
-      <c r="J3" s="340"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
@@ -11310,21 +11294,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="338" t="s">
+      <c r="B19" s="346" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="339"/>
-      <c r="D19" s="339"/>
-      <c r="E19" s="339"/>
-      <c r="F19" s="339"/>
-      <c r="G19" s="339"/>
-      <c r="H19" s="339"/>
-      <c r="I19" s="339"/>
-      <c r="J19" s="339"/>
-      <c r="K19" s="339"/>
-      <c r="L19" s="339"/>
-      <c r="M19" s="339"/>
-      <c r="N19" s="340"/>
+      <c r="C19" s="347"/>
+      <c r="D19" s="347"/>
+      <c r="E19" s="347"/>
+      <c r="F19" s="347"/>
+      <c r="G19" s="347"/>
+      <c r="H19" s="347"/>
+      <c r="I19" s="347"/>
+      <c r="J19" s="347"/>
+      <c r="K19" s="347"/>
+      <c r="L19" s="347"/>
+      <c r="M19" s="347"/>
+      <c r="N19" s="348"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="36"/>
@@ -11526,27 +11510,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="354" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
-      <c r="N1" s="347"/>
-      <c r="O1" s="347"/>
-      <c r="P1" s="347"/>
-      <c r="Q1" s="347"/>
-      <c r="R1" s="347"/>
-      <c r="S1" s="347"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
+      <c r="H1" s="355"/>
+      <c r="I1" s="355"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
+      <c r="O1" s="355"/>
+      <c r="P1" s="355"/>
+      <c r="Q1" s="355"/>
+      <c r="R1" s="355"/>
+      <c r="S1" s="355"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11560,26 +11544,26 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="338" t="s">
+      <c r="B3" s="346" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="339"/>
-      <c r="I3" s="339"/>
-      <c r="J3" s="340"/>
-      <c r="L3" s="343" t="s">
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="348"/>
+      <c r="L3" s="351" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="345"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="353"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
@@ -11810,23 +11794,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="356" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
-      <c r="H1" s="349"/>
-      <c r="I1" s="349"/>
-      <c r="J1" s="349"/>
-      <c r="K1" s="349"/>
-      <c r="L1" s="349"/>
-      <c r="M1" s="349"/>
-      <c r="N1" s="349"/>
-      <c r="O1" s="350"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
+      <c r="O1" s="358"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11839,22 +11823,22 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="338" t="s">
+      <c r="B3" s="346" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="340"/>
-      <c r="J3" s="343" t="s">
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="348"/>
+      <c r="J3" s="351" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="345"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="353"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coverney\Documents\GitHub\TASBEFlowAnalytics\test_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4DA3AF-075D-4F36-91E1-408AC3A93831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,17 +33,22 @@
     <definedName name="I7577I">1</definedName>
     <definedName name="I896I">0</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="531">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2600,11 +2606,23 @@
   <si>
     <t>When true, controls the random seed for GMM Gating</t>
   </si>
+  <si>
+    <t>CSV Header 1</t>
+  </si>
+  <si>
+    <t>CSV Header 4</t>
+  </si>
+  <si>
+    <t>CSV Header 3</t>
+  </si>
+  <si>
+    <t>CSV Header 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2912,7 +2930,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -3517,11 +3535,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4235,74 +4319,41 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4346,26 +4397,59 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4458,17 +4542,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4491,35 +4593,17 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4575,6 +4659,62 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4645,6 +4785,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4710,6 +4853,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4782,6 +4928,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4853,6 +5002,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4918,6 +5070,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4990,6 +5145,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000011C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5055,6 +5213,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s7170"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000021C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5399,14 +5560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5420,93 +5581,93 @@
     <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
     <col min="9" max="9" width="20" style="85" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="6" style="85" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="85" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="85" customWidth="1"/>
     <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
     <col min="13" max="16384" width="10.875" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="260" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="273"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="262"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="276" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="251"/>
+      <c r="B3" s="277"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="265"/>
+      <c r="B4" s="275"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="266" t="s">
+      <c r="A5" s="290" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="267"/>
+      <c r="B5" s="291"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="250" t="s">
+      <c r="A7" s="276" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="252"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="251"/>
+      <c r="B7" s="278"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="278"/>
+      <c r="K7" s="277"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="274" t="s">
+      <c r="A8" s="263" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="275"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="275"/>
-      <c r="J8" s="275"/>
-      <c r="K8" s="276"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
+      <c r="K8" s="265"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="277"/>
-      <c r="B9" s="278"/>
-      <c r="C9" s="278"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="G9" s="278"/>
-      <c r="H9" s="278"/>
-      <c r="I9" s="278"/>
-      <c r="J9" s="278"/>
-      <c r="K9" s="279"/>
+      <c r="A9" s="266"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="267"/>
+      <c r="I9" s="267"/>
+      <c r="J9" s="267"/>
+      <c r="K9" s="268"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="155"/>
@@ -5517,64 +5678,64 @@
       <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="253" t="s">
+      <c r="A11" s="279" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="254"/>
-      <c r="C11" s="254"/>
-      <c r="D11" s="255"/>
+      <c r="B11" s="280"/>
+      <c r="C11" s="280"/>
+      <c r="D11" s="281"/>
       <c r="E11" s="87"/>
       <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="256" t="s">
+      <c r="A12" s="282" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="258" t="s">
+      <c r="B12" s="283"/>
+      <c r="C12" s="284" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="259"/>
+      <c r="D12" s="285"/>
       <c r="E12" s="87"/>
       <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="260"/>
-      <c r="B13" s="261"/>
-      <c r="C13" s="262"/>
-      <c r="D13" s="263"/>
+      <c r="A13" s="286"/>
+      <c r="B13" s="287"/>
+      <c r="C13" s="288"/>
+      <c r="D13" s="289"/>
       <c r="E13" s="87"/>
       <c r="F13" s="141"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="253" t="s">
+      <c r="A15" s="279" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="255"/>
-      <c r="E15" s="253" t="s">
+      <c r="B15" s="281"/>
+      <c r="E15" s="279" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="254"/>
-      <c r="G15" s="254"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="255"/>
+      <c r="F15" s="280"/>
+      <c r="G15" s="280"/>
+      <c r="H15" s="280"/>
+      <c r="I15" s="281"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="264" t="s">
+      <c r="A16" s="274" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="265"/>
+      <c r="B16" s="275"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="280" t="s">
+      <c r="E16" s="269" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="281"/>
-      <c r="G16" s="281"/>
-      <c r="H16" s="281"/>
-      <c r="I16" s="282"/>
-    </row>
-    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="270"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="270"/>
+      <c r="I16" s="271"/>
+    </row>
+    <row r="17" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="156" t="s">
         <v>237</v>
       </c>
@@ -5582,10 +5743,10 @@
         <v>278</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="283" t="s">
+      <c r="E17" s="272" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="284"/>
+      <c r="F17" s="273"/>
       <c r="G17" s="82" t="s">
         <v>159</v>
       </c>
@@ -5595,9 +5756,12 @@
       <c r="I17" s="188" t="s">
         <v>356</v>
       </c>
-      <c r="J17" s="80"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="359" t="s">
+        <v>527</v>
+      </c>
+      <c r="K17" s="360"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="157" t="s">
         <v>269</v>
       </c>
@@ -5615,12 +5779,13 @@
       <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="268" t="s">
+      <c r="I18" s="248" t="s">
         <v>465</v>
       </c>
-      <c r="J18" s="80"/>
-    </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J18" s="361"/>
+      <c r="K18" s="362"/>
+    </row>
+    <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="158" t="s">
         <v>288</v>
       </c>
@@ -5638,10 +5803,11 @@
       <c r="H19" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="268"/>
-      <c r="J19" s="80"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="248"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="362"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="158" t="s">
         <v>289</v>
       </c>
@@ -5655,10 +5821,11 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="269"/>
-      <c r="J20" s="80"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="249"/>
+      <c r="J20" s="363"/>
+      <c r="K20" s="364"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="158" t="s">
         <v>293</v>
       </c>
@@ -5667,34 +5834,34 @@
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="159"/>
       <c r="B22" s="116"/>
       <c r="C22" s="89"/>
       <c r="J22" s="80"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="160"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="248" t="s">
+      <c r="E23" s="250" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="270"/>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="249"/>
-    </row>
-    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="248" t="s">
+      <c r="F23" s="251"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="252"/>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="250" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="249"/>
+      <c r="B24" s="252"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="288" t="s">
+      <c r="E24" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="289"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="81" t="s">
         <v>159</v>
       </c>
@@ -5704,8 +5871,12 @@
       <c r="I24" s="188" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="359" t="s">
+        <v>530</v>
+      </c>
+      <c r="K24" s="360"/>
+    </row>
+    <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="156" t="s">
         <v>237</v>
       </c>
@@ -5723,11 +5894,13 @@
       <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="285" t="s">
+      <c r="I25" s="253" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J25" s="361"/>
+      <c r="K25" s="362"/>
+    </row>
+    <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="157" t="s">
         <v>269</v>
       </c>
@@ -5747,9 +5920,11 @@
       <c r="H26" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="286"/>
-    </row>
-    <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="254"/>
+      <c r="J26" s="361"/>
+      <c r="K26" s="362"/>
+    </row>
+    <row r="27" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="158" t="s">
         <v>286</v>
       </c>
@@ -5763,9 +5938,11 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="287"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="255"/>
+      <c r="J27" s="363"/>
+      <c r="K27" s="364"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="158" t="s">
         <v>287</v>
       </c>
@@ -5777,32 +5954,32 @@
       <c r="H28" s="94"/>
       <c r="I28" s="80"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="158"/>
       <c r="B29" s="115"/>
       <c r="C29" s="31"/>
       <c r="I29" s="80"/>
     </row>
-    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="159"/>
       <c r="B30" s="116"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="248" t="s">
+      <c r="E30" s="250" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="270"/>
-      <c r="G30" s="270"/>
-      <c r="H30" s="270"/>
-      <c r="I30" s="249"/>
-    </row>
-    <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="251"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="252"/>
+    </row>
+    <row r="31" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="160"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="290" t="s">
+      <c r="E31" s="258" t="s">
         <v>463</v>
       </c>
-      <c r="F31" s="291"/>
+      <c r="F31" s="259"/>
       <c r="G31" s="198" t="s">
         <v>159</v>
       </c>
@@ -5812,12 +5989,16 @@
       <c r="I31" s="188" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="248" t="s">
+      <c r="J31" s="366" t="s">
+        <v>529</v>
+      </c>
+      <c r="K31" s="367"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="250" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="249"/>
+      <c r="B32" s="252"/>
       <c r="C32" s="31"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5827,9 +6008,11 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="268"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="248"/>
+      <c r="J32" s="368"/>
+      <c r="K32" s="369"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="156" t="s">
         <v>237</v>
       </c>
@@ -5847,9 +6030,11 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="268"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="248"/>
+      <c r="J33" s="365"/>
+      <c r="K33" s="370"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="157" t="s">
         <v>239</v>
       </c>
@@ -5862,9 +6047,11 @@
       <c r="F34" s="93"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="268"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="248"/>
+      <c r="J34" s="365"/>
+      <c r="K34" s="370"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="158" t="s">
         <v>224</v>
       </c>
@@ -5875,9 +6062,11 @@
       <c r="F35" s="93"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="268"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="248"/>
+      <c r="J35" s="365"/>
+      <c r="K35" s="370"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="158" t="s">
         <v>225</v>
       </c>
@@ -5888,9 +6077,11 @@
       <c r="F36" s="93"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="268"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="248"/>
+      <c r="J36" s="365"/>
+      <c r="K36" s="370"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="158" t="s">
         <v>226</v>
       </c>
@@ -5901,30 +6092,32 @@
       <c r="F37" s="139"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="269"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="249"/>
+      <c r="J37" s="371"/>
+      <c r="K37" s="372"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="159" t="s">
         <v>227</v>
       </c>
       <c r="B38" s="116"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="161"/>
       <c r="B39" s="120"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="248" t="s">
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="250" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="270"/>
-      <c r="G40" s="270"/>
-      <c r="H40" s="270"/>
-      <c r="I40" s="249"/>
-    </row>
-    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="288"/>
-      <c r="F41" s="289"/>
+      <c r="F40" s="251"/>
+      <c r="G40" s="251"/>
+      <c r="H40" s="251"/>
+      <c r="I40" s="252"/>
+    </row>
+    <row r="41" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="256"/>
+      <c r="F41" s="257"/>
       <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
@@ -5934,78 +6127,86 @@
       <c r="I41" s="188" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="366" t="s">
+        <v>528</v>
+      </c>
+      <c r="K41" s="367"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E42" s="83">
         <v>1</v>
       </c>
       <c r="F42" s="93"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="268"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="248"/>
+      <c r="J42" s="368"/>
+      <c r="K42" s="369"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
         <v>2</v>
       </c>
       <c r="F43" s="93"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="268"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="248"/>
+      <c r="J43" s="365"/>
+      <c r="K43" s="370"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
         <v>3</v>
       </c>
       <c r="F44" s="93"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="268"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="248"/>
+      <c r="J44" s="365"/>
+      <c r="K44" s="370"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
         <v>4</v>
       </c>
       <c r="F45" s="93"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="268"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="248"/>
+      <c r="J45" s="365"/>
+      <c r="K45" s="370"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
         <v>5</v>
       </c>
       <c r="F46" s="93"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="268"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="248"/>
+      <c r="J46" s="365"/>
+      <c r="K46" s="370"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
         <v>6</v>
       </c>
       <c r="F47" s="139"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="269"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I47" s="249"/>
+      <c r="J47" s="371"/>
+      <c r="K47" s="372"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="37">
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K47"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K27"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K37"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6021,6 +6222,22 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6028,13 +6245,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -7504,7 +7721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -8491,7 +8708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -8523,68 +8740,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="332" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="326" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="338"/>
-      <c r="G2" s="326" t="s">
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="333" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="332" t="s">
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="322" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="332"/>
-      <c r="O2" s="332"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="339" t="s">
+      <c r="A3" s="329" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="328" t="s">
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="335" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
       <c r="M3" s="202" t="s">
         <v>299</v>
       </c>
@@ -8597,24 +8814,24 @@
       <c r="P3" s="194"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="336" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="331"/>
-      <c r="G4" s="327" t="s">
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="334" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="327" t="s">
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="327"/>
-      <c r="L4" s="327"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
       <c r="M4" s="203" t="s">
         <v>154</v>
       </c>
@@ -8626,12 +8843,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="322"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="323"/>
-      <c r="D5" s="323"/>
-      <c r="E5" s="323"/>
-      <c r="F5" s="324"/>
+      <c r="A5" s="339"/>
+      <c r="B5" s="340"/>
+      <c r="C5" s="340"/>
+      <c r="D5" s="340"/>
+      <c r="E5" s="340"/>
+      <c r="F5" s="341"/>
       <c r="G5" s="321" t="s">
         <v>278</v>
       </c>
@@ -8651,14 +8868,14 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="322" t="s">
+      <c r="A6" s="339" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="323"/>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="324"/>
+      <c r="B6" s="340"/>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="340"/>
+      <c r="F6" s="341"/>
       <c r="G6" s="321" t="s">
         <v>285</v>
       </c>
@@ -8676,14 +8893,14 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="339" t="s">
         <v>475</v>
       </c>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="324"/>
+      <c r="B7" s="340"/>
+      <c r="C7" s="340"/>
+      <c r="D7" s="340"/>
+      <c r="E7" s="340"/>
+      <c r="F7" s="341"/>
       <c r="G7" s="321"/>
       <c r="H7" s="321"/>
       <c r="I7" s="321"/>
@@ -8695,12 +8912,12 @@
       <c r="O7" s="205"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323"/>
-      <c r="C8" s="323"/>
-      <c r="D8" s="323"/>
-      <c r="E8" s="323"/>
-      <c r="F8" s="324"/>
+      <c r="A8" s="339"/>
+      <c r="B8" s="340"/>
+      <c r="C8" s="340"/>
+      <c r="D8" s="340"/>
+      <c r="E8" s="340"/>
+      <c r="F8" s="341"/>
       <c r="G8" s="321"/>
       <c r="H8" s="321"/>
       <c r="I8" s="321"/>
@@ -8713,17 +8930,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="333" t="s">
+      <c r="A10" s="323" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="334"/>
-      <c r="C10" s="334"/>
-      <c r="D10" s="334"/>
-      <c r="E10" s="334"/>
-      <c r="F10" s="334"/>
-      <c r="G10" s="334"/>
-      <c r="H10" s="334"/>
-      <c r="I10" s="335"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="325"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="130" t="s">
@@ -9330,14 +9547,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -9350,12 +9565,14 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9415,7 +9632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -9447,68 +9664,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="332" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="333" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326" t="s">
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="332" t="s">
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="322" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="332"/>
-      <c r="O2" s="332"/>
-      <c r="P2" s="332"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="322"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="335" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328" t="s">
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
       <c r="M3" s="202" t="s">
         <v>298</v>
       </c>
@@ -9524,22 +9741,22 @@
       <c r="Q3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="336" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="331"/>
-      <c r="G4" s="327" t="s">
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="334" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="327"/>
-      <c r="K4" s="327"/>
-      <c r="L4" s="327"/>
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
       <c r="M4" s="203" t="s">
         <v>252</v>
       </c>
@@ -9554,12 +9771,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="322"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="323"/>
-      <c r="D5" s="323"/>
-      <c r="E5" s="323"/>
-      <c r="F5" s="324"/>
+      <c r="A5" s="339"/>
+      <c r="B5" s="340"/>
+      <c r="C5" s="340"/>
+      <c r="D5" s="340"/>
+      <c r="E5" s="340"/>
+      <c r="F5" s="341"/>
       <c r="G5" s="342" t="s">
         <v>4</v>
       </c>
@@ -9580,14 +9797,14 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="322" t="s">
+      <c r="A6" s="339" t="s">
         <v>479</v>
       </c>
-      <c r="B6" s="323"/>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="324"/>
+      <c r="B6" s="340"/>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="340"/>
+      <c r="F6" s="341"/>
       <c r="G6" s="342" t="s">
         <v>4</v>
       </c>
@@ -9606,12 +9823,12 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="322"/>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="324"/>
+      <c r="A7" s="339"/>
+      <c r="B7" s="340"/>
+      <c r="C7" s="340"/>
+      <c r="D7" s="340"/>
+      <c r="E7" s="340"/>
+      <c r="F7" s="341"/>
       <c r="G7" s="342"/>
       <c r="H7" s="342"/>
       <c r="I7" s="342"/>
@@ -9624,12 +9841,12 @@
       <c r="P7" s="205"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323"/>
-      <c r="C8" s="323"/>
-      <c r="D8" s="323"/>
-      <c r="E8" s="323"/>
-      <c r="F8" s="324"/>
+      <c r="A8" s="339"/>
+      <c r="B8" s="340"/>
+      <c r="C8" s="340"/>
+      <c r="D8" s="340"/>
+      <c r="E8" s="340"/>
+      <c r="F8" s="341"/>
       <c r="G8" s="342"/>
       <c r="H8" s="342"/>
       <c r="I8" s="342"/>
@@ -9643,17 +9860,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="333" t="s">
+      <c r="A10" s="323" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="334"/>
-      <c r="C10" s="334"/>
-      <c r="D10" s="334"/>
-      <c r="E10" s="334"/>
-      <c r="F10" s="334"/>
-      <c r="G10" s="334"/>
-      <c r="H10" s="334"/>
-      <c r="I10" s="335"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="325"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="130" t="s">
@@ -9993,12 +10210,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="G4:L4"/>
@@ -10014,6 +10225,12 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10073,13 +10290,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -11035,7 +11252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -11496,7 +11713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -11778,7 +11995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P15"/>
   <sheetViews>

--- a/test_templates/faulty_batch_template1.xlsx
+++ b/test_templates/faulty_batch_template1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coverney\Documents\GitHub\TASBEFlowAnalytics\test_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4DA3AF-075D-4F36-91E1-408AC3A93831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E2782F-E8CF-4D8A-B70B-AD8DA31C8977}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="16" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="586">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2617,6 +2617,171 @@
   </si>
   <si>
     <t>CSV Header 2</t>
+  </si>
+  <si>
+    <t>gating.deviations</t>
+  </si>
+  <si>
+    <t>Number of standard deviations within which gate selects data</t>
+  </si>
+  <si>
+    <t>gating.tightening</t>
+  </si>
+  <si>
+    <t>Amount that selected gate components are further tightened (range: [0,1])</t>
+  </si>
+  <si>
+    <t>gating.kComponents</t>
+  </si>
+  <si>
+    <t>Number of gaussian components in a gate</t>
+  </si>
+  <si>
+    <t>gating.channelNames</t>
+  </si>
+  <si>
+    <t>Channels to use for gating</t>
+  </si>
+  <si>
+    <t>FSC-A,SSC-A</t>
+  </si>
+  <si>
+    <t>gating.fraction</t>
+  </si>
+  <si>
+    <t>Fraction of range considered saturated and thus excluded from computation</t>
+  </si>
+  <si>
+    <t>gating.selectedComponents</t>
+  </si>
+  <si>
+    <t>Set to force selection of particular components</t>
+  </si>
+  <si>
+    <t>gating.showNonselected</t>
+  </si>
+  <si>
+    <t>When true, show all gate components; when false, selected components only.</t>
+  </si>
+  <si>
+    <t>gating.largeOutliers</t>
+  </si>
+  <si>
+    <t>When true, plot gate outliers with large dots</t>
+  </si>
+  <si>
+    <t>gating.range</t>
+  </si>
+  <si>
+    <t>Force gate heatmap plotting range of [x_min y_min; x_max y_max]</t>
+  </si>
+  <si>
+    <t>gating.density</t>
+  </si>
+  <si>
+    <t>Gate heatmap style: set to 1 for image, 0 for contour</t>
+  </si>
+  <si>
+    <t>gating.plot</t>
+  </si>
+  <si>
+    <t>Determines whether gating plots should be created</t>
+  </si>
+  <si>
+    <t>gating.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for gating figures</t>
+  </si>
+  <si>
+    <t>gating.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, gating plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>autofluorescence</t>
+  </si>
+  <si>
+    <t>Settings for autofluorescence models</t>
+  </si>
+  <si>
+    <t>autofluorescence.dropFraction</t>
+  </si>
+  <si>
+    <t>Fraction of extrema (high and low) to drop before computing autofluorescence</t>
+  </si>
+  <si>
+    <t>autofluorescence.plot</t>
+  </si>
+  <si>
+    <t>Determines whether autofluorescence plots should be created</t>
+  </si>
+  <si>
+    <t>autofluorescence.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, autofluorescence plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>autofluorescence.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for autofluorescence figures</t>
+  </si>
+  <si>
+    <t>colortranslation</t>
+  </si>
+  <si>
+    <t>Settings for color translation models</t>
+  </si>
+  <si>
+    <t>colortranslation.rangeMin</t>
+  </si>
+  <si>
+    <t>Minimum for color translation histogram range (log10 scale)</t>
+  </si>
+  <si>
+    <t>colortranslation.rangeMax</t>
+  </si>
+  <si>
+    <t>Maximum in histogram for computing color translation (log10 scale)</t>
+  </si>
+  <si>
+    <t>colortranslation.binIncrement</t>
+  </si>
+  <si>
+    <t>Resolution of histogram bins used for computing color translation (log10 scale)</t>
+  </si>
+  <si>
+    <t>colortranslation.minSamples</t>
+  </si>
+  <si>
+    <t>Minimum number of samples in a histogram bin for use in computing color translation</t>
+  </si>
+  <si>
+    <t>colortranslation.channelMinimum</t>
+  </si>
+  <si>
+    <t>If set to [M1, M2, ...] trims channel i values below 10^Mi; otherwise drops those below 10^3</t>
+  </si>
+  <si>
+    <t>colortranslation.plot</t>
+  </si>
+  <si>
+    <t>Determines whether color translation plots should be created</t>
+  </si>
+  <si>
+    <t>colortranslation.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, color translation plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>colortranslation.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for color translation figures</t>
   </si>
 </sst>
 </file>
@@ -2930,7 +3095,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -3519,15 +3684,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -3605,7 +3761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3668,26 +3824,11 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4091,9 +4232,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4150,13 +4288,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4290,34 +4421,127 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4325,14 +4549,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4354,102 +4614,6 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4542,57 +4706,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4605,6 +4718,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4660,61 +4824,41 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4808,7 +4952,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4877,7 +5021,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4951,7 +5095,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5025,7 +5169,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5094,7 +5238,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5168,7 +5312,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5237,7 +5381,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5566,647 +5710,656 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
-    <col min="9" max="9" width="20" style="85" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="85" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="85" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="85"/>
+    <col min="1" max="1" width="20.875" style="149" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="135" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="80" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="80" customWidth="1"/>
+    <col min="9" max="9" width="20" style="80" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="80" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="80" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="80" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="271" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="262"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="273"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86"/>
+      <c r="B2" s="81"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="250" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="277"/>
+      <c r="B3" s="251"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="275"/>
+      <c r="B4" s="265"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="266" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="291"/>
+      <c r="B5" s="267"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
+      <c r="B6" s="81"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="276" t="s">
+      <c r="A7" s="250" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="278"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="278"/>
-      <c r="K7" s="277"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="251"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="263" t="s">
+      <c r="A8" s="274" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="265"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="275"/>
+      <c r="K8" s="276"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="266"/>
-      <c r="B9" s="267"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="267"/>
-      <c r="J9" s="267"/>
-      <c r="K9" s="268"/>
+      <c r="A9" s="277"/>
+      <c r="B9" s="278"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="278"/>
+      <c r="I9" s="278"/>
+      <c r="J9" s="278"/>
+      <c r="K9" s="279"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="141"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="279" t="s">
+      <c r="A11" s="253" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="280"/>
-      <c r="C11" s="280"/>
-      <c r="D11" s="281"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="141"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="282" t="s">
+      <c r="A12" s="256" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="284" t="s">
+      <c r="B12" s="257"/>
+      <c r="C12" s="258" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="285"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="141"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="286"/>
-      <c r="B13" s="287"/>
-      <c r="C13" s="288"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="141"/>
+      <c r="A13" s="260"/>
+      <c r="B13" s="261"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="136"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="279" t="s">
+      <c r="A15" s="253" t="s">
         <v>275</v>
       </c>
-      <c r="B15" s="281"/>
-      <c r="E15" s="279" t="s">
+      <c r="B15" s="255"/>
+      <c r="E15" s="253" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="280"/>
-      <c r="G15" s="280"/>
-      <c r="H15" s="280"/>
-      <c r="I15" s="281"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="255"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="274" t="s">
+      <c r="A16" s="264" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="275"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="269" t="s">
+      <c r="B16" s="265"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="280" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="270"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="270"/>
-      <c r="I16" s="271"/>
+      <c r="F16" s="281"/>
+      <c r="G16" s="281"/>
+      <c r="H16" s="281"/>
+      <c r="I16" s="282"/>
     </row>
     <row r="17" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="151" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="E17" s="272" t="s">
+      <c r="C17" s="84"/>
+      <c r="E17" s="283" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="273"/>
-      <c r="G17" s="82" t="s">
+      <c r="F17" s="284"/>
+      <c r="G17" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H17" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="188" t="s">
+      <c r="I17" s="182" t="s">
         <v>356</v>
       </c>
-      <c r="J17" s="359" t="s">
+      <c r="J17" s="242" t="s">
         <v>527</v>
       </c>
-      <c r="K17" s="360"/>
+      <c r="K17" s="243"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="152" t="s">
         <v>269</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="E18" s="83">
+      <c r="C18" s="84"/>
+      <c r="E18" s="78">
         <v>1</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="248" t="s">
+      <c r="I18" s="268" t="s">
         <v>465</v>
       </c>
-      <c r="J18" s="361"/>
-      <c r="K18" s="362"/>
+      <c r="J18" s="244"/>
+      <c r="K18" s="245"/>
     </row>
     <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="153" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="89"/>
-      <c r="E19" s="83">
+      <c r="B19" s="110"/>
+      <c r="C19" s="84"/>
+      <c r="E19" s="78">
         <v>2</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="I19" s="248"/>
-      <c r="J19" s="361"/>
-      <c r="K19" s="362"/>
+      <c r="I19" s="268"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="245"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="153" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="91"/>
-      <c r="E20" s="84">
+      <c r="B20" s="110"/>
+      <c r="C20" s="86"/>
+      <c r="E20" s="79">
         <v>3</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="363"/>
-      <c r="K20" s="364"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="269"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="247"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="153" t="s">
         <v>293</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="31"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="26"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="159"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="89"/>
-      <c r="J22" s="80"/>
+      <c r="A22" s="154"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="84"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="160"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="91"/>
-      <c r="E23" s="250" t="s">
+      <c r="A23" s="155"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="E23" s="248" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="252"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="249"/>
     </row>
     <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="250" t="s">
+      <c r="A24" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="252"/>
-      <c r="C24" s="31"/>
-      <c r="E24" s="256" t="s">
+      <c r="B24" s="249"/>
+      <c r="C24" s="26"/>
+      <c r="E24" s="288" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="257"/>
-      <c r="G24" s="81" t="s">
+      <c r="F24" s="289"/>
+      <c r="G24" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="81" t="s">
+      <c r="H24" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="188" t="s">
+      <c r="I24" s="182" t="s">
         <v>357</v>
       </c>
-      <c r="J24" s="359" t="s">
+      <c r="J24" s="242" t="s">
         <v>530</v>
       </c>
-      <c r="K24" s="360"/>
+      <c r="K24" s="243"/>
     </row>
     <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="151" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="109" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="E25" s="83">
+      <c r="C25" s="26"/>
+      <c r="E25" s="78">
         <v>1</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="253" t="s">
+      <c r="I25" s="285" t="s">
         <v>466</v>
       </c>
-      <c r="J25" s="361"/>
-      <c r="K25" s="362"/>
+      <c r="J25" s="244"/>
+      <c r="K25" s="245"/>
     </row>
     <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="152" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="E26" s="83">
+      <c r="C26" s="84"/>
+      <c r="E26" s="78">
         <v>2</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="I26" s="254"/>
-      <c r="J26" s="361"/>
-      <c r="K26" s="362"/>
+      <c r="I26" s="286"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="245"/>
     </row>
     <row r="27" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="153" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="91"/>
-      <c r="E27" s="84">
+      <c r="B27" s="110"/>
+      <c r="C27" s="86"/>
+      <c r="E27" s="79">
         <v>3</v>
       </c>
-      <c r="F27" s="139" t="s">
+      <c r="F27" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="255"/>
-      <c r="J27" s="363"/>
-      <c r="K27" s="364"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="246"/>
+      <c r="K27" s="247"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="153" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="31"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="80"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="26"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="158"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="31"/>
-      <c r="I29" s="80"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="26"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="89"/>
-      <c r="E30" s="250" t="s">
+      <c r="A30" s="154"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="84"/>
+      <c r="E30" s="248" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="251"/>
-      <c r="G30" s="251"/>
-      <c r="H30" s="251"/>
-      <c r="I30" s="252"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="270"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="249"/>
     </row>
     <row r="31" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="E31" s="258" t="s">
+      <c r="A31" s="155"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="E31" s="290" t="s">
         <v>463</v>
       </c>
-      <c r="F31" s="259"/>
-      <c r="G31" s="198" t="s">
+      <c r="F31" s="291"/>
+      <c r="G31" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="198" t="s">
+      <c r="H31" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="188" t="s">
+      <c r="I31" s="182" t="s">
         <v>358</v>
       </c>
-      <c r="J31" s="366" t="s">
+      <c r="J31" s="234" t="s">
         <v>529</v>
       </c>
-      <c r="K31" s="367"/>
+      <c r="K31" s="235"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="250" t="s">
+      <c r="A32" s="248" t="s">
         <v>241</v>
       </c>
-      <c r="B32" s="252"/>
-      <c r="C32" s="31"/>
-      <c r="E32" s="83">
+      <c r="B32" s="249"/>
+      <c r="C32" s="26"/>
+      <c r="E32" s="78">
         <v>1</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="248"/>
-      <c r="J32" s="368"/>
-      <c r="K32" s="369"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="268"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="237"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="151" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="E33" s="83">
+      <c r="C33" s="84"/>
+      <c r="E33" s="78">
         <v>2</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="248"/>
-      <c r="J33" s="365"/>
-      <c r="K33" s="370"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="268"/>
+      <c r="J33" s="238"/>
+      <c r="K33" s="239"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="152" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="78">
         <v>3</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="248"/>
-      <c r="J34" s="365"/>
-      <c r="K34" s="370"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="268"/>
+      <c r="J34" s="238"/>
+      <c r="K34" s="239"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="153" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="E35" s="83">
+      <c r="B35" s="110"/>
+      <c r="E35" s="78">
         <v>4</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="248"/>
-      <c r="J35" s="365"/>
-      <c r="K35" s="370"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="268"/>
+      <c r="J35" s="238"/>
+      <c r="K35" s="239"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="153" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="E36" s="83">
+      <c r="B36" s="110"/>
+      <c r="E36" s="78">
         <v>5</v>
       </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="248"/>
-      <c r="J36" s="365"/>
-      <c r="K36" s="370"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="268"/>
+      <c r="J36" s="238"/>
+      <c r="K36" s="239"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="158" t="s">
+      <c r="A37" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="115"/>
-      <c r="E37" s="84">
+      <c r="B37" s="110"/>
+      <c r="E37" s="79">
         <v>6</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="249"/>
-      <c r="J37" s="371"/>
-      <c r="K37" s="372"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="269"/>
+      <c r="J37" s="240"/>
+      <c r="K37" s="241"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="159" t="s">
+      <c r="A38" s="154" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="116"/>
+      <c r="B38" s="111"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="161"/>
-      <c r="B39" s="120"/>
+      <c r="A39" s="156"/>
+      <c r="B39" s="115"/>
     </row>
     <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="250" t="s">
+      <c r="E40" s="248" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="251"/>
-      <c r="G40" s="251"/>
-      <c r="H40" s="251"/>
-      <c r="I40" s="252"/>
+      <c r="F40" s="270"/>
+      <c r="G40" s="270"/>
+      <c r="H40" s="270"/>
+      <c r="I40" s="249"/>
     </row>
     <row r="41" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="81" t="s">
+      <c r="E41" s="288"/>
+      <c r="F41" s="289"/>
+      <c r="G41" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="188" t="s">
+      <c r="I41" s="182" t="s">
         <v>359</v>
       </c>
-      <c r="J41" s="366" t="s">
+      <c r="J41" s="234" t="s">
         <v>528</v>
       </c>
-      <c r="K41" s="367"/>
+      <c r="K41" s="235"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E42" s="83">
+      <c r="E42" s="78">
         <v>1</v>
       </c>
-      <c r="F42" s="93"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="248"/>
-      <c r="J42" s="368"/>
-      <c r="K42" s="369"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="268"/>
+      <c r="J42" s="236"/>
+      <c r="K42" s="237"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E43" s="83">
+      <c r="E43" s="78">
         <v>2</v>
       </c>
-      <c r="F43" s="93"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="248"/>
-      <c r="J43" s="365"/>
-      <c r="K43" s="370"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="268"/>
+      <c r="J43" s="238"/>
+      <c r="K43" s="239"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E44" s="83">
+      <c r="E44" s="78">
         <v>3</v>
       </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="248"/>
-      <c r="J44" s="365"/>
-      <c r="K44" s="370"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="268"/>
+      <c r="J44" s="238"/>
+      <c r="K44" s="239"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="83">
+      <c r="E45" s="78">
         <v>4</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="248"/>
-      <c r="J45" s="365"/>
-      <c r="K45" s="370"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="268"/>
+      <c r="J45" s="238"/>
+      <c r="K45" s="239"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="83">
+      <c r="E46" s="78">
         <v>5</v>
       </c>
-      <c r="F46" s="93"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="248"/>
-      <c r="J46" s="365"/>
-      <c r="K46" s="370"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="268"/>
+      <c r="J46" s="238"/>
+      <c r="K46" s="239"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="84">
+      <c r="E47" s="79">
         <v>6</v>
       </c>
-      <c r="F47" s="139"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="249"/>
-      <c r="J47" s="371"/>
-      <c r="K47" s="372"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="269"/>
+      <c r="J47" s="240"/>
+      <c r="K47" s="241"/>
     </row>
     <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K47"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K27"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K37"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6223,21 +6376,12 @@
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K47"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K27"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6303,17 +6447,17 @@
       <c r="H2" s="298"/>
       <c r="I2" s="298"/>
       <c r="J2" s="299"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="168" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="171" t="s">
         <v>317</v>
       </c>
       <c r="C3" s="300" t="s">
@@ -6323,627 +6467,627 @@
       <c r="E3" s="301"/>
       <c r="F3" s="301"/>
       <c r="G3" s="302"/>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="171" t="s">
         <v>318</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="171" t="s">
         <v>319</v>
       </c>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="172" t="s">
         <v>320</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="133" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="133" t="s">
         <v>292</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="133" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="133" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="192" t="s">
+      <c r="J4" s="186" t="s">
         <v>406</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107">
+      <c r="A5" s="102">
         <v>1</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="103">
         <v>0.1</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="103">
         <v>0.1</v>
       </c>
-      <c r="H5" s="109">
+      <c r="H5" s="104">
         <v>1</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="111"/>
-      <c r="K5" s="199"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="193"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107">
+      <c r="A6" s="102">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="103">
         <v>0.2</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="103">
         <v>0.2</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="104">
         <v>1</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="199"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="193"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107">
+      <c r="A7" s="102">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="108">
+      <c r="C7" s="103">
         <v>0.5</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109">
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104">
         <v>1</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="193"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107">
+      <c r="A8" s="102">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="103">
         <v>1</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="103">
         <v>0.1</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="104">
         <v>1</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="199"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="193"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107">
+      <c r="A9" s="102">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="103">
         <v>2</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108" t="s">
+      <c r="E9" s="103"/>
+      <c r="F9" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="103">
         <v>0.2</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="104">
         <v>1</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="199"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="193"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107">
+      <c r="A10" s="102">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="103">
         <v>5</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="109">
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104">
         <v>1</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="199"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="193"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107">
+      <c r="A11" s="102">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="103">
         <v>10</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109">
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104">
         <v>1</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="111"/>
-      <c r="K11" s="199"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="193"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="102">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="103">
         <v>20</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="109">
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104">
         <v>1</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="J12" s="111"/>
-      <c r="K12" s="199"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="193"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="102">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="103">
         <v>50</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="103" t="s">
         <v>471</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109">
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104">
         <v>1</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="111"/>
-      <c r="K13" s="199"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="193"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+      <c r="A14" s="102">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="103">
         <v>100</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108" t="s">
+      <c r="E14" s="103"/>
+      <c r="F14" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="108">
+      <c r="G14" s="103">
         <v>100</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="104">
         <v>1</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="J14" s="111"/>
-      <c r="K14" s="199"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="193"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+      <c r="A15" s="102">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="103">
         <v>200</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="G15" s="108">
+      <c r="G15" s="103">
         <v>200</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="104">
         <v>1</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="111"/>
-      <c r="K15" s="199"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+      <c r="A16" s="102">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="103">
         <v>500</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="109">
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104">
         <v>1</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="111"/>
-      <c r="K16" s="199"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+      <c r="A17" s="102">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="103">
         <v>1000</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="G17" s="108">
+      <c r="G17" s="103">
         <v>100</v>
       </c>
-      <c r="H17" s="109">
+      <c r="H17" s="104">
         <v>1</v>
       </c>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="111"/>
-      <c r="K17" s="199"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+      <c r="A18" s="102">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="103">
         <v>2000</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="G18" s="108">
+      <c r="G18" s="103">
         <v>200</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="104">
         <v>1</v>
       </c>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="111"/>
-      <c r="K18" s="199"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="193"/>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+      <c r="A19" s="102">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109">
+      <c r="C19" s="71"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104">
         <v>2</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111" t="s">
+      <c r="I19" s="105"/>
+      <c r="J19" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="199"/>
+      <c r="K19" s="193"/>
     </row>
     <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107">
+      <c r="A20" s="102">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109">
+      <c r="C20" s="71"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104">
         <v>2</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111" t="s">
+      <c r="I20" s="105"/>
+      <c r="J20" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="199"/>
+      <c r="K20" s="193"/>
     </row>
     <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107">
+      <c r="A21" s="102">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109">
+      <c r="C21" s="71"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104">
         <v>2</v>
       </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111" t="s">
+      <c r="I21" s="105"/>
+      <c r="J21" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="199"/>
+      <c r="K21" s="193"/>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107">
+      <c r="A22" s="102">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109">
+      <c r="C22" s="71"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104">
         <v>2</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="J22" s="111" t="s">
+      <c r="I22" s="105"/>
+      <c r="J22" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="199"/>
+      <c r="K22" s="193"/>
     </row>
     <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107">
+      <c r="A23" s="102">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109">
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104">
         <v>2</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="111" t="s">
+      <c r="I23" s="105"/>
+      <c r="J23" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="199"/>
+      <c r="K23" s="193"/>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107">
+      <c r="A24" s="102">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109">
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="104">
         <v>2</v>
       </c>
-      <c r="I24" s="110"/>
-      <c r="J24" s="111" t="s">
+      <c r="I24" s="105"/>
+      <c r="J24" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="199"/>
+      <c r="K24" s="193"/>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="167">
+      <c r="A25" s="162">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="163" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="170">
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="165">
         <v>2</v>
       </c>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172" t="s">
+      <c r="I25" s="166"/>
+      <c r="J25" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="199"/>
+      <c r="K25" s="193"/>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6969,154 +7113,154 @@
       <c r="R27" s="314"/>
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="131" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="183" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="181" t="s">
         <v>332</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="181" t="s">
         <v>366</v>
       </c>
-      <c r="E28" s="187" t="s">
+      <c r="E28" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="187" t="s">
+      <c r="F28" s="181" t="s">
         <v>381</v>
       </c>
-      <c r="G28" s="187" t="s">
+      <c r="G28" s="181" t="s">
         <v>433</v>
       </c>
-      <c r="H28" s="191" t="s">
+      <c r="H28" s="185" t="s">
         <v>268</v>
       </c>
-      <c r="I28" s="191" t="s">
+      <c r="I28" s="185" t="s">
         <v>433</v>
       </c>
-      <c r="J28" s="191" t="s">
+      <c r="J28" s="185" t="s">
         <v>445</v>
       </c>
-      <c r="K28" s="191" t="s">
+      <c r="K28" s="185" t="s">
         <v>433</v>
       </c>
-      <c r="L28" s="122" t="s">
+      <c r="L28" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="M28" s="237" t="s">
+      <c r="M28" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="N28" s="122" t="s">
+      <c r="N28" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="O28" s="122" t="s">
+      <c r="O28" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="P28" s="187" t="s">
+      <c r="P28" s="181" t="s">
         <v>276</v>
       </c>
-      <c r="Q28" s="187" t="s">
+      <c r="Q28" s="181" t="s">
         <v>276</v>
       </c>
-      <c r="R28" s="190" t="s">
+      <c r="R28" s="184" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="144"/>
-      <c r="B29" s="96" t="s">
+      <c r="A29" s="139"/>
+      <c r="B29" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="91" t="s">
         <v>365</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="E29" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="96" t="s">
+      <c r="F29" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="96" t="s">
+      <c r="G29" s="91" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="96" t="s">
+      <c r="H29" s="91" t="s">
         <v>434</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="91" t="s">
         <v>437</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="91" t="s">
         <v>439</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="91" t="s">
         <v>440</v>
       </c>
-      <c r="L29" s="96" t="s">
+      <c r="L29" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="236" t="s">
+      <c r="M29" s="228" t="s">
         <v>489</v>
       </c>
-      <c r="N29" s="96" t="s">
+      <c r="N29" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="O29" s="96" t="s">
+      <c r="O29" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="96" t="s">
+      <c r="P29" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="Q29" s="96" t="s">
+      <c r="Q29" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="R29" s="117" t="s">
+      <c r="R29" s="112" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="145"/>
-      <c r="B30" s="195" t="s">
+      <c r="A30" s="140"/>
+      <c r="B30" s="189" t="s">
         <v>436</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="152" t="s">
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="147" t="s">
         <v>464</v>
       </c>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152" t="s">
+      <c r="F30" s="147"/>
+      <c r="G30" s="147" t="s">
         <v>435</v>
       </c>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152" t="s">
+      <c r="H30" s="147"/>
+      <c r="I30" s="147" t="s">
         <v>438</v>
       </c>
-      <c r="J30" s="152">
+      <c r="J30" s="147">
         <v>3</v>
       </c>
-      <c r="K30" s="152" t="s">
+      <c r="K30" s="147" t="s">
         <v>441</v>
       </c>
-      <c r="L30" s="152">
+      <c r="L30" s="147">
         <v>100</v>
       </c>
-      <c r="M30" s="233"/>
-      <c r="N30" s="152">
+      <c r="M30" s="225"/>
+      <c r="N30" s="147">
         <v>0</v>
       </c>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152">
+      <c r="O30" s="147"/>
+      <c r="P30" s="147">
         <v>4</v>
       </c>
-      <c r="Q30" s="152">
+      <c r="Q30" s="147">
         <v>10</v>
       </c>
-      <c r="R30" s="153">
+      <c r="R30" s="148">
         <v>10</v>
       </c>
     </row>
@@ -7188,13 +7332,13 @@
       <c r="G38" s="293"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="72" t="s">
         <v>309</v>
       </c>
       <c r="D39" s="292" t="s">
@@ -7214,7 +7358,7 @@
       <c r="C40" t="s">
         <v>443</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="170" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7228,7 +7372,7 @@
       <c r="C41" t="s">
         <v>443</v>
       </c>
-      <c r="D41" s="186" t="s">
+      <c r="D41" s="180" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7242,7 +7386,7 @@
       <c r="C42" t="s">
         <v>443</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="170" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7256,7 +7400,7 @@
       <c r="C43" t="s">
         <v>443</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="170" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7270,7 +7414,7 @@
       <c r="C44" t="s">
         <v>443</v>
       </c>
-      <c r="D44" s="178" t="s">
+      <c r="D44" s="173" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7284,7 +7428,7 @@
       <c r="C45" t="s">
         <v>443</v>
       </c>
-      <c r="D45" s="186" t="s">
+      <c r="D45" s="180" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7298,7 +7442,7 @@
       <c r="C46" t="s">
         <v>443</v>
       </c>
-      <c r="D46" s="186" t="s">
+      <c r="D46" s="180" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7312,7 +7456,7 @@
       <c r="C47" t="s">
         <v>443</v>
       </c>
-      <c r="D47" s="186" t="s">
+      <c r="D47" s="180" t="s">
         <v>409</v>
       </c>
     </row>
@@ -7326,7 +7470,7 @@
       <c r="C48" t="s">
         <v>443</v>
       </c>
-      <c r="D48" s="186" t="s">
+      <c r="D48" s="180" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7340,7 +7484,7 @@
       <c r="C49" t="s">
         <v>443</v>
       </c>
-      <c r="D49" s="186" t="s">
+      <c r="D49" s="180" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7354,7 +7498,7 @@
       <c r="C50" t="s">
         <v>443</v>
       </c>
-      <c r="D50" s="186" t="s">
+      <c r="D50" s="180" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7368,7 +7512,7 @@
       <c r="C51" t="s">
         <v>443</v>
       </c>
-      <c r="D51" s="186" t="s">
+      <c r="D51" s="180" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7382,7 +7526,7 @@
       <c r="C52" t="s">
         <v>443</v>
       </c>
-      <c r="D52" s="175" t="s">
+      <c r="D52" s="170" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7396,7 +7540,7 @@
       <c r="C53" t="s">
         <v>443</v>
       </c>
-      <c r="D53" s="186" t="s">
+      <c r="D53" s="180" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7410,7 +7554,7 @@
       <c r="C54" t="s">
         <v>443</v>
       </c>
-      <c r="D54" s="186" t="s">
+      <c r="D54" s="180" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7424,7 +7568,7 @@
       <c r="C55" t="s">
         <v>443</v>
       </c>
-      <c r="D55" s="186" t="s">
+      <c r="D55" s="180" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7438,7 +7582,7 @@
       <c r="C56" t="s">
         <v>443</v>
       </c>
-      <c r="D56" s="186" t="s">
+      <c r="D56" s="180" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7452,7 +7596,7 @@
       <c r="C57" t="s">
         <v>443</v>
       </c>
-      <c r="D57" s="186" t="s">
+      <c r="D57" s="180" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7466,7 +7610,7 @@
       <c r="C58" t="s">
         <v>443</v>
       </c>
-      <c r="D58" s="175" t="s">
+      <c r="D58" s="170" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7480,7 +7624,7 @@
       <c r="C59" t="s">
         <v>443</v>
       </c>
-      <c r="D59" s="175" t="s">
+      <c r="D59" s="170" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7494,7 +7638,7 @@
       <c r="C60" t="s">
         <v>443</v>
       </c>
-      <c r="D60" s="175" t="s">
+      <c r="D60" s="170" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7508,7 +7652,7 @@
       <c r="C61" t="s">
         <v>443</v>
       </c>
-      <c r="D61" s="175" t="s">
+      <c r="D61" s="170" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7522,7 +7666,7 @@
       <c r="C62" t="s">
         <v>443</v>
       </c>
-      <c r="D62" s="175" t="s">
+      <c r="D62" s="170" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7536,7 +7680,7 @@
       <c r="C63" t="s">
         <v>443</v>
       </c>
-      <c r="D63" s="175" t="s">
+      <c r="D63" s="170" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7550,7 +7694,7 @@
       <c r="C64" t="s">
         <v>443</v>
       </c>
-      <c r="D64" s="175" t="s">
+      <c r="D64" s="170" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7564,7 +7708,7 @@
       <c r="C65" t="s">
         <v>443</v>
       </c>
-      <c r="D65" s="175" t="s">
+      <c r="D65" s="170" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7578,7 +7722,7 @@
       <c r="C66" t="s">
         <v>443</v>
       </c>
-      <c r="D66" s="175" t="s">
+      <c r="D66" s="170" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7592,7 +7736,7 @@
       <c r="C67" t="s">
         <v>443</v>
       </c>
-      <c r="D67" s="175" t="s">
+      <c r="D67" s="170" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7606,7 +7750,7 @@
       <c r="C68" t="s">
         <v>443</v>
       </c>
-      <c r="D68" s="175" t="s">
+      <c r="D68" s="170" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7620,7 +7764,7 @@
       <c r="C69" t="s">
         <v>443</v>
       </c>
-      <c r="D69" s="175" t="s">
+      <c r="D69" s="170" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7634,7 +7778,7 @@
       <c r="C70" t="s">
         <v>443</v>
       </c>
-      <c r="D70" s="175" t="s">
+      <c r="D70" s="170" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7648,7 +7792,7 @@
       <c r="C71" t="s">
         <v>443</v>
       </c>
-      <c r="D71" s="175" t="s">
+      <c r="D71" s="170" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7746,7 +7890,7 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="107" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="315" t="s">
         <v>380</v>
       </c>
@@ -7760,7 +7904,7 @@
       <c r="I1" s="316"/>
       <c r="J1" s="317"/>
     </row>
-    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="107" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="312" t="s">
         <v>13</v>
       </c>
@@ -7774,64 +7918,64 @@
       <c r="I2" s="313"/>
       <c r="J2" s="314"/>
     </row>
-    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+    <row r="3" spans="1:10" s="107" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="125" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="120" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="126" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="160" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="129"/>
-    </row>
-    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="I3" s="122"/>
+      <c r="J3" s="124"/>
+    </row>
+    <row r="4" spans="1:10" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="166" t="s">
+      <c r="H4" s="161" t="s">
         <v>304</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-    </row>
-    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="I4" s="96"/>
+      <c r="J4" s="97"/>
+    </row>
+    <row r="5" spans="1:10" s="107" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7843,14 +7987,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="197" t="s">
+      <c r="G5" s="191" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-    </row>
-    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+    </row>
+    <row r="6" spans="1:10" s="107" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="312" t="s">
         <v>14</v>
       </c>
@@ -7864,55 +8008,55 @@
       <c r="I6" s="313"/>
       <c r="J6" s="314"/>
     </row>
-    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+    <row r="7" spans="1:10" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="129"/>
-    </row>
-    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="124"/>
+    </row>
+    <row r="8" spans="1:10" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-    </row>
-    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
+    </row>
+    <row r="9" spans="1:10" s="107" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:10" s="107" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="312" t="s">
         <v>15</v>
       </c>
@@ -7926,62 +8070,62 @@
       <c r="I10" s="313"/>
       <c r="J10" s="314"/>
     </row>
-    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127" t="s">
+    <row r="11" spans="1:10" s="107" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="121"/>
+      <c r="B11" s="122" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="169" t="s">
         <v>331</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="122" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="127" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="126" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="126" t="s">
         <v>326</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="129"/>
-    </row>
-    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="I11" s="122"/>
+      <c r="J11" s="124"/>
+    </row>
+    <row r="12" spans="1:10" s="107" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="128" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="119"/>
-    </row>
-    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+    </row>
+    <row r="13" spans="1:10" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -8008,8 +8152,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106">
+    <row r="14" spans="1:10" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="101">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -8036,8 +8180,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106">
+    <row r="15" spans="1:10" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -8064,8 +8208,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106">
+    <row r="16" spans="1:10" s="107" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="101">
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -8092,7 +8236,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="107" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="318" t="s">
         <v>482</v>
       </c>
@@ -8106,77 +8250,77 @@
       <c r="I17" s="319"/>
       <c r="J17" s="320"/>
     </row>
-    <row r="18" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="206"/>
-      <c r="B18" s="207" t="s">
+    <row r="18" spans="1:10" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="198"/>
+      <c r="B18" s="199" t="s">
         <v>277</v>
       </c>
-      <c r="C18" s="207" t="s">
+      <c r="C18" s="199" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="207" t="s">
+      <c r="D18" s="199" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="208" t="s">
+      <c r="E18" s="200" t="s">
         <v>325</v>
       </c>
-      <c r="F18" s="209" t="s">
+      <c r="F18" s="201" t="s">
         <v>324</v>
       </c>
-      <c r="G18" s="209"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="211"/>
-    </row>
-    <row r="19" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="212" t="s">
+      <c r="G18" s="201"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="203"/>
+    </row>
+    <row r="19" spans="1:10" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="204" t="s">
         <v>483</v>
       </c>
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="205" t="s">
         <v>484</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="206" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="214" t="s">
+      <c r="D19" s="206" t="s">
         <v>485</v>
       </c>
-      <c r="E19" s="214" t="s">
+      <c r="E19" s="206" t="s">
         <v>262</v>
       </c>
-      <c r="F19" s="215" t="s">
+      <c r="F19" s="207" t="s">
         <v>263</v>
       </c>
-      <c r="G19" s="213"/>
-      <c r="H19" s="216"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="217"/>
-    </row>
-    <row r="20" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="218"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
-      <c r="J20" s="220"/>
-    </row>
-    <row r="21" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="220"/>
-    </row>
-    <row r="22" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="205"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="209"/>
+    </row>
+    <row r="20" spans="1:10" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="210"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="212"/>
+    </row>
+    <row r="21" spans="1:10" s="107" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="210"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="212"/>
+    </row>
+    <row r="22" spans="1:10" s="107" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="312" t="s">
         <v>19</v>
       </c>
@@ -8190,48 +8334,48 @@
       <c r="I22" s="313"/>
       <c r="J22" s="314"/>
     </row>
-    <row r="23" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="130" t="s">
+    <row r="23" spans="1:10" s="107" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="126" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="126" t="s">
         <v>329</v>
       </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="129"/>
-    </row>
-    <row r="24" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="124"/>
+    </row>
+    <row r="24" spans="1:10" s="107" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="113"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
-    </row>
-    <row r="25" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
+      <c r="E24" s="108"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="100"/>
+    </row>
+    <row r="25" spans="1:10" s="107" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
         <v>3</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -8240,7 +8384,7 @@
       <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="152" t="s">
+      <c r="D25" s="147" t="s">
         <v>220</v>
       </c>
       <c r="E25" s="8"/>
@@ -8250,7 +8394,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="107" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="318" t="s">
         <v>486</v>
       </c>
@@ -8264,71 +8408,71 @@
       <c r="I26" s="319"/>
       <c r="J26" s="320"/>
     </row>
-    <row r="27" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="221" t="s">
+    <row r="27" spans="1:10" s="107" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="213" t="s">
         <v>487</v>
       </c>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="214" t="s">
         <v>487</v>
       </c>
-      <c r="C27" s="223" t="s">
+      <c r="C27" s="215" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="223" t="s">
+      <c r="D27" s="215" t="s">
         <v>271</v>
       </c>
-      <c r="E27" s="224" t="s">
+      <c r="E27" s="216" t="s">
         <v>270</v>
       </c>
-      <c r="F27" s="225" t="s">
+      <c r="F27" s="217" t="s">
         <v>488</v>
       </c>
-      <c r="G27" s="224" t="s">
+      <c r="G27" s="216" t="s">
         <v>270</v>
       </c>
-      <c r="H27" s="226"/>
-      <c r="I27" s="226"/>
-      <c r="J27" s="227"/>
-    </row>
-    <row r="28" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="228" t="s">
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="219"/>
+    </row>
+    <row r="28" spans="1:10" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="213" t="s">
+      <c r="B28" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="229" t="s">
+      <c r="C28" s="221" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="229" t="s">
+      <c r="D28" s="221" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="229" t="s">
+      <c r="E28" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="229" t="s">
+      <c r="F28" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="213" t="s">
+      <c r="G28" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="H28" s="230"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="231"/>
-    </row>
-    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="232"/>
-      <c r="B29" s="233"/>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="235"/>
-    </row>
-    <row r="30" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="222"/>
+      <c r="I28" s="222"/>
+      <c r="J28" s="223"/>
+    </row>
+    <row r="29" spans="1:10" s="107" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="224"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="227"/>
+    </row>
+    <row r="30" spans="1:10" s="107" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="312" t="s">
         <v>153</v>
       </c>
@@ -8342,56 +8486,56 @@
       <c r="I30" s="313"/>
       <c r="J30" s="314"/>
     </row>
-    <row r="31" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="130" t="s">
+    <row r="31" spans="1:10" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="B31" s="191" t="s">
+      <c r="B31" s="185" t="s">
         <v>366</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="126" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="187" t="s">
+      <c r="E31" s="181" t="s">
         <v>366</v>
       </c>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="150"/>
-    </row>
-    <row r="32" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="146" t="s">
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="145"/>
+    </row>
+    <row r="32" spans="1:10" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="142"/>
+      <c r="B32" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="141" t="s">
         <v>265</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="96" t="s">
+      <c r="E32" s="91" t="s">
         <v>367</v>
       </c>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="151"/>
-    </row>
-    <row r="33" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
-      <c r="B33" s="196" t="s">
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="146"/>
+    </row>
+    <row r="33" spans="1:10" s="107" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="140"/>
+      <c r="B33" s="190" t="s">
         <v>457</v>
       </c>
-      <c r="C33" s="184"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="152" t="s">
+      <c r="C33" s="178"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="147" t="s">
         <v>458</v>
       </c>
       <c r="F33" s="8"/>
@@ -8400,8 +8544,8 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:10" s="112" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="107" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="107" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="309" t="s">
         <v>280</v>
       </c>
@@ -8413,7 +8557,7 @@
       <c r="G35" s="310"/>
       <c r="H35" s="311"/>
     </row>
-    <row r="36" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="303" t="s">
         <v>360</v>
       </c>
@@ -8425,7 +8569,7 @@
       <c r="G36" s="304"/>
       <c r="H36" s="305"/>
     </row>
-    <row r="37" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="303"/>
       <c r="B37" s="304"/>
       <c r="C37" s="304"/>
@@ -8435,7 +8579,7 @@
       <c r="G37" s="304"/>
       <c r="H37" s="305"/>
     </row>
-    <row r="38" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="303"/>
       <c r="B38" s="304"/>
       <c r="C38" s="304"/>
@@ -8454,20 +8598,20 @@
       <c r="F39" s="307"/>
       <c r="G39" s="307"/>
       <c r="H39" s="308"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="293" t="s">
@@ -8479,18 +8623,18 @@
       <c r="E41" s="293"/>
       <c r="F41" s="293"/>
       <c r="G41" s="293"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="72" t="s">
         <v>309</v>
       </c>
       <c r="D42" s="292" t="s">
@@ -8499,9 +8643,9 @@
       <c r="E42" s="292"/>
       <c r="F42" s="292"/>
       <c r="G42" s="292"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -8513,7 +8657,7 @@
       <c r="C43" t="s">
         <v>460</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="170" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8527,7 +8671,7 @@
       <c r="C44" t="s">
         <v>460</v>
       </c>
-      <c r="D44" s="186" t="s">
+      <c r="D44" s="180" t="s">
         <v>334</v>
       </c>
     </row>
@@ -8541,7 +8685,7 @@
       <c r="C45" t="s">
         <v>460</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="170" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8555,7 +8699,7 @@
       <c r="C46" t="s">
         <v>460</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="170" t="s">
         <v>355</v>
       </c>
     </row>
@@ -8569,7 +8713,7 @@
       <c r="C47" t="s">
         <v>460</v>
       </c>
-      <c r="D47" s="178" t="s">
+      <c r="D47" s="173" t="s">
         <v>336</v>
       </c>
     </row>
@@ -8583,7 +8727,7 @@
       <c r="C48" t="s">
         <v>460</v>
       </c>
-      <c r="D48" s="186" t="s">
+      <c r="D48" s="180" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8597,7 +8741,7 @@
       <c r="C49" t="s">
         <v>460</v>
       </c>
-      <c r="D49" s="186" t="s">
+      <c r="D49" s="180" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8611,7 +8755,7 @@
       <c r="C50" t="s">
         <v>460</v>
       </c>
-      <c r="D50" s="186" t="s">
+      <c r="D50" s="180" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8625,7 +8769,7 @@
       <c r="C51" t="s">
         <v>460</v>
       </c>
-      <c r="D51" s="186" t="s">
+      <c r="D51" s="180" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8639,7 +8783,7 @@
       <c r="C52" t="s">
         <v>460</v>
       </c>
-      <c r="D52" s="186" t="s">
+      <c r="D52" s="180" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8653,7 +8797,7 @@
       <c r="C53" t="s">
         <v>460</v>
       </c>
-      <c r="D53" s="178" t="s">
+      <c r="D53" s="173" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8740,115 +8884,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="325" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="332"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="336" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="333" t="s">
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="326" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="322" t="s">
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="332" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="339" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="335" t="s">
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="328" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="194" t="s">
         <v>299</v>
       </c>
-      <c r="N3" s="202" t="s">
+      <c r="N3" s="194" t="s">
         <v>366</v>
       </c>
-      <c r="O3" s="202" t="s">
+      <c r="O3" s="194" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="194"/>
+      <c r="P3" s="188"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="329" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="337"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="334" t="s">
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="327" t="s">
         <v>247</v>
       </c>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="334" t="s">
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="334"/>
-      <c r="L4" s="334"/>
-      <c r="M4" s="203" t="s">
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
+      <c r="M4" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="203" t="s">
+      <c r="N4" s="195" t="s">
         <v>367</v>
       </c>
-      <c r="O4" s="203" t="s">
+      <c r="O4" s="195" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="339"/>
-      <c r="B5" s="340"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="341"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="324"/>
       <c r="G5" s="321" t="s">
         <v>278</v>
       </c>
@@ -8859,23 +9003,23 @@
       </c>
       <c r="K5" s="321"/>
       <c r="L5" s="321"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204" t="s">
+      <c r="M5" s="196"/>
+      <c r="N5" s="196" t="s">
         <v>384</v>
       </c>
-      <c r="O5" s="205" t="s">
+      <c r="O5" s="197" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="339" t="s">
+      <c r="A6" s="322" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="340"/>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="340"/>
-      <c r="F6" s="341"/>
+      <c r="B6" s="323"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="324"/>
       <c r="G6" s="321" t="s">
         <v>285</v>
       </c>
@@ -8884,147 +9028,147 @@
       <c r="J6" s="321"/>
       <c r="K6" s="321"/>
       <c r="L6" s="321"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204" t="s">
+      <c r="M6" s="196"/>
+      <c r="N6" s="196" t="s">
         <v>385</v>
       </c>
-      <c r="O6" s="205" t="s">
+      <c r="O6" s="197" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="339" t="s">
+      <c r="A7" s="322" t="s">
         <v>475</v>
       </c>
-      <c r="B7" s="340"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="324"/>
       <c r="G7" s="321"/>
       <c r="H7" s="321"/>
       <c r="I7" s="321"/>
       <c r="J7" s="321"/>
       <c r="K7" s="321"/>
       <c r="L7" s="321"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="205"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="197"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="339"/>
-      <c r="B8" s="340"/>
-      <c r="C8" s="340"/>
-      <c r="D8" s="340"/>
-      <c r="E8" s="340"/>
-      <c r="F8" s="341"/>
+      <c r="A8" s="322"/>
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="324"/>
       <c r="G8" s="321"/>
       <c r="H8" s="321"/>
       <c r="I8" s="321"/>
       <c r="J8" s="321"/>
       <c r="K8" s="321"/>
       <c r="L8" s="321"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="205"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="197"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="323" t="s">
+      <c r="A10" s="333" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="324"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
-      <c r="H10" s="324"/>
-      <c r="I10" s="325"/>
+      <c r="B10" s="334"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="334"/>
+      <c r="F10" s="334"/>
+      <c r="G10" s="334"/>
+      <c r="H10" s="334"/>
+      <c r="I10" s="335"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="181" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="238" t="s">
+      <c r="E11" s="230" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="126" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="131" t="s">
+      <c r="I11" s="126" t="s">
         <v>276</v>
       </c>
-      <c r="J11" s="143" t="s">
+      <c r="J11" s="138" t="s">
         <v>276</v>
       </c>
-      <c r="L11" s="185"/>
-      <c r="M11" s="185"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="142"/>
+      <c r="B12" s="141" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="91" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="239" t="s">
+      <c r="E12" s="231" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="G12" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="H12" s="141" t="s">
         <v>253</v>
       </c>
-      <c r="I12" s="146" t="s">
+      <c r="I12" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="J12" s="148" t="s">
+      <c r="J12" s="143" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="152">
+      <c r="A13" s="140"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="147">
         <v>100</v>
       </c>
-      <c r="E13" s="233"/>
-      <c r="F13" s="152">
+      <c r="E13" s="225"/>
+      <c r="F13" s="147">
         <v>0</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152">
+      <c r="G13" s="147"/>
+      <c r="H13" s="147">
         <v>4</v>
       </c>
-      <c r="I13" s="152">
+      <c r="I13" s="147">
         <v>10</v>
       </c>
-      <c r="J13" s="153">
+      <c r="J13" s="148">
         <v>10</v>
       </c>
     </row>
@@ -9095,13 +9239,13 @@
       <c r="G21" s="293"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="72" t="s">
         <v>309</v>
       </c>
       <c r="D22" s="292" t="s">
@@ -9121,7 +9265,7 @@
       <c r="C23" t="s">
         <v>446</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="170" t="s">
         <v>368</v>
       </c>
     </row>
@@ -9135,7 +9279,7 @@
       <c r="C24" t="s">
         <v>446</v>
       </c>
-      <c r="D24" s="186" t="s">
+      <c r="D24" s="180" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9149,7 +9293,7 @@
       <c r="C25" t="s">
         <v>446</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="170" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9163,7 +9307,7 @@
       <c r="C26" t="s">
         <v>446</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="170" t="s">
         <v>355</v>
       </c>
     </row>
@@ -9177,7 +9321,7 @@
       <c r="C27" t="s">
         <v>446</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="173" t="s">
         <v>336</v>
       </c>
     </row>
@@ -9191,7 +9335,7 @@
       <c r="C28" t="s">
         <v>446</v>
       </c>
-      <c r="D28" s="186" t="s">
+      <c r="D28" s="180" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9205,7 +9349,7 @@
       <c r="C29" t="s">
         <v>446</v>
       </c>
-      <c r="D29" s="186" t="s">
+      <c r="D29" s="180" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9219,7 +9363,7 @@
       <c r="C30" t="s">
         <v>446</v>
       </c>
-      <c r="D30" s="186" t="s">
+      <c r="D30" s="180" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9233,7 +9377,7 @@
       <c r="C31" t="s">
         <v>446</v>
       </c>
-      <c r="D31" s="186" t="s">
+      <c r="D31" s="180" t="s">
         <v>343</v>
       </c>
     </row>
@@ -9247,7 +9391,7 @@
       <c r="C32" t="s">
         <v>446</v>
       </c>
-      <c r="D32" s="186" t="s">
+      <c r="D32" s="180" t="s">
         <v>391</v>
       </c>
     </row>
@@ -9261,7 +9405,7 @@
       <c r="C33" t="s">
         <v>446</v>
       </c>
-      <c r="D33" s="186" t="s">
+      <c r="D33" s="180" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9275,7 +9419,7 @@
       <c r="C34" t="s">
         <v>446</v>
       </c>
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="170" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9289,7 +9433,7 @@
       <c r="C35" t="s">
         <v>446</v>
       </c>
-      <c r="D35" s="175" t="s">
+      <c r="D35" s="170" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9303,7 +9447,7 @@
       <c r="C36" t="s">
         <v>446</v>
       </c>
-      <c r="D36" s="175" t="s">
+      <c r="D36" s="170" t="s">
         <v>395</v>
       </c>
     </row>
@@ -9317,7 +9461,7 @@
       <c r="C37" t="s">
         <v>446</v>
       </c>
-      <c r="D37" s="175" t="s">
+      <c r="D37" s="170" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9331,7 +9475,7 @@
       <c r="C38" t="s">
         <v>446</v>
       </c>
-      <c r="D38" s="175" t="s">
+      <c r="D38" s="170" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9345,7 +9489,7 @@
       <c r="C39" t="s">
         <v>446</v>
       </c>
-      <c r="D39" s="175" t="s">
+      <c r="D39" s="170" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9359,7 +9503,7 @@
       <c r="C40" t="s">
         <v>446</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="170" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9373,7 +9517,7 @@
       <c r="C41" t="s">
         <v>446</v>
       </c>
-      <c r="D41" s="175" t="s">
+      <c r="D41" s="170" t="s">
         <v>447</v>
       </c>
     </row>
@@ -9387,7 +9531,7 @@
       <c r="C42" t="s">
         <v>446</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="170" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9401,7 +9545,7 @@
       <c r="C43" t="s">
         <v>446</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="170" t="s">
         <v>448</v>
       </c>
     </row>
@@ -9415,7 +9559,7 @@
       <c r="C44" t="s">
         <v>446</v>
       </c>
-      <c r="D44" s="175" t="s">
+      <c r="D44" s="170" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9429,7 +9573,7 @@
       <c r="C45" t="s">
         <v>446</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="170" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9443,7 +9587,7 @@
       <c r="C46" t="s">
         <v>446</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="170" t="s">
         <v>450</v>
       </c>
     </row>
@@ -9457,7 +9601,7 @@
       <c r="C47" t="s">
         <v>446</v>
       </c>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="170" t="s">
         <v>451</v>
       </c>
     </row>
@@ -9471,7 +9615,7 @@
       <c r="C48" t="s">
         <v>446</v>
       </c>
-      <c r="D48" s="175" t="s">
+      <c r="D48" s="170" t="s">
         <v>452</v>
       </c>
     </row>
@@ -9485,7 +9629,7 @@
       <c r="C49" t="s">
         <v>446</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="170" t="s">
         <v>453</v>
       </c>
     </row>
@@ -9499,7 +9643,7 @@
       <c r="C50" t="s">
         <v>446</v>
       </c>
-      <c r="D50" s="175" t="s">
+      <c r="D50" s="170" t="s">
         <v>454</v>
       </c>
     </row>
@@ -9513,7 +9657,7 @@
       <c r="C51" t="s">
         <v>446</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D51" s="170" t="s">
         <v>455</v>
       </c>
     </row>
@@ -9527,7 +9671,7 @@
       <c r="C52" t="s">
         <v>446</v>
       </c>
-      <c r="D52" s="186" t="s">
+      <c r="D52" s="180" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9541,18 +9685,20 @@
       <c r="C53" t="s">
         <v>446</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="170" t="s">
         <v>401</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -9565,14 +9711,12 @@
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9664,119 +9808,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="325" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="332"/>
-      <c r="P1" s="332"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="326" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333" t="s">
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="322" t="s">
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="332" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="328" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335" t="s">
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="194" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="202" t="s">
+      <c r="N3" s="194" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="202" t="s">
+      <c r="O3" s="194" t="s">
         <v>366</v>
       </c>
-      <c r="P3" s="202" t="s">
+      <c r="P3" s="194" t="s">
         <v>366</v>
       </c>
-      <c r="Q3" s="193"/>
+      <c r="Q3" s="187"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="329" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="337"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="334" t="s">
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="327" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="334"/>
-      <c r="K4" s="334"/>
-      <c r="L4" s="334"/>
-      <c r="M4" s="203" t="s">
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
+      <c r="M4" s="195" t="s">
         <v>252</v>
       </c>
-      <c r="N4" s="203" t="s">
+      <c r="N4" s="195" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="203" t="s">
+      <c r="O4" s="195" t="s">
         <v>367</v>
       </c>
-      <c r="P4" s="203" t="s">
+      <c r="P4" s="195" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="339"/>
-      <c r="B5" s="340"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="341"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="324"/>
       <c r="G5" s="342" t="s">
         <v>4</v>
       </c>
@@ -9785,26 +9929,26 @@
       <c r="J5" s="342"/>
       <c r="K5" s="342"/>
       <c r="L5" s="342"/>
-      <c r="M5" s="204" t="s">
+      <c r="M5" s="196" t="s">
         <v>291</v>
       </c>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204" t="s">
+      <c r="N5" s="196"/>
+      <c r="O5" s="196" t="s">
         <v>477</v>
       </c>
-      <c r="P5" s="204" t="s">
+      <c r="P5" s="196" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="339" t="s">
+      <c r="A6" s="322" t="s">
         <v>479</v>
       </c>
-      <c r="B6" s="340"/>
-      <c r="C6" s="340"/>
-      <c r="D6" s="340"/>
-      <c r="E6" s="340"/>
-      <c r="F6" s="341"/>
+      <c r="B6" s="323"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="324"/>
       <c r="G6" s="342" t="s">
         <v>4</v>
       </c>
@@ -9813,147 +9957,147 @@
       <c r="J6" s="342"/>
       <c r="K6" s="342"/>
       <c r="L6" s="342"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="204" t="s">
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196" t="s">
         <v>480</v>
       </c>
-      <c r="P6" s="204" t="s">
+      <c r="P6" s="196" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="339"/>
-      <c r="B7" s="340"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="341"/>
+      <c r="A7" s="322"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="324"/>
       <c r="G7" s="342"/>
       <c r="H7" s="342"/>
       <c r="I7" s="342"/>
       <c r="J7" s="342"/>
       <c r="K7" s="342"/>
       <c r="L7" s="342"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="205"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="197"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="339"/>
-      <c r="B8" s="340"/>
-      <c r="C8" s="340"/>
-      <c r="D8" s="340"/>
-      <c r="E8" s="340"/>
-      <c r="F8" s="341"/>
+      <c r="A8" s="322"/>
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="324"/>
       <c r="G8" s="342"/>
       <c r="H8" s="342"/>
       <c r="I8" s="342"/>
       <c r="J8" s="342"/>
       <c r="K8" s="342"/>
       <c r="L8" s="342"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="205"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="197"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="323" t="s">
+      <c r="A10" s="333" t="s">
         <v>353</v>
       </c>
-      <c r="B10" s="324"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
-      <c r="H10" s="324"/>
-      <c r="I10" s="325"/>
+      <c r="B10" s="334"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="334"/>
+      <c r="F10" s="334"/>
+      <c r="G10" s="334"/>
+      <c r="H10" s="334"/>
+      <c r="I10" s="335"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="181" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="238" t="s">
+      <c r="E11" s="230" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="126" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="131" t="s">
+      <c r="I11" s="126" t="s">
         <v>276</v>
       </c>
-      <c r="J11" s="143" t="s">
+      <c r="J11" s="138" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="142"/>
+      <c r="B12" s="141" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="91" t="s">
         <v>365</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="239" t="s">
+      <c r="E12" s="231" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="G12" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="H12" s="141" t="s">
         <v>253</v>
       </c>
-      <c r="I12" s="146" t="s">
+      <c r="I12" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="J12" s="148" t="s">
+      <c r="J12" s="143" t="s">
         <v>255</v>
       </c>
-      <c r="L12" s="163"/>
+      <c r="L12" s="158"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="152">
+      <c r="A13" s="140"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="147">
         <v>100</v>
       </c>
-      <c r="E13" s="233"/>
-      <c r="F13" s="152">
+      <c r="E13" s="225"/>
+      <c r="F13" s="147">
         <v>0</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152">
+      <c r="G13" s="147"/>
+      <c r="H13" s="147">
         <v>4</v>
       </c>
-      <c r="I13" s="152">
+      <c r="I13" s="147">
         <v>10</v>
       </c>
-      <c r="J13" s="153">
+      <c r="J13" s="148">
         <v>10</v>
       </c>
     </row>
@@ -10024,13 +10168,13 @@
       <c r="G21" s="293"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="72" t="s">
         <v>309</v>
       </c>
       <c r="D22" s="292" t="s">
@@ -10050,7 +10194,7 @@
       <c r="C23" t="s">
         <v>456</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="170" t="s">
         <v>368</v>
       </c>
     </row>
@@ -10064,7 +10208,7 @@
       <c r="C24" t="s">
         <v>456</v>
       </c>
-      <c r="D24" s="186" t="s">
+      <c r="D24" s="180" t="s">
         <v>334</v>
       </c>
     </row>
@@ -10078,7 +10222,7 @@
       <c r="C25" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="170" t="s">
         <v>335</v>
       </c>
     </row>
@@ -10092,7 +10236,7 @@
       <c r="C26" t="s">
         <v>456</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="170" t="s">
         <v>355</v>
       </c>
     </row>
@@ -10106,7 +10250,7 @@
       <c r="C27" t="s">
         <v>456</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="173" t="s">
         <v>336</v>
       </c>
     </row>
@@ -10120,7 +10264,7 @@
       <c r="C28" t="s">
         <v>456</v>
       </c>
-      <c r="D28" s="186" t="s">
+      <c r="D28" s="180" t="s">
         <v>402</v>
       </c>
     </row>
@@ -10134,7 +10278,7 @@
       <c r="C29" t="s">
         <v>456</v>
       </c>
-      <c r="D29" s="186" t="s">
+      <c r="D29" s="180" t="s">
         <v>388</v>
       </c>
     </row>
@@ -10148,7 +10292,7 @@
       <c r="C30" t="s">
         <v>456</v>
       </c>
-      <c r="D30" s="186" t="s">
+      <c r="D30" s="180" t="s">
         <v>403</v>
       </c>
     </row>
@@ -10162,7 +10306,7 @@
       <c r="C31" t="s">
         <v>456</v>
       </c>
-      <c r="D31" s="186" t="s">
+      <c r="D31" s="180" t="s">
         <v>345</v>
       </c>
     </row>
@@ -10176,7 +10320,7 @@
       <c r="C32" t="s">
         <v>456</v>
       </c>
-      <c r="D32" s="186" t="s">
+      <c r="D32" s="180" t="s">
         <v>346</v>
       </c>
     </row>
@@ -10190,7 +10334,7 @@
       <c r="C33" t="s">
         <v>456</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="170" t="s">
         <v>404</v>
       </c>
     </row>
@@ -10204,12 +10348,18 @@
       <c r="C34" t="s">
         <v>456</v>
       </c>
-      <c r="D34" s="186" t="s">
+      <c r="D34" s="180" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="G4:L4"/>
@@ -10225,12 +10375,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10290,22 +10434,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B13CC6B-B5FA-4406-B626-7E4CEB99E6C6}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="94.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="183" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="16" style="177" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="61" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
@@ -10318,15 +10462,15 @@
       <c r="B1" s="344"/>
       <c r="C1" s="344"/>
       <c r="D1" s="345"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -10338,10 +10482,10 @@
       <c r="C2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="359" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="129" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10352,9 +10496,9 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="22"/>
-      <c r="F3" s="135" t="s">
+      <c r="C3" s="174"/>
+      <c r="D3" s="360"/>
+      <c r="F3" s="130" t="s">
         <v>79</v>
       </c>
     </row>
@@ -10365,8 +10509,8 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="23">
+      <c r="C4" s="175"/>
+      <c r="D4" s="361">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -10380,20 +10524,20 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="23">
+      <c r="C5" s="175"/>
+      <c r="D5" s="361">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="12" t="s">
         <v>490</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="C6" s="241"/>
-      <c r="D6" s="23">
+      <c r="C6" s="362"/>
+      <c r="D6" s="361">
         <v>1000000</v>
       </c>
     </row>
@@ -10404,8 +10548,8 @@
       <c r="B7" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="23">
+      <c r="C7" s="362"/>
+      <c r="D7" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10416,8 +10560,8 @@
       <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="243"/>
-      <c r="D8" s="23">
+      <c r="C8" s="175"/>
+      <c r="D8" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10428,8 +10572,8 @@
       <c r="B9" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="C9" s="243"/>
-      <c r="D9" s="23">
+      <c r="C9" s="175"/>
+      <c r="D9" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10440,86 +10584,86 @@
       <c r="B10" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="C10" s="201"/>
-      <c r="D10" s="23">
+      <c r="C10" s="363"/>
+      <c r="D10" s="361">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="12" t="s">
         <v>496</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="C11" s="241"/>
-      <c r="D11" s="23">
+      <c r="C11" s="362"/>
+      <c r="D11" s="361">
         <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="200" t="s">
+      <c r="A12" s="12" t="s">
         <v>498</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="C12" s="241"/>
-      <c r="D12" s="23">
+      <c r="C12" s="362"/>
+      <c r="D12" s="361">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="12" t="s">
         <v>500</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="C13" s="241"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="362"/>
+      <c r="D13" s="361"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="12" t="s">
         <v>502</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="C14" s="241"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="362"/>
+      <c r="D14" s="361"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="12" t="s">
         <v>504</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C15" s="241"/>
-      <c r="D15" s="23">
+      <c r="C15" s="362"/>
+      <c r="D15" s="361">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="12" t="s">
         <v>506</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="C16" s="241"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="362"/>
+      <c r="D16" s="361"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="12" t="s">
         <v>508</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="C17" s="241"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="362"/>
+      <c r="D17" s="361"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -10528,8 +10672,8 @@
       <c r="B18" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="C18" s="201"/>
-      <c r="D18" s="23">
+      <c r="C18" s="363"/>
+      <c r="D18" s="361">
         <v>1</v>
       </c>
     </row>
@@ -10540,8 +10684,8 @@
       <c r="B19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="181"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="361"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -10550,8 +10694,8 @@
       <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="180"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="360"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
@@ -10560,8 +10704,8 @@
       <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="181"/>
-      <c r="D21" s="23">
+      <c r="C21" s="175"/>
+      <c r="D21" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10572,8 +10716,8 @@
       <c r="B22" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="181"/>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="175"/>
+      <c r="D22" s="364" t="s">
         <v>68</v>
       </c>
     </row>
@@ -10584,8 +10728,8 @@
       <c r="B23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="24" t="s">
+      <c r="C23" s="175"/>
+      <c r="D23" s="364" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10596,8 +10740,8 @@
       <c r="B24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="181"/>
-      <c r="D24" s="23">
+      <c r="C24" s="175"/>
+      <c r="D24" s="361">
         <v>0</v>
       </c>
     </row>
@@ -10608,8 +10752,8 @@
       <c r="B25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="181"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="175"/>
+      <c r="D25" s="361" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10620,8 +10764,8 @@
       <c r="B26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="180"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="360"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -10630,8 +10774,8 @@
       <c r="B27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="361"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -10640,8 +10784,8 @@
       <c r="B28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="181"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="361"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
@@ -10650,8 +10794,8 @@
       <c r="B29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="181"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="361"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
@@ -10660,8 +10804,8 @@
       <c r="B30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="361"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -10670,8 +10814,8 @@
       <c r="B31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="181"/>
-      <c r="D31" s="23">
+      <c r="C31" s="175"/>
+      <c r="D31" s="361">
         <v>1</v>
       </c>
     </row>
@@ -10682,8 +10826,8 @@
       <c r="B32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="181"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="361"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
@@ -10692,8 +10836,8 @@
       <c r="B33" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="181"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="361"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
@@ -10702,8 +10846,8 @@
       <c r="B34" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="361"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
@@ -10712,8 +10856,8 @@
       <c r="B35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="360"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
@@ -10722,8 +10866,8 @@
       <c r="B36" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="181"/>
-      <c r="D36" s="23">
+      <c r="C36" s="175"/>
+      <c r="D36" s="361">
         <v>100</v>
       </c>
     </row>
@@ -10734,8 +10878,8 @@
       <c r="B37" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="23">
+      <c r="C37" s="175"/>
+      <c r="D37" s="361">
         <v>65535</v>
       </c>
     </row>
@@ -10746,8 +10890,8 @@
       <c r="B38" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="23">
+      <c r="C38" s="175"/>
+      <c r="D38" s="361">
         <v>10</v>
       </c>
     </row>
@@ -10758,8 +10902,8 @@
       <c r="B39" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="23">
+      <c r="C39" s="175"/>
+      <c r="D39" s="361">
         <v>0.1</v>
       </c>
     </row>
@@ -10770,8 +10914,8 @@
       <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="181"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="361"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -10780,8 +10924,8 @@
       <c r="B41" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="361"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
@@ -10790,8 +10934,8 @@
       <c r="B42" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="361"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
@@ -10800,8 +10944,8 @@
       <c r="B43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="180"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="360"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -10810,8 +10954,8 @@
       <c r="B44" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="181"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="175"/>
+      <c r="D44" s="361"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -10820,8 +10964,8 @@
       <c r="B45" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="181"/>
-      <c r="D45" s="23">
+      <c r="C45" s="175"/>
+      <c r="D45" s="361">
         <v>0.02</v>
       </c>
     </row>
@@ -10832,8 +10976,8 @@
       <c r="B46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="361"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
@@ -10842,8 +10986,8 @@
       <c r="B47" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="181"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="361"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
@@ -10852,8 +10996,8 @@
       <c r="B48" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="181"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="361"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
@@ -10862,8 +11006,8 @@
       <c r="B49" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="181"/>
-      <c r="D49" s="24" t="s">
+      <c r="C49" s="175"/>
+      <c r="D49" s="364" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10874,8 +11018,8 @@
       <c r="B50" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="24">
+      <c r="C50" s="175"/>
+      <c r="D50" s="364">
         <v>0</v>
       </c>
     </row>
@@ -10886,8 +11030,8 @@
       <c r="B51" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="C51" s="244"/>
-      <c r="D51" s="245"/>
+      <c r="C51" s="365"/>
+      <c r="D51" s="232"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
@@ -10896,8 +11040,8 @@
       <c r="B52" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="C52" s="242"/>
-      <c r="D52" s="246">
+      <c r="C52" s="362"/>
+      <c r="D52" s="233">
         <v>0.02</v>
       </c>
     </row>
@@ -10908,8 +11052,8 @@
       <c r="B53" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="C53" s="242"/>
-      <c r="D53" s="246"/>
+      <c r="C53" s="362"/>
+      <c r="D53" s="233"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
@@ -10918,8 +11062,8 @@
       <c r="B54" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="C54" s="242"/>
-      <c r="D54" s="246"/>
+      <c r="C54" s="362"/>
+      <c r="D54" s="233"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
@@ -10928,8 +11072,8 @@
       <c r="B55" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="C55" s="242"/>
-      <c r="D55" s="246"/>
+      <c r="C55" s="362"/>
+      <c r="D55" s="233"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -10938,8 +11082,8 @@
       <c r="B56" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="C56" s="242"/>
-      <c r="D56" s="24" t="s">
+      <c r="C56" s="362"/>
+      <c r="D56" s="364" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10950,16 +11094,16 @@
       <c r="B57" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="180"/>
-      <c r="D57" s="22"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="360"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B58" s="15"/>
-      <c r="C58" s="181"/>
-      <c r="D58" s="23"/>
+      <c r="C58" s="175"/>
+      <c r="D58" s="361"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
@@ -10968,8 +11112,8 @@
       <c r="B59" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="181"/>
-      <c r="D59" s="23"/>
+      <c r="C59" s="175"/>
+      <c r="D59" s="361"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
@@ -10978,8 +11122,8 @@
       <c r="B60" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="181"/>
-      <c r="D60" s="23"/>
+      <c r="C60" s="175"/>
+      <c r="D60" s="361"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
@@ -10988,8 +11132,8 @@
       <c r="B61" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="181"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="361"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10998,8 +11142,8 @@
       <c r="B62" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="181"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="175"/>
+      <c r="D62" s="361"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
@@ -11008,8 +11152,8 @@
       <c r="B63" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="181"/>
-      <c r="D63" s="23"/>
+      <c r="C63" s="175"/>
+      <c r="D63" s="361"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11018,8 +11162,8 @@
       <c r="B64" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="181"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="361"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
@@ -11028,8 +11172,8 @@
       <c r="B65" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="181"/>
-      <c r="D65" s="23"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="361"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
@@ -11038,8 +11182,8 @@
       <c r="B66" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="181"/>
-      <c r="D66" s="23"/>
+      <c r="C66" s="175"/>
+      <c r="D66" s="361"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
@@ -11048,8 +11192,8 @@
       <c r="B67" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="181"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="175"/>
+      <c r="D67" s="361"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
@@ -11058,8 +11202,8 @@
       <c r="B68" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="181"/>
-      <c r="D68" s="23"/>
+      <c r="C68" s="175"/>
+      <c r="D68" s="361"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
@@ -11068,8 +11212,8 @@
       <c r="B69" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="181"/>
-      <c r="D69" s="23">
+      <c r="C69" s="175"/>
+      <c r="D69" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11080,8 +11224,8 @@
       <c r="B70" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="181"/>
-      <c r="D70" s="23">
+      <c r="C70" s="175"/>
+      <c r="D70" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11092,8 +11236,8 @@
       <c r="B71" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="181"/>
-      <c r="D71" s="23">
+      <c r="C71" s="175"/>
+      <c r="D71" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11104,8 +11248,8 @@
       <c r="B72" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="181"/>
-      <c r="D72" s="23">
+      <c r="C72" s="175"/>
+      <c r="D72" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11116,8 +11260,8 @@
       <c r="B73" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="181"/>
-      <c r="D73" s="23">
+      <c r="C73" s="175"/>
+      <c r="D73" s="361">
         <v>1</v>
       </c>
     </row>
@@ -11128,8 +11272,8 @@
       <c r="B74" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="181"/>
-      <c r="D74" s="23">
+      <c r="C74" s="175"/>
+      <c r="D74" s="361">
         <v>0</v>
       </c>
     </row>
@@ -11140,8 +11284,8 @@
       <c r="B75" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="181"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="361"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
@@ -11150,8 +11294,8 @@
       <c r="B76" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="181"/>
-      <c r="D76" s="23"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="361"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
@@ -11160,8 +11304,8 @@
       <c r="B77" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="180"/>
-      <c r="D77" s="179"/>
+      <c r="C77" s="174"/>
+      <c r="D77" s="366"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
@@ -11170,8 +11314,8 @@
       <c r="B78" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="181"/>
-      <c r="D78" s="25">
+      <c r="C78" s="175"/>
+      <c r="D78" s="233">
         <v>0</v>
       </c>
     </row>
@@ -11182,8 +11326,8 @@
       <c r="B79" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="C79" s="180"/>
-      <c r="D79" s="179"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="366"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
@@ -11192,8 +11336,8 @@
       <c r="B80" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C80" s="181"/>
-      <c r="D80" s="25">
+      <c r="C80" s="175"/>
+      <c r="D80" s="233">
         <v>0</v>
       </c>
     </row>
@@ -11201,48 +11345,346 @@
       <c r="A81" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="B81" s="247" t="s">
+      <c r="B81" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="C81" s="180"/>
-      <c r="D81" s="179"/>
+      <c r="C81" s="174"/>
+      <c r="D81" s="366"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="367" t="s">
+        <v>531</v>
+      </c>
+      <c r="B82" s="368" t="s">
+        <v>532</v>
+      </c>
+      <c r="C82" s="368"/>
+      <c r="D82" s="364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="367" t="s">
+        <v>533</v>
+      </c>
+      <c r="B83" s="368" t="s">
+        <v>534</v>
+      </c>
+      <c r="C83" s="368"/>
+      <c r="D83" s="364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="367" t="s">
+        <v>535</v>
+      </c>
+      <c r="B84" s="368" t="s">
+        <v>536</v>
+      </c>
+      <c r="C84" s="368"/>
+      <c r="D84" s="364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="367" t="s">
+        <v>537</v>
+      </c>
+      <c r="B85" s="368" t="s">
+        <v>538</v>
+      </c>
+      <c r="C85" s="368"/>
+      <c r="D85" s="364" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="367" t="s">
+        <v>540</v>
+      </c>
+      <c r="B86" s="368" t="s">
+        <v>541</v>
+      </c>
+      <c r="C86" s="368"/>
+      <c r="D86" s="364">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="367" t="s">
+        <v>542</v>
+      </c>
+      <c r="B87" s="368" t="s">
+        <v>543</v>
+      </c>
+      <c r="C87" s="368"/>
+      <c r="D87" s="364"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="367" t="s">
+        <v>544</v>
+      </c>
+      <c r="B88" s="368" t="s">
+        <v>545</v>
+      </c>
+      <c r="C88" s="368"/>
+      <c r="D88" s="364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="367" t="s">
+        <v>546</v>
+      </c>
+      <c r="B89" s="368" t="s">
+        <v>547</v>
+      </c>
+      <c r="C89" s="368"/>
+      <c r="D89" s="364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="367" t="s">
+        <v>548</v>
+      </c>
+      <c r="B90" s="368" t="s">
+        <v>549</v>
+      </c>
+      <c r="C90" s="368"/>
+      <c r="D90" s="364"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="367" t="s">
+        <v>550</v>
+      </c>
+      <c r="B91" s="368" t="s">
+        <v>551</v>
+      </c>
+      <c r="C91" s="368"/>
+      <c r="D91" s="364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="367" t="s">
+        <v>552</v>
+      </c>
+      <c r="B92" s="368" t="s">
+        <v>553</v>
+      </c>
+      <c r="C92" s="368"/>
+      <c r="D92" s="364"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="367" t="s">
+        <v>554</v>
+      </c>
+      <c r="B93" s="368" t="s">
+        <v>555</v>
+      </c>
+      <c r="C93" s="368"/>
+      <c r="D93" s="364"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="367" t="s">
+        <v>556</v>
+      </c>
+      <c r="B94" s="368" t="s">
+        <v>557</v>
+      </c>
+      <c r="C94" s="368"/>
+      <c r="D94" s="364"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B95" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="C82" s="181"/>
-      <c r="D82" s="25">
+      <c r="C95" s="175"/>
+      <c r="D95" s="233">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C96" s="17"/>
+      <c r="D96" s="232"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="367" t="s">
+        <v>560</v>
+      </c>
+      <c r="B97" s="368" t="s">
+        <v>561</v>
+      </c>
+      <c r="C97" s="368"/>
+      <c r="D97" s="364">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="367" t="s">
+        <v>562</v>
+      </c>
+      <c r="B98" s="368" t="s">
+        <v>563</v>
+      </c>
+      <c r="C98" s="368"/>
+      <c r="D98" s="364"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="367" t="s">
+        <v>564</v>
+      </c>
+      <c r="B99" s="368" t="s">
+        <v>565</v>
+      </c>
+      <c r="C99" s="368"/>
+      <c r="D99" s="364"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="367" t="s">
+        <v>566</v>
+      </c>
+      <c r="B100" s="368" t="s">
+        <v>567</v>
+      </c>
+      <c r="C100" s="368"/>
+      <c r="D100" s="364"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="232"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="367" t="s">
+        <v>570</v>
+      </c>
+      <c r="B102" s="368" t="s">
+        <v>571</v>
+      </c>
+      <c r="C102" s="368"/>
+      <c r="D102" s="364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="367" t="s">
+        <v>572</v>
+      </c>
+      <c r="B103" s="368" t="s">
+        <v>573</v>
+      </c>
+      <c r="C103" s="368"/>
+      <c r="D103" s="364">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="367" t="s">
+        <v>574</v>
+      </c>
+      <c r="B104" s="368" t="s">
+        <v>575</v>
+      </c>
+      <c r="C104" s="368"/>
+      <c r="D104" s="364">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="367" t="s">
+        <v>576</v>
+      </c>
+      <c r="B105" s="368" t="s">
+        <v>577</v>
+      </c>
+      <c r="C105" s="368"/>
+      <c r="D105" s="364">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="367" t="s">
+        <v>578</v>
+      </c>
+      <c r="B106" s="368" t="s">
+        <v>579</v>
+      </c>
+      <c r="C106" s="368"/>
+      <c r="D106" s="364"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="367" t="s">
+        <v>580</v>
+      </c>
+      <c r="B107" s="368" t="s">
+        <v>581</v>
+      </c>
+      <c r="C107" s="368"/>
+      <c r="D107" s="364"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="367" t="s">
+        <v>582</v>
+      </c>
+      <c r="B108" s="368" t="s">
+        <v>583</v>
+      </c>
+      <c r="C108" s="368"/>
+      <c r="D108" s="364"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="367" t="s">
+        <v>584</v>
+      </c>
+      <c r="B109" s="368" t="s">
+        <v>585</v>
+      </c>
+      <c r="C109" s="368"/>
+      <c r="D109" s="364" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B110" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C83" s="180"/>
-      <c r="D83" s="179"/>
-    </row>
-    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26" t="s">
+      <c r="C110" s="174"/>
+      <c r="D110" s="366"/>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B111" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="182"/>
-      <c r="D84" s="28">
+      <c r="C111" s="176"/>
+      <c r="D111" s="369">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MPcFcnLtNrTpyyzFl6iVyR1+u/VP8LUmSqngYMfCdurrquSstZ7USt5mIsdj+z4xO0Vl+QoNV3Dw+yNLcAS9yw==" saltValue="/H8pHgxgdieXrO4Wy/on7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -11295,19 +11737,19 @@
       <c r="O1" s="350"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="346" t="s">
@@ -11323,116 +11765,116 @@
       <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <v>3</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <v>4</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="N8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <v>5</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <v>6</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="42">
+      <c r="B11" s="37">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -11442,10 +11884,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="43"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="42">
+      <c r="B12" s="37">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -11455,10 +11897,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="43"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="42">
+      <c r="B13" s="37">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -11468,10 +11910,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="43"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="42">
+      <c r="B14" s="37">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -11481,10 +11923,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="43"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="42">
+      <c r="B15" s="37">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -11494,10 +11936,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="43"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="44">
+      <c r="B16" s="39">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -11528,173 +11970,173 @@
       <c r="N19" s="348"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="36"/>
-      <c r="C20" s="45">
+      <c r="B20" s="31"/>
+      <c r="C20" s="40">
         <v>1</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="40">
         <v>2</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="40">
         <v>3</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="40">
         <v>4</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="40">
         <v>5</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="40">
         <v>6</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="41">
         <v>7</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="41">
         <v>8</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="41">
         <v>9</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="41">
         <v>10</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="41">
         <v>11</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="42">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="43"/>
+      <c r="N21" s="38"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="43"/>
+      <c r="N22" s="38"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="43"/>
+      <c r="N23" s="38"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="43"/>
+      <c r="N24" s="38"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="43"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="43"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="43"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -11750,15 +12192,15 @@
       <c r="S1" s="355"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="346" t="s">
@@ -11781,68 +12223,68 @@
       <c r="P3" s="352"/>
       <c r="Q3" s="352"/>
       <c r="R3" s="353"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="36"/>
-      <c r="C4" s="57">
+      <c r="B4" s="31"/>
+      <c r="C4" s="52">
         <v>1</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="40">
         <v>2</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="40">
         <v>3</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="40">
         <v>4</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="40">
         <v>5</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="40">
         <v>6</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="53">
         <v>7</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="42">
         <v>8</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="33" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="43"/>
-      <c r="L5" s="39">
+      <c r="I5" s="55"/>
+      <c r="J5" s="38"/>
+      <c r="L5" s="34">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -11850,21 +12292,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="43"/>
+      <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="43"/>
-      <c r="L6" s="39">
+      <c r="I6" s="55"/>
+      <c r="J6" s="38"/>
+      <c r="L6" s="34">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -11872,21 +12314,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="R6" s="38"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="43"/>
-      <c r="L7" s="39">
+      <c r="I7" s="55"/>
+      <c r="J7" s="38"/>
+      <c r="L7" s="34">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -11894,21 +12336,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="43"/>
-      <c r="L8" s="39">
+      <c r="I8" s="55"/>
+      <c r="J8" s="38"/>
+      <c r="L8" s="34">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -11916,21 +12358,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="43"/>
-      <c r="L9" s="39">
+      <c r="I9" s="55"/>
+      <c r="J9" s="38"/>
+      <c r="L9" s="34">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11938,21 +12380,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="62"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="39">
+      <c r="L10" s="34">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -11960,10 +12402,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="R10" s="38"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="42">
+      <c r="L11" s="37">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -11971,10 +12413,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="44">
+      <c r="L12" s="39">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -12030,14 +12472,14 @@
       <c r="O1" s="358"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="51"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="346" t="s">
@@ -12056,45 +12498,45 @@
       <c r="L3" s="352"/>
       <c r="M3" s="352"/>
       <c r="N3" s="353"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="36"/>
-      <c r="C4" s="45">
+      <c r="B4" s="31"/>
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="40">
         <v>2</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="40">
         <v>3</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="40">
         <v>4</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="40">
         <v>5</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="47">
         <v>6</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="33" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>224</v>
       </c>
       <c r="C5" s="3"/>
@@ -12102,17 +12544,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="43"/>
-      <c r="J5" s="39">
+      <c r="H5" s="38"/>
+      <c r="J5" s="34">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="43"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>225</v>
       </c>
       <c r="C6" s="3"/>
@@ -12120,17 +12562,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="43"/>
-      <c r="J6" s="39">
+      <c r="H6" s="38"/>
+      <c r="J6" s="34">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="43"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="3"/>
@@ -12138,17 +12580,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="43"/>
-      <c r="J7" s="39">
+      <c r="H7" s="38"/>
+      <c r="J7" s="34">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="43"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="44" t="s">
         <v>227</v>
       </c>
       <c r="C8" s="6"/>
@@ -12157,27 +12599,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="39">
+      <c r="J8" s="34">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="43"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="53"/>
-      <c r="J9" s="39">
+      <c r="H9" s="48"/>
+      <c r="J9" s="34">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="43"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="54"/>
-      <c r="J10" s="55">
+      <c r="H10" s="49"/>
+      <c r="J10" s="50">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -12186,19 +12628,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="56"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="53"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="53"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="53"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="53"/>
+      <c r="H15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
